--- a/Irrigation Dates Depths.xlsx
+++ b/Irrigation Dates Depths.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\seosu\Desktop\Guayule Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0426B781-4811-4DEA-9A5A-05CE3E90978F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B033D2CF-9BD1-4C65-9EFF-4363B9041D51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="68">
   <si>
     <t>Date</t>
   </si>
@@ -233,6 +233,12 @@
   </si>
   <si>
     <t>29/9/2018</t>
+  </si>
+  <si>
+    <t>D50</t>
+  </si>
+  <si>
+    <t>D150</t>
   </si>
 </sst>
 </file>
@@ -279,7 +285,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -293,6 +299,13 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -573,593 +586,1156 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C71"/>
+  <dimension ref="A1:D72"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="C62" sqref="C62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="16" style="4" customWidth="1"/>
     <col min="2" max="2" width="16" style="1" customWidth="1"/>
-    <col min="3" max="3" width="16" style="4" customWidth="1"/>
+    <col min="3" max="3" width="16" style="5" customWidth="1"/>
+    <col min="4" max="4" width="8.88671875" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3"/>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C1" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C2" s="5">
+        <f>B2*0.5</f>
+        <v>5.5</v>
+      </c>
+      <c r="D2" s="7">
+        <f>B2*1.5</f>
+        <v>16.5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C3" s="5">
+        <f t="shared" ref="C3:C66" si="0">B3*0.5</f>
+        <v>5.5</v>
+      </c>
+      <c r="D3" s="7">
+        <f t="shared" ref="D3:D66" si="1">B3*1.5</f>
+        <v>16.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>4</v>
       </c>
       <c r="B4" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C4" s="5">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="D4" s="7">
+        <f t="shared" si="1"/>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>5</v>
       </c>
       <c r="B5" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C5" s="5">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="D5" s="7">
+        <f t="shared" si="1"/>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>6</v>
       </c>
       <c r="B6" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C6" s="5">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="D6" s="7">
+        <f t="shared" si="1"/>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
         <v>7</v>
       </c>
       <c r="B7" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C7" s="5">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="D7" s="7">
+        <f t="shared" si="1"/>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
         <v>8</v>
       </c>
       <c r="B8" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C8" s="5">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="D8" s="7">
+        <f t="shared" si="1"/>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
         <v>9</v>
       </c>
       <c r="B9" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C9" s="5">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="D9" s="7">
+        <f t="shared" si="1"/>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
         <v>10</v>
       </c>
       <c r="B10" s="1">
         <v>10.8</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C10" s="5">
+        <f t="shared" si="0"/>
+        <v>5.4</v>
+      </c>
+      <c r="D10" s="7">
+        <f t="shared" si="1"/>
+        <v>16.200000000000003</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
         <v>11</v>
       </c>
       <c r="B11" s="1">
         <v>18</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C11" s="5">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="D11" s="7">
+        <f t="shared" si="1"/>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
         <v>12</v>
       </c>
       <c r="B12" s="1">
         <v>18</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C12" s="5">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="D12" s="7">
+        <f t="shared" si="1"/>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
         <v>13</v>
       </c>
       <c r="B13" s="1">
         <v>18</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C13" s="5">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="D13" s="7">
+        <f t="shared" si="1"/>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
         <v>14</v>
       </c>
       <c r="B14" s="1">
         <v>18</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C14" s="5">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="D14" s="7">
+        <f t="shared" si="1"/>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
         <v>15</v>
       </c>
       <c r="B15" s="1">
         <v>18</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C15" s="5">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="D15" s="7">
+        <f t="shared" si="1"/>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
         <v>16</v>
       </c>
       <c r="B16" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C16" s="5">
+        <f t="shared" si="0"/>
+        <v>5.5</v>
+      </c>
+      <c r="D16" s="7">
+        <f t="shared" si="1"/>
+        <v>16.5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
         <v>17</v>
       </c>
       <c r="B17" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C17" s="5">
+        <f t="shared" si="0"/>
+        <v>5.5</v>
+      </c>
+      <c r="D17" s="7">
+        <f t="shared" si="1"/>
+        <v>16.5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
         <v>18</v>
       </c>
       <c r="B18" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C18" s="5">
+        <f t="shared" si="0"/>
+        <v>5.5</v>
+      </c>
+      <c r="D18" s="7">
+        <f t="shared" si="1"/>
+        <v>16.5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="4" t="s">
         <v>19</v>
       </c>
       <c r="B19" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C19" s="5">
+        <f t="shared" si="0"/>
+        <v>5.5</v>
+      </c>
+      <c r="D19" s="7">
+        <f t="shared" si="1"/>
+        <v>16.5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="4" t="s">
         <v>20</v>
       </c>
       <c r="B20" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C20" s="5">
+        <f t="shared" si="0"/>
+        <v>5.5</v>
+      </c>
+      <c r="D20" s="7">
+        <f t="shared" si="1"/>
+        <v>16.5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="4" t="s">
         <v>21</v>
       </c>
       <c r="B21" s="1">
         <v>27.1</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C21" s="5">
+        <f t="shared" si="0"/>
+        <v>13.55</v>
+      </c>
+      <c r="D21" s="7">
+        <f t="shared" si="1"/>
+        <v>40.650000000000006</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="4" t="s">
         <v>22</v>
       </c>
       <c r="B22" s="1">
         <v>28.8</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C22" s="5">
+        <f t="shared" si="0"/>
+        <v>14.4</v>
+      </c>
+      <c r="D22" s="7">
+        <f t="shared" si="1"/>
+        <v>43.2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" s="4" t="s">
         <v>23</v>
       </c>
       <c r="B23" s="1">
         <v>11.2</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C23" s="5">
+        <f t="shared" si="0"/>
+        <v>5.6</v>
+      </c>
+      <c r="D23" s="7">
+        <f t="shared" si="1"/>
+        <v>16.799999999999997</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" s="4" t="s">
         <v>24</v>
       </c>
       <c r="B24" s="1">
         <v>11.2</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C24" s="5">
+        <f t="shared" si="0"/>
+        <v>5.6</v>
+      </c>
+      <c r="D24" s="7">
+        <f t="shared" si="1"/>
+        <v>16.799999999999997</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" s="4" t="s">
         <v>25</v>
       </c>
       <c r="B25" s="1">
         <v>11.2</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C25" s="5">
+        <f t="shared" si="0"/>
+        <v>5.6</v>
+      </c>
+      <c r="D25" s="7">
+        <f t="shared" si="1"/>
+        <v>16.799999999999997</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" s="4" t="s">
         <v>26</v>
       </c>
       <c r="B26" s="1">
         <v>14.2</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C26" s="5">
+        <f t="shared" si="0"/>
+        <v>7.1</v>
+      </c>
+      <c r="D26" s="7">
+        <f t="shared" si="1"/>
+        <v>21.299999999999997</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" s="4" t="s">
         <v>27</v>
       </c>
       <c r="B27" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C27" s="5">
+        <f t="shared" si="0"/>
+        <v>5.5</v>
+      </c>
+      <c r="D27" s="7">
+        <f t="shared" si="1"/>
+        <v>16.5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" s="4" t="s">
         <v>28</v>
       </c>
       <c r="B28" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C28" s="5">
+        <f t="shared" si="0"/>
+        <v>5.5</v>
+      </c>
+      <c r="D28" s="7">
+        <f t="shared" si="1"/>
+        <v>16.5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" s="4" t="s">
         <v>29</v>
       </c>
       <c r="B29" s="1">
         <v>23.7</v>
       </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C29" s="5">
+        <f t="shared" si="0"/>
+        <v>11.85</v>
+      </c>
+      <c r="D29" s="7">
+        <f t="shared" si="1"/>
+        <v>35.549999999999997</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" s="4" t="s">
         <v>30</v>
       </c>
       <c r="B30" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C30" s="5">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="D30" s="7">
+        <f t="shared" si="1"/>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" s="4" t="s">
         <v>31</v>
       </c>
       <c r="B31" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C31" s="5">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="D31" s="7">
+        <f t="shared" si="1"/>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" s="4" t="s">
         <v>32</v>
       </c>
       <c r="B32" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C32" s="5">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="D32" s="7">
+        <f t="shared" si="1"/>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" s="2">
         <v>43351</v>
       </c>
       <c r="B33" s="1">
         <v>16</v>
       </c>
-      <c r="C33" s="2"/>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C33" s="5">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="D33" s="7">
+        <f t="shared" si="1"/>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" s="2">
         <v>43442</v>
       </c>
       <c r="B34" s="1">
         <v>32</v>
       </c>
-      <c r="C34" s="2"/>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C34" s="5">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="D34" s="7">
+        <f t="shared" si="1"/>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" s="4" t="s">
         <v>33</v>
       </c>
       <c r="B35" s="1">
         <v>8.1999999999999993</v>
       </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C35" s="5">
+        <f t="shared" si="0"/>
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="D35" s="7">
+        <f t="shared" si="1"/>
+        <v>12.299999999999999</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" s="4" t="s">
         <v>34</v>
       </c>
       <c r="B36" s="1">
         <v>10.7</v>
       </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C36" s="5">
+        <f t="shared" si="0"/>
+        <v>5.35</v>
+      </c>
+      <c r="D36" s="7">
+        <f t="shared" si="1"/>
+        <v>16.049999999999997</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" s="4" t="s">
         <v>55</v>
       </c>
       <c r="B37" s="1">
         <v>10.7</v>
       </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C37" s="5">
+        <f t="shared" si="0"/>
+        <v>5.35</v>
+      </c>
+      <c r="D37" s="7">
+        <f t="shared" si="1"/>
+        <v>16.049999999999997</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" s="4" t="s">
         <v>56</v>
       </c>
       <c r="B38" s="1">
         <v>12.2</v>
       </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C38" s="5">
+        <f t="shared" si="0"/>
+        <v>6.1</v>
+      </c>
+      <c r="D38" s="7">
+        <f t="shared" si="1"/>
+        <v>18.299999999999997</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" s="4" t="s">
         <v>35</v>
       </c>
       <c r="B39" s="1">
         <v>12.2</v>
       </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C39" s="5">
+        <f t="shared" si="0"/>
+        <v>6.1</v>
+      </c>
+      <c r="D39" s="7">
+        <f t="shared" si="1"/>
+        <v>18.299999999999997</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" s="4" t="s">
         <v>36</v>
       </c>
       <c r="B40" s="1">
         <v>12.2</v>
       </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C40" s="5">
+        <f t="shared" si="0"/>
+        <v>6.1</v>
+      </c>
+      <c r="D40" s="7">
+        <f t="shared" si="1"/>
+        <v>18.299999999999997</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" s="4" t="s">
         <v>57</v>
       </c>
       <c r="B41" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C41" s="5">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="D41" s="7">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" s="4" t="s">
         <v>58</v>
       </c>
       <c r="B42" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C42" s="5">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="D42" s="7">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" s="4" t="s">
         <v>37</v>
       </c>
       <c r="B43" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C43" s="5">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="D43" s="7">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" s="4" t="s">
         <v>38</v>
       </c>
       <c r="B44" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C44" s="5">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="D44" s="7">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45" s="2">
         <v>43109</v>
       </c>
       <c r="B45" s="1">
         <v>12</v>
       </c>
-      <c r="C45" s="2"/>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C45" s="5">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="D45" s="7">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" s="2">
         <v>43140</v>
       </c>
       <c r="B46" s="1">
         <v>12</v>
       </c>
-      <c r="C46" s="2"/>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C46" s="5">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="D46" s="7">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47" s="4" t="s">
         <v>39</v>
       </c>
       <c r="B47" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C47" s="5">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="D47" s="7">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48" s="4" t="s">
         <v>40</v>
       </c>
       <c r="B48" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C48" s="5">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="D48" s="7">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49" s="2">
         <v>43413</v>
       </c>
       <c r="B49" s="1">
         <v>12</v>
       </c>
-      <c r="C49" s="2"/>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C49" s="5">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="D49" s="7">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50" s="2">
         <v>43443</v>
       </c>
       <c r="B50" s="1">
         <v>18</v>
       </c>
-      <c r="C50" s="2"/>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C50" s="5">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="D50" s="7">
+        <f t="shared" si="1"/>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51" s="4" t="s">
         <v>59</v>
       </c>
       <c r="B51" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C51" s="5">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="D51" s="7">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52" s="4" t="s">
         <v>41</v>
       </c>
       <c r="B52" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C52" s="5">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="D52" s="7">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53" s="4" t="s">
         <v>42</v>
       </c>
       <c r="B53" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C53" s="5">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="D53" s="7">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54" s="4" t="s">
         <v>60</v>
       </c>
       <c r="B54" s="1">
         <v>24</v>
       </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C54" s="5">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="D54" s="7">
+        <f t="shared" si="1"/>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55" s="4" t="s">
         <v>61</v>
       </c>
       <c r="B55" s="1">
         <v>24</v>
       </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C55" s="5">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="D55" s="7">
+        <f t="shared" si="1"/>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56" s="4" t="s">
         <v>62</v>
       </c>
       <c r="B56" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C56" s="5">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="D56" s="7">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57" s="4" t="s">
         <v>43</v>
       </c>
       <c r="B57" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C57" s="5">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="D57" s="7">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58" s="4" t="s">
         <v>44</v>
       </c>
       <c r="B58" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C58" s="5">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="D58" s="7">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59" s="4" t="s">
         <v>63</v>
       </c>
       <c r="B59" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C59" s="5">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="D59" s="7">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A60" s="4" t="s">
         <v>64</v>
       </c>
       <c r="B60" s="1">
         <v>24</v>
       </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C60" s="5">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="D60" s="7">
+        <f t="shared" si="1"/>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A61" s="4" t="s">
         <v>65</v>
       </c>
       <c r="B61" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C61" s="5">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="D61" s="7">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A62" s="4" t="s">
         <v>45</v>
       </c>
       <c r="B62" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C62" s="5">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="D62" s="7">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A63" s="4" t="s">
         <v>46</v>
       </c>
       <c r="B63" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C63" s="5">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="D63" s="7">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A64" s="4" t="s">
         <v>54</v>
       </c>
       <c r="B64" s="1">
         <v>31</v>
       </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C64" s="5">
+        <f t="shared" si="0"/>
+        <v>15.5</v>
+      </c>
+      <c r="D64" s="7">
+        <f t="shared" si="1"/>
+        <v>46.5</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A65" s="4" t="s">
         <v>53</v>
       </c>
       <c r="B65" s="1">
         <v>31</v>
       </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C65" s="5">
+        <f t="shared" si="0"/>
+        <v>15.5</v>
+      </c>
+      <c r="D65" s="7">
+        <f t="shared" si="1"/>
+        <v>46.5</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A66" s="4" t="s">
         <v>52</v>
       </c>
       <c r="B66" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C66" s="5">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="D66" s="7">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A67" s="4" t="s">
         <v>51</v>
       </c>
       <c r="B67" s="1">
         <v>24</v>
       </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C67" s="5">
+        <f t="shared" ref="C67:C72" si="2">B67*0.5</f>
+        <v>12</v>
+      </c>
+      <c r="D67" s="7">
+        <f t="shared" ref="D67:D71" si="3">B67*1.5</f>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A68" s="4" t="s">
         <v>50</v>
       </c>
       <c r="B68" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C68" s="5">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="D68" s="7">
+        <f t="shared" si="3"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A69" s="4" t="s">
         <v>49</v>
       </c>
       <c r="B69" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C69" s="5">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="D69" s="7">
+        <f t="shared" si="3"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A70" s="4" t="s">
         <v>48</v>
       </c>
       <c r="B70" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C70" s="5">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="D70" s="7">
+        <f t="shared" si="3"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A71" s="4" t="s">
         <v>47</v>
       </c>
       <c r="B71" s="1">
         <v>12</v>
       </c>
+      <c r="C71" s="5">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="D71" s="7">
+        <f t="shared" si="3"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B72" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/Irrigation Dates Depths.xlsx
+++ b/Irrigation Dates Depths.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\seosu\Desktop\Guayule Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B033D2CF-9BD1-4C65-9EFF-4363B9041D51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFF605F3-535B-40C8-8F0B-EAD02F32EF87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="98">
   <si>
     <t>Date</t>
   </si>
@@ -239,12 +239,105 @@
   </si>
   <si>
     <t>D150</t>
+  </si>
+  <si>
+    <t>16/2/2019</t>
+  </si>
+  <si>
+    <t>17/2/2019</t>
+  </si>
+  <si>
+    <t>21/2/2019</t>
+  </si>
+  <si>
+    <t>19/3/2019</t>
+  </si>
+  <si>
+    <t>20/3/2019</t>
+  </si>
+  <si>
+    <t>21/3/2019</t>
+  </si>
+  <si>
+    <t>22/3/2019</t>
+  </si>
+  <si>
+    <t>23/3/2019</t>
+  </si>
+  <si>
+    <t>27/3/2019</t>
+  </si>
+  <si>
+    <t>28/3/2019</t>
+  </si>
+  <si>
+    <t>13/4/2019</t>
+  </si>
+  <si>
+    <t>14/4/2019</t>
+  </si>
+  <si>
+    <t>15/4/2019</t>
+  </si>
+  <si>
+    <t>18/4/2019</t>
+  </si>
+  <si>
+    <t>19/4/2019</t>
+  </si>
+  <si>
+    <t>20/4/2019</t>
+  </si>
+  <si>
+    <t>22/4/2019</t>
+  </si>
+  <si>
+    <t>23/4/2019</t>
+  </si>
+  <si>
+    <t>24/4/2019</t>
+  </si>
+  <si>
+    <t>25/4/2019</t>
+  </si>
+  <si>
+    <t>28/4/2019</t>
+  </si>
+  <si>
+    <t>29/4/2019</t>
+  </si>
+  <si>
+    <t>30/4/2019</t>
+  </si>
+  <si>
+    <t>14/5/2019</t>
+  </si>
+  <si>
+    <t>15/5/2019</t>
+  </si>
+  <si>
+    <t>16/5/2019</t>
+  </si>
+  <si>
+    <t>17/5/2019</t>
+  </si>
+  <si>
+    <t>18/5/2019</t>
+  </si>
+  <si>
+    <t>19/5/2019</t>
+  </si>
+  <si>
+    <t>21/5/2019</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="169" formatCode="dd/mm/yyyy;@"/>
+  </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -285,7 +378,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -299,13 +392,18 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -586,270 +684,272 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D72"/>
+  <dimension ref="A1:E174"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="C62" sqref="C62"/>
+    <sheetView tabSelected="1" topLeftCell="A165" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="E112" sqref="E112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="16" style="4" customWidth="1"/>
     <col min="2" max="2" width="16" style="1" customWidth="1"/>
-    <col min="3" max="3" width="16" style="5" customWidth="1"/>
-    <col min="4" max="4" width="8.88671875" style="7"/>
+    <col min="3" max="3" width="16" style="6" customWidth="1"/>
+    <col min="4" max="4" width="13.33203125" style="8" customWidth="1"/>
+    <col min="5" max="5" width="16" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="8" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E1" s="3"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="1">
         <v>11</v>
       </c>
-      <c r="C2" s="5">
+      <c r="C2" s="6">
         <f>B2*0.5</f>
         <v>5.5</v>
       </c>
-      <c r="D2" s="7">
+      <c r="D2" s="8">
         <f>B2*1.5</f>
         <v>16.5</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="1">
         <v>11</v>
       </c>
-      <c r="C3" s="5">
+      <c r="C3" s="6">
         <f t="shared" ref="C3:C66" si="0">B3*0.5</f>
         <v>5.5</v>
       </c>
-      <c r="D3" s="7">
+      <c r="D3" s="8">
         <f t="shared" ref="D3:D66" si="1">B3*1.5</f>
         <v>16.5</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>4</v>
       </c>
       <c r="B4" s="1">
         <v>16</v>
       </c>
-      <c r="C4" s="5">
+      <c r="C4" s="6">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="D4" s="7">
+      <c r="D4" s="8">
         <f t="shared" si="1"/>
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>5</v>
       </c>
       <c r="B5" s="1">
         <v>16</v>
       </c>
-      <c r="C5" s="5">
+      <c r="C5" s="6">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="D5" s="7">
+      <c r="D5" s="8">
         <f t="shared" si="1"/>
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>6</v>
       </c>
       <c r="B6" s="1">
         <v>16</v>
       </c>
-      <c r="C6" s="5">
+      <c r="C6" s="6">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="D6" s="7">
+      <c r="D6" s="8">
         <f t="shared" si="1"/>
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
         <v>7</v>
       </c>
       <c r="B7" s="1">
         <v>16</v>
       </c>
-      <c r="C7" s="5">
+      <c r="C7" s="6">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="D7" s="7">
+      <c r="D7" s="8">
         <f t="shared" si="1"/>
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
         <v>8</v>
       </c>
       <c r="B8" s="1">
         <v>16</v>
       </c>
-      <c r="C8" s="5">
+      <c r="C8" s="6">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="D8" s="7">
+      <c r="D8" s="8">
         <f t="shared" si="1"/>
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
         <v>9</v>
       </c>
       <c r="B9" s="1">
         <v>16</v>
       </c>
-      <c r="C9" s="5">
+      <c r="C9" s="6">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="D9" s="7">
+      <c r="D9" s="8">
         <f t="shared" si="1"/>
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
         <v>10</v>
       </c>
       <c r="B10" s="1">
         <v>10.8</v>
       </c>
-      <c r="C10" s="5">
+      <c r="C10" s="6">
         <f t="shared" si="0"/>
         <v>5.4</v>
       </c>
-      <c r="D10" s="7">
+      <c r="D10" s="8">
         <f t="shared" si="1"/>
         <v>16.200000000000003</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
         <v>11</v>
       </c>
       <c r="B11" s="1">
         <v>18</v>
       </c>
-      <c r="C11" s="5">
+      <c r="C11" s="6">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="D11" s="7">
+      <c r="D11" s="8">
         <f t="shared" si="1"/>
         <v>27</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
         <v>12</v>
       </c>
       <c r="B12" s="1">
         <v>18</v>
       </c>
-      <c r="C12" s="5">
+      <c r="C12" s="6">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="D12" s="7">
+      <c r="D12" s="8">
         <f t="shared" si="1"/>
         <v>27</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
         <v>13</v>
       </c>
       <c r="B13" s="1">
         <v>18</v>
       </c>
-      <c r="C13" s="5">
+      <c r="C13" s="6">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="D13" s="7">
+      <c r="D13" s="8">
         <f t="shared" si="1"/>
         <v>27</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
         <v>14</v>
       </c>
       <c r="B14" s="1">
         <v>18</v>
       </c>
-      <c r="C14" s="5">
+      <c r="C14" s="6">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="D14" s="7">
+      <c r="D14" s="8">
         <f t="shared" si="1"/>
         <v>27</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
         <v>15</v>
       </c>
       <c r="B15" s="1">
         <v>18</v>
       </c>
-      <c r="C15" s="5">
+      <c r="C15" s="6">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="D15" s="7">
+      <c r="D15" s="8">
         <f t="shared" si="1"/>
         <v>27</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
         <v>16</v>
       </c>
       <c r="B16" s="1">
         <v>11</v>
       </c>
-      <c r="C16" s="5">
+      <c r="C16" s="6">
         <f t="shared" si="0"/>
         <v>5.5</v>
       </c>
-      <c r="D16" s="7">
+      <c r="D16" s="8">
         <f t="shared" si="1"/>
         <v>16.5</v>
       </c>
@@ -861,11 +961,11 @@
       <c r="B17" s="1">
         <v>11</v>
       </c>
-      <c r="C17" s="5">
+      <c r="C17" s="6">
         <f t="shared" si="0"/>
         <v>5.5</v>
       </c>
-      <c r="D17" s="7">
+      <c r="D17" s="8">
         <f t="shared" si="1"/>
         <v>16.5</v>
       </c>
@@ -877,11 +977,11 @@
       <c r="B18" s="1">
         <v>11</v>
       </c>
-      <c r="C18" s="5">
+      <c r="C18" s="6">
         <f t="shared" si="0"/>
         <v>5.5</v>
       </c>
-      <c r="D18" s="7">
+      <c r="D18" s="8">
         <f t="shared" si="1"/>
         <v>16.5</v>
       </c>
@@ -893,11 +993,11 @@
       <c r="B19" s="1">
         <v>11</v>
       </c>
-      <c r="C19" s="5">
+      <c r="C19" s="6">
         <f t="shared" si="0"/>
         <v>5.5</v>
       </c>
-      <c r="D19" s="7">
+      <c r="D19" s="8">
         <f t="shared" si="1"/>
         <v>16.5</v>
       </c>
@@ -909,11 +1009,11 @@
       <c r="B20" s="1">
         <v>11</v>
       </c>
-      <c r="C20" s="5">
+      <c r="C20" s="6">
         <f t="shared" si="0"/>
         <v>5.5</v>
       </c>
-      <c r="D20" s="7">
+      <c r="D20" s="8">
         <f t="shared" si="1"/>
         <v>16.5</v>
       </c>
@@ -925,11 +1025,11 @@
       <c r="B21" s="1">
         <v>27.1</v>
       </c>
-      <c r="C21" s="5">
+      <c r="C21" s="6">
         <f t="shared" si="0"/>
         <v>13.55</v>
       </c>
-      <c r="D21" s="7">
+      <c r="D21" s="8">
         <f t="shared" si="1"/>
         <v>40.650000000000006</v>
       </c>
@@ -941,11 +1041,11 @@
       <c r="B22" s="1">
         <v>28.8</v>
       </c>
-      <c r="C22" s="5">
+      <c r="C22" s="6">
         <f t="shared" si="0"/>
         <v>14.4</v>
       </c>
-      <c r="D22" s="7">
+      <c r="D22" s="8">
         <f t="shared" si="1"/>
         <v>43.2</v>
       </c>
@@ -957,11 +1057,11 @@
       <c r="B23" s="1">
         <v>11.2</v>
       </c>
-      <c r="C23" s="5">
+      <c r="C23" s="6">
         <f t="shared" si="0"/>
         <v>5.6</v>
       </c>
-      <c r="D23" s="7">
+      <c r="D23" s="8">
         <f t="shared" si="1"/>
         <v>16.799999999999997</v>
       </c>
@@ -973,11 +1073,11 @@
       <c r="B24" s="1">
         <v>11.2</v>
       </c>
-      <c r="C24" s="5">
+      <c r="C24" s="6">
         <f t="shared" si="0"/>
         <v>5.6</v>
       </c>
-      <c r="D24" s="7">
+      <c r="D24" s="8">
         <f t="shared" si="1"/>
         <v>16.799999999999997</v>
       </c>
@@ -989,11 +1089,11 @@
       <c r="B25" s="1">
         <v>11.2</v>
       </c>
-      <c r="C25" s="5">
+      <c r="C25" s="6">
         <f t="shared" si="0"/>
         <v>5.6</v>
       </c>
-      <c r="D25" s="7">
+      <c r="D25" s="8">
         <f t="shared" si="1"/>
         <v>16.799999999999997</v>
       </c>
@@ -1005,11 +1105,11 @@
       <c r="B26" s="1">
         <v>14.2</v>
       </c>
-      <c r="C26" s="5">
+      <c r="C26" s="6">
         <f t="shared" si="0"/>
         <v>7.1</v>
       </c>
-      <c r="D26" s="7">
+      <c r="D26" s="8">
         <f t="shared" si="1"/>
         <v>21.299999999999997</v>
       </c>
@@ -1021,11 +1121,11 @@
       <c r="B27" s="1">
         <v>11</v>
       </c>
-      <c r="C27" s="5">
+      <c r="C27" s="6">
         <f t="shared" si="0"/>
         <v>5.5</v>
       </c>
-      <c r="D27" s="7">
+      <c r="D27" s="8">
         <f t="shared" si="1"/>
         <v>16.5</v>
       </c>
@@ -1037,11 +1137,11 @@
       <c r="B28" s="1">
         <v>11</v>
       </c>
-      <c r="C28" s="5">
+      <c r="C28" s="6">
         <f t="shared" si="0"/>
         <v>5.5</v>
       </c>
-      <c r="D28" s="7">
+      <c r="D28" s="8">
         <f t="shared" si="1"/>
         <v>16.5</v>
       </c>
@@ -1053,11 +1153,11 @@
       <c r="B29" s="1">
         <v>23.7</v>
       </c>
-      <c r="C29" s="5">
+      <c r="C29" s="6">
         <f t="shared" si="0"/>
         <v>11.85</v>
       </c>
-      <c r="D29" s="7">
+      <c r="D29" s="8">
         <f t="shared" si="1"/>
         <v>35.549999999999997</v>
       </c>
@@ -1069,11 +1169,11 @@
       <c r="B30" s="1">
         <v>16</v>
       </c>
-      <c r="C30" s="5">
+      <c r="C30" s="6">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="D30" s="7">
+      <c r="D30" s="8">
         <f t="shared" si="1"/>
         <v>24</v>
       </c>
@@ -1085,11 +1185,11 @@
       <c r="B31" s="1">
         <v>16</v>
       </c>
-      <c r="C31" s="5">
+      <c r="C31" s="6">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="D31" s="7">
+      <c r="D31" s="8">
         <f t="shared" si="1"/>
         <v>24</v>
       </c>
@@ -1101,11 +1201,11 @@
       <c r="B32" s="1">
         <v>16</v>
       </c>
-      <c r="C32" s="5">
+      <c r="C32" s="6">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="D32" s="7">
+      <c r="D32" s="8">
         <f t="shared" si="1"/>
         <v>24</v>
       </c>
@@ -1117,11 +1217,11 @@
       <c r="B33" s="1">
         <v>16</v>
       </c>
-      <c r="C33" s="5">
+      <c r="C33" s="6">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="D33" s="7">
+      <c r="D33" s="8">
         <f t="shared" si="1"/>
         <v>24</v>
       </c>
@@ -1133,11 +1233,11 @@
       <c r="B34" s="1">
         <v>32</v>
       </c>
-      <c r="C34" s="5">
+      <c r="C34" s="6">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="D34" s="7">
+      <c r="D34" s="8">
         <f t="shared" si="1"/>
         <v>48</v>
       </c>
@@ -1149,11 +1249,11 @@
       <c r="B35" s="1">
         <v>8.1999999999999993</v>
       </c>
-      <c r="C35" s="5">
+      <c r="C35" s="6">
         <f t="shared" si="0"/>
         <v>4.0999999999999996</v>
       </c>
-      <c r="D35" s="7">
+      <c r="D35" s="8">
         <f t="shared" si="1"/>
         <v>12.299999999999999</v>
       </c>
@@ -1165,11 +1265,11 @@
       <c r="B36" s="1">
         <v>10.7</v>
       </c>
-      <c r="C36" s="5">
+      <c r="C36" s="6">
         <f t="shared" si="0"/>
         <v>5.35</v>
       </c>
-      <c r="D36" s="7">
+      <c r="D36" s="8">
         <f t="shared" si="1"/>
         <v>16.049999999999997</v>
       </c>
@@ -1181,11 +1281,11 @@
       <c r="B37" s="1">
         <v>10.7</v>
       </c>
-      <c r="C37" s="5">
+      <c r="C37" s="6">
         <f t="shared" si="0"/>
         <v>5.35</v>
       </c>
-      <c r="D37" s="7">
+      <c r="D37" s="8">
         <f t="shared" si="1"/>
         <v>16.049999999999997</v>
       </c>
@@ -1197,11 +1297,11 @@
       <c r="B38" s="1">
         <v>12.2</v>
       </c>
-      <c r="C38" s="5">
+      <c r="C38" s="6">
         <f t="shared" si="0"/>
         <v>6.1</v>
       </c>
-      <c r="D38" s="7">
+      <c r="D38" s="8">
         <f t="shared" si="1"/>
         <v>18.299999999999997</v>
       </c>
@@ -1213,11 +1313,11 @@
       <c r="B39" s="1">
         <v>12.2</v>
       </c>
-      <c r="C39" s="5">
+      <c r="C39" s="6">
         <f t="shared" si="0"/>
         <v>6.1</v>
       </c>
-      <c r="D39" s="7">
+      <c r="D39" s="8">
         <f t="shared" si="1"/>
         <v>18.299999999999997</v>
       </c>
@@ -1229,11 +1329,11 @@
       <c r="B40" s="1">
         <v>12.2</v>
       </c>
-      <c r="C40" s="5">
+      <c r="C40" s="6">
         <f t="shared" si="0"/>
         <v>6.1</v>
       </c>
-      <c r="D40" s="7">
+      <c r="D40" s="8">
         <f t="shared" si="1"/>
         <v>18.299999999999997</v>
       </c>
@@ -1245,11 +1345,11 @@
       <c r="B41" s="1">
         <v>12</v>
       </c>
-      <c r="C41" s="5">
+      <c r="C41" s="6">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="D41" s="7">
+      <c r="D41" s="8">
         <f t="shared" si="1"/>
         <v>18</v>
       </c>
@@ -1261,11 +1361,11 @@
       <c r="B42" s="1">
         <v>12</v>
       </c>
-      <c r="C42" s="5">
+      <c r="C42" s="6">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="D42" s="7">
+      <c r="D42" s="8">
         <f t="shared" si="1"/>
         <v>18</v>
       </c>
@@ -1277,11 +1377,11 @@
       <c r="B43" s="1">
         <v>12</v>
       </c>
-      <c r="C43" s="5">
+      <c r="C43" s="6">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="D43" s="7">
+      <c r="D43" s="8">
         <f t="shared" si="1"/>
         <v>18</v>
       </c>
@@ -1293,11 +1393,11 @@
       <c r="B44" s="1">
         <v>12</v>
       </c>
-      <c r="C44" s="5">
+      <c r="C44" s="6">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="D44" s="7">
+      <c r="D44" s="8">
         <f t="shared" si="1"/>
         <v>18</v>
       </c>
@@ -1309,11 +1409,11 @@
       <c r="B45" s="1">
         <v>12</v>
       </c>
-      <c r="C45" s="5">
+      <c r="C45" s="6">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="D45" s="7">
+      <c r="D45" s="8">
         <f t="shared" si="1"/>
         <v>18</v>
       </c>
@@ -1325,11 +1425,11 @@
       <c r="B46" s="1">
         <v>12</v>
       </c>
-      <c r="C46" s="5">
+      <c r="C46" s="6">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="D46" s="7">
+      <c r="D46" s="8">
         <f t="shared" si="1"/>
         <v>18</v>
       </c>
@@ -1341,11 +1441,11 @@
       <c r="B47" s="1">
         <v>12</v>
       </c>
-      <c r="C47" s="5">
+      <c r="C47" s="6">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="D47" s="7">
+      <c r="D47" s="8">
         <f t="shared" si="1"/>
         <v>18</v>
       </c>
@@ -1357,11 +1457,11 @@
       <c r="B48" s="1">
         <v>12</v>
       </c>
-      <c r="C48" s="5">
+      <c r="C48" s="6">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="D48" s="7">
+      <c r="D48" s="8">
         <f t="shared" si="1"/>
         <v>18</v>
       </c>
@@ -1373,11 +1473,11 @@
       <c r="B49" s="1">
         <v>12</v>
       </c>
-      <c r="C49" s="5">
+      <c r="C49" s="6">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="D49" s="7">
+      <c r="D49" s="8">
         <f t="shared" si="1"/>
         <v>18</v>
       </c>
@@ -1389,11 +1489,11 @@
       <c r="B50" s="1">
         <v>18</v>
       </c>
-      <c r="C50" s="5">
+      <c r="C50" s="6">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="D50" s="7">
+      <c r="D50" s="8">
         <f t="shared" si="1"/>
         <v>27</v>
       </c>
@@ -1405,11 +1505,11 @@
       <c r="B51" s="1">
         <v>12</v>
       </c>
-      <c r="C51" s="5">
+      <c r="C51" s="6">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="D51" s="7">
+      <c r="D51" s="8">
         <f t="shared" si="1"/>
         <v>18</v>
       </c>
@@ -1421,11 +1521,11 @@
       <c r="B52" s="1">
         <v>12</v>
       </c>
-      <c r="C52" s="5">
+      <c r="C52" s="6">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="D52" s="7">
+      <c r="D52" s="8">
         <f t="shared" si="1"/>
         <v>18</v>
       </c>
@@ -1437,11 +1537,11 @@
       <c r="B53" s="1">
         <v>12</v>
       </c>
-      <c r="C53" s="5">
+      <c r="C53" s="6">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="D53" s="7">
+      <c r="D53" s="8">
         <f t="shared" si="1"/>
         <v>18</v>
       </c>
@@ -1453,11 +1553,11 @@
       <c r="B54" s="1">
         <v>24</v>
       </c>
-      <c r="C54" s="5">
+      <c r="C54" s="6">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="D54" s="7">
+      <c r="D54" s="8">
         <f t="shared" si="1"/>
         <v>36</v>
       </c>
@@ -1469,11 +1569,11 @@
       <c r="B55" s="1">
         <v>24</v>
       </c>
-      <c r="C55" s="5">
+      <c r="C55" s="6">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="D55" s="7">
+      <c r="D55" s="8">
         <f t="shared" si="1"/>
         <v>36</v>
       </c>
@@ -1485,11 +1585,11 @@
       <c r="B56" s="1">
         <v>12</v>
       </c>
-      <c r="C56" s="5">
+      <c r="C56" s="6">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="D56" s="7">
+      <c r="D56" s="8">
         <f t="shared" si="1"/>
         <v>18</v>
       </c>
@@ -1501,11 +1601,11 @@
       <c r="B57" s="1">
         <v>12</v>
       </c>
-      <c r="C57" s="5">
+      <c r="C57" s="6">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="D57" s="7">
+      <c r="D57" s="8">
         <f t="shared" si="1"/>
         <v>18</v>
       </c>
@@ -1517,11 +1617,11 @@
       <c r="B58" s="1">
         <v>12</v>
       </c>
-      <c r="C58" s="5">
+      <c r="C58" s="6">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="D58" s="7">
+      <c r="D58" s="8">
         <f t="shared" si="1"/>
         <v>18</v>
       </c>
@@ -1533,11 +1633,11 @@
       <c r="B59" s="1">
         <v>12</v>
       </c>
-      <c r="C59" s="5">
+      <c r="C59" s="6">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="D59" s="7">
+      <c r="D59" s="8">
         <f t="shared" si="1"/>
         <v>18</v>
       </c>
@@ -1549,11 +1649,11 @@
       <c r="B60" s="1">
         <v>24</v>
       </c>
-      <c r="C60" s="5">
+      <c r="C60" s="6">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="D60" s="7">
+      <c r="D60" s="8">
         <f t="shared" si="1"/>
         <v>36</v>
       </c>
@@ -1565,11 +1665,11 @@
       <c r="B61" s="1">
         <v>12</v>
       </c>
-      <c r="C61" s="5">
+      <c r="C61" s="6">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="D61" s="7">
+      <c r="D61" s="8">
         <f t="shared" si="1"/>
         <v>18</v>
       </c>
@@ -1581,11 +1681,11 @@
       <c r="B62" s="1">
         <v>12</v>
       </c>
-      <c r="C62" s="5">
+      <c r="C62" s="6">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="D62" s="7">
+      <c r="D62" s="8">
         <f t="shared" si="1"/>
         <v>18</v>
       </c>
@@ -1597,11 +1697,11 @@
       <c r="B63" s="1">
         <v>12</v>
       </c>
-      <c r="C63" s="5">
+      <c r="C63" s="6">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="D63" s="7">
+      <c r="D63" s="8">
         <f t="shared" si="1"/>
         <v>18</v>
       </c>
@@ -1613,11 +1713,11 @@
       <c r="B64" s="1">
         <v>31</v>
       </c>
-      <c r="C64" s="5">
+      <c r="C64" s="6">
         <f t="shared" si="0"/>
         <v>15.5</v>
       </c>
-      <c r="D64" s="7">
+      <c r="D64" s="8">
         <f t="shared" si="1"/>
         <v>46.5</v>
       </c>
@@ -1629,11 +1729,11 @@
       <c r="B65" s="1">
         <v>31</v>
       </c>
-      <c r="C65" s="5">
+      <c r="C65" s="6">
         <f t="shared" si="0"/>
         <v>15.5</v>
       </c>
-      <c r="D65" s="7">
+      <c r="D65" s="8">
         <f t="shared" si="1"/>
         <v>46.5</v>
       </c>
@@ -1645,11 +1745,11 @@
       <c r="B66" s="1">
         <v>12</v>
       </c>
-      <c r="C66" s="5">
+      <c r="C66" s="6">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="D66" s="7">
+      <c r="D66" s="8">
         <f t="shared" si="1"/>
         <v>18</v>
       </c>
@@ -1661,12 +1761,12 @@
       <c r="B67" s="1">
         <v>24</v>
       </c>
-      <c r="C67" s="5">
-        <f t="shared" ref="C67:C72" si="2">B67*0.5</f>
+      <c r="C67" s="6">
+        <f t="shared" ref="C67:C130" si="2">B67*0.5</f>
         <v>12</v>
       </c>
-      <c r="D67" s="7">
-        <f t="shared" ref="D67:D71" si="3">B67*1.5</f>
+      <c r="D67" s="8">
+        <f t="shared" ref="D67:D73" si="3">B67*1.5</f>
         <v>36</v>
       </c>
     </row>
@@ -1677,11 +1777,11 @@
       <c r="B68" s="1">
         <v>12</v>
       </c>
-      <c r="C68" s="5">
+      <c r="C68" s="6">
         <f t="shared" si="2"/>
         <v>6</v>
       </c>
-      <c r="D68" s="7">
+      <c r="D68" s="8">
         <f t="shared" si="3"/>
         <v>18</v>
       </c>
@@ -1693,11 +1793,11 @@
       <c r="B69" s="1">
         <v>12</v>
       </c>
-      <c r="C69" s="5">
+      <c r="C69" s="6">
         <f t="shared" si="2"/>
         <v>6</v>
       </c>
-      <c r="D69" s="7">
+      <c r="D69" s="8">
         <f t="shared" si="3"/>
         <v>18</v>
       </c>
@@ -1709,11 +1809,11 @@
       <c r="B70" s="1">
         <v>12</v>
       </c>
-      <c r="C70" s="5">
+      <c r="C70" s="6">
         <f t="shared" si="2"/>
         <v>6</v>
       </c>
-      <c r="D70" s="7">
+      <c r="D70" s="8">
         <f t="shared" si="3"/>
         <v>18</v>
       </c>
@@ -1725,17 +1825,1662 @@
       <c r="B71" s="1">
         <v>12</v>
       </c>
-      <c r="C71" s="5">
+      <c r="C71" s="6">
         <f t="shared" si="2"/>
         <v>6</v>
       </c>
-      <c r="D71" s="7">
+      <c r="D71" s="8">
         <f t="shared" si="3"/>
         <v>18</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B72" s="5"/>
+      <c r="A72" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B72" s="1">
+        <v>7.2333299999999996</v>
+      </c>
+      <c r="C72" s="6">
+        <f t="shared" si="2"/>
+        <v>3.6166649999999998</v>
+      </c>
+      <c r="D72" s="8">
+        <f t="shared" si="3"/>
+        <v>10.849995</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A73" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B73" s="1">
+        <v>10.3</v>
+      </c>
+      <c r="C73" s="6">
+        <f t="shared" si="2"/>
+        <v>5.15</v>
+      </c>
+      <c r="D73" s="8">
+        <f t="shared" si="3"/>
+        <v>15.450000000000001</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A74" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B74" s="1">
+        <v>10.3</v>
+      </c>
+      <c r="C74" s="6">
+        <f t="shared" si="2"/>
+        <v>5.15</v>
+      </c>
+      <c r="D74" s="8">
+        <f t="shared" ref="D74:D137" si="4">B74*1.5</f>
+        <v>15.450000000000001</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A75" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B75" s="1">
+        <v>10.0524056792284</v>
+      </c>
+      <c r="C75" s="6">
+        <f t="shared" si="2"/>
+        <v>5.0262028396142</v>
+      </c>
+      <c r="D75" s="8">
+        <f t="shared" si="4"/>
+        <v>15.0786085188426</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A76" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B76" s="1">
+        <v>9.9730917123013896</v>
+      </c>
+      <c r="C76" s="6">
+        <f t="shared" si="2"/>
+        <v>4.9865458561506948</v>
+      </c>
+      <c r="D76" s="8">
+        <f t="shared" si="4"/>
+        <v>14.959637568452084</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A77" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B77" s="1">
+        <v>10.1291611310932</v>
+      </c>
+      <c r="C77" s="6">
+        <f t="shared" si="2"/>
+        <v>5.0645805655466001</v>
+      </c>
+      <c r="D77" s="8">
+        <f t="shared" si="4"/>
+        <v>15.193741696639801</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A78" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B78" s="1">
+        <v>9.8912192303122595</v>
+      </c>
+      <c r="C78" s="6">
+        <f t="shared" si="2"/>
+        <v>4.9456096151561297</v>
+      </c>
+      <c r="D78" s="8">
+        <f t="shared" si="4"/>
+        <v>14.836828845468389</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A79" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B79" s="1">
+        <v>9.4409205793720208</v>
+      </c>
+      <c r="C79" s="6">
+        <f t="shared" si="2"/>
+        <v>4.7204602896860104</v>
+      </c>
+      <c r="D79" s="8">
+        <f t="shared" si="4"/>
+        <v>14.161380869058032</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A80" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B80" s="1">
+        <v>10.1</v>
+      </c>
+      <c r="C80" s="6">
+        <f t="shared" si="2"/>
+        <v>5.05</v>
+      </c>
+      <c r="D80" s="8">
+        <f t="shared" si="4"/>
+        <v>15.149999999999999</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A81" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B81" s="1">
+        <v>10.1</v>
+      </c>
+      <c r="C81" s="6">
+        <f t="shared" si="2"/>
+        <v>5.05</v>
+      </c>
+      <c r="D81" s="8">
+        <f t="shared" si="4"/>
+        <v>15.149999999999999</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A82" s="2">
+        <v>43500</v>
+      </c>
+      <c r="B82" s="1">
+        <v>9.4</v>
+      </c>
+      <c r="C82" s="6">
+        <f t="shared" si="2"/>
+        <v>4.7</v>
+      </c>
+      <c r="D82" s="8">
+        <f t="shared" si="4"/>
+        <v>14.100000000000001</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A83" s="2">
+        <v>43528</v>
+      </c>
+      <c r="B83" s="1">
+        <v>9.4</v>
+      </c>
+      <c r="C83" s="6">
+        <f t="shared" si="2"/>
+        <v>4.7</v>
+      </c>
+      <c r="D83" s="8">
+        <f t="shared" si="4"/>
+        <v>14.100000000000001</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A84" s="2">
+        <v>43559</v>
+      </c>
+      <c r="B84" s="1">
+        <v>9.4</v>
+      </c>
+      <c r="C84" s="6">
+        <f t="shared" si="2"/>
+        <v>4.7</v>
+      </c>
+      <c r="D84" s="8">
+        <f t="shared" si="4"/>
+        <v>14.100000000000001</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A85" s="2">
+        <v>43650</v>
+      </c>
+      <c r="B85" s="1">
+        <v>9.4</v>
+      </c>
+      <c r="C85" s="6">
+        <f t="shared" si="2"/>
+        <v>4.7</v>
+      </c>
+      <c r="D85" s="8">
+        <f t="shared" si="4"/>
+        <v>14.100000000000001</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A86" s="2">
+        <v>43742</v>
+      </c>
+      <c r="B86" s="1">
+        <v>12.5</v>
+      </c>
+      <c r="C86" s="6">
+        <f t="shared" si="2"/>
+        <v>6.25</v>
+      </c>
+      <c r="D86" s="8">
+        <f t="shared" si="4"/>
+        <v>18.75</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A87" s="2">
+        <v>43803</v>
+      </c>
+      <c r="B87" s="1">
+        <v>9.4</v>
+      </c>
+      <c r="C87" s="6">
+        <f t="shared" si="2"/>
+        <v>4.7</v>
+      </c>
+      <c r="D87" s="8">
+        <f t="shared" si="4"/>
+        <v>14.100000000000001</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A88" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B88" s="1">
+        <v>9.4</v>
+      </c>
+      <c r="C88" s="6">
+        <f t="shared" si="2"/>
+        <v>4.7</v>
+      </c>
+      <c r="D88" s="8">
+        <f t="shared" si="4"/>
+        <v>14.100000000000001</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A89" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B89" s="1">
+        <v>9.4</v>
+      </c>
+      <c r="C89" s="6">
+        <f t="shared" si="2"/>
+        <v>4.7</v>
+      </c>
+      <c r="D89" s="8">
+        <f t="shared" si="4"/>
+        <v>14.100000000000001</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A90" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B90" s="1">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="C90" s="6">
+        <f t="shared" si="2"/>
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="D90" s="8">
+        <f t="shared" si="4"/>
+        <v>14.700000000000001</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A91" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B91" s="1">
+        <v>9.5</v>
+      </c>
+      <c r="C91" s="6">
+        <f t="shared" si="2"/>
+        <v>4.75</v>
+      </c>
+      <c r="D91" s="8">
+        <f t="shared" si="4"/>
+        <v>14.25</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A92" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B92" s="1">
+        <v>9.5</v>
+      </c>
+      <c r="C92" s="6">
+        <f t="shared" si="2"/>
+        <v>4.75</v>
+      </c>
+      <c r="D92" s="8">
+        <f t="shared" si="4"/>
+        <v>14.25</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A93" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B93" s="1">
+        <v>9.5</v>
+      </c>
+      <c r="C93" s="6">
+        <f t="shared" si="2"/>
+        <v>4.75</v>
+      </c>
+      <c r="D93" s="8">
+        <f t="shared" si="4"/>
+        <v>14.25</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A94" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B94" s="1">
+        <v>9.9</v>
+      </c>
+      <c r="C94" s="6">
+        <f t="shared" si="2"/>
+        <v>4.95</v>
+      </c>
+      <c r="D94" s="8">
+        <f t="shared" si="4"/>
+        <v>14.850000000000001</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A95" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B95" s="1">
+        <v>14.4</v>
+      </c>
+      <c r="C95" s="6">
+        <f t="shared" si="2"/>
+        <v>7.2</v>
+      </c>
+      <c r="D95" s="8">
+        <f t="shared" si="4"/>
+        <v>21.6</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A96" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B96" s="1">
+        <v>14.4</v>
+      </c>
+      <c r="C96" s="6">
+        <f t="shared" si="2"/>
+        <v>7.2</v>
+      </c>
+      <c r="D96" s="8">
+        <f t="shared" si="4"/>
+        <v>21.6</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A97" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B97" s="1">
+        <v>14.3</v>
+      </c>
+      <c r="C97" s="6">
+        <f t="shared" si="2"/>
+        <v>7.15</v>
+      </c>
+      <c r="D97" s="8">
+        <f t="shared" si="4"/>
+        <v>21.450000000000003</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A98" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B98" s="1">
+        <v>13.9</v>
+      </c>
+      <c r="C98" s="6">
+        <f t="shared" si="2"/>
+        <v>6.95</v>
+      </c>
+      <c r="D98" s="8">
+        <f t="shared" si="4"/>
+        <v>20.85</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A99" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B99" s="1">
+        <v>14</v>
+      </c>
+      <c r="C99" s="6">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="D99" s="8">
+        <f t="shared" si="4"/>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A100" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B100" s="1">
+        <v>13.7</v>
+      </c>
+      <c r="C100" s="6">
+        <f t="shared" si="2"/>
+        <v>6.85</v>
+      </c>
+      <c r="D100" s="8">
+        <f t="shared" si="4"/>
+        <v>20.549999999999997</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A101" s="2">
+        <v>43470</v>
+      </c>
+      <c r="B101" s="1">
+        <v>13.9</v>
+      </c>
+      <c r="C101" s="6">
+        <f t="shared" si="2"/>
+        <v>6.95</v>
+      </c>
+      <c r="D101" s="8">
+        <f t="shared" si="4"/>
+        <v>20.85</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A102" s="2">
+        <v>43501</v>
+      </c>
+      <c r="B102" s="1">
+        <v>14</v>
+      </c>
+      <c r="C102" s="6">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="D102" s="8">
+        <f t="shared" si="4"/>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A103" s="2">
+        <v>43529</v>
+      </c>
+      <c r="B103" s="1">
+        <v>14</v>
+      </c>
+      <c r="C103" s="6">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="D103" s="8">
+        <f t="shared" si="4"/>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A104" s="2">
+        <v>43682</v>
+      </c>
+      <c r="B104" s="1">
+        <v>13.8</v>
+      </c>
+      <c r="C104" s="6">
+        <f t="shared" si="2"/>
+        <v>6.9</v>
+      </c>
+      <c r="D104" s="8">
+        <f t="shared" si="4"/>
+        <v>20.700000000000003</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A105" s="2">
+        <v>43713</v>
+      </c>
+      <c r="B105" s="1">
+        <v>13.7</v>
+      </c>
+      <c r="C105" s="6">
+        <f t="shared" si="2"/>
+        <v>6.85</v>
+      </c>
+      <c r="D105" s="8">
+        <f t="shared" si="4"/>
+        <v>20.549999999999997</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A106" s="2">
+        <v>43743</v>
+      </c>
+      <c r="B106" s="1">
+        <v>13.7</v>
+      </c>
+      <c r="C106" s="6">
+        <f t="shared" si="2"/>
+        <v>6.85</v>
+      </c>
+      <c r="D106" s="8">
+        <f t="shared" si="4"/>
+        <v>20.549999999999997</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A107" s="2">
+        <v>43774</v>
+      </c>
+      <c r="B107" s="1">
+        <v>13.7</v>
+      </c>
+      <c r="C107" s="6">
+        <f t="shared" si="2"/>
+        <v>6.85</v>
+      </c>
+      <c r="D107" s="8">
+        <f t="shared" si="4"/>
+        <v>20.549999999999997</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A108" s="2">
+        <v>43804</v>
+      </c>
+      <c r="B108" s="1">
+        <v>13.7</v>
+      </c>
+      <c r="C108" s="6">
+        <f t="shared" si="2"/>
+        <v>6.85</v>
+      </c>
+      <c r="D108" s="8">
+        <f t="shared" si="4"/>
+        <v>20.549999999999997</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A109" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B109" s="1">
+        <v>9.5</v>
+      </c>
+      <c r="C109" s="6">
+        <f t="shared" si="2"/>
+        <v>4.75</v>
+      </c>
+      <c r="D109" s="8">
+        <f t="shared" si="4"/>
+        <v>14.25</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A110" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B110" s="1">
+        <v>9.5</v>
+      </c>
+      <c r="C110" s="6">
+        <f t="shared" si="2"/>
+        <v>4.75</v>
+      </c>
+      <c r="D110" s="8">
+        <f t="shared" si="4"/>
+        <v>14.25</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A111" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B111" s="1">
+        <v>9.5</v>
+      </c>
+      <c r="C111" s="6">
+        <f t="shared" si="2"/>
+        <v>4.75</v>
+      </c>
+      <c r="D111" s="8">
+        <f t="shared" si="4"/>
+        <v>14.25</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A112" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B112" s="1">
+        <v>9.5</v>
+      </c>
+      <c r="C112" s="6">
+        <f t="shared" si="2"/>
+        <v>4.75</v>
+      </c>
+      <c r="D112" s="8">
+        <f t="shared" si="4"/>
+        <v>14.25</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A113" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B113" s="1">
+        <v>9.5</v>
+      </c>
+      <c r="C113" s="6">
+        <f t="shared" si="2"/>
+        <v>4.75</v>
+      </c>
+      <c r="D113" s="8">
+        <f t="shared" si="4"/>
+        <v>14.25</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A114" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B114" s="1">
+        <v>9.5</v>
+      </c>
+      <c r="C114" s="6">
+        <f t="shared" si="2"/>
+        <v>4.75</v>
+      </c>
+      <c r="D114" s="8">
+        <f t="shared" si="4"/>
+        <v>14.25</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A115" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B115" s="1">
+        <v>9.4</v>
+      </c>
+      <c r="C115" s="6">
+        <f t="shared" si="2"/>
+        <v>4.7</v>
+      </c>
+      <c r="D115" s="8">
+        <f t="shared" si="4"/>
+        <v>14.100000000000001</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A116" s="5">
+        <v>43607</v>
+      </c>
+      <c r="B116" s="1">
+        <v>9.4</v>
+      </c>
+      <c r="C116" s="6">
+        <f t="shared" si="2"/>
+        <v>4.7</v>
+      </c>
+      <c r="D116" s="8">
+        <f t="shared" si="4"/>
+        <v>14.100000000000001</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A117" s="5">
+        <v>43608</v>
+      </c>
+      <c r="B117" s="1">
+        <v>9.4</v>
+      </c>
+      <c r="C117" s="6">
+        <f t="shared" si="2"/>
+        <v>4.7</v>
+      </c>
+      <c r="D117" s="8">
+        <f t="shared" si="4"/>
+        <v>14.100000000000001</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A118" s="5">
+        <v>43609</v>
+      </c>
+      <c r="B118" s="1">
+        <v>10</v>
+      </c>
+      <c r="C118" s="6">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="D118" s="8">
+        <f t="shared" si="4"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A119" s="5">
+        <v>43612</v>
+      </c>
+      <c r="B119" s="1">
+        <v>13.9</v>
+      </c>
+      <c r="C119" s="6">
+        <f t="shared" si="2"/>
+        <v>6.95</v>
+      </c>
+      <c r="D119" s="8">
+        <f t="shared" si="4"/>
+        <v>20.85</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A120" s="5">
+        <v>43613</v>
+      </c>
+      <c r="B120" s="1">
+        <v>13.9</v>
+      </c>
+      <c r="C120" s="6">
+        <f t="shared" si="2"/>
+        <v>6.95</v>
+      </c>
+      <c r="D120" s="8">
+        <f t="shared" si="4"/>
+        <v>20.85</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A121" s="5">
+        <v>43614</v>
+      </c>
+      <c r="B121" s="1">
+        <v>13.9</v>
+      </c>
+      <c r="C121" s="6">
+        <f t="shared" si="2"/>
+        <v>6.95</v>
+      </c>
+      <c r="D121" s="8">
+        <f t="shared" si="4"/>
+        <v>20.85</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A122" s="5">
+        <v>43615</v>
+      </c>
+      <c r="B122" s="1">
+        <v>13.9</v>
+      </c>
+      <c r="C122" s="6">
+        <f t="shared" si="2"/>
+        <v>6.95</v>
+      </c>
+      <c r="D122" s="8">
+        <f t="shared" si="4"/>
+        <v>20.85</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A123" s="5">
+        <v>43616</v>
+      </c>
+      <c r="B123" s="1">
+        <v>13.9</v>
+      </c>
+      <c r="C123" s="6">
+        <f t="shared" si="2"/>
+        <v>6.95</v>
+      </c>
+      <c r="D123" s="8">
+        <f t="shared" si="4"/>
+        <v>20.85</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A124" s="5">
+        <v>43619</v>
+      </c>
+      <c r="B124" s="1">
+        <v>11.4</v>
+      </c>
+      <c r="C124" s="6">
+        <f t="shared" si="2"/>
+        <v>5.7</v>
+      </c>
+      <c r="D124" s="8">
+        <f t="shared" si="4"/>
+        <v>17.100000000000001</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A125" s="5">
+        <v>43620</v>
+      </c>
+      <c r="B125" s="1">
+        <v>11.4</v>
+      </c>
+      <c r="C125" s="6">
+        <f t="shared" si="2"/>
+        <v>5.7</v>
+      </c>
+      <c r="D125" s="8">
+        <f t="shared" si="4"/>
+        <v>17.100000000000001</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A126" s="5">
+        <v>43621</v>
+      </c>
+      <c r="B126" s="1">
+        <v>11.4</v>
+      </c>
+      <c r="C126" s="6">
+        <f t="shared" si="2"/>
+        <v>5.7</v>
+      </c>
+      <c r="D126" s="8">
+        <f t="shared" si="4"/>
+        <v>17.100000000000001</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A127" s="5">
+        <v>43622</v>
+      </c>
+      <c r="B127" s="1">
+        <v>11.4</v>
+      </c>
+      <c r="C127" s="6">
+        <f t="shared" si="2"/>
+        <v>5.7</v>
+      </c>
+      <c r="D127" s="8">
+        <f t="shared" si="4"/>
+        <v>17.100000000000001</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A128" s="5">
+        <v>43623</v>
+      </c>
+      <c r="B128" s="1">
+        <v>11.4</v>
+      </c>
+      <c r="C128" s="6">
+        <f t="shared" si="2"/>
+        <v>5.7</v>
+      </c>
+      <c r="D128" s="8">
+        <f t="shared" si="4"/>
+        <v>17.100000000000001</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A129" s="5">
+        <v>43624</v>
+      </c>
+      <c r="B129" s="1">
+        <v>11.4</v>
+      </c>
+      <c r="C129" s="6">
+        <f t="shared" si="2"/>
+        <v>5.7</v>
+      </c>
+      <c r="D129" s="8">
+        <f t="shared" si="4"/>
+        <v>17.100000000000001</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A130" s="5">
+        <v>43625</v>
+      </c>
+      <c r="B130" s="1">
+        <v>11.4</v>
+      </c>
+      <c r="C130" s="6">
+        <f t="shared" si="2"/>
+        <v>5.7</v>
+      </c>
+      <c r="D130" s="8">
+        <f t="shared" si="4"/>
+        <v>17.100000000000001</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A131" s="5">
+        <v>43626</v>
+      </c>
+      <c r="B131" s="1">
+        <v>16.2</v>
+      </c>
+      <c r="C131" s="6">
+        <f t="shared" ref="C131:C178" si="5">B131*0.5</f>
+        <v>8.1</v>
+      </c>
+      <c r="D131" s="8">
+        <f t="shared" si="4"/>
+        <v>24.299999999999997</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A132" s="5">
+        <v>43627</v>
+      </c>
+      <c r="B132" s="1">
+        <v>16.2</v>
+      </c>
+      <c r="C132" s="6">
+        <f t="shared" si="5"/>
+        <v>8.1</v>
+      </c>
+      <c r="D132" s="8">
+        <f t="shared" si="4"/>
+        <v>24.299999999999997</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A133" s="5">
+        <v>43628</v>
+      </c>
+      <c r="B133" s="1">
+        <v>16.2</v>
+      </c>
+      <c r="C133" s="6">
+        <f t="shared" si="5"/>
+        <v>8.1</v>
+      </c>
+      <c r="D133" s="8">
+        <f t="shared" si="4"/>
+        <v>24.299999999999997</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A134" s="5">
+        <v>43629</v>
+      </c>
+      <c r="B134" s="1">
+        <v>16.2</v>
+      </c>
+      <c r="C134" s="6">
+        <f t="shared" si="5"/>
+        <v>8.1</v>
+      </c>
+      <c r="D134" s="8">
+        <f t="shared" si="4"/>
+        <v>24.299999999999997</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A135" s="5">
+        <v>43630</v>
+      </c>
+      <c r="B135" s="1">
+        <v>16.2</v>
+      </c>
+      <c r="C135" s="6">
+        <f t="shared" si="5"/>
+        <v>8.1</v>
+      </c>
+      <c r="D135" s="8">
+        <f t="shared" si="4"/>
+        <v>24.299999999999997</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A136" s="5">
+        <v>43631</v>
+      </c>
+      <c r="B136" s="1">
+        <v>16.2</v>
+      </c>
+      <c r="C136" s="6">
+        <f t="shared" si="5"/>
+        <v>8.1</v>
+      </c>
+      <c r="D136" s="8">
+        <f t="shared" si="4"/>
+        <v>24.299999999999997</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A137" s="5">
+        <v>43633</v>
+      </c>
+      <c r="B137" s="1">
+        <v>11</v>
+      </c>
+      <c r="C137" s="6">
+        <f t="shared" si="5"/>
+        <v>5.5</v>
+      </c>
+      <c r="D137" s="8">
+        <f t="shared" si="4"/>
+        <v>16.5</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A138" s="5">
+        <v>43634</v>
+      </c>
+      <c r="B138" s="1">
+        <v>11</v>
+      </c>
+      <c r="C138" s="6">
+        <f t="shared" si="5"/>
+        <v>5.5</v>
+      </c>
+      <c r="D138" s="8">
+        <f t="shared" ref="D138:D178" si="6">B138*1.5</f>
+        <v>16.5</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A139" s="5">
+        <v>43635</v>
+      </c>
+      <c r="B139" s="1">
+        <v>11</v>
+      </c>
+      <c r="C139" s="6">
+        <f t="shared" si="5"/>
+        <v>5.5</v>
+      </c>
+      <c r="D139" s="8">
+        <f t="shared" si="6"/>
+        <v>16.5</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A140" s="5">
+        <v>43636</v>
+      </c>
+      <c r="B140" s="1">
+        <v>11</v>
+      </c>
+      <c r="C140" s="6">
+        <f t="shared" si="5"/>
+        <v>5.5</v>
+      </c>
+      <c r="D140" s="8">
+        <f t="shared" si="6"/>
+        <v>16.5</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A141" s="5">
+        <v>43637</v>
+      </c>
+      <c r="B141" s="1">
+        <v>11</v>
+      </c>
+      <c r="C141" s="6">
+        <f t="shared" si="5"/>
+        <v>5.5</v>
+      </c>
+      <c r="D141" s="8">
+        <f t="shared" si="6"/>
+        <v>16.5</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A142" s="5">
+        <v>43638</v>
+      </c>
+      <c r="B142" s="1">
+        <v>11</v>
+      </c>
+      <c r="C142" s="6">
+        <f t="shared" si="5"/>
+        <v>5.5</v>
+      </c>
+      <c r="D142" s="8">
+        <f t="shared" si="6"/>
+        <v>16.5</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A143" s="5">
+        <v>43640</v>
+      </c>
+      <c r="B143" s="1">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="C143" s="6">
+        <f t="shared" si="5"/>
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="D143" s="8">
+        <f t="shared" si="6"/>
+        <v>13.799999999999999</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A144" s="5">
+        <v>43641</v>
+      </c>
+      <c r="B144" s="1">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="C144" s="6">
+        <f t="shared" si="5"/>
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="D144" s="8">
+        <f t="shared" si="6"/>
+        <v>13.799999999999999</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A145" s="5">
+        <v>43642</v>
+      </c>
+      <c r="B145" s="1">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="C145" s="6">
+        <f t="shared" si="5"/>
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="D145" s="8">
+        <f t="shared" si="6"/>
+        <v>13.799999999999999</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A146" s="5">
+        <v>43643</v>
+      </c>
+      <c r="B146" s="1">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="C146" s="6">
+        <f t="shared" si="5"/>
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="D146" s="8">
+        <f t="shared" si="6"/>
+        <v>13.799999999999999</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A147" s="5">
+        <v>43644</v>
+      </c>
+      <c r="B147" s="1">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="C147" s="6">
+        <f t="shared" si="5"/>
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="D147" s="8">
+        <f t="shared" si="6"/>
+        <v>13.799999999999999</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A148" s="5">
+        <v>43645</v>
+      </c>
+      <c r="B148" s="1">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="C148" s="6">
+        <f t="shared" si="5"/>
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="D148" s="8">
+        <f t="shared" si="6"/>
+        <v>13.799999999999999</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A149" s="5">
+        <v>43646</v>
+      </c>
+      <c r="B149" s="1">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="C149" s="6">
+        <f t="shared" si="5"/>
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="D149" s="8">
+        <f t="shared" si="6"/>
+        <v>13.799999999999999</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A150" s="5">
+        <v>43647</v>
+      </c>
+      <c r="B150" s="1">
+        <v>22.2</v>
+      </c>
+      <c r="C150" s="6">
+        <f t="shared" si="5"/>
+        <v>11.1</v>
+      </c>
+      <c r="D150" s="8">
+        <f t="shared" si="6"/>
+        <v>33.299999999999997</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A151" s="5">
+        <v>43648</v>
+      </c>
+      <c r="B151" s="1">
+        <v>17.100000000000001</v>
+      </c>
+      <c r="C151" s="6">
+        <f t="shared" si="5"/>
+        <v>8.5500000000000007</v>
+      </c>
+      <c r="D151" s="8">
+        <f t="shared" si="6"/>
+        <v>25.650000000000002</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A152" s="5">
+        <v>43649</v>
+      </c>
+      <c r="B152" s="1">
+        <v>17</v>
+      </c>
+      <c r="C152" s="6">
+        <f t="shared" si="5"/>
+        <v>8.5</v>
+      </c>
+      <c r="D152" s="8">
+        <f t="shared" si="6"/>
+        <v>25.5</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A153" s="5">
+        <v>43650</v>
+      </c>
+      <c r="B153" s="1">
+        <v>25.4</v>
+      </c>
+      <c r="C153" s="6">
+        <f t="shared" si="5"/>
+        <v>12.7</v>
+      </c>
+      <c r="D153" s="8">
+        <f t="shared" si="6"/>
+        <v>38.099999999999994</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A154" s="5">
+        <v>43651</v>
+      </c>
+      <c r="B154" s="1">
+        <v>25.4</v>
+      </c>
+      <c r="C154" s="6">
+        <f t="shared" si="5"/>
+        <v>12.7</v>
+      </c>
+      <c r="D154" s="8">
+        <f t="shared" si="6"/>
+        <v>38.099999999999994</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A155" s="5">
+        <v>43653</v>
+      </c>
+      <c r="B155" s="1">
+        <v>24.3</v>
+      </c>
+      <c r="C155" s="6">
+        <f t="shared" si="5"/>
+        <v>12.15</v>
+      </c>
+      <c r="D155" s="8">
+        <f t="shared" si="6"/>
+        <v>36.450000000000003</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A156" s="5">
+        <v>43654</v>
+      </c>
+      <c r="B156" s="1">
+        <v>5.8</v>
+      </c>
+      <c r="C156" s="6">
+        <f t="shared" si="5"/>
+        <v>2.9</v>
+      </c>
+      <c r="D156" s="8">
+        <f t="shared" si="6"/>
+        <v>8.6999999999999993</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A157" s="5">
+        <v>43655</v>
+      </c>
+      <c r="B157" s="1">
+        <v>5.8</v>
+      </c>
+      <c r="C157" s="6">
+        <f t="shared" si="5"/>
+        <v>2.9</v>
+      </c>
+      <c r="D157" s="8">
+        <f t="shared" si="6"/>
+        <v>8.6999999999999993</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A158" s="5">
+        <v>43656</v>
+      </c>
+      <c r="B158" s="1">
+        <v>5.8</v>
+      </c>
+      <c r="C158" s="6">
+        <f t="shared" si="5"/>
+        <v>2.9</v>
+      </c>
+      <c r="D158" s="8">
+        <f t="shared" si="6"/>
+        <v>8.6999999999999993</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A159" s="5">
+        <v>43657</v>
+      </c>
+      <c r="B159" s="1">
+        <v>24</v>
+      </c>
+      <c r="C159" s="6">
+        <f t="shared" si="5"/>
+        <v>12</v>
+      </c>
+      <c r="D159" s="8">
+        <f t="shared" si="6"/>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A160" s="5">
+        <v>43658</v>
+      </c>
+      <c r="B160" s="1">
+        <v>27.1</v>
+      </c>
+      <c r="C160" s="6">
+        <f t="shared" si="5"/>
+        <v>13.55</v>
+      </c>
+      <c r="D160" s="8">
+        <f t="shared" si="6"/>
+        <v>40.650000000000006</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A161" s="5">
+        <v>43662</v>
+      </c>
+      <c r="B161" s="1">
+        <v>11.2</v>
+      </c>
+      <c r="C161" s="6">
+        <f t="shared" si="5"/>
+        <v>5.6</v>
+      </c>
+      <c r="D161" s="8">
+        <f t="shared" si="6"/>
+        <v>16.799999999999997</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A162" s="5">
+        <v>43663</v>
+      </c>
+      <c r="B162" s="1">
+        <v>11.2</v>
+      </c>
+      <c r="C162" s="6">
+        <f t="shared" si="5"/>
+        <v>5.6</v>
+      </c>
+      <c r="D162" s="8">
+        <f t="shared" si="6"/>
+        <v>16.799999999999997</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A163" s="5">
+        <v>43664</v>
+      </c>
+      <c r="B163" s="1">
+        <v>11.2</v>
+      </c>
+      <c r="C163" s="6">
+        <f t="shared" si="5"/>
+        <v>5.6</v>
+      </c>
+      <c r="D163" s="8">
+        <f t="shared" si="6"/>
+        <v>16.799999999999997</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A164" s="5">
+        <v>43665</v>
+      </c>
+      <c r="B164" s="1">
+        <v>10.8</v>
+      </c>
+      <c r="C164" s="6">
+        <f t="shared" si="5"/>
+        <v>5.4</v>
+      </c>
+      <c r="D164" s="8">
+        <f t="shared" si="6"/>
+        <v>16.200000000000003</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A165" s="5">
+        <v>43666</v>
+      </c>
+      <c r="B165" s="1">
+        <v>10.8</v>
+      </c>
+      <c r="C165" s="6">
+        <f t="shared" si="5"/>
+        <v>5.4</v>
+      </c>
+      <c r="D165" s="8">
+        <f t="shared" si="6"/>
+        <v>16.200000000000003</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A166" s="5">
+        <v>43667</v>
+      </c>
+      <c r="B166" s="1">
+        <v>10.8</v>
+      </c>
+      <c r="C166" s="6">
+        <f t="shared" si="5"/>
+        <v>5.4</v>
+      </c>
+      <c r="D166" s="8">
+        <f t="shared" si="6"/>
+        <v>16.200000000000003</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A167" s="5">
+        <v>43668</v>
+      </c>
+      <c r="B167" s="1">
+        <v>11.1</v>
+      </c>
+      <c r="C167" s="6">
+        <f t="shared" si="5"/>
+        <v>5.55</v>
+      </c>
+      <c r="D167" s="8">
+        <f t="shared" si="6"/>
+        <v>16.649999999999999</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A168" s="5">
+        <v>43670</v>
+      </c>
+      <c r="B168" s="1">
+        <v>11</v>
+      </c>
+      <c r="C168" s="6">
+        <f t="shared" si="5"/>
+        <v>5.5</v>
+      </c>
+      <c r="D168" s="8">
+        <f t="shared" si="6"/>
+        <v>16.5</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A169" s="5">
+        <v>43671</v>
+      </c>
+      <c r="B169" s="1">
+        <v>11</v>
+      </c>
+      <c r="C169" s="6">
+        <f t="shared" si="5"/>
+        <v>5.5</v>
+      </c>
+      <c r="D169" s="8">
+        <f t="shared" si="6"/>
+        <v>16.5</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A170" s="5">
+        <v>43672</v>
+      </c>
+      <c r="B170" s="1">
+        <v>13.1</v>
+      </c>
+      <c r="C170" s="6">
+        <f t="shared" si="5"/>
+        <v>6.55</v>
+      </c>
+      <c r="D170" s="8">
+        <f t="shared" si="6"/>
+        <v>19.649999999999999</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A171" s="5">
+        <v>43673</v>
+      </c>
+      <c r="B171" s="1">
+        <v>13.1</v>
+      </c>
+      <c r="C171" s="6">
+        <f t="shared" si="5"/>
+        <v>6.55</v>
+      </c>
+      <c r="D171" s="8">
+        <f t="shared" si="6"/>
+        <v>19.649999999999999</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A172" s="5">
+        <v>43674</v>
+      </c>
+      <c r="B172" s="1">
+        <v>13.1</v>
+      </c>
+      <c r="C172" s="6">
+        <f t="shared" si="5"/>
+        <v>6.55</v>
+      </c>
+      <c r="D172" s="8">
+        <f t="shared" si="6"/>
+        <v>19.649999999999999</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A173" s="5">
+        <v>43676</v>
+      </c>
+      <c r="B173" s="1">
+        <v>10</v>
+      </c>
+      <c r="C173" s="6">
+        <f t="shared" si="5"/>
+        <v>5</v>
+      </c>
+      <c r="D173" s="8">
+        <f t="shared" si="6"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A174" s="5">
+        <v>43677</v>
+      </c>
+      <c r="B174" s="1">
+        <v>10</v>
+      </c>
+      <c r="C174" s="6">
+        <f t="shared" si="5"/>
+        <v>5</v>
+      </c>
+      <c r="D174" s="8">
+        <f t="shared" si="6"/>
+        <v>15</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/Irrigation Dates Depths.xlsx
+++ b/Irrigation Dates Depths.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\seosu\Desktop\Guayule Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFF605F3-535B-40C8-8F0B-EAD02F32EF87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{847CBC25-6D09-4AA5-BFE0-077D40C353B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="176">
   <si>
     <t>Date</t>
   </si>
@@ -329,6 +329,240 @@
   </si>
   <si>
     <t>21/5/2019</t>
+  </si>
+  <si>
+    <t>22/5/2019</t>
+  </si>
+  <si>
+    <t>23/5/2019</t>
+  </si>
+  <si>
+    <t>24/5/2019</t>
+  </si>
+  <si>
+    <t>27/5/2019</t>
+  </si>
+  <si>
+    <t>28/5/2019</t>
+  </si>
+  <si>
+    <t>29/5/2019</t>
+  </si>
+  <si>
+    <t>30/5/2019</t>
+  </si>
+  <si>
+    <t>31/5/2019</t>
+  </si>
+  <si>
+    <t>3/6/2019</t>
+  </si>
+  <si>
+    <t>6/6/2019</t>
+  </si>
+  <si>
+    <t>7/6/2019</t>
+  </si>
+  <si>
+    <t>8/6/2019</t>
+  </si>
+  <si>
+    <t>9/6/2019</t>
+  </si>
+  <si>
+    <t>4/6/2019</t>
+  </si>
+  <si>
+    <t>5/6/2019</t>
+  </si>
+  <si>
+    <t>10/6/2019</t>
+  </si>
+  <si>
+    <t>11/6/2019</t>
+  </si>
+  <si>
+    <t>12/6/2019</t>
+  </si>
+  <si>
+    <t>13/6/2019</t>
+  </si>
+  <si>
+    <t>14/6/2019</t>
+  </si>
+  <si>
+    <t>15/6/2019</t>
+  </si>
+  <si>
+    <t>17/6/2019</t>
+  </si>
+  <si>
+    <t>18/6/2019</t>
+  </si>
+  <si>
+    <t>19/6/2019</t>
+  </si>
+  <si>
+    <t>20/6/2019</t>
+  </si>
+  <si>
+    <t>21/6/2019</t>
+  </si>
+  <si>
+    <t>22/6/2019</t>
+  </si>
+  <si>
+    <t>24/6/2019</t>
+  </si>
+  <si>
+    <t>25/6/2019</t>
+  </si>
+  <si>
+    <t>26/6/2019</t>
+  </si>
+  <si>
+    <t>27/6/2019</t>
+  </si>
+  <si>
+    <t>28/6/2019</t>
+  </si>
+  <si>
+    <t>29/6/2019</t>
+  </si>
+  <si>
+    <t>1/7/2019</t>
+  </si>
+  <si>
+    <t>2/7/2019</t>
+  </si>
+  <si>
+    <t>3/7/2019</t>
+  </si>
+  <si>
+    <t>4/7/2019</t>
+  </si>
+  <si>
+    <t>5/7/2019</t>
+  </si>
+  <si>
+    <t>7/7/2019</t>
+  </si>
+  <si>
+    <t>8/7/2019</t>
+  </si>
+  <si>
+    <t>9/7/2019</t>
+  </si>
+  <si>
+    <t>10/7/2019</t>
+  </si>
+  <si>
+    <t>11/7/2019</t>
+  </si>
+  <si>
+    <t>12/7/2019</t>
+  </si>
+  <si>
+    <t>16/7/2019</t>
+  </si>
+  <si>
+    <t>17/7/2019</t>
+  </si>
+  <si>
+    <t>18/7/2019</t>
+  </si>
+  <si>
+    <t>19/7/2019</t>
+  </si>
+  <si>
+    <t>20/7/2019</t>
+  </si>
+  <si>
+    <t>21/7/2019</t>
+  </si>
+  <si>
+    <t>22/7/2019</t>
+  </si>
+  <si>
+    <t>24/7/2019</t>
+  </si>
+  <si>
+    <t>25/7/2019</t>
+  </si>
+  <si>
+    <t>26/7/2019</t>
+  </si>
+  <si>
+    <t>27/7/2019</t>
+  </si>
+  <si>
+    <t>28/7/2019</t>
+  </si>
+  <si>
+    <t>30/7/2019</t>
+  </si>
+  <si>
+    <t>31/7/2019</t>
+  </si>
+  <si>
+    <t>9/8/2018</t>
+  </si>
+  <si>
+    <t>12/8/2018</t>
+  </si>
+  <si>
+    <t>1/9/2019</t>
+  </si>
+  <si>
+    <t>2/9/2019</t>
+  </si>
+  <si>
+    <t>11/9/2019</t>
+  </si>
+  <si>
+    <t>12/9/2019</t>
+  </si>
+  <si>
+    <t>3/4/2019</t>
+  </si>
+  <si>
+    <t>4/4/2019</t>
+  </si>
+  <si>
+    <t>7/4/2019</t>
+  </si>
+  <si>
+    <t>10/4/2019</t>
+  </si>
+  <si>
+    <t>12/4/2019</t>
+  </si>
+  <si>
+    <t>2/4/2019</t>
+  </si>
+  <si>
+    <t>1/5/2019</t>
+  </si>
+  <si>
+    <t>2/5/2019</t>
+  </si>
+  <si>
+    <t>3/5/2019</t>
+  </si>
+  <si>
+    <t>8/5/2019</t>
+  </si>
+  <si>
+    <t>9/5/2019</t>
+  </si>
+  <si>
+    <t>10/5/2019</t>
+  </si>
+  <si>
+    <t>11/5/2019</t>
+  </si>
+  <si>
+    <t>12/5/2019</t>
   </si>
 </sst>
 </file>
@@ -336,7 +570,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="169" formatCode="dd/mm/yyyy;@"/>
+    <numFmt numFmtId="164" formatCode="dd/mm/yyyy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -392,7 +626,7 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -686,8 +920,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E174"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A165" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="E112" sqref="E112"/>
+    <sheetView tabSelected="1" topLeftCell="A164" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="E164" sqref="E1:E1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1210,9 +1444,9 @@
         <v>24</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A33" s="2">
-        <v>43351</v>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A33" s="4" t="s">
+        <v>156</v>
       </c>
       <c r="B33" s="1">
         <v>16</v>
@@ -1225,10 +1459,11 @@
         <f t="shared" si="1"/>
         <v>24</v>
       </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A34" s="2">
-        <v>43442</v>
+      <c r="E33" s="2"/>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A34" s="4" t="s">
+        <v>157</v>
       </c>
       <c r="B34" s="1">
         <v>32</v>
@@ -1241,8 +1476,9 @@
         <f t="shared" si="1"/>
         <v>48</v>
       </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E34" s="2"/>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" s="4" t="s">
         <v>33</v>
       </c>
@@ -1258,7 +1494,7 @@
         <v>12.299999999999999</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" s="4" t="s">
         <v>34</v>
       </c>
@@ -1274,7 +1510,7 @@
         <v>16.049999999999997</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" s="4" t="s">
         <v>55</v>
       </c>
@@ -1290,7 +1526,7 @@
         <v>16.049999999999997</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" s="4" t="s">
         <v>56</v>
       </c>
@@ -1306,7 +1542,7 @@
         <v>18.299999999999997</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39" s="4" t="s">
         <v>35</v>
       </c>
@@ -1322,7 +1558,7 @@
         <v>18.299999999999997</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" s="4" t="s">
         <v>36</v>
       </c>
@@ -1338,7 +1574,7 @@
         <v>18.299999999999997</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41" s="4" t="s">
         <v>57</v>
       </c>
@@ -1354,7 +1590,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42" s="4" t="s">
         <v>58</v>
       </c>
@@ -1370,7 +1606,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43" s="4" t="s">
         <v>37</v>
       </c>
@@ -1386,7 +1622,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" s="4" t="s">
         <v>38</v>
       </c>
@@ -1402,9 +1638,9 @@
         <v>18</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A45" s="2">
-        <v>43109</v>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A45" s="4" t="s">
+        <v>158</v>
       </c>
       <c r="B45" s="1">
         <v>12</v>
@@ -1417,10 +1653,11 @@
         <f t="shared" si="1"/>
         <v>18</v>
       </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A46" s="2">
-        <v>43140</v>
+      <c r="E45" s="2"/>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A46" s="4" t="s">
+        <v>159</v>
       </c>
       <c r="B46" s="1">
         <v>12</v>
@@ -1433,8 +1670,9 @@
         <f t="shared" si="1"/>
         <v>18</v>
       </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E46" s="2"/>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A47" s="4" t="s">
         <v>39</v>
       </c>
@@ -1450,7 +1688,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48" s="4" t="s">
         <v>40</v>
       </c>
@@ -1466,9 +1704,9 @@
         <v>18</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A49" s="2">
-        <v>43413</v>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A49" s="4" t="s">
+        <v>160</v>
       </c>
       <c r="B49" s="1">
         <v>12</v>
@@ -1481,10 +1719,11 @@
         <f t="shared" si="1"/>
         <v>18</v>
       </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A50" s="2">
-        <v>43443</v>
+      <c r="E49" s="2"/>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A50" s="4" t="s">
+        <v>161</v>
       </c>
       <c r="B50" s="1">
         <v>18</v>
@@ -1497,8 +1736,9 @@
         <f t="shared" si="1"/>
         <v>27</v>
       </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E50" s="2"/>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A51" s="4" t="s">
         <v>59</v>
       </c>
@@ -1514,7 +1754,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A52" s="4" t="s">
         <v>41</v>
       </c>
@@ -1530,7 +1770,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A53" s="4" t="s">
         <v>42</v>
       </c>
@@ -1546,7 +1786,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A54" s="4" t="s">
         <v>60</v>
       </c>
@@ -1562,7 +1802,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A55" s="4" t="s">
         <v>61</v>
       </c>
@@ -1578,7 +1818,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A56" s="4" t="s">
         <v>62</v>
       </c>
@@ -1594,7 +1834,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A57" s="4" t="s">
         <v>43</v>
       </c>
@@ -1610,7 +1850,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A58" s="4" t="s">
         <v>44</v>
       </c>
@@ -1626,7 +1866,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A59" s="4" t="s">
         <v>63</v>
       </c>
@@ -1642,7 +1882,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A60" s="4" t="s">
         <v>64</v>
       </c>
@@ -1658,7 +1898,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A61" s="4" t="s">
         <v>65</v>
       </c>
@@ -1674,7 +1914,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A62" s="4" t="s">
         <v>45</v>
       </c>
@@ -1690,7 +1930,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A63" s="4" t="s">
         <v>46</v>
       </c>
@@ -1706,7 +1946,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A64" s="4" t="s">
         <v>54</v>
       </c>
@@ -1722,7 +1962,7 @@
         <v>46.5</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A65" s="4" t="s">
         <v>53</v>
       </c>
@@ -1738,7 +1978,7 @@
         <v>46.5</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A66" s="4" t="s">
         <v>52</v>
       </c>
@@ -1754,7 +1994,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A67" s="4" t="s">
         <v>51</v>
       </c>
@@ -1770,7 +2010,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A68" s="4" t="s">
         <v>50</v>
       </c>
@@ -1786,7 +2026,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A69" s="4" t="s">
         <v>49</v>
       </c>
@@ -1802,7 +2042,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A70" s="4" t="s">
         <v>48</v>
       </c>
@@ -1818,7 +2058,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A71" s="4" t="s">
         <v>47</v>
       </c>
@@ -1834,8 +2074,8 @@
         <v>18</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A72" s="2" t="s">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A72" s="4" t="s">
         <v>68</v>
       </c>
       <c r="B72" s="1">
@@ -1849,9 +2089,10 @@
         <f t="shared" si="3"/>
         <v>10.849995</v>
       </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A73" s="2" t="s">
+      <c r="E72" s="2"/>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A73" s="4" t="s">
         <v>69</v>
       </c>
       <c r="B73" s="1">
@@ -1865,9 +2106,10 @@
         <f t="shared" si="3"/>
         <v>15.450000000000001</v>
       </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A74" s="2" t="s">
+      <c r="E73" s="2"/>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A74" s="4" t="s">
         <v>70</v>
       </c>
       <c r="B74" s="1">
@@ -1881,9 +2123,10 @@
         <f t="shared" ref="D74:D137" si="4">B74*1.5</f>
         <v>15.450000000000001</v>
       </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A75" s="2" t="s">
+      <c r="E74" s="2"/>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A75" s="4" t="s">
         <v>71</v>
       </c>
       <c r="B75" s="1">
@@ -1897,9 +2140,10 @@
         <f t="shared" si="4"/>
         <v>15.0786085188426</v>
       </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A76" s="2" t="s">
+      <c r="E75" s="2"/>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A76" s="4" t="s">
         <v>72</v>
       </c>
       <c r="B76" s="1">
@@ -1913,9 +2157,10 @@
         <f t="shared" si="4"/>
         <v>14.959637568452084</v>
       </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A77" s="2" t="s">
+      <c r="E76" s="2"/>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A77" s="4" t="s">
         <v>73</v>
       </c>
       <c r="B77" s="1">
@@ -1929,9 +2174,10 @@
         <f t="shared" si="4"/>
         <v>15.193741696639801</v>
       </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A78" s="2" t="s">
+      <c r="E77" s="2"/>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A78" s="4" t="s">
         <v>74</v>
       </c>
       <c r="B78" s="1">
@@ -1945,9 +2191,10 @@
         <f t="shared" si="4"/>
         <v>14.836828845468389</v>
       </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A79" s="2" t="s">
+      <c r="E78" s="2"/>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A79" s="4" t="s">
         <v>75</v>
       </c>
       <c r="B79" s="1">
@@ -1961,9 +2208,10 @@
         <f t="shared" si="4"/>
         <v>14.161380869058032</v>
       </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A80" s="2" t="s">
+      <c r="E79" s="2"/>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A80" s="4" t="s">
         <v>76</v>
       </c>
       <c r="B80" s="1">
@@ -1977,9 +2225,10 @@
         <f t="shared" si="4"/>
         <v>15.149999999999999</v>
       </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A81" s="2" t="s">
+      <c r="E80" s="2"/>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A81" s="4" t="s">
         <v>77</v>
       </c>
       <c r="B81" s="1">
@@ -1993,10 +2242,11 @@
         <f t="shared" si="4"/>
         <v>15.149999999999999</v>
       </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A82" s="2">
-        <v>43500</v>
+      <c r="E81" s="2"/>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A82" s="4" t="s">
+        <v>167</v>
       </c>
       <c r="B82" s="1">
         <v>9.4</v>
@@ -2009,10 +2259,11 @@
         <f t="shared" si="4"/>
         <v>14.100000000000001</v>
       </c>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A83" s="2">
-        <v>43528</v>
+      <c r="E82" s="2"/>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A83" s="4" t="s">
+        <v>162</v>
       </c>
       <c r="B83" s="1">
         <v>9.4</v>
@@ -2025,10 +2276,11 @@
         <f t="shared" si="4"/>
         <v>14.100000000000001</v>
       </c>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A84" s="2">
-        <v>43559</v>
+      <c r="E83" s="2"/>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A84" s="4" t="s">
+        <v>163</v>
       </c>
       <c r="B84" s="1">
         <v>9.4</v>
@@ -2041,10 +2293,11 @@
         <f t="shared" si="4"/>
         <v>14.100000000000001</v>
       </c>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A85" s="2">
-        <v>43650</v>
+      <c r="E84" s="2"/>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A85" s="4" t="s">
+        <v>164</v>
       </c>
       <c r="B85" s="1">
         <v>9.4</v>
@@ -2057,10 +2310,11 @@
         <f t="shared" si="4"/>
         <v>14.100000000000001</v>
       </c>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A86" s="2">
-        <v>43742</v>
+      <c r="E85" s="2"/>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A86" s="4" t="s">
+        <v>165</v>
       </c>
       <c r="B86" s="1">
         <v>12.5</v>
@@ -2073,10 +2327,11 @@
         <f t="shared" si="4"/>
         <v>18.75</v>
       </c>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A87" s="2">
-        <v>43803</v>
+      <c r="E86" s="2"/>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A87" s="4" t="s">
+        <v>166</v>
       </c>
       <c r="B87" s="1">
         <v>9.4</v>
@@ -2089,9 +2344,10 @@
         <f t="shared" si="4"/>
         <v>14.100000000000001</v>
       </c>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A88" s="2" t="s">
+      <c r="E87" s="2"/>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A88" s="4" t="s">
         <v>78</v>
       </c>
       <c r="B88" s="1">
@@ -2105,9 +2361,10 @@
         <f t="shared" si="4"/>
         <v>14.100000000000001</v>
       </c>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A89" s="2" t="s">
+      <c r="E88" s="2"/>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A89" s="4" t="s">
         <v>79</v>
       </c>
       <c r="B89" s="1">
@@ -2121,9 +2378,10 @@
         <f t="shared" si="4"/>
         <v>14.100000000000001</v>
       </c>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A90" s="2" t="s">
+      <c r="E89" s="2"/>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A90" s="4" t="s">
         <v>80</v>
       </c>
       <c r="B90" s="1">
@@ -2137,9 +2395,10 @@
         <f t="shared" si="4"/>
         <v>14.700000000000001</v>
       </c>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A91" s="2" t="s">
+      <c r="E90" s="2"/>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A91" s="4" t="s">
         <v>81</v>
       </c>
       <c r="B91" s="1">
@@ -2153,9 +2412,10 @@
         <f t="shared" si="4"/>
         <v>14.25</v>
       </c>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A92" s="2" t="s">
+      <c r="E91" s="2"/>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A92" s="4" t="s">
         <v>82</v>
       </c>
       <c r="B92" s="1">
@@ -2169,9 +2429,10 @@
         <f t="shared" si="4"/>
         <v>14.25</v>
       </c>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A93" s="2" t="s">
+      <c r="E92" s="2"/>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A93" s="4" t="s">
         <v>83</v>
       </c>
       <c r="B93" s="1">
@@ -2185,9 +2446,10 @@
         <f t="shared" si="4"/>
         <v>14.25</v>
       </c>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A94" s="2" t="s">
+      <c r="E93" s="2"/>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A94" s="4" t="s">
         <v>84</v>
       </c>
       <c r="B94" s="1">
@@ -2201,9 +2463,10 @@
         <f t="shared" si="4"/>
         <v>14.850000000000001</v>
       </c>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A95" s="2" t="s">
+      <c r="E94" s="2"/>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A95" s="4" t="s">
         <v>85</v>
       </c>
       <c r="B95" s="1">
@@ -2217,9 +2480,10 @@
         <f t="shared" si="4"/>
         <v>21.6</v>
       </c>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A96" s="2" t="s">
+      <c r="E95" s="2"/>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A96" s="4" t="s">
         <v>86</v>
       </c>
       <c r="B96" s="1">
@@ -2233,9 +2497,10 @@
         <f t="shared" si="4"/>
         <v>21.6</v>
       </c>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A97" s="2" t="s">
+      <c r="E96" s="2"/>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A97" s="4" t="s">
         <v>87</v>
       </c>
       <c r="B97" s="1">
@@ -2249,9 +2514,10 @@
         <f t="shared" si="4"/>
         <v>21.450000000000003</v>
       </c>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A98" s="2" t="s">
+      <c r="E97" s="2"/>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A98" s="4" t="s">
         <v>88</v>
       </c>
       <c r="B98" s="1">
@@ -2265,9 +2531,10 @@
         <f t="shared" si="4"/>
         <v>20.85</v>
       </c>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A99" s="2" t="s">
+      <c r="E98" s="2"/>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A99" s="4" t="s">
         <v>89</v>
       </c>
       <c r="B99" s="1">
@@ -2281,9 +2548,10 @@
         <f t="shared" si="4"/>
         <v>21</v>
       </c>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A100" s="2" t="s">
+      <c r="E99" s="2"/>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A100" s="4" t="s">
         <v>90</v>
       </c>
       <c r="B100" s="1">
@@ -2297,10 +2565,11 @@
         <f t="shared" si="4"/>
         <v>20.549999999999997</v>
       </c>
-    </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A101" s="2">
-        <v>43470</v>
+      <c r="E100" s="2"/>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A101" s="4" t="s">
+        <v>168</v>
       </c>
       <c r="B101" s="1">
         <v>13.9</v>
@@ -2313,10 +2582,11 @@
         <f t="shared" si="4"/>
         <v>20.85</v>
       </c>
-    </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A102" s="2">
-        <v>43501</v>
+      <c r="E101" s="2"/>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A102" s="4" t="s">
+        <v>169</v>
       </c>
       <c r="B102" s="1">
         <v>14</v>
@@ -2329,10 +2599,11 @@
         <f t="shared" si="4"/>
         <v>21</v>
       </c>
-    </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A103" s="2">
-        <v>43529</v>
+      <c r="E102" s="2"/>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A103" s="4" t="s">
+        <v>170</v>
       </c>
       <c r="B103" s="1">
         <v>14</v>
@@ -2345,10 +2616,11 @@
         <f t="shared" si="4"/>
         <v>21</v>
       </c>
-    </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A104" s="2">
-        <v>43682</v>
+      <c r="E103" s="2"/>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A104" s="4" t="s">
+        <v>171</v>
       </c>
       <c r="B104" s="1">
         <v>13.8</v>
@@ -2361,10 +2633,11 @@
         <f t="shared" si="4"/>
         <v>20.700000000000003</v>
       </c>
-    </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A105" s="2">
-        <v>43713</v>
+      <c r="E104" s="2"/>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A105" s="4" t="s">
+        <v>172</v>
       </c>
       <c r="B105" s="1">
         <v>13.7</v>
@@ -2377,10 +2650,11 @@
         <f t="shared" si="4"/>
         <v>20.549999999999997</v>
       </c>
-    </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A106" s="2">
-        <v>43743</v>
+      <c r="E105" s="2"/>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A106" s="4" t="s">
+        <v>173</v>
       </c>
       <c r="B106" s="1">
         <v>13.7</v>
@@ -2393,10 +2667,11 @@
         <f t="shared" si="4"/>
         <v>20.549999999999997</v>
       </c>
-    </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A107" s="2">
-        <v>43774</v>
+      <c r="E106" s="2"/>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A107" s="4" t="s">
+        <v>174</v>
       </c>
       <c r="B107" s="1">
         <v>13.7</v>
@@ -2409,10 +2684,11 @@
         <f t="shared" si="4"/>
         <v>20.549999999999997</v>
       </c>
-    </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A108" s="2">
-        <v>43804</v>
+      <c r="E107" s="2"/>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A108" s="4" t="s">
+        <v>175</v>
       </c>
       <c r="B108" s="1">
         <v>13.7</v>
@@ -2425,9 +2701,10 @@
         <f t="shared" si="4"/>
         <v>20.549999999999997</v>
       </c>
-    </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A109" s="2" t="s">
+      <c r="E108" s="2"/>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A109" s="4" t="s">
         <v>91</v>
       </c>
       <c r="B109" s="1">
@@ -2441,9 +2718,10 @@
         <f t="shared" si="4"/>
         <v>14.25</v>
       </c>
-    </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A110" s="2" t="s">
+      <c r="E109" s="2"/>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A110" s="4" t="s">
         <v>92</v>
       </c>
       <c r="B110" s="1">
@@ -2457,9 +2735,10 @@
         <f t="shared" si="4"/>
         <v>14.25</v>
       </c>
-    </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A111" s="2" t="s">
+      <c r="E110" s="2"/>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A111" s="4" t="s">
         <v>93</v>
       </c>
       <c r="B111" s="1">
@@ -2473,9 +2752,10 @@
         <f t="shared" si="4"/>
         <v>14.25</v>
       </c>
-    </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A112" s="2" t="s">
+      <c r="E111" s="2"/>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A112" s="4" t="s">
         <v>94</v>
       </c>
       <c r="B112" s="1">
@@ -2489,9 +2769,10 @@
         <f t="shared" si="4"/>
         <v>14.25</v>
       </c>
-    </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A113" s="2" t="s">
+      <c r="E112" s="2"/>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A113" s="4" t="s">
         <v>95</v>
       </c>
       <c r="B113" s="1">
@@ -2505,9 +2786,10 @@
         <f t="shared" si="4"/>
         <v>14.25</v>
       </c>
-    </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A114" s="2" t="s">
+      <c r="E113" s="2"/>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A114" s="4" t="s">
         <v>96</v>
       </c>
       <c r="B114" s="1">
@@ -2521,9 +2803,10 @@
         <f t="shared" si="4"/>
         <v>14.25</v>
       </c>
-    </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A115" s="2" t="s">
+      <c r="E114" s="2"/>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A115" s="4" t="s">
         <v>97</v>
       </c>
       <c r="B115" s="1">
@@ -2537,10 +2820,11 @@
         <f t="shared" si="4"/>
         <v>14.100000000000001</v>
       </c>
-    </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A116" s="5">
-        <v>43607</v>
+      <c r="E115" s="2"/>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A116" s="4" t="s">
+        <v>98</v>
       </c>
       <c r="B116" s="1">
         <v>9.4</v>
@@ -2553,10 +2837,11 @@
         <f t="shared" si="4"/>
         <v>14.100000000000001</v>
       </c>
-    </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A117" s="5">
-        <v>43608</v>
+      <c r="E116" s="5"/>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A117" s="4" t="s">
+        <v>99</v>
       </c>
       <c r="B117" s="1">
         <v>9.4</v>
@@ -2569,10 +2854,11 @@
         <f t="shared" si="4"/>
         <v>14.100000000000001</v>
       </c>
-    </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A118" s="5">
-        <v>43609</v>
+      <c r="E117" s="5"/>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A118" s="4" t="s">
+        <v>100</v>
       </c>
       <c r="B118" s="1">
         <v>10</v>
@@ -2585,10 +2871,11 @@
         <f t="shared" si="4"/>
         <v>15</v>
       </c>
-    </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A119" s="5">
-        <v>43612</v>
+      <c r="E118" s="5"/>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A119" s="4" t="s">
+        <v>101</v>
       </c>
       <c r="B119" s="1">
         <v>13.9</v>
@@ -2601,10 +2888,11 @@
         <f t="shared" si="4"/>
         <v>20.85</v>
       </c>
-    </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A120" s="5">
-        <v>43613</v>
+      <c r="E119" s="5"/>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A120" s="4" t="s">
+        <v>102</v>
       </c>
       <c r="B120" s="1">
         <v>13.9</v>
@@ -2617,10 +2905,11 @@
         <f t="shared" si="4"/>
         <v>20.85</v>
       </c>
-    </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A121" s="5">
-        <v>43614</v>
+      <c r="E120" s="5"/>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A121" s="4" t="s">
+        <v>103</v>
       </c>
       <c r="B121" s="1">
         <v>13.9</v>
@@ -2633,10 +2922,11 @@
         <f t="shared" si="4"/>
         <v>20.85</v>
       </c>
-    </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A122" s="5">
-        <v>43615</v>
+      <c r="E121" s="5"/>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A122" s="4" t="s">
+        <v>104</v>
       </c>
       <c r="B122" s="1">
         <v>13.9</v>
@@ -2649,10 +2939,11 @@
         <f t="shared" si="4"/>
         <v>20.85</v>
       </c>
-    </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A123" s="5">
-        <v>43616</v>
+      <c r="E122" s="5"/>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A123" s="4" t="s">
+        <v>105</v>
       </c>
       <c r="B123" s="1">
         <v>13.9</v>
@@ -2665,10 +2956,11 @@
         <f t="shared" si="4"/>
         <v>20.85</v>
       </c>
-    </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A124" s="5">
-        <v>43619</v>
+      <c r="E123" s="5"/>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A124" s="4" t="s">
+        <v>106</v>
       </c>
       <c r="B124" s="1">
         <v>11.4</v>
@@ -2682,9 +2974,9 @@
         <v>17.100000000000001</v>
       </c>
     </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A125" s="5">
-        <v>43620</v>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A125" s="4" t="s">
+        <v>111</v>
       </c>
       <c r="B125" s="1">
         <v>11.4</v>
@@ -2698,9 +2990,9 @@
         <v>17.100000000000001</v>
       </c>
     </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A126" s="5">
-        <v>43621</v>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A126" s="4" t="s">
+        <v>112</v>
       </c>
       <c r="B126" s="1">
         <v>11.4</v>
@@ -2714,9 +3006,9 @@
         <v>17.100000000000001</v>
       </c>
     </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A127" s="5">
-        <v>43622</v>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A127" s="4" t="s">
+        <v>107</v>
       </c>
       <c r="B127" s="1">
         <v>11.4</v>
@@ -2730,9 +3022,9 @@
         <v>17.100000000000001</v>
       </c>
     </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A128" s="5">
-        <v>43623</v>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A128" s="4" t="s">
+        <v>108</v>
       </c>
       <c r="B128" s="1">
         <v>11.4</v>
@@ -2747,8 +3039,8 @@
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A129" s="5">
-        <v>43624</v>
+      <c r="A129" s="4" t="s">
+        <v>109</v>
       </c>
       <c r="B129" s="1">
         <v>11.4</v>
@@ -2763,8 +3055,8 @@
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A130" s="5">
-        <v>43625</v>
+      <c r="A130" s="4" t="s">
+        <v>110</v>
       </c>
       <c r="B130" s="1">
         <v>11.4</v>
@@ -2779,14 +3071,14 @@
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A131" s="5">
-        <v>43626</v>
+      <c r="A131" s="4" t="s">
+        <v>113</v>
       </c>
       <c r="B131" s="1">
         <v>16.2</v>
       </c>
       <c r="C131" s="6">
-        <f t="shared" ref="C131:C178" si="5">B131*0.5</f>
+        <f t="shared" ref="C131:C174" si="5">B131*0.5</f>
         <v>8.1</v>
       </c>
       <c r="D131" s="8">
@@ -2795,8 +3087,8 @@
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A132" s="5">
-        <v>43627</v>
+      <c r="A132" s="4" t="s">
+        <v>114</v>
       </c>
       <c r="B132" s="1">
         <v>16.2</v>
@@ -2811,8 +3103,8 @@
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A133" s="5">
-        <v>43628</v>
+      <c r="A133" s="4" t="s">
+        <v>115</v>
       </c>
       <c r="B133" s="1">
         <v>16.2</v>
@@ -2827,8 +3119,8 @@
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A134" s="5">
-        <v>43629</v>
+      <c r="A134" s="4" t="s">
+        <v>116</v>
       </c>
       <c r="B134" s="1">
         <v>16.2</v>
@@ -2843,8 +3135,8 @@
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A135" s="5">
-        <v>43630</v>
+      <c r="A135" s="4" t="s">
+        <v>117</v>
       </c>
       <c r="B135" s="1">
         <v>16.2</v>
@@ -2859,8 +3151,8 @@
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A136" s="5">
-        <v>43631</v>
+      <c r="A136" s="4" t="s">
+        <v>118</v>
       </c>
       <c r="B136" s="1">
         <v>16.2</v>
@@ -2875,8 +3167,8 @@
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A137" s="5">
-        <v>43633</v>
+      <c r="A137" s="4" t="s">
+        <v>119</v>
       </c>
       <c r="B137" s="1">
         <v>11</v>
@@ -2891,8 +3183,8 @@
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A138" s="5">
-        <v>43634</v>
+      <c r="A138" s="4" t="s">
+        <v>120</v>
       </c>
       <c r="B138" s="1">
         <v>11</v>
@@ -2902,13 +3194,13 @@
         <v>5.5</v>
       </c>
       <c r="D138" s="8">
-        <f t="shared" ref="D138:D178" si="6">B138*1.5</f>
+        <f t="shared" ref="D138:D174" si="6">B138*1.5</f>
         <v>16.5</v>
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A139" s="5">
-        <v>43635</v>
+      <c r="A139" s="4" t="s">
+        <v>121</v>
       </c>
       <c r="B139" s="1">
         <v>11</v>
@@ -2923,8 +3215,8 @@
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A140" s="5">
-        <v>43636</v>
+      <c r="A140" s="4" t="s">
+        <v>122</v>
       </c>
       <c r="B140" s="1">
         <v>11</v>
@@ -2939,8 +3231,8 @@
       </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A141" s="5">
-        <v>43637</v>
+      <c r="A141" s="4" t="s">
+        <v>123</v>
       </c>
       <c r="B141" s="1">
         <v>11</v>
@@ -2955,8 +3247,8 @@
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A142" s="5">
-        <v>43638</v>
+      <c r="A142" s="4" t="s">
+        <v>124</v>
       </c>
       <c r="B142" s="1">
         <v>11</v>
@@ -2971,8 +3263,8 @@
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A143" s="5">
-        <v>43640</v>
+      <c r="A143" s="4" t="s">
+        <v>125</v>
       </c>
       <c r="B143" s="1">
         <v>9.1999999999999993</v>
@@ -2987,8 +3279,8 @@
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A144" s="5">
-        <v>43641</v>
+      <c r="A144" s="4" t="s">
+        <v>126</v>
       </c>
       <c r="B144" s="1">
         <v>9.1999999999999993</v>
@@ -3003,8 +3295,8 @@
       </c>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A145" s="5">
-        <v>43642</v>
+      <c r="A145" s="4" t="s">
+        <v>127</v>
       </c>
       <c r="B145" s="1">
         <v>9.1999999999999993</v>
@@ -3019,8 +3311,8 @@
       </c>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A146" s="5">
-        <v>43643</v>
+      <c r="A146" s="4" t="s">
+        <v>128</v>
       </c>
       <c r="B146" s="1">
         <v>9.1999999999999993</v>
@@ -3035,8 +3327,8 @@
       </c>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A147" s="5">
-        <v>43644</v>
+      <c r="A147" s="4" t="s">
+        <v>129</v>
       </c>
       <c r="B147" s="1">
         <v>9.1999999999999993</v>
@@ -3051,8 +3343,8 @@
       </c>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A148" s="5">
-        <v>43645</v>
+      <c r="A148" s="4" t="s">
+        <v>130</v>
       </c>
       <c r="B148" s="1">
         <v>9.1999999999999993</v>
@@ -3067,8 +3359,8 @@
       </c>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A149" s="5">
-        <v>43646</v>
+      <c r="A149" s="4" t="s">
+        <v>104</v>
       </c>
       <c r="B149" s="1">
         <v>9.1999999999999993</v>
@@ -3083,8 +3375,8 @@
       </c>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A150" s="5">
-        <v>43647</v>
+      <c r="A150" s="4" t="s">
+        <v>131</v>
       </c>
       <c r="B150" s="1">
         <v>22.2</v>
@@ -3099,8 +3391,8 @@
       </c>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A151" s="5">
-        <v>43648</v>
+      <c r="A151" s="4" t="s">
+        <v>132</v>
       </c>
       <c r="B151" s="1">
         <v>17.100000000000001</v>
@@ -3115,8 +3407,8 @@
       </c>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A152" s="5">
-        <v>43649</v>
+      <c r="A152" s="4" t="s">
+        <v>133</v>
       </c>
       <c r="B152" s="1">
         <v>17</v>
@@ -3131,8 +3423,8 @@
       </c>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A153" s="5">
-        <v>43650</v>
+      <c r="A153" s="4" t="s">
+        <v>134</v>
       </c>
       <c r="B153" s="1">
         <v>25.4</v>
@@ -3147,8 +3439,8 @@
       </c>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A154" s="5">
-        <v>43651</v>
+      <c r="A154" s="4" t="s">
+        <v>135</v>
       </c>
       <c r="B154" s="1">
         <v>25.4</v>
@@ -3163,8 +3455,8 @@
       </c>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A155" s="5">
-        <v>43653</v>
+      <c r="A155" s="4" t="s">
+        <v>136</v>
       </c>
       <c r="B155" s="1">
         <v>24.3</v>
@@ -3179,8 +3471,8 @@
       </c>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A156" s="5">
-        <v>43654</v>
+      <c r="A156" s="4" t="s">
+        <v>137</v>
       </c>
       <c r="B156" s="1">
         <v>5.8</v>
@@ -3195,8 +3487,8 @@
       </c>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A157" s="5">
-        <v>43655</v>
+      <c r="A157" s="4" t="s">
+        <v>138</v>
       </c>
       <c r="B157" s="1">
         <v>5.8</v>
@@ -3211,8 +3503,8 @@
       </c>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A158" s="5">
-        <v>43656</v>
+      <c r="A158" s="4" t="s">
+        <v>139</v>
       </c>
       <c r="B158" s="1">
         <v>5.8</v>
@@ -3227,8 +3519,8 @@
       </c>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A159" s="5">
-        <v>43657</v>
+      <c r="A159" s="4" t="s">
+        <v>140</v>
       </c>
       <c r="B159" s="1">
         <v>24</v>
@@ -3243,8 +3535,8 @@
       </c>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A160" s="5">
-        <v>43658</v>
+      <c r="A160" s="4" t="s">
+        <v>141</v>
       </c>
       <c r="B160" s="1">
         <v>27.1</v>
@@ -3259,8 +3551,8 @@
       </c>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A161" s="5">
-        <v>43662</v>
+      <c r="A161" s="4" t="s">
+        <v>142</v>
       </c>
       <c r="B161" s="1">
         <v>11.2</v>
@@ -3275,8 +3567,8 @@
       </c>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A162" s="5">
-        <v>43663</v>
+      <c r="A162" s="4" t="s">
+        <v>143</v>
       </c>
       <c r="B162" s="1">
         <v>11.2</v>
@@ -3291,8 +3583,8 @@
       </c>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A163" s="5">
-        <v>43664</v>
+      <c r="A163" s="4" t="s">
+        <v>144</v>
       </c>
       <c r="B163" s="1">
         <v>11.2</v>
@@ -3307,8 +3599,8 @@
       </c>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A164" s="5">
-        <v>43665</v>
+      <c r="A164" s="4" t="s">
+        <v>145</v>
       </c>
       <c r="B164" s="1">
         <v>10.8</v>
@@ -3323,8 +3615,8 @@
       </c>
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A165" s="5">
-        <v>43666</v>
+      <c r="A165" s="4" t="s">
+        <v>146</v>
       </c>
       <c r="B165" s="1">
         <v>10.8</v>
@@ -3339,8 +3631,8 @@
       </c>
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A166" s="5">
-        <v>43667</v>
+      <c r="A166" s="4" t="s">
+        <v>147</v>
       </c>
       <c r="B166" s="1">
         <v>10.8</v>
@@ -3355,8 +3647,8 @@
       </c>
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A167" s="5">
-        <v>43668</v>
+      <c r="A167" s="4" t="s">
+        <v>148</v>
       </c>
       <c r="B167" s="1">
         <v>11.1</v>
@@ -3371,8 +3663,8 @@
       </c>
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A168" s="5">
-        <v>43670</v>
+      <c r="A168" s="4" t="s">
+        <v>149</v>
       </c>
       <c r="B168" s="1">
         <v>11</v>
@@ -3387,8 +3679,8 @@
       </c>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A169" s="5">
-        <v>43671</v>
+      <c r="A169" s="4" t="s">
+        <v>150</v>
       </c>
       <c r="B169" s="1">
         <v>11</v>
@@ -3403,8 +3695,8 @@
       </c>
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A170" s="5">
-        <v>43672</v>
+      <c r="A170" s="4" t="s">
+        <v>151</v>
       </c>
       <c r="B170" s="1">
         <v>13.1</v>
@@ -3419,8 +3711,8 @@
       </c>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A171" s="5">
-        <v>43673</v>
+      <c r="A171" s="4" t="s">
+        <v>152</v>
       </c>
       <c r="B171" s="1">
         <v>13.1</v>
@@ -3435,8 +3727,8 @@
       </c>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A172" s="5">
-        <v>43674</v>
+      <c r="A172" s="4" t="s">
+        <v>153</v>
       </c>
       <c r="B172" s="1">
         <v>13.1</v>
@@ -3451,8 +3743,8 @@
       </c>
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A173" s="5">
-        <v>43676</v>
+      <c r="A173" s="4" t="s">
+        <v>154</v>
       </c>
       <c r="B173" s="1">
         <v>10</v>
@@ -3467,8 +3759,8 @@
       </c>
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A174" s="5">
-        <v>43677</v>
+      <c r="A174" s="4" t="s">
+        <v>155</v>
       </c>
       <c r="B174" s="1">
         <v>10</v>

--- a/Irrigation Dates Depths.xlsx
+++ b/Irrigation Dates Depths.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\seosu\Desktop\Guayule Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{847CBC25-6D09-4AA5-BFE0-077D40C353B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91F9D27C-AC7A-423A-8E3E-724A2EA57D60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -511,18 +511,6 @@
     <t>12/8/2018</t>
   </si>
   <si>
-    <t>1/9/2019</t>
-  </si>
-  <si>
-    <t>2/9/2019</t>
-  </si>
-  <si>
-    <t>11/9/2019</t>
-  </si>
-  <si>
-    <t>12/9/2019</t>
-  </si>
-  <si>
     <t>3/4/2019</t>
   </si>
   <si>
@@ -563,6 +551,18 @@
   </si>
   <si>
     <t>12/5/2019</t>
+  </si>
+  <si>
+    <t>1/9/2018</t>
+  </si>
+  <si>
+    <t>2/9/2018</t>
+  </si>
+  <si>
+    <t>11/9/2018</t>
+  </si>
+  <si>
+    <t>12/9/2018</t>
   </si>
 </sst>
 </file>
@@ -920,8 +920,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E174"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A164" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="E164" sqref="E1:E1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A61" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="A72" sqref="A72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -972,11 +972,11 @@
         <v>11</v>
       </c>
       <c r="C3" s="6">
-        <f t="shared" ref="C3:C66" si="0">B3*0.5</f>
+        <f t="shared" ref="C3:C45" si="0">B3*0.5</f>
         <v>5.5</v>
       </c>
       <c r="D3" s="8">
-        <f t="shared" ref="D3:D66" si="1">B3*1.5</f>
+        <f t="shared" ref="D3:D45" si="1">B3*1.5</f>
         <v>16.5</v>
       </c>
     </row>
@@ -1640,7 +1640,7 @@
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45" s="4" t="s">
-        <v>158</v>
+        <v>172</v>
       </c>
       <c r="B45" s="1">
         <v>12</v>
@@ -1657,17 +1657,17 @@
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46" s="4" t="s">
-        <v>159</v>
+        <v>173</v>
       </c>
       <c r="B46" s="1">
         <v>12</v>
       </c>
       <c r="C46" s="6">
-        <f t="shared" si="0"/>
+        <f>B46*0.5</f>
         <v>6</v>
       </c>
       <c r="D46" s="8">
-        <f t="shared" si="1"/>
+        <f>B46*1.5</f>
         <v>18</v>
       </c>
       <c r="E46" s="2"/>
@@ -1680,11 +1680,11 @@
         <v>12</v>
       </c>
       <c r="C47" s="6">
-        <f t="shared" si="0"/>
+        <f>B47*0.5</f>
         <v>6</v>
       </c>
       <c r="D47" s="8">
-        <f t="shared" si="1"/>
+        <f>B47*1.5</f>
         <v>18</v>
       </c>
     </row>
@@ -1696,44 +1696,44 @@
         <v>12</v>
       </c>
       <c r="C48" s="6">
-        <f t="shared" si="0"/>
+        <f>B48*0.5</f>
         <v>6</v>
       </c>
       <c r="D48" s="8">
-        <f t="shared" si="1"/>
+        <f>B48*1.5</f>
         <v>18</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49" s="4" t="s">
-        <v>160</v>
+        <v>174</v>
       </c>
       <c r="B49" s="1">
         <v>12</v>
       </c>
       <c r="C49" s="6">
-        <f t="shared" si="0"/>
+        <f>B49*0.5</f>
         <v>6</v>
       </c>
       <c r="D49" s="8">
-        <f t="shared" si="1"/>
+        <f>B49*1.5</f>
         <v>18</v>
       </c>
       <c r="E49" s="2"/>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50" s="4" t="s">
-        <v>161</v>
+        <v>175</v>
       </c>
       <c r="B50" s="1">
         <v>18</v>
       </c>
       <c r="C50" s="6">
-        <f t="shared" si="0"/>
+        <f>B50*0.5</f>
         <v>9</v>
       </c>
       <c r="D50" s="8">
-        <f t="shared" si="1"/>
+        <f>B50*1.5</f>
         <v>27</v>
       </c>
       <c r="E50" s="2"/>
@@ -1746,11 +1746,11 @@
         <v>12</v>
       </c>
       <c r="C51" s="6">
-        <f t="shared" si="0"/>
+        <f>B51*0.5</f>
         <v>6</v>
       </c>
       <c r="D51" s="8">
-        <f t="shared" si="1"/>
+        <f>B51*1.5</f>
         <v>18</v>
       </c>
     </row>
@@ -1762,11 +1762,11 @@
         <v>12</v>
       </c>
       <c r="C52" s="6">
-        <f t="shared" si="0"/>
+        <f>B52*0.5</f>
         <v>6</v>
       </c>
       <c r="D52" s="8">
-        <f t="shared" si="1"/>
+        <f>B52*1.5</f>
         <v>18</v>
       </c>
     </row>
@@ -1778,11 +1778,11 @@
         <v>12</v>
       </c>
       <c r="C53" s="6">
-        <f t="shared" si="0"/>
+        <f>B53*0.5</f>
         <v>6</v>
       </c>
       <c r="D53" s="8">
-        <f t="shared" si="1"/>
+        <f>B53*1.5</f>
         <v>18</v>
       </c>
     </row>
@@ -1794,11 +1794,11 @@
         <v>24</v>
       </c>
       <c r="C54" s="6">
-        <f t="shared" si="0"/>
+        <f>B54*0.5</f>
         <v>12</v>
       </c>
       <c r="D54" s="8">
-        <f t="shared" si="1"/>
+        <f>B54*1.5</f>
         <v>36</v>
       </c>
     </row>
@@ -1810,11 +1810,11 @@
         <v>24</v>
       </c>
       <c r="C55" s="6">
-        <f t="shared" si="0"/>
+        <f>B55*0.5</f>
         <v>12</v>
       </c>
       <c r="D55" s="8">
-        <f t="shared" si="1"/>
+        <f>B55*1.5</f>
         <v>36</v>
       </c>
     </row>
@@ -1826,11 +1826,11 @@
         <v>12</v>
       </c>
       <c r="C56" s="6">
-        <f t="shared" si="0"/>
+        <f>B56*0.5</f>
         <v>6</v>
       </c>
       <c r="D56" s="8">
-        <f t="shared" si="1"/>
+        <f>B56*1.5</f>
         <v>18</v>
       </c>
     </row>
@@ -1842,11 +1842,11 @@
         <v>12</v>
       </c>
       <c r="C57" s="6">
-        <f t="shared" si="0"/>
+        <f>B57*0.5</f>
         <v>6</v>
       </c>
       <c r="D57" s="8">
-        <f t="shared" si="1"/>
+        <f>B57*1.5</f>
         <v>18</v>
       </c>
     </row>
@@ -1858,11 +1858,11 @@
         <v>12</v>
       </c>
       <c r="C58" s="6">
-        <f t="shared" si="0"/>
+        <f>B58*0.5</f>
         <v>6</v>
       </c>
       <c r="D58" s="8">
-        <f t="shared" si="1"/>
+        <f>B58*1.5</f>
         <v>18</v>
       </c>
     </row>
@@ -1874,11 +1874,11 @@
         <v>12</v>
       </c>
       <c r="C59" s="6">
-        <f t="shared" si="0"/>
+        <f>B59*0.5</f>
         <v>6</v>
       </c>
       <c r="D59" s="8">
-        <f t="shared" si="1"/>
+        <f>B59*1.5</f>
         <v>18</v>
       </c>
     </row>
@@ -1890,11 +1890,11 @@
         <v>24</v>
       </c>
       <c r="C60" s="6">
-        <f t="shared" si="0"/>
+        <f>B60*0.5</f>
         <v>12</v>
       </c>
       <c r="D60" s="8">
-        <f t="shared" si="1"/>
+        <f>B60*1.5</f>
         <v>36</v>
       </c>
     </row>
@@ -1906,11 +1906,11 @@
         <v>12</v>
       </c>
       <c r="C61" s="6">
-        <f t="shared" si="0"/>
+        <f>B61*0.5</f>
         <v>6</v>
       </c>
       <c r="D61" s="8">
-        <f t="shared" si="1"/>
+        <f>B61*1.5</f>
         <v>18</v>
       </c>
     </row>
@@ -1922,11 +1922,11 @@
         <v>12</v>
       </c>
       <c r="C62" s="6">
-        <f t="shared" si="0"/>
+        <f>B62*0.5</f>
         <v>6</v>
       </c>
       <c r="D62" s="8">
-        <f t="shared" si="1"/>
+        <f>B62*1.5</f>
         <v>18</v>
       </c>
     </row>
@@ -1938,11 +1938,11 @@
         <v>12</v>
       </c>
       <c r="C63" s="6">
-        <f t="shared" si="0"/>
+        <f>B63*0.5</f>
         <v>6</v>
       </c>
       <c r="D63" s="8">
-        <f t="shared" si="1"/>
+        <f>B63*1.5</f>
         <v>18</v>
       </c>
     </row>
@@ -1954,11 +1954,11 @@
         <v>31</v>
       </c>
       <c r="C64" s="6">
-        <f t="shared" si="0"/>
+        <f>B64*0.5</f>
         <v>15.5</v>
       </c>
       <c r="D64" s="8">
-        <f t="shared" si="1"/>
+        <f>B64*1.5</f>
         <v>46.5</v>
       </c>
     </row>
@@ -1970,11 +1970,11 @@
         <v>31</v>
       </c>
       <c r="C65" s="6">
-        <f t="shared" si="0"/>
+        <f>B65*0.5</f>
         <v>15.5</v>
       </c>
       <c r="D65" s="8">
-        <f t="shared" si="1"/>
+        <f>B65*1.5</f>
         <v>46.5</v>
       </c>
     </row>
@@ -1986,11 +1986,11 @@
         <v>12</v>
       </c>
       <c r="C66" s="6">
-        <f t="shared" si="0"/>
+        <f>B66*0.5</f>
         <v>6</v>
       </c>
       <c r="D66" s="8">
-        <f t="shared" si="1"/>
+        <f>B66*1.5</f>
         <v>18</v>
       </c>
     </row>
@@ -2246,7 +2246,7 @@
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A82" s="4" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="B82" s="1">
         <v>9.4</v>
@@ -2263,7 +2263,7 @@
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A83" s="4" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="B83" s="1">
         <v>9.4</v>
@@ -2280,7 +2280,7 @@
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A84" s="4" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="B84" s="1">
         <v>9.4</v>
@@ -2297,7 +2297,7 @@
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A85" s="4" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="B85" s="1">
         <v>9.4</v>
@@ -2314,7 +2314,7 @@
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A86" s="4" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="B86" s="1">
         <v>12.5</v>
@@ -2331,7 +2331,7 @@
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A87" s="4" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="B87" s="1">
         <v>9.4</v>
@@ -2569,7 +2569,7 @@
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A101" s="4" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="B101" s="1">
         <v>13.9</v>
@@ -2586,7 +2586,7 @@
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A102" s="4" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="B102" s="1">
         <v>14</v>
@@ -2603,7 +2603,7 @@
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A103" s="4" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="B103" s="1">
         <v>14</v>
@@ -2620,7 +2620,7 @@
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A104" s="4" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="B104" s="1">
         <v>13.8</v>
@@ -2637,7 +2637,7 @@
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A105" s="4" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="B105" s="1">
         <v>13.7</v>
@@ -2654,7 +2654,7 @@
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A106" s="4" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="B106" s="1">
         <v>13.7</v>
@@ -2671,7 +2671,7 @@
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A107" s="4" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="B107" s="1">
         <v>13.7</v>
@@ -2688,7 +2688,7 @@
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A108" s="4" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="B108" s="1">
         <v>13.7</v>

--- a/Irrigation Dates Depths.xlsx
+++ b/Irrigation Dates Depths.xlsx
@@ -8,12 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\seosu\Desktop\Guayule Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FED24B9-576E-4C1A-8A65-770CEDE3B351}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4994C4C-DBBA-4C5F-90A3-D12CDA5E9600}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="525" uniqueCount="176">
   <si>
     <t>Date</t>
   </si>
@@ -920,8 +922,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E174"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="D18" sqref="D1:D1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -940,12 +942,7 @@
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="D1" s="8" t="s">
-        <v>67</v>
-      </c>
+      <c r="C1" s="7"/>
       <c r="E1" s="3"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
@@ -955,14 +952,6 @@
       <c r="B2" s="1">
         <v>11</v>
       </c>
-      <c r="C2" s="6">
-        <f>B2*0.5</f>
-        <v>5.5</v>
-      </c>
-      <c r="D2" s="8">
-        <f>B2*1.5</f>
-        <v>16.5</v>
-      </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
@@ -971,14 +960,6 @@
       <c r="B3" s="1">
         <v>11</v>
       </c>
-      <c r="C3" s="6">
-        <f t="shared" ref="C3:C45" si="0">B3*0.5</f>
-        <v>5.5</v>
-      </c>
-      <c r="D3" s="8">
-        <f t="shared" ref="D3:D45" si="1">B3*1.5</f>
-        <v>16.5</v>
-      </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
@@ -987,14 +968,6 @@
       <c r="B4" s="1">
         <v>16</v>
       </c>
-      <c r="C4" s="6">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="D4" s="8">
-        <f t="shared" si="1"/>
-        <v>24</v>
-      </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
@@ -1003,14 +976,6 @@
       <c r="B5" s="1">
         <v>16</v>
       </c>
-      <c r="C5" s="6">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="D5" s="8">
-        <f t="shared" si="1"/>
-        <v>24</v>
-      </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
@@ -1019,14 +984,6 @@
       <c r="B6" s="1">
         <v>16</v>
       </c>
-      <c r="C6" s="6">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="D6" s="8">
-        <f t="shared" si="1"/>
-        <v>24</v>
-      </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
@@ -1035,14 +992,6 @@
       <c r="B7" s="1">
         <v>16</v>
       </c>
-      <c r="C7" s="6">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="D7" s="8">
-        <f t="shared" si="1"/>
-        <v>24</v>
-      </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
@@ -1051,14 +1000,6 @@
       <c r="B8" s="1">
         <v>16</v>
       </c>
-      <c r="C8" s="6">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="D8" s="8">
-        <f t="shared" si="1"/>
-        <v>24</v>
-      </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
@@ -1067,14 +1008,6 @@
       <c r="B9" s="1">
         <v>16</v>
       </c>
-      <c r="C9" s="6">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="D9" s="8">
-        <f t="shared" si="1"/>
-        <v>24</v>
-      </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
@@ -1083,14 +1016,6 @@
       <c r="B10" s="1">
         <v>10.8</v>
       </c>
-      <c r="C10" s="6">
-        <f t="shared" si="0"/>
-        <v>5.4</v>
-      </c>
-      <c r="D10" s="8">
-        <f t="shared" si="1"/>
-        <v>16.200000000000003</v>
-      </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
@@ -1099,14 +1024,6 @@
       <c r="B11" s="1">
         <v>18</v>
       </c>
-      <c r="C11" s="6">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="D11" s="8">
-        <f t="shared" si="1"/>
-        <v>27</v>
-      </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
@@ -1115,14 +1032,6 @@
       <c r="B12" s="1">
         <v>18</v>
       </c>
-      <c r="C12" s="6">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="D12" s="8">
-        <f t="shared" si="1"/>
-        <v>27</v>
-      </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
@@ -1131,14 +1040,6 @@
       <c r="B13" s="1">
         <v>18</v>
       </c>
-      <c r="C13" s="6">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="D13" s="8">
-        <f t="shared" si="1"/>
-        <v>27</v>
-      </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
@@ -1147,14 +1048,6 @@
       <c r="B14" s="1">
         <v>18</v>
       </c>
-      <c r="C14" s="6">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="D14" s="8">
-        <f t="shared" si="1"/>
-        <v>27</v>
-      </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
@@ -1163,14 +1056,6 @@
       <c r="B15" s="1">
         <v>18</v>
       </c>
-      <c r="C15" s="6">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="D15" s="8">
-        <f t="shared" si="1"/>
-        <v>27</v>
-      </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
@@ -1179,269 +1064,133 @@
       <c r="B16" s="1">
         <v>11</v>
       </c>
-      <c r="C16" s="6">
-        <f t="shared" si="0"/>
-        <v>5.5</v>
-      </c>
-      <c r="D16" s="8">
-        <f t="shared" si="1"/>
-        <v>16.5</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
         <v>17</v>
       </c>
       <c r="B17" s="1">
         <v>11</v>
       </c>
-      <c r="C17" s="6">
-        <f t="shared" si="0"/>
-        <v>5.5</v>
-      </c>
-      <c r="D17" s="8">
-        <f t="shared" si="1"/>
-        <v>16.5</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
         <v>18</v>
       </c>
       <c r="B18" s="1">
         <v>11</v>
       </c>
-      <c r="C18" s="6">
-        <f t="shared" si="0"/>
-        <v>5.5</v>
-      </c>
-      <c r="D18" s="8">
-        <f t="shared" si="1"/>
-        <v>16.5</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="4" t="s">
         <v>19</v>
       </c>
       <c r="B19" s="1">
         <v>11</v>
       </c>
-      <c r="C19" s="6">
-        <f t="shared" si="0"/>
-        <v>5.5</v>
-      </c>
-      <c r="D19" s="8">
-        <f t="shared" si="1"/>
-        <v>16.5</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" s="4" t="s">
         <v>20</v>
       </c>
       <c r="B20" s="1">
         <v>11</v>
       </c>
-      <c r="C20" s="6">
-        <f t="shared" si="0"/>
-        <v>5.5</v>
-      </c>
-      <c r="D20" s="8">
-        <f t="shared" si="1"/>
-        <v>16.5</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" s="4" t="s">
         <v>21</v>
       </c>
       <c r="B21" s="1">
         <v>27.1</v>
       </c>
-      <c r="C21" s="6">
-        <f t="shared" si="0"/>
-        <v>13.55</v>
-      </c>
-      <c r="D21" s="8">
-        <f t="shared" si="1"/>
-        <v>40.650000000000006</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" s="4" t="s">
         <v>22</v>
       </c>
       <c r="B22" s="1">
         <v>28.8</v>
       </c>
-      <c r="C22" s="6">
-        <f t="shared" si="0"/>
-        <v>14.4</v>
-      </c>
-      <c r="D22" s="8">
-        <f t="shared" si="1"/>
-        <v>43.2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" s="4" t="s">
         <v>23</v>
       </c>
       <c r="B23" s="1">
         <v>11.2</v>
       </c>
-      <c r="C23" s="6">
-        <f t="shared" si="0"/>
-        <v>5.6</v>
-      </c>
-      <c r="D23" s="8">
-        <f t="shared" si="1"/>
-        <v>16.799999999999997</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" s="4" t="s">
         <v>24</v>
       </c>
       <c r="B24" s="1">
         <v>11.2</v>
       </c>
-      <c r="C24" s="6">
-        <f t="shared" si="0"/>
-        <v>5.6</v>
-      </c>
-      <c r="D24" s="8">
-        <f t="shared" si="1"/>
-        <v>16.799999999999997</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" s="4" t="s">
         <v>25</v>
       </c>
       <c r="B25" s="1">
         <v>11.2</v>
       </c>
-      <c r="C25" s="6">
-        <f t="shared" si="0"/>
-        <v>5.6</v>
-      </c>
-      <c r="D25" s="8">
-        <f t="shared" si="1"/>
-        <v>16.799999999999997</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" s="4" t="s">
         <v>26</v>
       </c>
       <c r="B26" s="1">
         <v>14.2</v>
       </c>
-      <c r="C26" s="6">
-        <f t="shared" si="0"/>
-        <v>7.1</v>
-      </c>
-      <c r="D26" s="8">
-        <f t="shared" si="1"/>
-        <v>21.299999999999997</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" s="4" t="s">
         <v>27</v>
       </c>
       <c r="B27" s="1">
         <v>11</v>
       </c>
-      <c r="C27" s="6">
-        <f t="shared" si="0"/>
-        <v>5.5</v>
-      </c>
-      <c r="D27" s="8">
-        <f t="shared" si="1"/>
-        <v>16.5</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" s="4" t="s">
         <v>28</v>
       </c>
       <c r="B28" s="1">
         <v>11</v>
       </c>
-      <c r="C28" s="6">
-        <f t="shared" si="0"/>
-        <v>5.5</v>
-      </c>
-      <c r="D28" s="8">
-        <f t="shared" si="1"/>
-        <v>16.5</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" s="4" t="s">
         <v>29</v>
       </c>
       <c r="B29" s="1">
         <v>23.7</v>
       </c>
-      <c r="C29" s="6">
-        <f t="shared" si="0"/>
-        <v>11.85</v>
-      </c>
-      <c r="D29" s="8">
-        <f t="shared" si="1"/>
-        <v>35.549999999999997</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" s="4" t="s">
         <v>30</v>
       </c>
       <c r="B30" s="1">
         <v>16</v>
       </c>
-      <c r="C30" s="6">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="D30" s="8">
-        <f t="shared" si="1"/>
-        <v>24</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" s="4" t="s">
         <v>31</v>
       </c>
       <c r="B31" s="1">
         <v>16</v>
       </c>
-      <c r="C31" s="6">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="D31" s="8">
-        <f t="shared" si="1"/>
-        <v>24</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" s="4" t="s">
         <v>32</v>
       </c>
       <c r="B32" s="1">
         <v>16</v>
-      </c>
-      <c r="C32" s="6">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="D32" s="8">
-        <f t="shared" si="1"/>
-        <v>24</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
@@ -1451,14 +1200,6 @@
       <c r="B33" s="1">
         <v>16</v>
       </c>
-      <c r="C33" s="6">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="D33" s="8">
-        <f t="shared" si="1"/>
-        <v>24</v>
-      </c>
       <c r="E33" s="2"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
@@ -1468,14 +1209,6 @@
       <c r="B34" s="1">
         <v>32</v>
       </c>
-      <c r="C34" s="6">
-        <f t="shared" si="0"/>
-        <v>16</v>
-      </c>
-      <c r="D34" s="8">
-        <f t="shared" si="1"/>
-        <v>48</v>
-      </c>
       <c r="E34" s="2"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
@@ -1485,14 +1218,6 @@
       <c r="B35" s="1">
         <v>8.1999999999999993</v>
       </c>
-      <c r="C35" s="6">
-        <f t="shared" si="0"/>
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="D35" s="8">
-        <f t="shared" si="1"/>
-        <v>12.299999999999999</v>
-      </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" s="4" t="s">
@@ -1501,14 +1226,6 @@
       <c r="B36" s="1">
         <v>10.7</v>
       </c>
-      <c r="C36" s="6">
-        <f t="shared" si="0"/>
-        <v>5.35</v>
-      </c>
-      <c r="D36" s="8">
-        <f t="shared" si="1"/>
-        <v>16.049999999999997</v>
-      </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" s="4" t="s">
@@ -1517,14 +1234,6 @@
       <c r="B37" s="1">
         <v>10.7</v>
       </c>
-      <c r="C37" s="6">
-        <f t="shared" si="0"/>
-        <v>5.35</v>
-      </c>
-      <c r="D37" s="8">
-        <f t="shared" si="1"/>
-        <v>16.049999999999997</v>
-      </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" s="4" t="s">
@@ -1533,14 +1242,6 @@
       <c r="B38" s="1">
         <v>12.2</v>
       </c>
-      <c r="C38" s="6">
-        <f t="shared" si="0"/>
-        <v>6.1</v>
-      </c>
-      <c r="D38" s="8">
-        <f t="shared" si="1"/>
-        <v>18.299999999999997</v>
-      </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39" s="4" t="s">
@@ -1549,14 +1250,6 @@
       <c r="B39" s="1">
         <v>12.2</v>
       </c>
-      <c r="C39" s="6">
-        <f t="shared" si="0"/>
-        <v>6.1</v>
-      </c>
-      <c r="D39" s="8">
-        <f t="shared" si="1"/>
-        <v>18.299999999999997</v>
-      </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" s="4" t="s">
@@ -1565,14 +1258,6 @@
       <c r="B40" s="1">
         <v>12.2</v>
       </c>
-      <c r="C40" s="6">
-        <f t="shared" si="0"/>
-        <v>6.1</v>
-      </c>
-      <c r="D40" s="8">
-        <f t="shared" si="1"/>
-        <v>18.299999999999997</v>
-      </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41" s="4" t="s">
@@ -1581,14 +1266,6 @@
       <c r="B41" s="1">
         <v>12</v>
       </c>
-      <c r="C41" s="6">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="D41" s="8">
-        <f t="shared" si="1"/>
-        <v>18</v>
-      </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42" s="4" t="s">
@@ -1597,14 +1274,6 @@
       <c r="B42" s="1">
         <v>12</v>
       </c>
-      <c r="C42" s="6">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="D42" s="8">
-        <f t="shared" si="1"/>
-        <v>18</v>
-      </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43" s="4" t="s">
@@ -1613,14 +1282,6 @@
       <c r="B43" s="1">
         <v>12</v>
       </c>
-      <c r="C43" s="6">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="D43" s="8">
-        <f t="shared" si="1"/>
-        <v>18</v>
-      </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" s="4" t="s">
@@ -1629,14 +1290,6 @@
       <c r="B44" s="1">
         <v>12</v>
       </c>
-      <c r="C44" s="6">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="D44" s="8">
-        <f t="shared" si="1"/>
-        <v>18</v>
-      </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45" s="4" t="s">
@@ -1645,14 +1298,6 @@
       <c r="B45" s="1">
         <v>12</v>
       </c>
-      <c r="C45" s="6">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="D45" s="8">
-        <f t="shared" si="1"/>
-        <v>18</v>
-      </c>
       <c r="E45" s="2"/>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.3">
@@ -1662,14 +1307,6 @@
       <c r="B46" s="1">
         <v>12</v>
       </c>
-      <c r="C46" s="6">
-        <f>B46*0.5</f>
-        <v>6</v>
-      </c>
-      <c r="D46" s="8">
-        <f>B46*1.5</f>
-        <v>18</v>
-      </c>
       <c r="E46" s="2"/>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.3">
@@ -1679,14 +1316,6 @@
       <c r="B47" s="1">
         <v>12</v>
       </c>
-      <c r="C47" s="6">
-        <f>B47*0.5</f>
-        <v>6</v>
-      </c>
-      <c r="D47" s="8">
-        <f>B47*1.5</f>
-        <v>18</v>
-      </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48" s="4" t="s">
@@ -1695,14 +1324,6 @@
       <c r="B48" s="1">
         <v>12</v>
       </c>
-      <c r="C48" s="6">
-        <f>B48*0.5</f>
-        <v>6</v>
-      </c>
-      <c r="D48" s="8">
-        <f>B48*1.5</f>
-        <v>18</v>
-      </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49" s="4" t="s">
@@ -1711,14 +1332,6 @@
       <c r="B49" s="1">
         <v>12</v>
       </c>
-      <c r="C49" s="6">
-        <f>B49*0.5</f>
-        <v>6</v>
-      </c>
-      <c r="D49" s="8">
-        <f>B49*1.5</f>
-        <v>18</v>
-      </c>
       <c r="E49" s="2"/>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.3">
@@ -1728,14 +1341,6 @@
       <c r="B50" s="1">
         <v>18</v>
       </c>
-      <c r="C50" s="6">
-        <f>B50*0.5</f>
-        <v>9</v>
-      </c>
-      <c r="D50" s="8">
-        <f>B50*1.5</f>
-        <v>27</v>
-      </c>
       <c r="E50" s="2"/>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.3">
@@ -1745,14 +1350,6 @@
       <c r="B51" s="1">
         <v>12</v>
       </c>
-      <c r="C51" s="6">
-        <f>B51*0.5</f>
-        <v>6</v>
-      </c>
-      <c r="D51" s="8">
-        <f>B51*1.5</f>
-        <v>18</v>
-      </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A52" s="4" t="s">
@@ -1761,14 +1358,6 @@
       <c r="B52" s="1">
         <v>12</v>
       </c>
-      <c r="C52" s="6">
-        <f>B52*0.5</f>
-        <v>6</v>
-      </c>
-      <c r="D52" s="8">
-        <f>B52*1.5</f>
-        <v>18</v>
-      </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A53" s="4" t="s">
@@ -1777,14 +1366,6 @@
       <c r="B53" s="1">
         <v>12</v>
       </c>
-      <c r="C53" s="6">
-        <f>B53*0.5</f>
-        <v>6</v>
-      </c>
-      <c r="D53" s="8">
-        <f>B53*1.5</f>
-        <v>18</v>
-      </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A54" s="4" t="s">
@@ -1793,14 +1374,6 @@
       <c r="B54" s="1">
         <v>24</v>
       </c>
-      <c r="C54" s="6">
-        <f>B54*0.5</f>
-        <v>12</v>
-      </c>
-      <c r="D54" s="8">
-        <f>B54*1.5</f>
-        <v>36</v>
-      </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A55" s="4" t="s">
@@ -1809,14 +1382,6 @@
       <c r="B55" s="1">
         <v>24</v>
       </c>
-      <c r="C55" s="6">
-        <f>B55*0.5</f>
-        <v>12</v>
-      </c>
-      <c r="D55" s="8">
-        <f>B55*1.5</f>
-        <v>36</v>
-      </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A56" s="4" t="s">
@@ -1825,14 +1390,6 @@
       <c r="B56" s="1">
         <v>12</v>
       </c>
-      <c r="C56" s="6">
-        <f>B56*0.5</f>
-        <v>6</v>
-      </c>
-      <c r="D56" s="8">
-        <f>B56*1.5</f>
-        <v>18</v>
-      </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A57" s="4" t="s">
@@ -1841,14 +1398,6 @@
       <c r="B57" s="1">
         <v>12</v>
       </c>
-      <c r="C57" s="6">
-        <f>B57*0.5</f>
-        <v>6</v>
-      </c>
-      <c r="D57" s="8">
-        <f>B57*1.5</f>
-        <v>18</v>
-      </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A58" s="4" t="s">
@@ -1857,14 +1406,6 @@
       <c r="B58" s="1">
         <v>12</v>
       </c>
-      <c r="C58" s="6">
-        <f>B58*0.5</f>
-        <v>6</v>
-      </c>
-      <c r="D58" s="8">
-        <f>B58*1.5</f>
-        <v>18</v>
-      </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A59" s="4" t="s">
@@ -1873,14 +1414,6 @@
       <c r="B59" s="1">
         <v>12</v>
       </c>
-      <c r="C59" s="6">
-        <f>B59*0.5</f>
-        <v>6</v>
-      </c>
-      <c r="D59" s="8">
-        <f>B59*1.5</f>
-        <v>18</v>
-      </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A60" s="4" t="s">
@@ -1889,14 +1422,6 @@
       <c r="B60" s="1">
         <v>24</v>
       </c>
-      <c r="C60" s="6">
-        <f>B60*0.5</f>
-        <v>12</v>
-      </c>
-      <c r="D60" s="8">
-        <f>B60*1.5</f>
-        <v>36</v>
-      </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A61" s="4" t="s">
@@ -1905,14 +1430,6 @@
       <c r="B61" s="1">
         <v>12</v>
       </c>
-      <c r="C61" s="6">
-        <f>B61*0.5</f>
-        <v>6</v>
-      </c>
-      <c r="D61" s="8">
-        <f>B61*1.5</f>
-        <v>18</v>
-      </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A62" s="4" t="s">
@@ -1921,14 +1438,6 @@
       <c r="B62" s="1">
         <v>12</v>
       </c>
-      <c r="C62" s="6">
-        <f>B62*0.5</f>
-        <v>6</v>
-      </c>
-      <c r="D62" s="8">
-        <f>B62*1.5</f>
-        <v>18</v>
-      </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A63" s="4" t="s">
@@ -1937,14 +1446,6 @@
       <c r="B63" s="1">
         <v>12</v>
       </c>
-      <c r="C63" s="6">
-        <f>B63*0.5</f>
-        <v>6</v>
-      </c>
-      <c r="D63" s="8">
-        <f>B63*1.5</f>
-        <v>18</v>
-      </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A64" s="4" t="s">
@@ -1953,14 +1454,6 @@
       <c r="B64" s="1">
         <v>31</v>
       </c>
-      <c r="C64" s="6">
-        <f>B64*0.5</f>
-        <v>15.5</v>
-      </c>
-      <c r="D64" s="8">
-        <f>B64*1.5</f>
-        <v>46.5</v>
-      </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A65" s="4" t="s">
@@ -1969,14 +1462,6 @@
       <c r="B65" s="1">
         <v>31</v>
       </c>
-      <c r="C65" s="6">
-        <f>B65*0.5</f>
-        <v>15.5</v>
-      </c>
-      <c r="D65" s="8">
-        <f>B65*1.5</f>
-        <v>46.5</v>
-      </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A66" s="4" t="s">
@@ -1985,14 +1470,6 @@
       <c r="B66" s="1">
         <v>12</v>
       </c>
-      <c r="C66" s="6">
-        <f>B66*0.5</f>
-        <v>6</v>
-      </c>
-      <c r="D66" s="8">
-        <f>B66*1.5</f>
-        <v>18</v>
-      </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A67" s="4" t="s">
@@ -2001,14 +1478,6 @@
       <c r="B67" s="1">
         <v>24</v>
       </c>
-      <c r="C67" s="6">
-        <f t="shared" ref="C67:C130" si="2">B67*0.5</f>
-        <v>12</v>
-      </c>
-      <c r="D67" s="8">
-        <f t="shared" ref="D67:D73" si="3">B67*1.5</f>
-        <v>36</v>
-      </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A68" s="4" t="s">
@@ -2017,14 +1486,6 @@
       <c r="B68" s="1">
         <v>12</v>
       </c>
-      <c r="C68" s="6">
-        <f t="shared" si="2"/>
-        <v>6</v>
-      </c>
-      <c r="D68" s="8">
-        <f t="shared" si="3"/>
-        <v>18</v>
-      </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A69" s="4" t="s">
@@ -2033,14 +1494,6 @@
       <c r="B69" s="1">
         <v>12</v>
       </c>
-      <c r="C69" s="6">
-        <f t="shared" si="2"/>
-        <v>6</v>
-      </c>
-      <c r="D69" s="8">
-        <f t="shared" si="3"/>
-        <v>18</v>
-      </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A70" s="4" t="s">
@@ -2049,14 +1502,6 @@
       <c r="B70" s="1">
         <v>12</v>
       </c>
-      <c r="C70" s="6">
-        <f t="shared" si="2"/>
-        <v>6</v>
-      </c>
-      <c r="D70" s="8">
-        <f t="shared" si="3"/>
-        <v>18</v>
-      </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A71" s="4" t="s">
@@ -2065,14 +1510,6 @@
       <c r="B71" s="1">
         <v>12</v>
       </c>
-      <c r="C71" s="6">
-        <f t="shared" si="2"/>
-        <v>6</v>
-      </c>
-      <c r="D71" s="8">
-        <f t="shared" si="3"/>
-        <v>18</v>
-      </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A72" s="4" t="s">
@@ -2081,14 +1518,6 @@
       <c r="B72" s="1">
         <v>7.2333299999999996</v>
       </c>
-      <c r="C72" s="6">
-        <f t="shared" si="2"/>
-        <v>3.6166649999999998</v>
-      </c>
-      <c r="D72" s="8">
-        <f t="shared" si="3"/>
-        <v>10.849995</v>
-      </c>
       <c r="E72" s="2"/>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.3">
@@ -2098,14 +1527,6 @@
       <c r="B73" s="1">
         <v>10.3</v>
       </c>
-      <c r="C73" s="6">
-        <f t="shared" si="2"/>
-        <v>5.15</v>
-      </c>
-      <c r="D73" s="8">
-        <f t="shared" si="3"/>
-        <v>15.450000000000001</v>
-      </c>
       <c r="E73" s="2"/>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.3">
@@ -2115,14 +1536,6 @@
       <c r="B74" s="1">
         <v>10.3</v>
       </c>
-      <c r="C74" s="6">
-        <f t="shared" si="2"/>
-        <v>5.15</v>
-      </c>
-      <c r="D74" s="8">
-        <f t="shared" ref="D74:D137" si="4">B74*1.5</f>
-        <v>15.450000000000001</v>
-      </c>
       <c r="E74" s="2"/>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.3">
@@ -2132,14 +1545,6 @@
       <c r="B75" s="1">
         <v>10.0524056792284</v>
       </c>
-      <c r="C75" s="6">
-        <f t="shared" si="2"/>
-        <v>5.0262028396142</v>
-      </c>
-      <c r="D75" s="8">
-        <f t="shared" si="4"/>
-        <v>15.0786085188426</v>
-      </c>
       <c r="E75" s="2"/>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.3">
@@ -2149,14 +1554,6 @@
       <c r="B76" s="1">
         <v>9.9730917123013896</v>
       </c>
-      <c r="C76" s="6">
-        <f t="shared" si="2"/>
-        <v>4.9865458561506948</v>
-      </c>
-      <c r="D76" s="8">
-        <f t="shared" si="4"/>
-        <v>14.959637568452084</v>
-      </c>
       <c r="E76" s="2"/>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.3">
@@ -2166,14 +1563,6 @@
       <c r="B77" s="1">
         <v>10.1291611310932</v>
       </c>
-      <c r="C77" s="6">
-        <f t="shared" si="2"/>
-        <v>5.0645805655466001</v>
-      </c>
-      <c r="D77" s="8">
-        <f t="shared" si="4"/>
-        <v>15.193741696639801</v>
-      </c>
       <c r="E77" s="2"/>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.3">
@@ -2183,14 +1572,6 @@
       <c r="B78" s="1">
         <v>9.8912192303122595</v>
       </c>
-      <c r="C78" s="6">
-        <f t="shared" si="2"/>
-        <v>4.9456096151561297</v>
-      </c>
-      <c r="D78" s="8">
-        <f t="shared" si="4"/>
-        <v>14.836828845468389</v>
-      </c>
       <c r="E78" s="2"/>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.3">
@@ -2200,14 +1581,6 @@
       <c r="B79" s="1">
         <v>9.4409205793720208</v>
       </c>
-      <c r="C79" s="6">
-        <f t="shared" si="2"/>
-        <v>4.7204602896860104</v>
-      </c>
-      <c r="D79" s="8">
-        <f t="shared" si="4"/>
-        <v>14.161380869058032</v>
-      </c>
       <c r="E79" s="2"/>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.3">
@@ -2217,14 +1590,6 @@
       <c r="B80" s="1">
         <v>10.1</v>
       </c>
-      <c r="C80" s="6">
-        <f t="shared" si="2"/>
-        <v>5.05</v>
-      </c>
-      <c r="D80" s="8">
-        <f t="shared" si="4"/>
-        <v>15.149999999999999</v>
-      </c>
       <c r="E80" s="2"/>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.3">
@@ -2234,14 +1599,6 @@
       <c r="B81" s="1">
         <v>10.1</v>
       </c>
-      <c r="C81" s="6">
-        <f t="shared" si="2"/>
-        <v>5.05</v>
-      </c>
-      <c r="D81" s="8">
-        <f t="shared" si="4"/>
-        <v>15.149999999999999</v>
-      </c>
       <c r="E81" s="2"/>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.3">
@@ -2251,14 +1608,6 @@
       <c r="B82" s="1">
         <v>9.4</v>
       </c>
-      <c r="C82" s="6">
-        <f t="shared" si="2"/>
-        <v>4.7</v>
-      </c>
-      <c r="D82" s="8">
-        <f t="shared" si="4"/>
-        <v>14.100000000000001</v>
-      </c>
       <c r="E82" s="2"/>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.3">
@@ -2268,14 +1617,6 @@
       <c r="B83" s="1">
         <v>9.4</v>
       </c>
-      <c r="C83" s="6">
-        <f t="shared" si="2"/>
-        <v>4.7</v>
-      </c>
-      <c r="D83" s="8">
-        <f t="shared" si="4"/>
-        <v>14.100000000000001</v>
-      </c>
       <c r="E83" s="2"/>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.3">
@@ -2285,14 +1626,6 @@
       <c r="B84" s="1">
         <v>9.4</v>
       </c>
-      <c r="C84" s="6">
-        <f t="shared" si="2"/>
-        <v>4.7</v>
-      </c>
-      <c r="D84" s="8">
-        <f t="shared" si="4"/>
-        <v>14.100000000000001</v>
-      </c>
       <c r="E84" s="2"/>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.3">
@@ -2302,14 +1635,6 @@
       <c r="B85" s="1">
         <v>9.4</v>
       </c>
-      <c r="C85" s="6">
-        <f t="shared" si="2"/>
-        <v>4.7</v>
-      </c>
-      <c r="D85" s="8">
-        <f t="shared" si="4"/>
-        <v>14.100000000000001</v>
-      </c>
       <c r="E85" s="2"/>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.3">
@@ -2319,14 +1644,6 @@
       <c r="B86" s="1">
         <v>12.5</v>
       </c>
-      <c r="C86" s="6">
-        <f t="shared" si="2"/>
-        <v>6.25</v>
-      </c>
-      <c r="D86" s="8">
-        <f t="shared" si="4"/>
-        <v>18.75</v>
-      </c>
       <c r="E86" s="2"/>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.3">
@@ -2336,14 +1653,6 @@
       <c r="B87" s="1">
         <v>9.4</v>
       </c>
-      <c r="C87" s="6">
-        <f t="shared" si="2"/>
-        <v>4.7</v>
-      </c>
-      <c r="D87" s="8">
-        <f t="shared" si="4"/>
-        <v>14.100000000000001</v>
-      </c>
       <c r="E87" s="2"/>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.3">
@@ -2353,14 +1662,6 @@
       <c r="B88" s="1">
         <v>9.4</v>
       </c>
-      <c r="C88" s="6">
-        <f t="shared" si="2"/>
-        <v>4.7</v>
-      </c>
-      <c r="D88" s="8">
-        <f t="shared" si="4"/>
-        <v>14.100000000000001</v>
-      </c>
       <c r="E88" s="2"/>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.3">
@@ -2370,14 +1671,6 @@
       <c r="B89" s="1">
         <v>9.4</v>
       </c>
-      <c r="C89" s="6">
-        <f t="shared" si="2"/>
-        <v>4.7</v>
-      </c>
-      <c r="D89" s="8">
-        <f t="shared" si="4"/>
-        <v>14.100000000000001</v>
-      </c>
       <c r="E89" s="2"/>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.3">
@@ -2387,14 +1680,6 @@
       <c r="B90" s="1">
         <v>9.8000000000000007</v>
       </c>
-      <c r="C90" s="6">
-        <f t="shared" si="2"/>
-        <v>4.9000000000000004</v>
-      </c>
-      <c r="D90" s="8">
-        <f t="shared" si="4"/>
-        <v>14.700000000000001</v>
-      </c>
       <c r="E90" s="2"/>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.3">
@@ -2404,14 +1689,6 @@
       <c r="B91" s="1">
         <v>9.5</v>
       </c>
-      <c r="C91" s="6">
-        <f t="shared" si="2"/>
-        <v>4.75</v>
-      </c>
-      <c r="D91" s="8">
-        <f t="shared" si="4"/>
-        <v>14.25</v>
-      </c>
       <c r="E91" s="2"/>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.3">
@@ -2421,14 +1698,6 @@
       <c r="B92" s="1">
         <v>9.5</v>
       </c>
-      <c r="C92" s="6">
-        <f t="shared" si="2"/>
-        <v>4.75</v>
-      </c>
-      <c r="D92" s="8">
-        <f t="shared" si="4"/>
-        <v>14.25</v>
-      </c>
       <c r="E92" s="2"/>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.3">
@@ -2438,14 +1707,6 @@
       <c r="B93" s="1">
         <v>9.5</v>
       </c>
-      <c r="C93" s="6">
-        <f t="shared" si="2"/>
-        <v>4.75</v>
-      </c>
-      <c r="D93" s="8">
-        <f t="shared" si="4"/>
-        <v>14.25</v>
-      </c>
       <c r="E93" s="2"/>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.3">
@@ -2455,14 +1716,6 @@
       <c r="B94" s="1">
         <v>9.9</v>
       </c>
-      <c r="C94" s="6">
-        <f t="shared" si="2"/>
-        <v>4.95</v>
-      </c>
-      <c r="D94" s="8">
-        <f t="shared" si="4"/>
-        <v>14.850000000000001</v>
-      </c>
       <c r="E94" s="2"/>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.3">
@@ -2472,14 +1725,6 @@
       <c r="B95" s="1">
         <v>14.4</v>
       </c>
-      <c r="C95" s="6">
-        <f t="shared" si="2"/>
-        <v>7.2</v>
-      </c>
-      <c r="D95" s="8">
-        <f t="shared" si="4"/>
-        <v>21.6</v>
-      </c>
       <c r="E95" s="2"/>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.3">
@@ -2489,14 +1734,6 @@
       <c r="B96" s="1">
         <v>14.4</v>
       </c>
-      <c r="C96" s="6">
-        <f t="shared" si="2"/>
-        <v>7.2</v>
-      </c>
-      <c r="D96" s="8">
-        <f t="shared" si="4"/>
-        <v>21.6</v>
-      </c>
       <c r="E96" s="2"/>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.3">
@@ -2506,14 +1743,6 @@
       <c r="B97" s="1">
         <v>14.3</v>
       </c>
-      <c r="C97" s="6">
-        <f t="shared" si="2"/>
-        <v>7.15</v>
-      </c>
-      <c r="D97" s="8">
-        <f t="shared" si="4"/>
-        <v>21.450000000000003</v>
-      </c>
       <c r="E97" s="2"/>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.3">
@@ -2523,14 +1752,6 @@
       <c r="B98" s="1">
         <v>13.9</v>
       </c>
-      <c r="C98" s="6">
-        <f t="shared" si="2"/>
-        <v>6.95</v>
-      </c>
-      <c r="D98" s="8">
-        <f t="shared" si="4"/>
-        <v>20.85</v>
-      </c>
       <c r="E98" s="2"/>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.3">
@@ -2540,14 +1761,6 @@
       <c r="B99" s="1">
         <v>14</v>
       </c>
-      <c r="C99" s="6">
-        <f t="shared" si="2"/>
-        <v>7</v>
-      </c>
-      <c r="D99" s="8">
-        <f t="shared" si="4"/>
-        <v>21</v>
-      </c>
       <c r="E99" s="2"/>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.3">
@@ -2557,14 +1770,6 @@
       <c r="B100" s="1">
         <v>13.7</v>
       </c>
-      <c r="C100" s="6">
-        <f t="shared" si="2"/>
-        <v>6.85</v>
-      </c>
-      <c r="D100" s="8">
-        <f t="shared" si="4"/>
-        <v>20.549999999999997</v>
-      </c>
       <c r="E100" s="2"/>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.3">
@@ -2574,14 +1779,6 @@
       <c r="B101" s="1">
         <v>13.9</v>
       </c>
-      <c r="C101" s="6">
-        <f t="shared" si="2"/>
-        <v>6.95</v>
-      </c>
-      <c r="D101" s="8">
-        <f t="shared" si="4"/>
-        <v>20.85</v>
-      </c>
       <c r="E101" s="2"/>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.3">
@@ -2591,14 +1788,6 @@
       <c r="B102" s="1">
         <v>14</v>
       </c>
-      <c r="C102" s="6">
-        <f t="shared" si="2"/>
-        <v>7</v>
-      </c>
-      <c r="D102" s="8">
-        <f t="shared" si="4"/>
-        <v>21</v>
-      </c>
       <c r="E102" s="2"/>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.3">
@@ -2608,14 +1797,6 @@
       <c r="B103" s="1">
         <v>14</v>
       </c>
-      <c r="C103" s="6">
-        <f t="shared" si="2"/>
-        <v>7</v>
-      </c>
-      <c r="D103" s="8">
-        <f t="shared" si="4"/>
-        <v>21</v>
-      </c>
       <c r="E103" s="2"/>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.3">
@@ -2625,14 +1806,6 @@
       <c r="B104" s="1">
         <v>13.8</v>
       </c>
-      <c r="C104" s="6">
-        <f t="shared" si="2"/>
-        <v>6.9</v>
-      </c>
-      <c r="D104" s="8">
-        <f t="shared" si="4"/>
-        <v>20.700000000000003</v>
-      </c>
       <c r="E104" s="2"/>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.3">
@@ -2642,14 +1815,6 @@
       <c r="B105" s="1">
         <v>13.7</v>
       </c>
-      <c r="C105" s="6">
-        <f t="shared" si="2"/>
-        <v>6.85</v>
-      </c>
-      <c r="D105" s="8">
-        <f t="shared" si="4"/>
-        <v>20.549999999999997</v>
-      </c>
       <c r="E105" s="2"/>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.3">
@@ -2659,14 +1824,6 @@
       <c r="B106" s="1">
         <v>13.7</v>
       </c>
-      <c r="C106" s="6">
-        <f t="shared" si="2"/>
-        <v>6.85</v>
-      </c>
-      <c r="D106" s="8">
-        <f t="shared" si="4"/>
-        <v>20.549999999999997</v>
-      </c>
       <c r="E106" s="2"/>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.3">
@@ -2676,14 +1833,6 @@
       <c r="B107" s="1">
         <v>13.7</v>
       </c>
-      <c r="C107" s="6">
-        <f t="shared" si="2"/>
-        <v>6.85</v>
-      </c>
-      <c r="D107" s="8">
-        <f t="shared" si="4"/>
-        <v>20.549999999999997</v>
-      </c>
       <c r="E107" s="2"/>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.3">
@@ -2693,14 +1842,6 @@
       <c r="B108" s="1">
         <v>13.7</v>
       </c>
-      <c r="C108" s="6">
-        <f t="shared" si="2"/>
-        <v>6.85</v>
-      </c>
-      <c r="D108" s="8">
-        <f t="shared" si="4"/>
-        <v>20.549999999999997</v>
-      </c>
       <c r="E108" s="2"/>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.3">
@@ -2710,14 +1851,6 @@
       <c r="B109" s="1">
         <v>9.5</v>
       </c>
-      <c r="C109" s="6">
-        <f t="shared" si="2"/>
-        <v>4.75</v>
-      </c>
-      <c r="D109" s="8">
-        <f t="shared" si="4"/>
-        <v>14.25</v>
-      </c>
       <c r="E109" s="2"/>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.3">
@@ -2727,14 +1860,6 @@
       <c r="B110" s="1">
         <v>9.5</v>
       </c>
-      <c r="C110" s="6">
-        <f t="shared" si="2"/>
-        <v>4.75</v>
-      </c>
-      <c r="D110" s="8">
-        <f t="shared" si="4"/>
-        <v>14.25</v>
-      </c>
       <c r="E110" s="2"/>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.3">
@@ -2744,14 +1869,6 @@
       <c r="B111" s="1">
         <v>9.5</v>
       </c>
-      <c r="C111" s="6">
-        <f t="shared" si="2"/>
-        <v>4.75</v>
-      </c>
-      <c r="D111" s="8">
-        <f t="shared" si="4"/>
-        <v>14.25</v>
-      </c>
       <c r="E111" s="2"/>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.3">
@@ -2761,14 +1878,6 @@
       <c r="B112" s="1">
         <v>9.5</v>
       </c>
-      <c r="C112" s="6">
-        <f t="shared" si="2"/>
-        <v>4.75</v>
-      </c>
-      <c r="D112" s="8">
-        <f t="shared" si="4"/>
-        <v>14.25</v>
-      </c>
       <c r="E112" s="2"/>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.3">
@@ -2778,14 +1887,6 @@
       <c r="B113" s="1">
         <v>9.5</v>
       </c>
-      <c r="C113" s="6">
-        <f t="shared" si="2"/>
-        <v>4.75</v>
-      </c>
-      <c r="D113" s="8">
-        <f t="shared" si="4"/>
-        <v>14.25</v>
-      </c>
       <c r="E113" s="2"/>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.3">
@@ -2795,14 +1896,6 @@
       <c r="B114" s="1">
         <v>9.5</v>
       </c>
-      <c r="C114" s="6">
-        <f t="shared" si="2"/>
-        <v>4.75</v>
-      </c>
-      <c r="D114" s="8">
-        <f t="shared" si="4"/>
-        <v>14.25</v>
-      </c>
       <c r="E114" s="2"/>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.3">
@@ -2812,14 +1905,6 @@
       <c r="B115" s="1">
         <v>9.4</v>
       </c>
-      <c r="C115" s="6">
-        <f t="shared" si="2"/>
-        <v>4.7</v>
-      </c>
-      <c r="D115" s="8">
-        <f t="shared" si="4"/>
-        <v>14.100000000000001</v>
-      </c>
       <c r="E115" s="2"/>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.3">
@@ -2829,14 +1914,6 @@
       <c r="B116" s="1">
         <v>9.4</v>
       </c>
-      <c r="C116" s="6">
-        <f t="shared" si="2"/>
-        <v>4.7</v>
-      </c>
-      <c r="D116" s="8">
-        <f t="shared" si="4"/>
-        <v>14.100000000000001</v>
-      </c>
       <c r="E116" s="5"/>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.3">
@@ -2846,14 +1923,6 @@
       <c r="B117" s="1">
         <v>9.4</v>
       </c>
-      <c r="C117" s="6">
-        <f t="shared" si="2"/>
-        <v>4.7</v>
-      </c>
-      <c r="D117" s="8">
-        <f t="shared" si="4"/>
-        <v>14.100000000000001</v>
-      </c>
       <c r="E117" s="5"/>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.3">
@@ -2863,14 +1932,6 @@
       <c r="B118" s="1">
         <v>10</v>
       </c>
-      <c r="C118" s="6">
-        <f t="shared" si="2"/>
-        <v>5</v>
-      </c>
-      <c r="D118" s="8">
-        <f t="shared" si="4"/>
-        <v>15</v>
-      </c>
       <c r="E118" s="5"/>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.3">
@@ -2880,14 +1941,6 @@
       <c r="B119" s="1">
         <v>13.9</v>
       </c>
-      <c r="C119" s="6">
-        <f t="shared" si="2"/>
-        <v>6.95</v>
-      </c>
-      <c r="D119" s="8">
-        <f t="shared" si="4"/>
-        <v>20.85</v>
-      </c>
       <c r="E119" s="5"/>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.3">
@@ -2897,14 +1950,6 @@
       <c r="B120" s="1">
         <v>13.9</v>
       </c>
-      <c r="C120" s="6">
-        <f t="shared" si="2"/>
-        <v>6.95</v>
-      </c>
-      <c r="D120" s="8">
-        <f t="shared" si="4"/>
-        <v>20.85</v>
-      </c>
       <c r="E120" s="5"/>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.3">
@@ -2914,14 +1959,6 @@
       <c r="B121" s="1">
         <v>13.9</v>
       </c>
-      <c r="C121" s="6">
-        <f t="shared" si="2"/>
-        <v>6.95</v>
-      </c>
-      <c r="D121" s="8">
-        <f t="shared" si="4"/>
-        <v>20.85</v>
-      </c>
       <c r="E121" s="5"/>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.3">
@@ -2931,14 +1968,6 @@
       <c r="B122" s="1">
         <v>13.9</v>
       </c>
-      <c r="C122" s="6">
-        <f t="shared" si="2"/>
-        <v>6.95</v>
-      </c>
-      <c r="D122" s="8">
-        <f t="shared" si="4"/>
-        <v>20.85</v>
-      </c>
       <c r="E122" s="5"/>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.3">
@@ -2948,14 +1977,6 @@
       <c r="B123" s="1">
         <v>13.9</v>
       </c>
-      <c r="C123" s="6">
-        <f t="shared" si="2"/>
-        <v>6.95</v>
-      </c>
-      <c r="D123" s="8">
-        <f t="shared" si="4"/>
-        <v>20.85</v>
-      </c>
       <c r="E123" s="5"/>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.3">
@@ -2965,14 +1986,6 @@
       <c r="B124" s="1">
         <v>11.4</v>
       </c>
-      <c r="C124" s="6">
-        <f t="shared" si="2"/>
-        <v>5.7</v>
-      </c>
-      <c r="D124" s="8">
-        <f t="shared" si="4"/>
-        <v>17.100000000000001</v>
-      </c>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A125" s="4" t="s">
@@ -2981,14 +1994,6 @@
       <c r="B125" s="1">
         <v>11.4</v>
       </c>
-      <c r="C125" s="6">
-        <f t="shared" si="2"/>
-        <v>5.7</v>
-      </c>
-      <c r="D125" s="8">
-        <f t="shared" si="4"/>
-        <v>17.100000000000001</v>
-      </c>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A126" s="4" t="s">
@@ -2997,14 +2002,6 @@
       <c r="B126" s="1">
         <v>11.4</v>
       </c>
-      <c r="C126" s="6">
-        <f t="shared" si="2"/>
-        <v>5.7</v>
-      </c>
-      <c r="D126" s="8">
-        <f t="shared" si="4"/>
-        <v>17.100000000000001</v>
-      </c>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A127" s="4" t="s">
@@ -3013,14 +2010,6 @@
       <c r="B127" s="1">
         <v>11.4</v>
       </c>
-      <c r="C127" s="6">
-        <f t="shared" si="2"/>
-        <v>5.7</v>
-      </c>
-      <c r="D127" s="8">
-        <f t="shared" si="4"/>
-        <v>17.100000000000001</v>
-      </c>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A128" s="4" t="s">
@@ -3029,749 +2018,373 @@
       <c r="B128" s="1">
         <v>11.4</v>
       </c>
-      <c r="C128" s="6">
-        <f t="shared" si="2"/>
-        <v>5.7</v>
-      </c>
-      <c r="D128" s="8">
-        <f t="shared" si="4"/>
-        <v>17.100000000000001</v>
-      </c>
-    </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A129" s="4" t="s">
         <v>109</v>
       </c>
       <c r="B129" s="1">
         <v>11.4</v>
       </c>
-      <c r="C129" s="6">
-        <f t="shared" si="2"/>
-        <v>5.7</v>
-      </c>
-      <c r="D129" s="8">
-        <f t="shared" si="4"/>
-        <v>17.100000000000001</v>
-      </c>
-    </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A130" s="4" t="s">
         <v>110</v>
       </c>
       <c r="B130" s="1">
         <v>11.4</v>
       </c>
-      <c r="C130" s="6">
-        <f t="shared" si="2"/>
-        <v>5.7</v>
-      </c>
-      <c r="D130" s="8">
-        <f t="shared" si="4"/>
-        <v>17.100000000000001</v>
-      </c>
-    </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A131" s="4" t="s">
         <v>113</v>
       </c>
       <c r="B131" s="1">
         <v>16.2</v>
       </c>
-      <c r="C131" s="6">
-        <f t="shared" ref="C131:C174" si="5">B131*0.5</f>
-        <v>8.1</v>
-      </c>
-      <c r="D131" s="8">
-        <f t="shared" si="4"/>
-        <v>24.299999999999997</v>
-      </c>
-    </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A132" s="4" t="s">
         <v>114</v>
       </c>
       <c r="B132" s="1">
         <v>16.2</v>
       </c>
-      <c r="C132" s="6">
-        <f t="shared" si="5"/>
-        <v>8.1</v>
-      </c>
-      <c r="D132" s="8">
-        <f t="shared" si="4"/>
-        <v>24.299999999999997</v>
-      </c>
-    </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A133" s="4" t="s">
         <v>115</v>
       </c>
       <c r="B133" s="1">
         <v>16.2</v>
       </c>
-      <c r="C133" s="6">
-        <f t="shared" si="5"/>
-        <v>8.1</v>
-      </c>
-      <c r="D133" s="8">
-        <f t="shared" si="4"/>
-        <v>24.299999999999997</v>
-      </c>
-    </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A134" s="4" t="s">
         <v>116</v>
       </c>
       <c r="B134" s="1">
         <v>16.2</v>
       </c>
-      <c r="C134" s="6">
-        <f t="shared" si="5"/>
-        <v>8.1</v>
-      </c>
-      <c r="D134" s="8">
-        <f t="shared" si="4"/>
-        <v>24.299999999999997</v>
-      </c>
-    </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A135" s="4" t="s">
         <v>117</v>
       </c>
       <c r="B135" s="1">
         <v>16.2</v>
       </c>
-      <c r="C135" s="6">
-        <f t="shared" si="5"/>
-        <v>8.1</v>
-      </c>
-      <c r="D135" s="8">
-        <f t="shared" si="4"/>
-        <v>24.299999999999997</v>
-      </c>
-    </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A136" s="4" t="s">
         <v>118</v>
       </c>
       <c r="B136" s="1">
         <v>16.2</v>
       </c>
-      <c r="C136" s="6">
-        <f t="shared" si="5"/>
-        <v>8.1</v>
-      </c>
-      <c r="D136" s="8">
-        <f t="shared" si="4"/>
-        <v>24.299999999999997</v>
-      </c>
-    </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A137" s="4" t="s">
         <v>119</v>
       </c>
       <c r="B137" s="1">
         <v>11</v>
       </c>
-      <c r="C137" s="6">
-        <f t="shared" si="5"/>
-        <v>5.5</v>
-      </c>
-      <c r="D137" s="8">
-        <f t="shared" si="4"/>
-        <v>16.5</v>
-      </c>
-    </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A138" s="4" t="s">
         <v>120</v>
       </c>
       <c r="B138" s="1">
         <v>11</v>
       </c>
-      <c r="C138" s="6">
-        <f t="shared" si="5"/>
-        <v>5.5</v>
-      </c>
-      <c r="D138" s="8">
-        <f t="shared" ref="D138:D174" si="6">B138*1.5</f>
-        <v>16.5</v>
-      </c>
-    </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A139" s="4" t="s">
         <v>121</v>
       </c>
       <c r="B139" s="1">
         <v>11</v>
       </c>
-      <c r="C139" s="6">
-        <f t="shared" si="5"/>
-        <v>5.5</v>
-      </c>
-      <c r="D139" s="8">
-        <f t="shared" si="6"/>
-        <v>16.5</v>
-      </c>
-    </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A140" s="4" t="s">
         <v>122</v>
       </c>
       <c r="B140" s="1">
         <v>11</v>
       </c>
-      <c r="C140" s="6">
-        <f t="shared" si="5"/>
-        <v>5.5</v>
-      </c>
-      <c r="D140" s="8">
-        <f t="shared" si="6"/>
-        <v>16.5</v>
-      </c>
-    </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A141" s="4" t="s">
         <v>123</v>
       </c>
       <c r="B141" s="1">
         <v>11</v>
       </c>
-      <c r="C141" s="6">
-        <f t="shared" si="5"/>
-        <v>5.5</v>
-      </c>
-      <c r="D141" s="8">
-        <f t="shared" si="6"/>
-        <v>16.5</v>
-      </c>
-    </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A142" s="4" t="s">
         <v>124</v>
       </c>
       <c r="B142" s="1">
         <v>11</v>
       </c>
-      <c r="C142" s="6">
-        <f t="shared" si="5"/>
-        <v>5.5</v>
-      </c>
-      <c r="D142" s="8">
-        <f t="shared" si="6"/>
-        <v>16.5</v>
-      </c>
-    </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A143" s="4" t="s">
         <v>125</v>
       </c>
       <c r="B143" s="1">
         <v>9.1999999999999993</v>
       </c>
-      <c r="C143" s="6">
-        <f t="shared" si="5"/>
-        <v>4.5999999999999996</v>
-      </c>
-      <c r="D143" s="8">
-        <f t="shared" si="6"/>
-        <v>13.799999999999999</v>
-      </c>
-    </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A144" s="4" t="s">
         <v>126</v>
       </c>
       <c r="B144" s="1">
         <v>9.1999999999999993</v>
       </c>
-      <c r="C144" s="6">
-        <f t="shared" si="5"/>
-        <v>4.5999999999999996</v>
-      </c>
-      <c r="D144" s="8">
-        <f t="shared" si="6"/>
-        <v>13.799999999999999</v>
-      </c>
-    </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A145" s="4" t="s">
         <v>127</v>
       </c>
       <c r="B145" s="1">
         <v>9.1999999999999993</v>
       </c>
-      <c r="C145" s="6">
-        <f t="shared" si="5"/>
-        <v>4.5999999999999996</v>
-      </c>
-      <c r="D145" s="8">
-        <f t="shared" si="6"/>
-        <v>13.799999999999999</v>
-      </c>
-    </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A146" s="4" t="s">
         <v>128</v>
       </c>
       <c r="B146" s="1">
         <v>9.1999999999999993</v>
       </c>
-      <c r="C146" s="6">
-        <f t="shared" si="5"/>
-        <v>4.5999999999999996</v>
-      </c>
-      <c r="D146" s="8">
-        <f t="shared" si="6"/>
-        <v>13.799999999999999</v>
-      </c>
-    </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A147" s="4" t="s">
         <v>129</v>
       </c>
       <c r="B147" s="1">
         <v>9.1999999999999993</v>
       </c>
-      <c r="C147" s="6">
-        <f t="shared" si="5"/>
-        <v>4.5999999999999996</v>
-      </c>
-      <c r="D147" s="8">
-        <f t="shared" si="6"/>
-        <v>13.799999999999999</v>
-      </c>
-    </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A148" s="4" t="s">
         <v>130</v>
       </c>
       <c r="B148" s="1">
         <v>9.1999999999999993</v>
       </c>
-      <c r="C148" s="6">
-        <f t="shared" si="5"/>
-        <v>4.5999999999999996</v>
-      </c>
-      <c r="D148" s="8">
-        <f t="shared" si="6"/>
-        <v>13.799999999999999</v>
-      </c>
-    </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A149" s="4" t="s">
         <v>104</v>
       </c>
       <c r="B149" s="1">
         <v>9.1999999999999993</v>
       </c>
-      <c r="C149" s="6">
-        <f t="shared" si="5"/>
-        <v>4.5999999999999996</v>
-      </c>
-      <c r="D149" s="8">
-        <f t="shared" si="6"/>
-        <v>13.799999999999999</v>
-      </c>
-    </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A150" s="4" t="s">
         <v>131</v>
       </c>
       <c r="B150" s="1">
         <v>22.2</v>
       </c>
-      <c r="C150" s="6">
-        <f t="shared" si="5"/>
-        <v>11.1</v>
-      </c>
-      <c r="D150" s="8">
-        <f t="shared" si="6"/>
-        <v>33.299999999999997</v>
-      </c>
-    </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A151" s="4" t="s">
         <v>132</v>
       </c>
       <c r="B151" s="1">
         <v>17.100000000000001</v>
       </c>
-      <c r="C151" s="6">
-        <f t="shared" si="5"/>
-        <v>8.5500000000000007</v>
-      </c>
-      <c r="D151" s="8">
-        <f t="shared" si="6"/>
-        <v>25.650000000000002</v>
-      </c>
-    </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A152" s="4" t="s">
         <v>133</v>
       </c>
       <c r="B152" s="1">
         <v>17</v>
       </c>
-      <c r="C152" s="6">
-        <f t="shared" si="5"/>
-        <v>8.5</v>
-      </c>
-      <c r="D152" s="8">
-        <f t="shared" si="6"/>
-        <v>25.5</v>
-      </c>
-    </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A153" s="4" t="s">
         <v>134</v>
       </c>
       <c r="B153" s="1">
         <v>25.4</v>
       </c>
-      <c r="C153" s="6">
-        <f t="shared" si="5"/>
-        <v>12.7</v>
-      </c>
-      <c r="D153" s="8">
-        <f t="shared" si="6"/>
-        <v>38.099999999999994</v>
-      </c>
-    </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A154" s="4" t="s">
         <v>135</v>
       </c>
       <c r="B154" s="1">
         <v>25.4</v>
       </c>
-      <c r="C154" s="6">
-        <f t="shared" si="5"/>
-        <v>12.7</v>
-      </c>
-      <c r="D154" s="8">
-        <f t="shared" si="6"/>
-        <v>38.099999999999994</v>
-      </c>
-    </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A155" s="4" t="s">
         <v>136</v>
       </c>
       <c r="B155" s="1">
         <v>24.3</v>
       </c>
-      <c r="C155" s="6">
-        <f t="shared" si="5"/>
-        <v>12.15</v>
-      </c>
-      <c r="D155" s="8">
-        <f t="shared" si="6"/>
-        <v>36.450000000000003</v>
-      </c>
-    </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A156" s="4" t="s">
         <v>137</v>
       </c>
       <c r="B156" s="1">
         <v>5.8</v>
       </c>
-      <c r="C156" s="6">
-        <f t="shared" si="5"/>
-        <v>2.9</v>
-      </c>
-      <c r="D156" s="8">
-        <f t="shared" si="6"/>
-        <v>8.6999999999999993</v>
-      </c>
-    </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A157" s="4" t="s">
         <v>138</v>
       </c>
       <c r="B157" s="1">
         <v>5.8</v>
       </c>
-      <c r="C157" s="6">
-        <f t="shared" si="5"/>
-        <v>2.9</v>
-      </c>
-      <c r="D157" s="8">
-        <f t="shared" si="6"/>
-        <v>8.6999999999999993</v>
-      </c>
-    </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A158" s="4" t="s">
         <v>139</v>
       </c>
       <c r="B158" s="1">
         <v>5.8</v>
       </c>
-      <c r="C158" s="6">
-        <f t="shared" si="5"/>
-        <v>2.9</v>
-      </c>
-      <c r="D158" s="8">
-        <f t="shared" si="6"/>
-        <v>8.6999999999999993</v>
-      </c>
-    </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A159" s="4" t="s">
         <v>140</v>
       </c>
       <c r="B159" s="1">
         <v>24</v>
       </c>
-      <c r="C159" s="6">
-        <f t="shared" si="5"/>
-        <v>12</v>
-      </c>
-      <c r="D159" s="8">
-        <f t="shared" si="6"/>
-        <v>36</v>
-      </c>
-    </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A160" s="4" t="s">
         <v>141</v>
       </c>
       <c r="B160" s="1">
         <v>27.1</v>
       </c>
-      <c r="C160" s="6">
-        <f t="shared" si="5"/>
-        <v>13.55</v>
-      </c>
-      <c r="D160" s="8">
-        <f t="shared" si="6"/>
-        <v>40.650000000000006</v>
-      </c>
-    </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A161" s="4" t="s">
         <v>142</v>
       </c>
       <c r="B161" s="1">
         <v>11.2</v>
       </c>
-      <c r="C161" s="6">
-        <f t="shared" si="5"/>
-        <v>5.6</v>
-      </c>
-      <c r="D161" s="8">
-        <f t="shared" si="6"/>
-        <v>16.799999999999997</v>
-      </c>
-    </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="162" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A162" s="4" t="s">
         <v>143</v>
       </c>
       <c r="B162" s="1">
         <v>11.2</v>
       </c>
-      <c r="C162" s="6">
-        <f t="shared" si="5"/>
-        <v>5.6</v>
-      </c>
-      <c r="D162" s="8">
-        <f t="shared" si="6"/>
-        <v>16.799999999999997</v>
-      </c>
-    </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="163" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A163" s="4" t="s">
         <v>144</v>
       </c>
       <c r="B163" s="1">
         <v>11.2</v>
       </c>
-      <c r="C163" s="6">
-        <f t="shared" si="5"/>
-        <v>5.6</v>
-      </c>
-      <c r="D163" s="8">
-        <f t="shared" si="6"/>
-        <v>16.799999999999997</v>
-      </c>
-    </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="164" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A164" s="4" t="s">
         <v>145</v>
       </c>
       <c r="B164" s="1">
         <v>10.8</v>
       </c>
-      <c r="C164" s="6">
-        <f t="shared" si="5"/>
-        <v>5.4</v>
-      </c>
-      <c r="D164" s="8">
-        <f t="shared" si="6"/>
-        <v>16.200000000000003</v>
-      </c>
-    </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="165" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A165" s="4" t="s">
         <v>146</v>
       </c>
       <c r="B165" s="1">
         <v>10.8</v>
       </c>
-      <c r="C165" s="6">
-        <f t="shared" si="5"/>
-        <v>5.4</v>
-      </c>
-      <c r="D165" s="8">
-        <f t="shared" si="6"/>
-        <v>16.200000000000003</v>
-      </c>
-    </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="166" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A166" s="4" t="s">
         <v>147</v>
       </c>
       <c r="B166" s="1">
         <v>10.8</v>
       </c>
-      <c r="C166" s="6">
-        <f t="shared" si="5"/>
-        <v>5.4</v>
-      </c>
-      <c r="D166" s="8">
-        <f t="shared" si="6"/>
-        <v>16.200000000000003</v>
-      </c>
-    </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="167" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A167" s="4" t="s">
         <v>148</v>
       </c>
       <c r="B167" s="1">
         <v>11.1</v>
       </c>
-      <c r="C167" s="6">
-        <f t="shared" si="5"/>
-        <v>5.55</v>
-      </c>
-      <c r="D167" s="8">
-        <f t="shared" si="6"/>
-        <v>16.649999999999999</v>
-      </c>
-    </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="168" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A168" s="4" t="s">
         <v>149</v>
       </c>
       <c r="B168" s="1">
         <v>11</v>
       </c>
-      <c r="C168" s="6">
-        <f t="shared" si="5"/>
-        <v>5.5</v>
-      </c>
-      <c r="D168" s="8">
-        <f t="shared" si="6"/>
-        <v>16.5</v>
-      </c>
-    </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="169" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A169" s="4" t="s">
         <v>150</v>
       </c>
       <c r="B169" s="1">
         <v>11</v>
       </c>
-      <c r="C169" s="6">
-        <f t="shared" si="5"/>
-        <v>5.5</v>
-      </c>
-      <c r="D169" s="8">
-        <f t="shared" si="6"/>
-        <v>16.5</v>
-      </c>
-    </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="170" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A170" s="4" t="s">
         <v>151</v>
       </c>
       <c r="B170" s="1">
         <v>13.1</v>
       </c>
-      <c r="C170" s="6">
-        <f t="shared" si="5"/>
-        <v>6.55</v>
-      </c>
-      <c r="D170" s="8">
-        <f t="shared" si="6"/>
-        <v>19.649999999999999</v>
-      </c>
-    </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="171" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A171" s="4" t="s">
         <v>152</v>
       </c>
       <c r="B171" s="1">
         <v>13.1</v>
       </c>
-      <c r="C171" s="6">
-        <f t="shared" si="5"/>
-        <v>6.55</v>
-      </c>
-      <c r="D171" s="8">
-        <f t="shared" si="6"/>
-        <v>19.649999999999999</v>
-      </c>
-    </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="172" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A172" s="4" t="s">
         <v>153</v>
       </c>
       <c r="B172" s="1">
         <v>13.1</v>
       </c>
-      <c r="C172" s="6">
-        <f t="shared" si="5"/>
-        <v>6.55</v>
-      </c>
-      <c r="D172" s="8">
-        <f t="shared" si="6"/>
-        <v>19.649999999999999</v>
-      </c>
-    </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="173" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A173" s="4" t="s">
         <v>154</v>
       </c>
       <c r="B173" s="1">
         <v>10</v>
       </c>
-      <c r="C173" s="6">
-        <f t="shared" si="5"/>
-        <v>5</v>
-      </c>
-      <c r="D173" s="8">
-        <f t="shared" si="6"/>
-        <v>15</v>
-      </c>
-    </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="174" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A174" s="4" t="s">
         <v>155</v>
       </c>
       <c r="B174" s="1">
         <v>10</v>
-      </c>
-      <c r="C174" s="6">
-        <f t="shared" si="5"/>
-        <v>5</v>
-      </c>
-      <c r="D174" s="8">
-        <f t="shared" si="6"/>
-        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -3779,4 +2392,2826 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB957D0E-C1D3-4DE8-9D35-A9D8A8951233}">
+  <dimension ref="A1:B174"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:B1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="16" style="4" customWidth="1"/>
+    <col min="2" max="2" width="16" style="6" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="6">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="6">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="6">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="6">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="6">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="6">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="6">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="6">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="6">
+        <v>5.4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" s="6">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" s="6">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" s="6">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" s="6">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15" s="6">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16" s="6">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B17" s="6">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B18" s="6">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B19" s="6">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B20" s="6">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B21" s="6">
+        <v>13.55</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B22" s="6">
+        <v>14.4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" s="6">
+        <v>5.6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A24" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" s="6">
+        <v>5.6</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A25" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B25" s="6">
+        <v>5.6</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A26" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B26" s="6">
+        <v>7.1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A27" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B27" s="6">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A28" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B28" s="6">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A29" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B29" s="6">
+        <v>11.85</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A30" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B30" s="6">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A31" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B31" s="6">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A32" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B32" s="6">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A33" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="B33" s="6">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A34" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="B34" s="6">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A35" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B35" s="6">
+        <v>4.0999999999999996</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A36" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B36" s="6">
+        <v>5.35</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A37" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B37" s="6">
+        <v>5.35</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A38" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B38" s="6">
+        <v>6.1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A39" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B39" s="6">
+        <v>6.1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A40" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B40" s="6">
+        <v>6.1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A41" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B41" s="6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A42" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="B42" s="6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A43" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B43" s="6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A44" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B44" s="6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A45" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="B45" s="6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A46" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="B46" s="6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A47" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B47" s="6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A48" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B48" s="6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A49" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="B49" s="6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A50" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="B50" s="6">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A51" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="B51" s="6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A52" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B52" s="6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A53" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B53" s="6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A54" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="B54" s="6">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A55" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="B55" s="6">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A56" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="B56" s="6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A57" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B57" s="6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A58" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B58" s="6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A59" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="B59" s="6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A60" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="B60" s="6">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A61" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="B61" s="6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A62" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B62" s="6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A63" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B63" s="6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A64" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B64" s="6">
+        <v>15.5</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A65" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B65" s="6">
+        <v>15.5</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A66" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="B66" s="6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A67" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B67" s="6">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A68" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B68" s="6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A69" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B69" s="6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A70" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B70" s="6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A71" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B71" s="6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A72" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="B72" s="6">
+        <v>3.6166649999999998</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A73" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="B73" s="6">
+        <v>5.15</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A74" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="B74" s="6">
+        <v>5.15</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A75" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="B75" s="6">
+        <v>5.0262028396142</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A76" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="B76" s="6">
+        <v>4.9865458561506948</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A77" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="B77" s="6">
+        <v>5.0645805655466001</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A78" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="B78" s="6">
+        <v>4.9456096151561297</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A79" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="B79" s="6">
+        <v>4.7204602896860104</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A80" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="B80" s="6">
+        <v>5.05</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A81" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="B81" s="6">
+        <v>5.05</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A82" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="B82" s="6">
+        <v>4.7</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A83" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="B83" s="6">
+        <v>4.7</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A84" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="B84" s="6">
+        <v>4.7</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A85" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="B85" s="6">
+        <v>4.7</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A86" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="B86" s="6">
+        <v>6.25</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A87" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="B87" s="6">
+        <v>4.7</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A88" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="B88" s="6">
+        <v>4.7</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A89" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="B89" s="6">
+        <v>4.7</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A90" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="B90" s="6">
+        <v>4.9000000000000004</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A91" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="B91" s="6">
+        <v>4.75</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A92" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="B92" s="6">
+        <v>4.75</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A93" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="B93" s="6">
+        <v>4.75</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A94" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="B94" s="6">
+        <v>4.95</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A95" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="B95" s="6">
+        <v>7.2</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A96" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="B96" s="6">
+        <v>7.2</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A97" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="B97" s="6">
+        <v>7.15</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A98" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="B98" s="6">
+        <v>6.95</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A99" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="B99" s="6">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A100" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="B100" s="6">
+        <v>6.85</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A101" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="B101" s="6">
+        <v>6.95</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A102" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="B102" s="6">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A103" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="B103" s="6">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A104" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="B104" s="6">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A105" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="B105" s="6">
+        <v>6.85</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A106" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="B106" s="6">
+        <v>6.85</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A107" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="B107" s="6">
+        <v>6.85</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A108" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="B108" s="6">
+        <v>6.85</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A109" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="B109" s="6">
+        <v>4.75</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A110" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="B110" s="6">
+        <v>4.75</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A111" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="B111" s="6">
+        <v>4.75</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A112" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="B112" s="6">
+        <v>4.75</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A113" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="B113" s="6">
+        <v>4.75</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A114" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="B114" s="6">
+        <v>4.75</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A115" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="B115" s="6">
+        <v>4.7</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A116" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="B116" s="6">
+        <v>4.7</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A117" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="B117" s="6">
+        <v>4.7</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A118" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="B118" s="6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A119" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="B119" s="6">
+        <v>6.95</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A120" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="B120" s="6">
+        <v>6.95</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A121" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="B121" s="6">
+        <v>6.95</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A122" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="B122" s="6">
+        <v>6.95</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A123" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="B123" s="6">
+        <v>6.95</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A124" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="B124" s="6">
+        <v>5.7</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A125" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="B125" s="6">
+        <v>5.7</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A126" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="B126" s="6">
+        <v>5.7</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A127" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="B127" s="6">
+        <v>5.7</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A128" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="B128" s="6">
+        <v>5.7</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A129" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="B129" s="6">
+        <v>5.7</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A130" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="B130" s="6">
+        <v>5.7</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A131" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="B131" s="6">
+        <v>8.1</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A132" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="B132" s="6">
+        <v>8.1</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A133" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="B133" s="6">
+        <v>8.1</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A134" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="B134" s="6">
+        <v>8.1</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A135" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="B135" s="6">
+        <v>8.1</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A136" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="B136" s="6">
+        <v>8.1</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A137" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="B137" s="6">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A138" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="B138" s="6">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A139" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="B139" s="6">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A140" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="B140" s="6">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A141" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="B141" s="6">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A142" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="B142" s="6">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A143" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="B143" s="6">
+        <v>4.5999999999999996</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A144" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="B144" s="6">
+        <v>4.5999999999999996</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A145" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="B145" s="6">
+        <v>4.5999999999999996</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A146" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="B146" s="6">
+        <v>4.5999999999999996</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A147" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="B147" s="6">
+        <v>4.5999999999999996</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A148" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="B148" s="6">
+        <v>4.5999999999999996</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A149" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="B149" s="6">
+        <v>4.5999999999999996</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A150" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="B150" s="6">
+        <v>11.1</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A151" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="B151" s="6">
+        <v>8.5500000000000007</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A152" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="B152" s="6">
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A153" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="B153" s="6">
+        <v>12.7</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A154" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="B154" s="6">
+        <v>12.7</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A155" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="B155" s="6">
+        <v>12.15</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A156" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="B156" s="6">
+        <v>2.9</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A157" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="B157" s="6">
+        <v>2.9</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A158" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="B158" s="6">
+        <v>2.9</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A159" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="B159" s="6">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A160" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="B160" s="6">
+        <v>13.55</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A161" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="B161" s="6">
+        <v>5.6</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A162" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="B162" s="6">
+        <v>5.6</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A163" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="B163" s="6">
+        <v>5.6</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A164" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="B164" s="6">
+        <v>5.4</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A165" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="B165" s="6">
+        <v>5.4</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A166" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="B166" s="6">
+        <v>5.4</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A167" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="B167" s="6">
+        <v>5.55</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A168" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="B168" s="6">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A169" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="B169" s="6">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A170" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="B170" s="6">
+        <v>6.55</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A171" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="B171" s="6">
+        <v>6.55</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A172" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="B172" s="6">
+        <v>6.55</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A173" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="B173" s="6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A174" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="B174" s="6">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADF72B8C-4724-4CAA-A8AF-3DC314968759}">
+  <dimension ref="A1:B174"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="16" style="4" customWidth="1"/>
+    <col min="2" max="2" width="13.33203125" style="8" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="8">
+        <v>16.5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="8">
+        <v>16.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="8">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="8">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="8">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="8">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="8">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="8">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="8">
+        <v>16.200000000000003</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" s="8">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" s="8">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" s="8">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" s="8">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15" s="8">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16" s="8">
+        <v>16.5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B17" s="8">
+        <v>16.5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B18" s="8">
+        <v>16.5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B19" s="8">
+        <v>16.5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B20" s="8">
+        <v>16.5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B21" s="8">
+        <v>40.650000000000006</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B22" s="8">
+        <v>43.2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" s="8">
+        <v>16.799999999999997</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A24" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" s="8">
+        <v>16.799999999999997</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A25" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B25" s="8">
+        <v>16.799999999999997</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A26" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B26" s="8">
+        <v>21.299999999999997</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A27" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B27" s="8">
+        <v>16.5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A28" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B28" s="8">
+        <v>16.5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A29" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B29" s="8">
+        <v>35.549999999999997</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A30" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B30" s="8">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A31" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B31" s="8">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A32" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B32" s="8">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A33" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="B33" s="8">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A34" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="B34" s="8">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A35" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B35" s="8">
+        <v>12.299999999999999</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A36" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B36" s="8">
+        <v>16.049999999999997</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A37" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B37" s="8">
+        <v>16.049999999999997</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A38" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B38" s="8">
+        <v>18.299999999999997</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A39" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B39" s="8">
+        <v>18.299999999999997</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A40" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B40" s="8">
+        <v>18.299999999999997</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A41" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B41" s="8">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A42" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="B42" s="8">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A43" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B43" s="8">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A44" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B44" s="8">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A45" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="B45" s="8">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A46" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="B46" s="8">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A47" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B47" s="8">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A48" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B48" s="8">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A49" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="B49" s="8">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A50" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="B50" s="8">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A51" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="B51" s="8">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A52" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B52" s="8">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A53" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B53" s="8">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A54" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="B54" s="8">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A55" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="B55" s="8">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A56" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="B56" s="8">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A57" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B57" s="8">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A58" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B58" s="8">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A59" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="B59" s="8">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A60" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="B60" s="8">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A61" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="B61" s="8">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A62" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B62" s="8">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A63" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B63" s="8">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A64" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B64" s="8">
+        <v>46.5</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A65" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B65" s="8">
+        <v>46.5</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A66" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="B66" s="8">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A67" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B67" s="8">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A68" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B68" s="8">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A69" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B69" s="8">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A70" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B70" s="8">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A71" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B71" s="8">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A72" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="B72" s="8">
+        <v>10.849995</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A73" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="B73" s="8">
+        <v>15.450000000000001</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A74" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="B74" s="8">
+        <v>15.450000000000001</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A75" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="B75" s="8">
+        <v>15.0786085188426</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A76" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="B76" s="8">
+        <v>14.959637568452084</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A77" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="B77" s="8">
+        <v>15.193741696639801</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A78" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="B78" s="8">
+        <v>14.836828845468389</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A79" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="B79" s="8">
+        <v>14.161380869058032</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A80" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="B80" s="8">
+        <v>15.149999999999999</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A81" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="B81" s="8">
+        <v>15.149999999999999</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A82" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="B82" s="8">
+        <v>14.100000000000001</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A83" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="B83" s="8">
+        <v>14.100000000000001</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A84" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="B84" s="8">
+        <v>14.100000000000001</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A85" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="B85" s="8">
+        <v>14.100000000000001</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A86" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="B86" s="8">
+        <v>18.75</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A87" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="B87" s="8">
+        <v>14.100000000000001</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A88" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="B88" s="8">
+        <v>14.100000000000001</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A89" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="B89" s="8">
+        <v>14.100000000000001</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A90" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="B90" s="8">
+        <v>14.700000000000001</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A91" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="B91" s="8">
+        <v>14.25</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A92" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="B92" s="8">
+        <v>14.25</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A93" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="B93" s="8">
+        <v>14.25</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A94" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="B94" s="8">
+        <v>14.850000000000001</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A95" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="B95" s="8">
+        <v>21.6</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A96" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="B96" s="8">
+        <v>21.6</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A97" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="B97" s="8">
+        <v>21.450000000000003</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A98" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="B98" s="8">
+        <v>20.85</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A99" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="B99" s="8">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A100" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="B100" s="8">
+        <v>20.549999999999997</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A101" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="B101" s="8">
+        <v>20.85</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A102" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="B102" s="8">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A103" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="B103" s="8">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A104" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="B104" s="8">
+        <v>20.700000000000003</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A105" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="B105" s="8">
+        <v>20.549999999999997</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A106" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="B106" s="8">
+        <v>20.549999999999997</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A107" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="B107" s="8">
+        <v>20.549999999999997</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A108" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="B108" s="8">
+        <v>20.549999999999997</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A109" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="B109" s="8">
+        <v>14.25</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A110" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="B110" s="8">
+        <v>14.25</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A111" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="B111" s="8">
+        <v>14.25</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A112" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="B112" s="8">
+        <v>14.25</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A113" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="B113" s="8">
+        <v>14.25</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A114" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="B114" s="8">
+        <v>14.25</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A115" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="B115" s="8">
+        <v>14.100000000000001</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A116" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="B116" s="8">
+        <v>14.100000000000001</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A117" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="B117" s="8">
+        <v>14.100000000000001</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A118" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="B118" s="8">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A119" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="B119" s="8">
+        <v>20.85</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A120" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="B120" s="8">
+        <v>20.85</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A121" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="B121" s="8">
+        <v>20.85</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A122" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="B122" s="8">
+        <v>20.85</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A123" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="B123" s="8">
+        <v>20.85</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A124" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="B124" s="8">
+        <v>17.100000000000001</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A125" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="B125" s="8">
+        <v>17.100000000000001</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A126" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="B126" s="8">
+        <v>17.100000000000001</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A127" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="B127" s="8">
+        <v>17.100000000000001</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A128" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="B128" s="8">
+        <v>17.100000000000001</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A129" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="B129" s="8">
+        <v>17.100000000000001</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A130" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="B130" s="8">
+        <v>17.100000000000001</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A131" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="B131" s="8">
+        <v>24.299999999999997</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A132" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="B132" s="8">
+        <v>24.299999999999997</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A133" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="B133" s="8">
+        <v>24.299999999999997</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A134" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="B134" s="8">
+        <v>24.299999999999997</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A135" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="B135" s="8">
+        <v>24.299999999999997</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A136" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="B136" s="8">
+        <v>24.299999999999997</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A137" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="B137" s="8">
+        <v>16.5</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A138" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="B138" s="8">
+        <v>16.5</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A139" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="B139" s="8">
+        <v>16.5</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A140" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="B140" s="8">
+        <v>16.5</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A141" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="B141" s="8">
+        <v>16.5</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A142" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="B142" s="8">
+        <v>16.5</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A143" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="B143" s="8">
+        <v>13.799999999999999</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A144" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="B144" s="8">
+        <v>13.799999999999999</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A145" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="B145" s="8">
+        <v>13.799999999999999</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A146" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="B146" s="8">
+        <v>13.799999999999999</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A147" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="B147" s="8">
+        <v>13.799999999999999</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A148" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="B148" s="8">
+        <v>13.799999999999999</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A149" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="B149" s="8">
+        <v>13.799999999999999</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A150" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="B150" s="8">
+        <v>33.299999999999997</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A151" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="B151" s="8">
+        <v>25.650000000000002</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A152" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="B152" s="8">
+        <v>25.5</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A153" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="B153" s="8">
+        <v>38.099999999999994</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A154" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="B154" s="8">
+        <v>38.099999999999994</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A155" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="B155" s="8">
+        <v>36.450000000000003</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A156" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="B156" s="8">
+        <v>8.6999999999999993</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A157" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="B157" s="8">
+        <v>8.6999999999999993</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A158" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="B158" s="8">
+        <v>8.6999999999999993</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A159" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="B159" s="8">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A160" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="B160" s="8">
+        <v>40.650000000000006</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A161" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="B161" s="8">
+        <v>16.799999999999997</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A162" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="B162" s="8">
+        <v>16.799999999999997</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A163" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="B163" s="8">
+        <v>16.799999999999997</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A164" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="B164" s="8">
+        <v>16.200000000000003</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A165" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="B165" s="8">
+        <v>16.200000000000003</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A166" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="B166" s="8">
+        <v>16.200000000000003</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A167" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="B167" s="8">
+        <v>16.649999999999999</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A168" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="B168" s="8">
+        <v>16.5</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A169" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="B169" s="8">
+        <v>16.5</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A170" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="B170" s="8">
+        <v>19.649999999999999</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A171" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="B171" s="8">
+        <v>19.649999999999999</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A172" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="B172" s="8">
+        <v>19.649999999999999</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A173" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="B173" s="8">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A174" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="B174" s="8">
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Irrigation Dates Depths.xlsx
+++ b/Irrigation Dates Depths.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\seosu\Desktop\Guayule Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\seosu\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4994C4C-DBBA-4C5F-90A3-D12CDA5E9600}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C09FD22-C0BD-412C-9DB6-9B0E6D88D50A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="525" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="422" uniqueCount="176">
   <si>
     <t>Date</t>
   </si>
@@ -920,10 +920,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E174"/>
+  <dimension ref="A1:E123"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="D18" sqref="D1:D1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A64" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="A72" sqref="A72:B221"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1512,880 +1512,160 @@
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A72" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="B72" s="1">
-        <v>7.2333299999999996</v>
-      </c>
       <c r="E72" s="2"/>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A73" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="B73" s="1">
-        <v>10.3</v>
-      </c>
       <c r="E73" s="2"/>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A74" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="B74" s="1">
-        <v>10.3</v>
-      </c>
       <c r="E74" s="2"/>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A75" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="B75" s="1">
-        <v>10.0524056792284</v>
-      </c>
       <c r="E75" s="2"/>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A76" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="B76" s="1">
-        <v>9.9730917123013896</v>
-      </c>
       <c r="E76" s="2"/>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A77" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="B77" s="1">
-        <v>10.1291611310932</v>
-      </c>
       <c r="E77" s="2"/>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A78" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="B78" s="1">
-        <v>9.8912192303122595</v>
-      </c>
       <c r="E78" s="2"/>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A79" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="B79" s="1">
-        <v>9.4409205793720208</v>
-      </c>
       <c r="E79" s="2"/>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A80" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="B80" s="1">
-        <v>10.1</v>
-      </c>
       <c r="E80" s="2"/>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A81" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="B81" s="1">
-        <v>10.1</v>
-      </c>
+    <row r="81" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E81" s="2"/>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A82" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="B82" s="1">
-        <v>9.4</v>
-      </c>
+    <row r="82" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E82" s="2"/>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A83" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="B83" s="1">
-        <v>9.4</v>
-      </c>
+    <row r="83" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E83" s="2"/>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A84" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="B84" s="1">
-        <v>9.4</v>
-      </c>
+    <row r="84" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E84" s="2"/>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A85" s="4" t="s">
-        <v>160</v>
-      </c>
-      <c r="B85" s="1">
-        <v>9.4</v>
-      </c>
+    <row r="85" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E85" s="2"/>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A86" s="4" t="s">
-        <v>161</v>
-      </c>
-      <c r="B86" s="1">
-        <v>12.5</v>
-      </c>
+    <row r="86" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E86" s="2"/>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A87" s="4" t="s">
-        <v>162</v>
-      </c>
-      <c r="B87" s="1">
-        <v>9.4</v>
-      </c>
+    <row r="87" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E87" s="2"/>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A88" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="B88" s="1">
-        <v>9.4</v>
-      </c>
+    <row r="88" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E88" s="2"/>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A89" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="B89" s="1">
-        <v>9.4</v>
-      </c>
+    <row r="89" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E89" s="2"/>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A90" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="B90" s="1">
-        <v>9.8000000000000007</v>
-      </c>
+    <row r="90" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E90" s="2"/>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A91" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="B91" s="1">
-        <v>9.5</v>
-      </c>
+    <row r="91" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E91" s="2"/>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A92" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="B92" s="1">
-        <v>9.5</v>
-      </c>
+    <row r="92" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E92" s="2"/>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A93" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="B93" s="1">
-        <v>9.5</v>
-      </c>
+    <row r="93" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E93" s="2"/>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A94" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="B94" s="1">
-        <v>9.9</v>
-      </c>
+    <row r="94" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E94" s="2"/>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A95" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="B95" s="1">
-        <v>14.4</v>
-      </c>
+    <row r="95" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E95" s="2"/>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A96" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="B96" s="1">
-        <v>14.4</v>
-      </c>
+    <row r="96" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E96" s="2"/>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A97" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="B97" s="1">
-        <v>14.3</v>
-      </c>
+    <row r="97" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E97" s="2"/>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A98" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="B98" s="1">
-        <v>13.9</v>
-      </c>
+    <row r="98" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E98" s="2"/>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A99" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="B99" s="1">
-        <v>14</v>
-      </c>
+    <row r="99" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E99" s="2"/>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A100" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="B100" s="1">
-        <v>13.7</v>
-      </c>
+    <row r="100" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E100" s="2"/>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A101" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="B101" s="1">
-        <v>13.9</v>
-      </c>
+    <row r="101" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E101" s="2"/>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A102" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="B102" s="1">
-        <v>14</v>
-      </c>
+    <row r="102" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E102" s="2"/>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A103" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="B103" s="1">
-        <v>14</v>
-      </c>
+    <row r="103" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E103" s="2"/>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A104" s="4" t="s">
-        <v>167</v>
-      </c>
-      <c r="B104" s="1">
-        <v>13.8</v>
-      </c>
+    <row r="104" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E104" s="2"/>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A105" s="4" t="s">
-        <v>168</v>
-      </c>
-      <c r="B105" s="1">
-        <v>13.7</v>
-      </c>
+    <row r="105" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E105" s="2"/>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A106" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="B106" s="1">
-        <v>13.7</v>
-      </c>
+    <row r="106" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E106" s="2"/>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A107" s="4" t="s">
-        <v>170</v>
-      </c>
-      <c r="B107" s="1">
-        <v>13.7</v>
-      </c>
+    <row r="107" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E107" s="2"/>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A108" s="4" t="s">
-        <v>171</v>
-      </c>
-      <c r="B108" s="1">
-        <v>13.7</v>
-      </c>
+    <row r="108" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E108" s="2"/>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A109" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="B109" s="1">
-        <v>9.5</v>
-      </c>
+    <row r="109" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E109" s="2"/>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A110" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="B110" s="1">
-        <v>9.5</v>
-      </c>
+    <row r="110" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E110" s="2"/>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A111" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="B111" s="1">
-        <v>9.5</v>
-      </c>
+    <row r="111" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E111" s="2"/>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A112" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="B112" s="1">
-        <v>9.5</v>
-      </c>
+    <row r="112" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E112" s="2"/>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A113" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="B113" s="1">
-        <v>9.5</v>
-      </c>
+    <row r="113" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E113" s="2"/>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A114" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="B114" s="1">
-        <v>9.5</v>
-      </c>
+    <row r="114" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E114" s="2"/>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A115" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="B115" s="1">
-        <v>9.4</v>
-      </c>
+    <row r="115" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E115" s="2"/>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A116" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="B116" s="1">
-        <v>9.4</v>
-      </c>
+    <row r="116" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E116" s="5"/>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A117" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="B117" s="1">
-        <v>9.4</v>
-      </c>
+    <row r="117" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E117" s="5"/>
     </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A118" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="B118" s="1">
-        <v>10</v>
-      </c>
+    <row r="118" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E118" s="5"/>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A119" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="B119" s="1">
-        <v>13.9</v>
-      </c>
+    <row r="119" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E119" s="5"/>
     </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A120" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="B120" s="1">
-        <v>13.9</v>
-      </c>
+    <row r="120" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E120" s="5"/>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A121" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="B121" s="1">
-        <v>13.9</v>
-      </c>
+    <row r="121" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E121" s="5"/>
     </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A122" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="B122" s="1">
-        <v>13.9</v>
-      </c>
+    <row r="122" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E122" s="5"/>
     </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A123" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="B123" s="1">
-        <v>13.9</v>
-      </c>
+    <row r="123" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E123" s="5"/>
-    </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A124" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="B124" s="1">
-        <v>11.4</v>
-      </c>
-    </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A125" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="B125" s="1">
-        <v>11.4</v>
-      </c>
-    </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A126" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="B126" s="1">
-        <v>11.4</v>
-      </c>
-    </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A127" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="B127" s="1">
-        <v>11.4</v>
-      </c>
-    </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A128" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="B128" s="1">
-        <v>11.4</v>
-      </c>
-    </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A129" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="B129" s="1">
-        <v>11.4</v>
-      </c>
-    </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A130" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="B130" s="1">
-        <v>11.4</v>
-      </c>
-    </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A131" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="B131" s="1">
-        <v>16.2</v>
-      </c>
-    </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A132" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="B132" s="1">
-        <v>16.2</v>
-      </c>
-    </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A133" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="B133" s="1">
-        <v>16.2</v>
-      </c>
-    </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A134" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="B134" s="1">
-        <v>16.2</v>
-      </c>
-    </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A135" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="B135" s="1">
-        <v>16.2</v>
-      </c>
-    </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A136" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="B136" s="1">
-        <v>16.2</v>
-      </c>
-    </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A137" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="B137" s="1">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A138" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="B138" s="1">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A139" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="B139" s="1">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A140" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="B140" s="1">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A141" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="B141" s="1">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A142" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="B142" s="1">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A143" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="B143" s="1">
-        <v>9.1999999999999993</v>
-      </c>
-    </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A144" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="B144" s="1">
-        <v>9.1999999999999993</v>
-      </c>
-    </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A145" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="B145" s="1">
-        <v>9.1999999999999993</v>
-      </c>
-    </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A146" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="B146" s="1">
-        <v>9.1999999999999993</v>
-      </c>
-    </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A147" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="B147" s="1">
-        <v>9.1999999999999993</v>
-      </c>
-    </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A148" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="B148" s="1">
-        <v>9.1999999999999993</v>
-      </c>
-    </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A149" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="B149" s="1">
-        <v>9.1999999999999993</v>
-      </c>
-    </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A150" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="B150" s="1">
-        <v>22.2</v>
-      </c>
-    </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A151" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="B151" s="1">
-        <v>17.100000000000001</v>
-      </c>
-    </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A152" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="B152" s="1">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A153" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="B153" s="1">
-        <v>25.4</v>
-      </c>
-    </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A154" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="B154" s="1">
-        <v>25.4</v>
-      </c>
-    </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A155" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="B155" s="1">
-        <v>24.3</v>
-      </c>
-    </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A156" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="B156" s="1">
-        <v>5.8</v>
-      </c>
-    </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A157" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="B157" s="1">
-        <v>5.8</v>
-      </c>
-    </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A158" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="B158" s="1">
-        <v>5.8</v>
-      </c>
-    </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A159" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="B159" s="1">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A160" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="B160" s="1">
-        <v>27.1</v>
-      </c>
-    </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A161" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="B161" s="1">
-        <v>11.2</v>
-      </c>
-    </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A162" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="B162" s="1">
-        <v>11.2</v>
-      </c>
-    </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A163" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="B163" s="1">
-        <v>11.2</v>
-      </c>
-    </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A164" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="B164" s="1">
-        <v>10.8</v>
-      </c>
-    </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A165" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="B165" s="1">
-        <v>10.8</v>
-      </c>
-    </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A166" s="4" t="s">
-        <v>147</v>
-      </c>
-      <c r="B166" s="1">
-        <v>10.8</v>
-      </c>
-    </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A167" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="B167" s="1">
-        <v>11.1</v>
-      </c>
-    </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A168" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="B168" s="1">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A169" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="B169" s="1">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A170" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="B170" s="1">
-        <v>13.1</v>
-      </c>
-    </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A171" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="B171" s="1">
-        <v>13.1</v>
-      </c>
-    </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A172" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="B172" s="1">
-        <v>13.1</v>
-      </c>
-    </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A173" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="B173" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A174" s="4" t="s">
-        <v>155</v>
-      </c>
-      <c r="B174" s="1">
-        <v>10</v>
-      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -2398,9 +1678,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB957D0E-C1D3-4DE8-9D35-A9D8A8951233}">
   <dimension ref="A1:B174"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:B1048576"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>

--- a/Irrigation Dates Depths.xlsx
+++ b/Irrigation Dates Depths.xlsx
@@ -8,14 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\seosu\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C09FD22-C0BD-412C-9DB6-9B0E6D88D50A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A8F5823-B947-46D8-8E5B-7B03D30EC4C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="2018Depth" sheetId="1" r:id="rId1"/>
+    <sheet name="2019Depth" sheetId="4" r:id="rId2"/>
+    <sheet name="2018D50" sheetId="2" r:id="rId3"/>
+    <sheet name="2019D50" sheetId="5" r:id="rId4"/>
+    <sheet name="2018D150" sheetId="3" r:id="rId5"/>
+    <sheet name="2019D150" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="422" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="737" uniqueCount="176">
   <si>
     <t>Date</t>
   </si>
@@ -614,7 +617,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -638,6 +641,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -922,8 +931,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E123"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="A72" sqref="A72:B221"/>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCellId="1" sqref="B1 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1675,10 +1684,1047 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12AA9BAA-E3F5-40EE-BC7B-22893B26F7D0}">
+  <dimension ref="A1:B151"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="B2" s="1">
+        <v>7.2333299999999996</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="B3" s="1">
+        <v>10.3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="B4" s="1">
+        <v>10.3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="B5" s="1">
+        <v>10.0524056792284</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="B6" s="1">
+        <v>9.9730917123013896</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="B7" s="1">
+        <v>10.1291611310932</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="B8" s="1">
+        <v>9.8912192303122595</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="B9" s="1">
+        <v>9.4409205793720208</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="B10" s="1">
+        <v>10.1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="B11" s="1">
+        <v>10.1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="B12" s="1">
+        <v>9.4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="B13" s="1">
+        <v>9.4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="B14" s="1">
+        <v>9.4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="B15" s="1">
+        <v>9.4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="B16" s="1">
+        <v>12.5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="B17" s="1">
+        <v>9.4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="B18" s="1">
+        <v>9.4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="B19" s="1">
+        <v>9.4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="B20" s="1">
+        <v>9.8000000000000007</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="B21" s="1">
+        <v>9.5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="B22" s="1">
+        <v>9.5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="B23" s="1">
+        <v>9.5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A24" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="B24" s="1">
+        <v>9.9</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A25" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="B25" s="1">
+        <v>14.4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A26" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="B26" s="1">
+        <v>14.4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A27" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="B27" s="1">
+        <v>14.3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A28" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="B28" s="1">
+        <v>13.9</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A29" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="B29" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A30" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="B30" s="1">
+        <v>13.7</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A31" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="B31" s="1">
+        <v>13.9</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A32" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="B32" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A33" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="B33" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A34" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="B34" s="1">
+        <v>13.8</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A35" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="B35" s="1">
+        <v>13.7</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A36" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="B36" s="1">
+        <v>13.7</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A37" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="B37" s="1">
+        <v>13.7</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A38" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="B38" s="1">
+        <v>13.7</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A39" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="B39" s="1">
+        <v>9.5</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A40" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="B40" s="1">
+        <v>9.5</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A41" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="B41" s="1">
+        <v>9.5</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A42" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="B42" s="1">
+        <v>9.5</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A43" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="B43" s="1">
+        <v>9.5</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A44" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="B44" s="1">
+        <v>9.5</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A45" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="B45" s="1">
+        <v>9.4</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A46" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="B46" s="1">
+        <v>9.4</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A47" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="B47" s="1">
+        <v>9.4</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A48" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="B48" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A49" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="B49" s="1">
+        <v>13.9</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A50" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="B50" s="1">
+        <v>13.9</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A51" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="B51" s="1">
+        <v>13.9</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A52" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="B52" s="1">
+        <v>13.9</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A53" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="B53" s="1">
+        <v>13.9</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A54" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="B54" s="1">
+        <v>11.4</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A55" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="B55" s="1">
+        <v>11.4</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A56" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="B56" s="1">
+        <v>11.4</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A57" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="B57" s="1">
+        <v>11.4</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A58" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="B58" s="1">
+        <v>11.4</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A59" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="B59" s="1">
+        <v>11.4</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A60" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="B60" s="1">
+        <v>11.4</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A61" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="B61" s="1">
+        <v>16.2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A62" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="B62" s="1">
+        <v>16.2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A63" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="B63" s="1">
+        <v>16.2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A64" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="B64" s="1">
+        <v>16.2</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A65" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="B65" s="1">
+        <v>16.2</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A66" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="B66" s="1">
+        <v>16.2</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A67" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="B67" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A68" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="B68" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A69" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="B69" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A70" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="B70" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A71" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="B71" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A72" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="B72" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A73" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="B73" s="1">
+        <v>9.1999999999999993</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A74" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="B74" s="1">
+        <v>9.1999999999999993</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A75" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="B75" s="1">
+        <v>9.1999999999999993</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A76" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="B76" s="1">
+        <v>9.1999999999999993</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A77" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="B77" s="1">
+        <v>9.1999999999999993</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A78" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="B78" s="1">
+        <v>9.1999999999999993</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A79" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="B79" s="1">
+        <v>9.1999999999999993</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A80" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="B80" s="1">
+        <v>22.2</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A81" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="B81" s="1">
+        <v>17.100000000000001</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A82" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="B82" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A83" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="B83" s="1">
+        <v>25.4</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A84" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="B84" s="1">
+        <v>25.4</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A85" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="B85" s="1">
+        <v>24.3</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A86" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="B86" s="1">
+        <v>5.8</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A87" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="B87" s="1">
+        <v>5.8</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A88" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="B88" s="1">
+        <v>5.8</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A89" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="B89" s="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A90" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="B90" s="1">
+        <v>27.1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A91" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="B91" s="1">
+        <v>11.2</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A92" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="B92" s="1">
+        <v>11.2</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A93" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="B93" s="1">
+        <v>11.2</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A94" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="B94" s="1">
+        <v>10.8</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A95" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="B95" s="1">
+        <v>10.8</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A96" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="B96" s="1">
+        <v>10.8</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A97" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="B97" s="1">
+        <v>11.1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A98" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="B98" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A99" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="B99" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A100" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="B100" s="1">
+        <v>13.1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A101" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="B101" s="1">
+        <v>13.1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A102" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="B102" s="1">
+        <v>13.1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A103" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="B103" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A104" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="B104" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A105" s="4"/>
+      <c r="B105" s="1"/>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A106" s="4"/>
+      <c r="B106" s="1"/>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A107" s="4"/>
+      <c r="B107" s="1"/>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A108" s="4"/>
+      <c r="B108" s="1"/>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A109" s="4"/>
+      <c r="B109" s="1"/>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A110" s="4"/>
+      <c r="B110" s="1"/>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A111" s="4"/>
+      <c r="B111" s="1"/>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A112" s="4"/>
+      <c r="B112" s="1"/>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A113" s="4"/>
+      <c r="B113" s="1"/>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A114" s="4"/>
+      <c r="B114" s="1"/>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A115" s="4"/>
+      <c r="B115" s="1"/>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A116" s="4"/>
+      <c r="B116" s="1"/>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A117" s="4"/>
+      <c r="B117" s="1"/>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A118" s="4"/>
+      <c r="B118" s="1"/>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A119" s="4"/>
+      <c r="B119" s="1"/>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A120" s="4"/>
+      <c r="B120" s="1"/>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A121" s="4"/>
+      <c r="B121" s="1"/>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A122" s="4"/>
+      <c r="B122" s="1"/>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A123" s="4"/>
+      <c r="B123" s="1"/>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A124" s="4"/>
+      <c r="B124" s="1"/>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A125" s="4"/>
+      <c r="B125" s="1"/>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A126" s="4"/>
+      <c r="B126" s="1"/>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A127" s="4"/>
+      <c r="B127" s="1"/>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A128" s="4"/>
+      <c r="B128" s="1"/>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A129" s="4"/>
+      <c r="B129" s="1"/>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A130" s="4"/>
+      <c r="B130" s="1"/>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A131" s="4"/>
+      <c r="B131" s="1"/>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A132" s="4"/>
+      <c r="B132" s="1"/>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A133" s="4"/>
+      <c r="B133" s="1"/>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A134" s="4"/>
+      <c r="B134" s="1"/>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A135" s="4"/>
+      <c r="B135" s="1"/>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A136" s="4"/>
+      <c r="B136" s="1"/>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A137" s="4"/>
+      <c r="B137" s="1"/>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A138" s="4"/>
+      <c r="B138" s="1"/>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A139" s="4"/>
+      <c r="B139" s="1"/>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A140" s="4"/>
+      <c r="B140" s="1"/>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A141" s="4"/>
+      <c r="B141" s="1"/>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A142" s="4"/>
+      <c r="B142" s="1"/>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A143" s="4"/>
+      <c r="B143" s="1"/>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A144" s="4"/>
+      <c r="B144" s="1"/>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A145" s="4"/>
+      <c r="B145" s="1"/>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A146" s="4"/>
+      <c r="B146" s="1"/>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A147" s="4"/>
+      <c r="B147" s="1"/>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A148" s="4"/>
+      <c r="B148" s="1"/>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A149" s="4"/>
+      <c r="B149" s="1"/>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A150" s="4"/>
+      <c r="B150" s="1"/>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A151" s="4"/>
+      <c r="B151" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB957D0E-C1D3-4DE8-9D35-A9D8A8951233}">
   <dimension ref="A1:B174"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D27" sqref="D27"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -3083,7 +4129,854 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C5F8EFB-CA14-4021-AA8B-5C6B702C125E}">
+  <dimension ref="A1:B104"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="B2" s="1">
+        <v>3.6166649999999998</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="B3" s="1">
+        <v>5.15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="B4" s="1">
+        <v>5.15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="B5" s="1">
+        <v>5.0262028396142</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="B6" s="1">
+        <v>4.9865458561506948</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="B7" s="1">
+        <v>5.0645805655466001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="B8" s="1">
+        <v>4.9456096151561297</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="B9" s="1">
+        <v>4.7204602896860104</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="B10" s="1">
+        <v>5.05</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="B11" s="1">
+        <v>5.05</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="B12" s="1">
+        <v>4.7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="B13" s="1">
+        <v>4.7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="B14" s="1">
+        <v>4.7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="B15" s="1">
+        <v>4.7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="B16" s="1">
+        <v>6.25</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="B17" s="1">
+        <v>4.7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="B18" s="1">
+        <v>4.7</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="B19" s="1">
+        <v>4.7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="B20" s="1">
+        <v>4.9000000000000004</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="B21" s="1">
+        <v>4.75</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="B22" s="1">
+        <v>4.75</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="B23" s="1">
+        <v>4.75</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A24" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="B24" s="1">
+        <v>4.95</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A25" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="B25" s="1">
+        <v>7.2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A26" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="B26" s="1">
+        <v>7.2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A27" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="B27" s="1">
+        <v>7.15</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A28" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="B28" s="1">
+        <v>6.95</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A29" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="B29" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A30" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="B30" s="1">
+        <v>6.85</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A31" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="B31" s="1">
+        <v>6.95</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A32" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="B32" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A33" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="B33" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A34" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="B34" s="1">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A35" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="B35" s="1">
+        <v>6.85</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A36" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="B36" s="1">
+        <v>6.85</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A37" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="B37" s="1">
+        <v>6.85</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A38" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="B38" s="1">
+        <v>6.85</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A39" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="B39" s="1">
+        <v>4.75</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A40" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="B40" s="1">
+        <v>4.75</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A41" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="B41" s="1">
+        <v>4.75</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A42" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="B42" s="1">
+        <v>4.75</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A43" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="B43" s="1">
+        <v>4.75</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A44" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="B44" s="1">
+        <v>4.75</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A45" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="B45" s="1">
+        <v>4.7</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A46" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="B46" s="1">
+        <v>4.7</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A47" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="B47" s="1">
+        <v>4.7</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A48" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="B48" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A49" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="B49" s="1">
+        <v>6.95</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A50" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="B50" s="1">
+        <v>6.95</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A51" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="B51" s="1">
+        <v>6.95</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A52" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="B52" s="1">
+        <v>6.95</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A53" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="B53" s="1">
+        <v>6.95</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A54" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="B54" s="1">
+        <v>5.7</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A55" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="B55" s="1">
+        <v>5.7</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A56" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="B56" s="1">
+        <v>5.7</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A57" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="B57" s="1">
+        <v>5.7</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A58" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="B58" s="1">
+        <v>5.7</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A59" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="B59" s="1">
+        <v>5.7</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A60" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="B60" s="1">
+        <v>5.7</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A61" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="B61" s="1">
+        <v>8.1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A62" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="B62" s="1">
+        <v>8.1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A63" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="B63" s="1">
+        <v>8.1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A64" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="B64" s="1">
+        <v>8.1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A65" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="B65" s="1">
+        <v>8.1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A66" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="B66" s="1">
+        <v>8.1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A67" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="B67" s="1">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A68" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="B68" s="1">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A69" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="B69" s="1">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A70" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="B70" s="1">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A71" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="B71" s="1">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A72" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="B72" s="1">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A73" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="B73" s="1">
+        <v>4.5999999999999996</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A74" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="B74" s="1">
+        <v>4.5999999999999996</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A75" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="B75" s="1">
+        <v>4.5999999999999996</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A76" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="B76" s="1">
+        <v>4.5999999999999996</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A77" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="B77" s="1">
+        <v>4.5999999999999996</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A78" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="B78" s="1">
+        <v>4.5999999999999996</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A79" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="B79" s="1">
+        <v>4.5999999999999996</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A80" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="B80" s="1">
+        <v>11.1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A81" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="B81" s="1">
+        <v>8.5500000000000007</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A82" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="B82" s="1">
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A83" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="B83" s="1">
+        <v>12.7</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A84" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="B84" s="1">
+        <v>12.7</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A85" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="B85" s="1">
+        <v>12.15</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A86" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="B86" s="1">
+        <v>2.9</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A87" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="B87" s="1">
+        <v>2.9</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A88" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="B88" s="1">
+        <v>2.9</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A89" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="B89" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A90" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="B90" s="1">
+        <v>13.55</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A91" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="B91" s="1">
+        <v>5.6</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A92" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="B92" s="1">
+        <v>5.6</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A93" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="B93" s="1">
+        <v>5.6</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A94" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="B94" s="1">
+        <v>5.4</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A95" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="B95" s="1">
+        <v>5.4</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A96" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="B96" s="1">
+        <v>5.4</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A97" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="B97" s="1">
+        <v>5.55</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A98" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="B98" s="1">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A99" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="B99" s="1">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A100" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="B100" s="1">
+        <v>6.55</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A101" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="B101" s="1">
+        <v>6.55</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A102" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="B102" s="1">
+        <v>6.55</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A103" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="B103" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A104" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="B104" s="1">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADF72B8C-4724-4CAA-A8AF-3DC314968759}">
   <dimension ref="A1:B174"/>
   <sheetViews>
@@ -3262,7 +5155,7 @@
         <v>21</v>
       </c>
       <c r="B21" s="8">
-        <v>40.650000000000006</v>
+        <v>40.65</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
@@ -4486,6 +6379,853 @@
         <v>155</v>
       </c>
       <c r="B174" s="8">
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81ACF73D-EE59-44A3-A7D9-13D9B876FD8D}">
+  <dimension ref="A1:B104"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I16" sqref="I16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="B2" s="10">
+        <v>10.849995</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="B3" s="10">
+        <v>15.450000000000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="B4" s="10">
+        <v>15.450000000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="B5" s="10">
+        <v>15.0786085188426</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="B6" s="10">
+        <v>14.959637568452084</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="B7" s="10">
+        <v>15.193741696639801</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="B8" s="10">
+        <v>14.836828845468389</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="B9" s="10">
+        <v>14.161380869058032</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="B10" s="10">
+        <v>15.149999999999999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="B11" s="10">
+        <v>15.149999999999999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="B12" s="10">
+        <v>14.100000000000001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="B13" s="10">
+        <v>14.100000000000001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="B14" s="10">
+        <v>14.100000000000001</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="B15" s="10">
+        <v>14.100000000000001</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="B16" s="10">
+        <v>18.75</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="B17" s="10">
+        <v>14.100000000000001</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="B18" s="10">
+        <v>14.100000000000001</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="B19" s="10">
+        <v>14.100000000000001</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="B20" s="10">
+        <v>14.700000000000001</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="B21" s="10">
+        <v>14.25</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="B22" s="10">
+        <v>14.25</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="B23" s="10">
+        <v>14.25</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A24" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="B24" s="10">
+        <v>14.850000000000001</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A25" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="B25" s="10">
+        <v>21.6</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A26" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="B26" s="10">
+        <v>21.6</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A27" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="B27" s="10">
+        <v>21.450000000000003</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A28" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="B28" s="10">
+        <v>20.85</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A29" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="B29" s="10">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A30" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="B30" s="10">
+        <v>20.549999999999997</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A31" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="B31" s="10">
+        <v>20.85</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A32" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="B32" s="10">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A33" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="B33" s="10">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A34" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="B34" s="10">
+        <v>20.700000000000003</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A35" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="B35" s="10">
+        <v>20.549999999999997</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A36" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="B36" s="10">
+        <v>20.549999999999997</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A37" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="B37" s="10">
+        <v>20.549999999999997</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A38" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="B38" s="10">
+        <v>20.549999999999997</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A39" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="B39" s="10">
+        <v>14.25</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A40" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="B40" s="10">
+        <v>14.25</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A41" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="B41" s="10">
+        <v>14.25</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A42" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="B42" s="10">
+        <v>14.25</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A43" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="B43" s="10">
+        <v>14.25</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A44" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="B44" s="10">
+        <v>14.25</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A45" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="B45" s="10">
+        <v>14.100000000000001</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A46" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="B46" s="10">
+        <v>14.100000000000001</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A47" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="B47" s="10">
+        <v>14.100000000000001</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A48" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="B48" s="10">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A49" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="B49" s="10">
+        <v>20.85</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A50" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="B50" s="10">
+        <v>20.85</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A51" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="B51" s="10">
+        <v>20.85</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A52" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="B52" s="10">
+        <v>20.85</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A53" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="B53" s="10">
+        <v>20.85</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A54" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="B54" s="10">
+        <v>17.100000000000001</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A55" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="B55" s="10">
+        <v>17.100000000000001</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A56" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="B56" s="10">
+        <v>17.100000000000001</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A57" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="B57" s="10">
+        <v>17.100000000000001</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A58" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="B58" s="10">
+        <v>17.100000000000001</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A59" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="B59" s="10">
+        <v>17.100000000000001</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A60" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="B60" s="10">
+        <v>17.100000000000001</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A61" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="B61" s="10">
+        <v>24.299999999999997</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A62" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="B62" s="10">
+        <v>24.299999999999997</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A63" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="B63" s="10">
+        <v>24.299999999999997</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A64" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="B64" s="10">
+        <v>24.299999999999997</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A65" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="B65" s="10">
+        <v>24.299999999999997</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A66" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="B66" s="10">
+        <v>24.299999999999997</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A67" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="B67" s="10">
+        <v>16.5</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A68" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="B68" s="10">
+        <v>16.5</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A69" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="B69" s="10">
+        <v>16.5</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A70" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="B70" s="10">
+        <v>16.5</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A71" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="B71" s="10">
+        <v>16.5</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A72" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="B72" s="10">
+        <v>16.5</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A73" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="B73" s="10">
+        <v>13.799999999999999</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A74" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="B74" s="10">
+        <v>13.799999999999999</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A75" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="B75" s="10">
+        <v>13.799999999999999</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A76" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="B76" s="10">
+        <v>13.799999999999999</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A77" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="B77" s="10">
+        <v>13.799999999999999</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A78" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="B78" s="10">
+        <v>13.799999999999999</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A79" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="B79" s="10">
+        <v>13.799999999999999</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A80" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="B80" s="10">
+        <v>33.299999999999997</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A81" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="B81" s="10">
+        <v>25.650000000000002</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A82" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="B82" s="10">
+        <v>25.5</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A83" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="B83" s="10">
+        <v>38.099999999999994</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A84" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="B84" s="10">
+        <v>38.099999999999994</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A85" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="B85" s="10">
+        <v>36.450000000000003</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A86" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="B86" s="10">
+        <v>8.6999999999999993</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A87" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="B87" s="10">
+        <v>8.6999999999999993</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A88" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="B88" s="10">
+        <v>8.6999999999999993</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A89" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="B89" s="10">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A90" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="B90" s="10">
+        <v>40.650000000000006</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A91" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="B91" s="10">
+        <v>16.799999999999997</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A92" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="B92" s="10">
+        <v>16.799999999999997</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A93" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="B93" s="10">
+        <v>16.799999999999997</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A94" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="B94" s="10">
+        <v>16.200000000000003</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A95" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="B95" s="10">
+        <v>16.200000000000003</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A96" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="B96" s="10">
+        <v>16.200000000000003</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A97" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="B97" s="10">
+        <v>16.649999999999999</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A98" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="B98" s="10">
+        <v>16.5</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A99" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="B99" s="10">
+        <v>16.5</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A100" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="B100" s="10">
+        <v>19.649999999999999</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A101" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="B101" s="10">
+        <v>19.649999999999999</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A102" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="B102" s="10">
+        <v>19.649999999999999</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A103" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="B103" s="10">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A104" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="B104" s="10">
         <v>15</v>
       </c>
     </row>

--- a/Irrigation Dates Depths.xlsx
+++ b/Irrigation Dates Depths.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\seosu\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A8F5823-B947-46D8-8E5B-7B03D30EC4C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{444AC32E-BD6F-49FF-AA3D-8C835A97C079}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="737" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="531" uniqueCount="176">
   <si>
     <t>Date</t>
   </si>
@@ -931,9 +931,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E123"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCellId="1" sqref="B1 A1"/>
-    </sheetView>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -1687,8 +1685,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12AA9BAA-E3F5-40EE-BC7B-22893B26F7D0}">
   <dimension ref="A1:B151"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:B1"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A104" sqref="A104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2720,10 +2718,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB957D0E-C1D3-4DE8-9D35-A9D8A8951233}">
-  <dimension ref="A1:B174"/>
+  <dimension ref="A1:B71"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+    <sheetView topLeftCell="A59" workbookViewId="0">
+      <selection activeCell="A72" sqref="A72:XFD174"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3300,830 +3298,6 @@
         <v>6</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A72" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="B72" s="6">
-        <v>3.6166649999999998</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A73" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="B73" s="6">
-        <v>5.15</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A74" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="B74" s="6">
-        <v>5.15</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A75" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="B75" s="6">
-        <v>5.0262028396142</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A76" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="B76" s="6">
-        <v>4.9865458561506948</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A77" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="B77" s="6">
-        <v>5.0645805655466001</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A78" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="B78" s="6">
-        <v>4.9456096151561297</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A79" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="B79" s="6">
-        <v>4.7204602896860104</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A80" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="B80" s="6">
-        <v>5.05</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A81" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="B81" s="6">
-        <v>5.05</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A82" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="B82" s="6">
-        <v>4.7</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A83" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="B83" s="6">
-        <v>4.7</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A84" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="B84" s="6">
-        <v>4.7</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A85" s="4" t="s">
-        <v>160</v>
-      </c>
-      <c r="B85" s="6">
-        <v>4.7</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A86" s="4" t="s">
-        <v>161</v>
-      </c>
-      <c r="B86" s="6">
-        <v>6.25</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A87" s="4" t="s">
-        <v>162</v>
-      </c>
-      <c r="B87" s="6">
-        <v>4.7</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A88" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="B88" s="6">
-        <v>4.7</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A89" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="B89" s="6">
-        <v>4.7</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A90" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="B90" s="6">
-        <v>4.9000000000000004</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A91" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="B91" s="6">
-        <v>4.75</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A92" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="B92" s="6">
-        <v>4.75</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A93" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="B93" s="6">
-        <v>4.75</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A94" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="B94" s="6">
-        <v>4.95</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A95" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="B95" s="6">
-        <v>7.2</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A96" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="B96" s="6">
-        <v>7.2</v>
-      </c>
-    </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A97" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="B97" s="6">
-        <v>7.15</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A98" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="B98" s="6">
-        <v>6.95</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A99" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="B99" s="6">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A100" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="B100" s="6">
-        <v>6.85</v>
-      </c>
-    </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A101" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="B101" s="6">
-        <v>6.95</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A102" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="B102" s="6">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A103" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="B103" s="6">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A104" s="4" t="s">
-        <v>167</v>
-      </c>
-      <c r="B104" s="6">
-        <v>6.9</v>
-      </c>
-    </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A105" s="4" t="s">
-        <v>168</v>
-      </c>
-      <c r="B105" s="6">
-        <v>6.85</v>
-      </c>
-    </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A106" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="B106" s="6">
-        <v>6.85</v>
-      </c>
-    </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A107" s="4" t="s">
-        <v>170</v>
-      </c>
-      <c r="B107" s="6">
-        <v>6.85</v>
-      </c>
-    </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A108" s="4" t="s">
-        <v>171</v>
-      </c>
-      <c r="B108" s="6">
-        <v>6.85</v>
-      </c>
-    </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A109" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="B109" s="6">
-        <v>4.75</v>
-      </c>
-    </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A110" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="B110" s="6">
-        <v>4.75</v>
-      </c>
-    </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A111" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="B111" s="6">
-        <v>4.75</v>
-      </c>
-    </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A112" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="B112" s="6">
-        <v>4.75</v>
-      </c>
-    </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A113" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="B113" s="6">
-        <v>4.75</v>
-      </c>
-    </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A114" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="B114" s="6">
-        <v>4.75</v>
-      </c>
-    </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A115" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="B115" s="6">
-        <v>4.7</v>
-      </c>
-    </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A116" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="B116" s="6">
-        <v>4.7</v>
-      </c>
-    </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A117" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="B117" s="6">
-        <v>4.7</v>
-      </c>
-    </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A118" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="B118" s="6">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A119" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="B119" s="6">
-        <v>6.95</v>
-      </c>
-    </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A120" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="B120" s="6">
-        <v>6.95</v>
-      </c>
-    </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A121" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="B121" s="6">
-        <v>6.95</v>
-      </c>
-    </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A122" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="B122" s="6">
-        <v>6.95</v>
-      </c>
-    </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A123" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="B123" s="6">
-        <v>6.95</v>
-      </c>
-    </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A124" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="B124" s="6">
-        <v>5.7</v>
-      </c>
-    </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A125" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="B125" s="6">
-        <v>5.7</v>
-      </c>
-    </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A126" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="B126" s="6">
-        <v>5.7</v>
-      </c>
-    </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A127" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="B127" s="6">
-        <v>5.7</v>
-      </c>
-    </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A128" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="B128" s="6">
-        <v>5.7</v>
-      </c>
-    </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A129" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="B129" s="6">
-        <v>5.7</v>
-      </c>
-    </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A130" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="B130" s="6">
-        <v>5.7</v>
-      </c>
-    </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A131" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="B131" s="6">
-        <v>8.1</v>
-      </c>
-    </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A132" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="B132" s="6">
-        <v>8.1</v>
-      </c>
-    </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A133" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="B133" s="6">
-        <v>8.1</v>
-      </c>
-    </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A134" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="B134" s="6">
-        <v>8.1</v>
-      </c>
-    </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A135" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="B135" s="6">
-        <v>8.1</v>
-      </c>
-    </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A136" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="B136" s="6">
-        <v>8.1</v>
-      </c>
-    </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A137" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="B137" s="6">
-        <v>5.5</v>
-      </c>
-    </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A138" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="B138" s="6">
-        <v>5.5</v>
-      </c>
-    </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A139" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="B139" s="6">
-        <v>5.5</v>
-      </c>
-    </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A140" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="B140" s="6">
-        <v>5.5</v>
-      </c>
-    </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A141" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="B141" s="6">
-        <v>5.5</v>
-      </c>
-    </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A142" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="B142" s="6">
-        <v>5.5</v>
-      </c>
-    </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A143" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="B143" s="6">
-        <v>4.5999999999999996</v>
-      </c>
-    </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A144" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="B144" s="6">
-        <v>4.5999999999999996</v>
-      </c>
-    </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A145" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="B145" s="6">
-        <v>4.5999999999999996</v>
-      </c>
-    </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A146" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="B146" s="6">
-        <v>4.5999999999999996</v>
-      </c>
-    </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A147" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="B147" s="6">
-        <v>4.5999999999999996</v>
-      </c>
-    </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A148" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="B148" s="6">
-        <v>4.5999999999999996</v>
-      </c>
-    </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A149" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="B149" s="6">
-        <v>4.5999999999999996</v>
-      </c>
-    </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A150" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="B150" s="6">
-        <v>11.1</v>
-      </c>
-    </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A151" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="B151" s="6">
-        <v>8.5500000000000007</v>
-      </c>
-    </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A152" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="B152" s="6">
-        <v>8.5</v>
-      </c>
-    </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A153" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="B153" s="6">
-        <v>12.7</v>
-      </c>
-    </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A154" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="B154" s="6">
-        <v>12.7</v>
-      </c>
-    </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A155" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="B155" s="6">
-        <v>12.15</v>
-      </c>
-    </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A156" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="B156" s="6">
-        <v>2.9</v>
-      </c>
-    </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A157" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="B157" s="6">
-        <v>2.9</v>
-      </c>
-    </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A158" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="B158" s="6">
-        <v>2.9</v>
-      </c>
-    </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A159" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="B159" s="6">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A160" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="B160" s="6">
-        <v>13.55</v>
-      </c>
-    </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A161" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="B161" s="6">
-        <v>5.6</v>
-      </c>
-    </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A162" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="B162" s="6">
-        <v>5.6</v>
-      </c>
-    </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A163" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="B163" s="6">
-        <v>5.6</v>
-      </c>
-    </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A164" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="B164" s="6">
-        <v>5.4</v>
-      </c>
-    </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A165" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="B165" s="6">
-        <v>5.4</v>
-      </c>
-    </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A166" s="4" t="s">
-        <v>147</v>
-      </c>
-      <c r="B166" s="6">
-        <v>5.4</v>
-      </c>
-    </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A167" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="B167" s="6">
-        <v>5.55</v>
-      </c>
-    </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A168" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="B168" s="6">
-        <v>5.5</v>
-      </c>
-    </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A169" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="B169" s="6">
-        <v>5.5</v>
-      </c>
-    </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A170" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="B170" s="6">
-        <v>6.55</v>
-      </c>
-    </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A171" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="B171" s="6">
-        <v>6.55</v>
-      </c>
-    </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A172" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="B172" s="6">
-        <v>6.55</v>
-      </c>
-    </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A173" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="B173" s="6">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A174" s="4" t="s">
-        <v>155</v>
-      </c>
-      <c r="B174" s="6">
-        <v>5</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4133,7 +3307,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C5F8EFB-CA14-4021-AA8B-5C6B702C125E}">
   <dimension ref="A1:B104"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A94" workbookViewId="0">
       <selection sqref="A1:B1048576"/>
     </sheetView>
   </sheetViews>
@@ -4978,10 +4152,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADF72B8C-4724-4CAA-A8AF-3DC314968759}">
-  <dimension ref="A1:B174"/>
+  <dimension ref="A1:B71"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView topLeftCell="A59" workbookViewId="0">
+      <selection activeCell="A72" sqref="A72:XFD176"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5556,830 +4730,6 @@
       </c>
       <c r="B71" s="8">
         <v>18</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A72" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="B72" s="8">
-        <v>10.849995</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A73" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="B73" s="8">
-        <v>15.450000000000001</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A74" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="B74" s="8">
-        <v>15.450000000000001</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A75" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="B75" s="8">
-        <v>15.0786085188426</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A76" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="B76" s="8">
-        <v>14.959637568452084</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A77" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="B77" s="8">
-        <v>15.193741696639801</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A78" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="B78" s="8">
-        <v>14.836828845468389</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A79" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="B79" s="8">
-        <v>14.161380869058032</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A80" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="B80" s="8">
-        <v>15.149999999999999</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A81" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="B81" s="8">
-        <v>15.149999999999999</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A82" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="B82" s="8">
-        <v>14.100000000000001</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A83" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="B83" s="8">
-        <v>14.100000000000001</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A84" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="B84" s="8">
-        <v>14.100000000000001</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A85" s="4" t="s">
-        <v>160</v>
-      </c>
-      <c r="B85" s="8">
-        <v>14.100000000000001</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A86" s="4" t="s">
-        <v>161</v>
-      </c>
-      <c r="B86" s="8">
-        <v>18.75</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A87" s="4" t="s">
-        <v>162</v>
-      </c>
-      <c r="B87" s="8">
-        <v>14.100000000000001</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A88" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="B88" s="8">
-        <v>14.100000000000001</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A89" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="B89" s="8">
-        <v>14.100000000000001</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A90" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="B90" s="8">
-        <v>14.700000000000001</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A91" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="B91" s="8">
-        <v>14.25</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A92" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="B92" s="8">
-        <v>14.25</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A93" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="B93" s="8">
-        <v>14.25</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A94" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="B94" s="8">
-        <v>14.850000000000001</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A95" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="B95" s="8">
-        <v>21.6</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A96" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="B96" s="8">
-        <v>21.6</v>
-      </c>
-    </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A97" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="B97" s="8">
-        <v>21.450000000000003</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A98" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="B98" s="8">
-        <v>20.85</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A99" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="B99" s="8">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A100" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="B100" s="8">
-        <v>20.549999999999997</v>
-      </c>
-    </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A101" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="B101" s="8">
-        <v>20.85</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A102" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="B102" s="8">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A103" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="B103" s="8">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A104" s="4" t="s">
-        <v>167</v>
-      </c>
-      <c r="B104" s="8">
-        <v>20.700000000000003</v>
-      </c>
-    </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A105" s="4" t="s">
-        <v>168</v>
-      </c>
-      <c r="B105" s="8">
-        <v>20.549999999999997</v>
-      </c>
-    </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A106" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="B106" s="8">
-        <v>20.549999999999997</v>
-      </c>
-    </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A107" s="4" t="s">
-        <v>170</v>
-      </c>
-      <c r="B107" s="8">
-        <v>20.549999999999997</v>
-      </c>
-    </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A108" s="4" t="s">
-        <v>171</v>
-      </c>
-      <c r="B108" s="8">
-        <v>20.549999999999997</v>
-      </c>
-    </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A109" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="B109" s="8">
-        <v>14.25</v>
-      </c>
-    </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A110" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="B110" s="8">
-        <v>14.25</v>
-      </c>
-    </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A111" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="B111" s="8">
-        <v>14.25</v>
-      </c>
-    </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A112" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="B112" s="8">
-        <v>14.25</v>
-      </c>
-    </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A113" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="B113" s="8">
-        <v>14.25</v>
-      </c>
-    </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A114" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="B114" s="8">
-        <v>14.25</v>
-      </c>
-    </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A115" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="B115" s="8">
-        <v>14.100000000000001</v>
-      </c>
-    </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A116" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="B116" s="8">
-        <v>14.100000000000001</v>
-      </c>
-    </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A117" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="B117" s="8">
-        <v>14.100000000000001</v>
-      </c>
-    </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A118" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="B118" s="8">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A119" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="B119" s="8">
-        <v>20.85</v>
-      </c>
-    </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A120" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="B120" s="8">
-        <v>20.85</v>
-      </c>
-    </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A121" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="B121" s="8">
-        <v>20.85</v>
-      </c>
-    </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A122" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="B122" s="8">
-        <v>20.85</v>
-      </c>
-    </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A123" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="B123" s="8">
-        <v>20.85</v>
-      </c>
-    </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A124" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="B124" s="8">
-        <v>17.100000000000001</v>
-      </c>
-    </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A125" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="B125" s="8">
-        <v>17.100000000000001</v>
-      </c>
-    </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A126" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="B126" s="8">
-        <v>17.100000000000001</v>
-      </c>
-    </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A127" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="B127" s="8">
-        <v>17.100000000000001</v>
-      </c>
-    </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A128" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="B128" s="8">
-        <v>17.100000000000001</v>
-      </c>
-    </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A129" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="B129" s="8">
-        <v>17.100000000000001</v>
-      </c>
-    </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A130" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="B130" s="8">
-        <v>17.100000000000001</v>
-      </c>
-    </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A131" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="B131" s="8">
-        <v>24.299999999999997</v>
-      </c>
-    </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A132" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="B132" s="8">
-        <v>24.299999999999997</v>
-      </c>
-    </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A133" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="B133" s="8">
-        <v>24.299999999999997</v>
-      </c>
-    </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A134" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="B134" s="8">
-        <v>24.299999999999997</v>
-      </c>
-    </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A135" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="B135" s="8">
-        <v>24.299999999999997</v>
-      </c>
-    </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A136" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="B136" s="8">
-        <v>24.299999999999997</v>
-      </c>
-    </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A137" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="B137" s="8">
-        <v>16.5</v>
-      </c>
-    </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A138" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="B138" s="8">
-        <v>16.5</v>
-      </c>
-    </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A139" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="B139" s="8">
-        <v>16.5</v>
-      </c>
-    </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A140" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="B140" s="8">
-        <v>16.5</v>
-      </c>
-    </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A141" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="B141" s="8">
-        <v>16.5</v>
-      </c>
-    </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A142" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="B142" s="8">
-        <v>16.5</v>
-      </c>
-    </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A143" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="B143" s="8">
-        <v>13.799999999999999</v>
-      </c>
-    </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A144" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="B144" s="8">
-        <v>13.799999999999999</v>
-      </c>
-    </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A145" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="B145" s="8">
-        <v>13.799999999999999</v>
-      </c>
-    </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A146" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="B146" s="8">
-        <v>13.799999999999999</v>
-      </c>
-    </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A147" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="B147" s="8">
-        <v>13.799999999999999</v>
-      </c>
-    </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A148" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="B148" s="8">
-        <v>13.799999999999999</v>
-      </c>
-    </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A149" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="B149" s="8">
-        <v>13.799999999999999</v>
-      </c>
-    </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A150" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="B150" s="8">
-        <v>33.299999999999997</v>
-      </c>
-    </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A151" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="B151" s="8">
-        <v>25.650000000000002</v>
-      </c>
-    </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A152" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="B152" s="8">
-        <v>25.5</v>
-      </c>
-    </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A153" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="B153" s="8">
-        <v>38.099999999999994</v>
-      </c>
-    </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A154" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="B154" s="8">
-        <v>38.099999999999994</v>
-      </c>
-    </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A155" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="B155" s="8">
-        <v>36.450000000000003</v>
-      </c>
-    </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A156" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="B156" s="8">
-        <v>8.6999999999999993</v>
-      </c>
-    </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A157" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="B157" s="8">
-        <v>8.6999999999999993</v>
-      </c>
-    </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A158" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="B158" s="8">
-        <v>8.6999999999999993</v>
-      </c>
-    </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A159" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="B159" s="8">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A160" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="B160" s="8">
-        <v>40.650000000000006</v>
-      </c>
-    </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A161" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="B161" s="8">
-        <v>16.799999999999997</v>
-      </c>
-    </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A162" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="B162" s="8">
-        <v>16.799999999999997</v>
-      </c>
-    </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A163" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="B163" s="8">
-        <v>16.799999999999997</v>
-      </c>
-    </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A164" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="B164" s="8">
-        <v>16.200000000000003</v>
-      </c>
-    </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A165" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="B165" s="8">
-        <v>16.200000000000003</v>
-      </c>
-    </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A166" s="4" t="s">
-        <v>147</v>
-      </c>
-      <c r="B166" s="8">
-        <v>16.200000000000003</v>
-      </c>
-    </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A167" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="B167" s="8">
-        <v>16.649999999999999</v>
-      </c>
-    </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A168" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="B168" s="8">
-        <v>16.5</v>
-      </c>
-    </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A169" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="B169" s="8">
-        <v>16.5</v>
-      </c>
-    </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A170" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="B170" s="8">
-        <v>19.649999999999999</v>
-      </c>
-    </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A171" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="B171" s="8">
-        <v>19.649999999999999</v>
-      </c>
-    </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A172" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="B172" s="8">
-        <v>19.649999999999999</v>
-      </c>
-    </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A173" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="B173" s="8">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A174" s="4" t="s">
-        <v>155</v>
-      </c>
-      <c r="B174" s="8">
-        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/Irrigation Dates Depths.xlsx
+++ b/Irrigation Dates Depths.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25028"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\seosu\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\seosu\Desktop\Guayule Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{444AC32E-BD6F-49FF-AA3D-8C835A97C079}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4308EF4-BB63-40E6-8C9F-1FB31B93DC87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="531" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="741" uniqueCount="246">
   <si>
     <t>Date</t>
   </si>
@@ -568,16 +568,227 @@
   </si>
   <si>
     <t>12/9/2018</t>
+  </si>
+  <si>
+    <t>13/2/2019</t>
+  </si>
+  <si>
+    <t>1/8/2019</t>
+  </si>
+  <si>
+    <t>2/8/2019</t>
+  </si>
+  <si>
+    <t>3/8/2019</t>
+  </si>
+  <si>
+    <t>4/8/2019</t>
+  </si>
+  <si>
+    <t>5/8/2019</t>
+  </si>
+  <si>
+    <t>9/8/2019</t>
+  </si>
+  <si>
+    <t>10/8/2019</t>
+  </si>
+  <si>
+    <t>11/8/2019</t>
+  </si>
+  <si>
+    <t>12/8/2019</t>
+  </si>
+  <si>
+    <t>16/8/2019</t>
+  </si>
+  <si>
+    <t>17/8/2019</t>
+  </si>
+  <si>
+    <t>18/8/2019</t>
+  </si>
+  <si>
+    <t>19/8/2019</t>
+  </si>
+  <si>
+    <t>21/8/2019</t>
+  </si>
+  <si>
+    <t>22/8/2019</t>
+  </si>
+  <si>
+    <t>23/8/2019</t>
+  </si>
+  <si>
+    <t>24/8/2019</t>
+  </si>
+  <si>
+    <t>25/8/2019</t>
+  </si>
+  <si>
+    <t>26/8/2019</t>
+  </si>
+  <si>
+    <t>28/8/2019</t>
+  </si>
+  <si>
+    <t>29/8/2019</t>
+  </si>
+  <si>
+    <t>30/8/2019</t>
+  </si>
+  <si>
+    <t>31/8/2019</t>
+  </si>
+  <si>
+    <t>5/9/2019</t>
+  </si>
+  <si>
+    <t>6/9/2019</t>
+  </si>
+  <si>
+    <t>7/9/2019</t>
+  </si>
+  <si>
+    <t>9/9/2019</t>
+  </si>
+  <si>
+    <t>10/9/2019</t>
+  </si>
+  <si>
+    <t>11/9/2019</t>
+  </si>
+  <si>
+    <t>12/9/2019</t>
+  </si>
+  <si>
+    <t>16/9/2019</t>
+  </si>
+  <si>
+    <t>20/9/2019</t>
+  </si>
+  <si>
+    <t>21/9/2019</t>
+  </si>
+  <si>
+    <t>22/9/2019</t>
+  </si>
+  <si>
+    <t>23/9/2019</t>
+  </si>
+  <si>
+    <t>25/9/2019</t>
+  </si>
+  <si>
+    <t>28/9/2019</t>
+  </si>
+  <si>
+    <t>29/9/2019</t>
+  </si>
+  <si>
+    <t>30/9/2019</t>
+  </si>
+  <si>
+    <t>2/10/2019</t>
+  </si>
+  <si>
+    <t>3/10/2019</t>
+  </si>
+  <si>
+    <t>4/10/2019</t>
+  </si>
+  <si>
+    <t>5/10/2019</t>
+  </si>
+  <si>
+    <t>9/10/2019</t>
+  </si>
+  <si>
+    <t>10/10/2019</t>
+  </si>
+  <si>
+    <t>11/10/2019</t>
+  </si>
+  <si>
+    <t>12/10/2019</t>
+  </si>
+  <si>
+    <t>13/10/2019</t>
+  </si>
+  <si>
+    <t>17/10/2019</t>
+  </si>
+  <si>
+    <t>18/10/2019</t>
+  </si>
+  <si>
+    <t>19/10/2019</t>
+  </si>
+  <si>
+    <t>20/10/2019</t>
+  </si>
+  <si>
+    <t>23/10/2019</t>
+  </si>
+  <si>
+    <t>24/10/2019</t>
+  </si>
+  <si>
+    <t>25/10/2019</t>
+  </si>
+  <si>
+    <t>26/10/2019</t>
+  </si>
+  <si>
+    <t>31/10/2019</t>
+  </si>
+  <si>
+    <t>1/11/2019</t>
+  </si>
+  <si>
+    <t>2/11/2019</t>
+  </si>
+  <si>
+    <t>3/11/2019</t>
+  </si>
+  <si>
+    <t>5/11/2019</t>
+  </si>
+  <si>
+    <t>6/11/2019</t>
+  </si>
+  <si>
+    <t>7/11/2019</t>
+  </si>
+  <si>
+    <t>8/11/2019</t>
+  </si>
+  <si>
+    <t>9/11/2019</t>
+  </si>
+  <si>
+    <t>10/11/2019</t>
+  </si>
+  <si>
+    <t>13/11/2019</t>
+  </si>
+  <si>
+    <t>14/11/2019</t>
+  </si>
+  <si>
+    <t>15/11/2019</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="dd/mm/yyyy;@"/>
+    <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -592,6 +803,12 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -614,14 +831,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -643,15 +858,26 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2 2" xfId="1" xr:uid="{73671B16-9030-4DF3-94E4-B401A50CEF73}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -931,748 +1157,750 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E123"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0"/>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:B1048576"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16" style="4" customWidth="1"/>
-    <col min="2" max="2" width="16" style="1" customWidth="1"/>
-    <col min="3" max="3" width="16" style="6" customWidth="1"/>
-    <col min="4" max="4" width="13.33203125" style="8" customWidth="1"/>
-    <col min="5" max="5" width="16" style="4" customWidth="1"/>
+    <col min="1" max="1" width="16" style="10" customWidth="1"/>
+    <col min="2" max="2" width="16" style="8" customWidth="1"/>
+    <col min="3" max="3" width="16" style="5" customWidth="1"/>
+    <col min="4" max="4" width="13.33203125" style="7" customWidth="1"/>
+    <col min="5" max="5" width="16" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="7"/>
-      <c r="E1" s="3"/>
+      <c r="C1" s="6"/>
+      <c r="E1" s="2"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="1">
+      <c r="B2" s="8">
         <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="1">
+      <c r="B3" s="8">
         <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="1">
+      <c r="B4" s="8">
         <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="1">
+      <c r="B5" s="8">
         <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="1">
+      <c r="B6" s="8">
         <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="1">
+      <c r="B7" s="8">
         <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="1">
+      <c r="B8" s="8">
         <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="4" t="s">
+      <c r="A9" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="1">
+      <c r="B9" s="8">
         <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="4" t="s">
+      <c r="A10" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="1">
+      <c r="B10" s="8">
         <v>10.8</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="4" t="s">
+      <c r="A11" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="1">
+      <c r="B11" s="8">
         <v>18</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" s="4" t="s">
+      <c r="A12" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="1">
+      <c r="B12" s="8">
         <v>18</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" s="4" t="s">
+      <c r="A13" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="1">
+      <c r="B13" s="8">
         <v>18</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" s="4" t="s">
+      <c r="A14" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="B14" s="1">
+      <c r="B14" s="8">
         <v>18</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" s="4" t="s">
+      <c r="A15" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="B15" s="1">
+      <c r="B15" s="8">
         <v>18</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" s="4" t="s">
+      <c r="A16" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="B16" s="1">
+      <c r="B16" s="8">
         <v>11</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A17" s="4" t="s">
+      <c r="A17" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="B17" s="1">
+      <c r="B17" s="8">
         <v>11</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A18" s="4" t="s">
+      <c r="A18" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="B18" s="1">
+      <c r="B18" s="8">
         <v>11</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A19" s="4" t="s">
+      <c r="A19" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="B19" s="1">
+      <c r="B19" s="8">
         <v>11</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A20" s="4" t="s">
+      <c r="A20" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="B20" s="1">
+      <c r="B20" s="8">
         <v>11</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A21" s="4" t="s">
+      <c r="A21" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="B21" s="1">
+      <c r="B21" s="8">
         <v>27.1</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A22" s="4" t="s">
+      <c r="A22" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="B22" s="1">
+      <c r="B22" s="8">
         <v>28.8</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A23" s="4" t="s">
+      <c r="A23" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="B23" s="1">
+      <c r="B23" s="8">
         <v>11.2</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A24" s="4" t="s">
+      <c r="A24" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="B24" s="1">
+      <c r="B24" s="8">
         <v>11.2</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A25" s="4" t="s">
+      <c r="A25" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="B25" s="1">
+      <c r="B25" s="8">
         <v>11.2</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A26" s="4" t="s">
+      <c r="A26" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="B26" s="1">
+      <c r="B26" s="8">
         <v>14.2</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A27" s="4" t="s">
+      <c r="A27" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="B27" s="1">
+      <c r="B27" s="8">
         <v>11</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A28" s="4" t="s">
+      <c r="A28" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="B28" s="1">
+      <c r="B28" s="8">
         <v>11</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A29" s="4" t="s">
+      <c r="A29" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="B29" s="1">
+      <c r="B29" s="8">
         <v>23.7</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A30" s="4" t="s">
+      <c r="A30" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="B30" s="1">
+      <c r="B30" s="8">
         <v>16</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A31" s="4" t="s">
+      <c r="A31" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="B31" s="1">
+      <c r="B31" s="8">
         <v>16</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A32" s="4" t="s">
+      <c r="A32" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="B32" s="1">
+      <c r="B32" s="8">
         <v>16</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A33" s="4" t="s">
+      <c r="A33" s="10" t="s">
         <v>156</v>
       </c>
-      <c r="B33" s="1">
+      <c r="B33" s="8">
         <v>16</v>
       </c>
-      <c r="E33" s="2"/>
+      <c r="E33" s="1"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A34" s="4" t="s">
+      <c r="A34" s="10" t="s">
         <v>157</v>
       </c>
-      <c r="B34" s="1">
+      <c r="B34" s="8">
         <v>32</v>
       </c>
-      <c r="E34" s="2"/>
+      <c r="E34" s="1"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A35" s="4" t="s">
+      <c r="A35" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="B35" s="1">
+      <c r="B35" s="8">
         <v>8.1999999999999993</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A36" s="4" t="s">
+      <c r="A36" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="B36" s="1">
+      <c r="B36" s="8">
         <v>10.7</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A37" s="4" t="s">
+      <c r="A37" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="B37" s="1">
+      <c r="B37" s="8">
         <v>10.7</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A38" s="4" t="s">
+      <c r="A38" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="B38" s="1">
+      <c r="B38" s="8">
         <v>12.2</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A39" s="4" t="s">
+      <c r="A39" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="B39" s="1">
+      <c r="B39" s="8">
         <v>12.2</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A40" s="4" t="s">
+      <c r="A40" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="B40" s="1">
+      <c r="B40" s="8">
         <v>12.2</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A41" s="4" t="s">
+      <c r="A41" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="B41" s="1">
+      <c r="B41" s="8">
         <v>12</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A42" s="4" t="s">
+      <c r="A42" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="B42" s="1">
+      <c r="B42" s="8">
         <v>12</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A43" s="4" t="s">
+      <c r="A43" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="B43" s="1">
+      <c r="B43" s="8">
         <v>12</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A44" s="4" t="s">
+      <c r="A44" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="B44" s="1">
+      <c r="B44" s="8">
         <v>12</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A45" s="4" t="s">
+      <c r="A45" s="10" t="s">
         <v>172</v>
       </c>
-      <c r="B45" s="1">
+      <c r="B45" s="8">
         <v>12</v>
       </c>
-      <c r="E45" s="2"/>
+      <c r="E45" s="1"/>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A46" s="4" t="s">
+      <c r="A46" s="10" t="s">
         <v>173</v>
       </c>
-      <c r="B46" s="1">
+      <c r="B46" s="8">
         <v>12</v>
       </c>
-      <c r="E46" s="2"/>
+      <c r="E46" s="1"/>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A47" s="4" t="s">
+      <c r="A47" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="B47" s="1">
+      <c r="B47" s="8">
         <v>12</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A48" s="4" t="s">
+      <c r="A48" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="B48" s="1">
+      <c r="B48" s="8">
         <v>12</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A49" s="4" t="s">
+      <c r="A49" s="10" t="s">
         <v>174</v>
       </c>
-      <c r="B49" s="1">
+      <c r="B49" s="8">
         <v>12</v>
       </c>
-      <c r="E49" s="2"/>
+      <c r="E49" s="1"/>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A50" s="4" t="s">
+      <c r="A50" s="10" t="s">
         <v>175</v>
       </c>
-      <c r="B50" s="1">
+      <c r="B50" s="8">
         <v>18</v>
       </c>
-      <c r="E50" s="2"/>
+      <c r="E50" s="1"/>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A51" s="4" t="s">
+      <c r="A51" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="B51" s="1">
+      <c r="B51" s="8">
         <v>12</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A52" s="4" t="s">
+      <c r="A52" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="B52" s="1">
+      <c r="B52" s="8">
         <v>12</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A53" s="4" t="s">
+      <c r="A53" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="B53" s="1">
+      <c r="B53" s="8">
         <v>12</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A54" s="4" t="s">
+      <c r="A54" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="B54" s="1">
+      <c r="B54" s="8">
         <v>24</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A55" s="4" t="s">
+      <c r="A55" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="B55" s="1">
+      <c r="B55" s="8">
         <v>24</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A56" s="4" t="s">
+      <c r="A56" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="B56" s="1">
+      <c r="B56" s="8">
         <v>12</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A57" s="4" t="s">
+      <c r="A57" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="B57" s="1">
+      <c r="B57" s="8">
         <v>12</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A58" s="4" t="s">
+      <c r="A58" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="B58" s="1">
+      <c r="B58" s="8">
         <v>12</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A59" s="4" t="s">
+      <c r="A59" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="B59" s="1">
+      <c r="B59" s="8">
         <v>12</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A60" s="4" t="s">
+      <c r="A60" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="B60" s="1">
+      <c r="B60" s="8">
         <v>24</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A61" s="4" t="s">
+      <c r="A61" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="B61" s="1">
+      <c r="B61" s="8">
         <v>12</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A62" s="4" t="s">
+      <c r="A62" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="B62" s="1">
+      <c r="B62" s="8">
         <v>12</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A63" s="4" t="s">
+      <c r="A63" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="B63" s="1">
+      <c r="B63" s="8">
         <v>12</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A64" s="4" t="s">
+      <c r="A64" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="B64" s="1">
+      <c r="B64" s="8">
         <v>31</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A65" s="4" t="s">
+      <c r="A65" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="B65" s="1">
+      <c r="B65" s="8">
         <v>31</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A66" s="4" t="s">
+      <c r="A66" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="B66" s="1">
+      <c r="B66" s="8">
         <v>12</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A67" s="4" t="s">
+      <c r="A67" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="B67" s="1">
+      <c r="B67" s="8">
         <v>24</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A68" s="4" t="s">
+      <c r="A68" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="B68" s="1">
+      <c r="B68" s="8">
         <v>12</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A69" s="4" t="s">
+      <c r="A69" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="B69" s="1">
+      <c r="B69" s="8">
         <v>12</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A70" s="4" t="s">
+      <c r="A70" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="B70" s="1">
+      <c r="B70" s="8">
         <v>12</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A71" s="4" t="s">
+      <c r="A71" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="B71" s="1">
+      <c r="B71" s="8">
         <v>12</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="E72" s="2"/>
+      <c r="E72" s="1"/>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="E73" s="2"/>
+      <c r="E73" s="1"/>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="E74" s="2"/>
+      <c r="E74" s="1"/>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="E75" s="2"/>
+      <c r="E75" s="1"/>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="E76" s="2"/>
+      <c r="E76" s="1"/>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="E77" s="2"/>
+      <c r="E77" s="1"/>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="E78" s="2"/>
+      <c r="E78" s="1"/>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="E79" s="2"/>
+      <c r="E79" s="1"/>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="E80" s="2"/>
+      <c r="E80" s="1"/>
     </row>
     <row r="81" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E81" s="2"/>
+      <c r="E81" s="1"/>
     </row>
     <row r="82" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E82" s="2"/>
+      <c r="E82" s="1"/>
     </row>
     <row r="83" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E83" s="2"/>
+      <c r="E83" s="1"/>
     </row>
     <row r="84" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E84" s="2"/>
+      <c r="E84" s="1"/>
     </row>
     <row r="85" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E85" s="2"/>
+      <c r="E85" s="1"/>
     </row>
     <row r="86" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E86" s="2"/>
+      <c r="E86" s="1"/>
     </row>
     <row r="87" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E87" s="2"/>
+      <c r="E87" s="1"/>
     </row>
     <row r="88" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E88" s="2"/>
+      <c r="E88" s="1"/>
     </row>
     <row r="89" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E89" s="2"/>
+      <c r="E89" s="1"/>
     </row>
     <row r="90" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E90" s="2"/>
+      <c r="E90" s="1"/>
     </row>
     <row r="91" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E91" s="2"/>
+      <c r="E91" s="1"/>
     </row>
     <row r="92" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E92" s="2"/>
+      <c r="E92" s="1"/>
     </row>
     <row r="93" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E93" s="2"/>
+      <c r="E93" s="1"/>
     </row>
     <row r="94" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E94" s="2"/>
+      <c r="E94" s="1"/>
     </row>
     <row r="95" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E95" s="2"/>
+      <c r="E95" s="1"/>
     </row>
     <row r="96" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E96" s="2"/>
+      <c r="E96" s="1"/>
     </row>
     <row r="97" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E97" s="2"/>
+      <c r="E97" s="1"/>
     </row>
     <row r="98" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E98" s="2"/>
+      <c r="E98" s="1"/>
     </row>
     <row r="99" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E99" s="2"/>
+      <c r="E99" s="1"/>
     </row>
     <row r="100" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E100" s="2"/>
+      <c r="E100" s="1"/>
     </row>
     <row r="101" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E101" s="2"/>
+      <c r="E101" s="1"/>
     </row>
     <row r="102" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E102" s="2"/>
+      <c r="E102" s="1"/>
     </row>
     <row r="103" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E103" s="2"/>
+      <c r="E103" s="1"/>
     </row>
     <row r="104" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E104" s="2"/>
+      <c r="E104" s="1"/>
     </row>
     <row r="105" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E105" s="2"/>
+      <c r="E105" s="1"/>
     </row>
     <row r="106" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E106" s="2"/>
+      <c r="E106" s="1"/>
     </row>
     <row r="107" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E107" s="2"/>
+      <c r="E107" s="1"/>
     </row>
     <row r="108" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E108" s="2"/>
+      <c r="E108" s="1"/>
     </row>
     <row r="109" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E109" s="2"/>
+      <c r="E109" s="1"/>
     </row>
     <row r="110" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E110" s="2"/>
+      <c r="E110" s="1"/>
     </row>
     <row r="111" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E111" s="2"/>
+      <c r="E111" s="1"/>
     </row>
     <row r="112" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E112" s="2"/>
+      <c r="E112" s="1"/>
     </row>
     <row r="113" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E113" s="2"/>
+      <c r="E113" s="1"/>
     </row>
     <row r="114" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E114" s="2"/>
+      <c r="E114" s="1"/>
     </row>
     <row r="115" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E115" s="2"/>
+      <c r="E115" s="1"/>
     </row>
     <row r="116" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E116" s="5"/>
+      <c r="E116" s="4"/>
     </row>
     <row r="117" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E117" s="5"/>
+      <c r="E117" s="4"/>
     </row>
     <row r="118" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E118" s="5"/>
+      <c r="E118" s="4"/>
     </row>
     <row r="119" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E119" s="5"/>
+      <c r="E119" s="4"/>
     </row>
     <row r="120" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E120" s="5"/>
+      <c r="E120" s="4"/>
     </row>
     <row r="121" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E121" s="5"/>
+      <c r="E121" s="4"/>
     </row>
     <row r="122" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E122" s="5"/>
+      <c r="E122" s="4"/>
     </row>
     <row r="123" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E123" s="5"/>
+      <c r="E123" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -1683,1033 +1911,1486 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12AA9BAA-E3F5-40EE-BC7B-22893B26F7D0}">
-  <dimension ref="A1:B151"/>
+  <dimension ref="A1:D176"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A104" sqref="A104"/>
-    </sheetView>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="11.77734375" style="9" customWidth="1"/>
+    <col min="2" max="2" width="11.21875" style="8" customWidth="1"/>
+    <col min="3" max="3" width="12.21875" style="15" customWidth="1"/>
+    <col min="4" max="4" width="8.88671875" style="12"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="8" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="11" t="s">
+        <v>176</v>
+      </c>
+      <c r="B2" s="8">
+        <v>14.5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="B2" s="1">
-        <v>7.2333299999999996</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" s="4" t="s">
+      <c r="B3" s="8">
+        <v>7.2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="B3" s="1">
+      <c r="B4" s="8">
         <v>10.3</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" s="4" t="s">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="B4" s="1">
+      <c r="B5" s="8">
         <v>10.3</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" s="4" t="s">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="B5" s="1">
-        <v>10.0524056792284</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" s="4" t="s">
+      <c r="B6" s="8">
+        <v>10.1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="B6" s="1">
-        <v>9.9730917123013896</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" s="4" t="s">
+      <c r="B7" s="8">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="B7" s="1">
-        <v>10.1291611310932</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" s="4" t="s">
+      <c r="B8" s="8">
+        <v>10.1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="B8" s="1">
-        <v>9.8912192303122595</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" s="4" t="s">
+      <c r="B9" s="8">
+        <v>9.9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="B9" s="1">
-        <v>9.4409205793720208</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" s="4" t="s">
+      <c r="B10" s="8">
+        <v>9.4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="B10" s="1">
+      <c r="B11" s="8">
         <v>10.1</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11" s="4" t="s">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="B11" s="1">
+      <c r="B12" s="8">
         <v>10.1</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12" s="4" t="s">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" s="10" t="s">
         <v>163</v>
       </c>
-      <c r="B12" s="1">
+      <c r="B13" s="8">
         <v>9.4</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A13" s="4" t="s">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" s="10" t="s">
         <v>158</v>
       </c>
-      <c r="B13" s="1">
+      <c r="B14" s="8">
         <v>9.4</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A14" s="4" t="s">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" s="10" t="s">
         <v>159</v>
       </c>
-      <c r="B14" s="1">
+      <c r="B15" s="8">
         <v>9.4</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A15" s="4" t="s">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" s="10" t="s">
         <v>160</v>
       </c>
-      <c r="B15" s="1">
+      <c r="B16" s="8">
         <v>9.4</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A16" s="4" t="s">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" s="10" t="s">
         <v>161</v>
       </c>
-      <c r="B16" s="1">
+      <c r="B17" s="8">
         <v>12.5</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A17" s="4" t="s">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" s="10" t="s">
         <v>162</v>
       </c>
-      <c r="B17" s="1">
+      <c r="B18" s="8">
         <v>9.4</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A18" s="4" t="s">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="B18" s="1">
+      <c r="B19" s="8">
         <v>9.4</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A19" s="4" t="s">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="B19" s="1">
+      <c r="B20" s="8">
         <v>9.4</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A20" s="4" t="s">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="B20" s="1">
+      <c r="B21" s="8">
         <v>9.8000000000000007</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A21" s="4" t="s">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="B21" s="1">
+      <c r="B22" s="8">
         <v>9.5</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A22" s="4" t="s">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="B22" s="1">
+      <c r="B23" s="8">
         <v>9.5</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A23" s="4" t="s">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A24" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="B23" s="1">
+      <c r="B24" s="8">
         <v>9.5</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A24" s="4" t="s">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A25" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="B24" s="1">
+      <c r="B25" s="8">
         <v>9.9</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A25" s="4" t="s">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A26" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="B25" s="1">
+      <c r="B26" s="8">
         <v>14.4</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A26" s="4" t="s">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A27" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="B26" s="1">
+      <c r="B27" s="8">
         <v>14.4</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A27" s="4" t="s">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A28" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="B27" s="1">
+      <c r="B28" s="8">
         <v>14.3</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A28" s="4" t="s">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A29" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="B28" s="1">
+      <c r="B29" s="8">
         <v>13.9</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A29" s="4" t="s">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A30" s="10" t="s">
         <v>89</v>
       </c>
-      <c r="B29" s="1">
+      <c r="B30" s="8">
         <v>14</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A30" s="4" t="s">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A31" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="B30" s="1">
+      <c r="B31" s="8">
         <v>13.7</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A31" s="4" t="s">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A32" s="10" t="s">
         <v>164</v>
       </c>
-      <c r="B31" s="1">
+      <c r="B32" s="8">
         <v>13.9</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A32" s="4" t="s">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A33" s="10" t="s">
         <v>165</v>
       </c>
-      <c r="B32" s="1">
+      <c r="B33" s="8">
         <v>14</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A33" s="4" t="s">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A34" s="10" t="s">
         <v>166</v>
       </c>
-      <c r="B33" s="1">
+      <c r="B34" s="8">
         <v>14</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A34" s="4" t="s">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A35" s="10" t="s">
         <v>167</v>
       </c>
-      <c r="B34" s="1">
+      <c r="B35" s="8">
         <v>13.8</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A35" s="4" t="s">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A36" s="10" t="s">
         <v>168</v>
       </c>
-      <c r="B35" s="1">
+      <c r="B36" s="8">
         <v>13.7</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A36" s="4" t="s">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A37" s="10" t="s">
         <v>169</v>
       </c>
-      <c r="B36" s="1">
+      <c r="B37" s="8">
         <v>13.7</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A37" s="4" t="s">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A38" s="10" t="s">
         <v>170</v>
       </c>
-      <c r="B37" s="1">
+      <c r="B38" s="8">
         <v>13.7</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A38" s="4" t="s">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A39" s="10" t="s">
         <v>171</v>
       </c>
-      <c r="B38" s="1">
+      <c r="B39" s="8">
         <v>13.7</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A39" s="4" t="s">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A40" s="10" t="s">
         <v>91</v>
       </c>
-      <c r="B39" s="1">
+      <c r="B40" s="8">
         <v>9.5</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A40" s="4" t="s">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A41" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="B40" s="1">
+      <c r="B41" s="8">
         <v>9.5</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A41" s="4" t="s">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A42" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="B41" s="1">
+      <c r="B42" s="8">
         <v>9.5</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A42" s="4" t="s">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A43" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="B42" s="1">
+      <c r="B43" s="8">
         <v>9.5</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A43" s="4" t="s">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A44" s="10" t="s">
         <v>95</v>
       </c>
-      <c r="B43" s="1">
+      <c r="B44" s="8">
         <v>9.5</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A44" s="4" t="s">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A45" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="B44" s="1">
+      <c r="B45" s="8">
         <v>9.5</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A45" s="4" t="s">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A46" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="B45" s="1">
+      <c r="B46" s="8">
         <v>9.4</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A46" s="4" t="s">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A47" s="10" t="s">
         <v>98</v>
       </c>
-      <c r="B46" s="1">
+      <c r="B47" s="8">
         <v>9.4</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A47" s="4" t="s">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A48" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="B47" s="1">
+      <c r="B48" s="8">
         <v>9.4</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A48" s="4" t="s">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A49" s="10" t="s">
         <v>100</v>
       </c>
-      <c r="B48" s="1">
+      <c r="B49" s="8">
         <v>10</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A49" s="4" t="s">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A50" s="10" t="s">
         <v>101</v>
       </c>
-      <c r="B49" s="1">
+      <c r="B50" s="8">
         <v>13.9</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A50" s="4" t="s">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A51" s="10" t="s">
         <v>102</v>
       </c>
-      <c r="B50" s="1">
+      <c r="B51" s="8">
         <v>13.9</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A51" s="4" t="s">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A52" s="10" t="s">
         <v>103</v>
       </c>
-      <c r="B51" s="1">
+      <c r="B52" s="8">
         <v>13.9</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A52" s="4" t="s">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A53" s="10" t="s">
         <v>104</v>
       </c>
-      <c r="B52" s="1">
+      <c r="B53" s="8">
         <v>13.9</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A53" s="4" t="s">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A54" s="10" t="s">
         <v>105</v>
       </c>
-      <c r="B53" s="1">
+      <c r="B54" s="8">
         <v>13.9</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A54" s="4" t="s">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A55" s="10" t="s">
         <v>106</v>
       </c>
-      <c r="B54" s="1">
+      <c r="B55" s="8">
         <v>11.4</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A55" s="4" t="s">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A56" s="10" t="s">
         <v>111</v>
       </c>
-      <c r="B55" s="1">
+      <c r="B56" s="8">
         <v>11.4</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A56" s="4" t="s">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A57" s="10" t="s">
         <v>112</v>
       </c>
-      <c r="B56" s="1">
+      <c r="B57" s="8">
         <v>11.4</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A57" s="4" t="s">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A58" s="10" t="s">
         <v>107</v>
       </c>
-      <c r="B57" s="1">
+      <c r="B58" s="8">
         <v>11.4</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A58" s="4" t="s">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A59" s="10" t="s">
         <v>108</v>
       </c>
-      <c r="B58" s="1">
+      <c r="B59" s="8">
         <v>11.4</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A59" s="4" t="s">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A60" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="B59" s="1">
+      <c r="B60" s="8">
         <v>11.4</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A60" s="4" t="s">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A61" s="10" t="s">
         <v>110</v>
       </c>
-      <c r="B60" s="1">
+      <c r="B61" s="8">
         <v>11.4</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A61" s="4" t="s">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A62" s="10" t="s">
         <v>113</v>
       </c>
-      <c r="B61" s="1">
+      <c r="B62" s="8">
         <v>16.2</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A62" s="4" t="s">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A63" s="10" t="s">
         <v>114</v>
       </c>
-      <c r="B62" s="1">
+      <c r="B63" s="8">
         <v>16.2</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A63" s="4" t="s">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A64" s="10" t="s">
         <v>115</v>
       </c>
-      <c r="B63" s="1">
+      <c r="B64" s="8">
         <v>16.2</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A64" s="4" t="s">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A65" s="10" t="s">
         <v>116</v>
       </c>
-      <c r="B64" s="1">
+      <c r="B65" s="8">
         <v>16.2</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A65" s="4" t="s">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A66" s="10" t="s">
         <v>117</v>
       </c>
-      <c r="B65" s="1">
+      <c r="B66" s="8">
         <v>16.2</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A66" s="4" t="s">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A67" s="10" t="s">
         <v>118</v>
       </c>
-      <c r="B66" s="1">
+      <c r="B67" s="8">
         <v>16.2</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A67" s="4" t="s">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A68" s="10" t="s">
         <v>119</v>
       </c>
-      <c r="B67" s="1">
+      <c r="B68" s="8">
         <v>11</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A68" s="4" t="s">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A69" s="10" t="s">
         <v>120</v>
       </c>
-      <c r="B68" s="1">
+      <c r="B69" s="8">
         <v>11</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A69" s="4" t="s">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A70" s="10" t="s">
         <v>121</v>
       </c>
-      <c r="B69" s="1">
+      <c r="B70" s="8">
         <v>11</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A70" s="4" t="s">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A71" s="10" t="s">
         <v>122</v>
       </c>
-      <c r="B70" s="1">
+      <c r="B71" s="8">
         <v>11</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A71" s="4" t="s">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A72" s="10" t="s">
         <v>123</v>
       </c>
-      <c r="B71" s="1">
+      <c r="B72" s="8">
         <v>11</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A72" s="4" t="s">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A73" s="10" t="s">
         <v>124</v>
       </c>
-      <c r="B72" s="1">
+      <c r="B73" s="8">
         <v>11</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A73" s="4" t="s">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A74" s="10" t="s">
         <v>125</v>
       </c>
-      <c r="B73" s="1">
+      <c r="B74" s="8">
         <v>9.1999999999999993</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A74" s="4" t="s">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A75" s="10" t="s">
         <v>126</v>
       </c>
-      <c r="B74" s="1">
+      <c r="B75" s="8">
         <v>9.1999999999999993</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A75" s="4" t="s">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A76" s="10" t="s">
         <v>127</v>
       </c>
-      <c r="B75" s="1">
+      <c r="B76" s="8">
         <v>9.1999999999999993</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A76" s="4" t="s">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A77" s="10" t="s">
         <v>128</v>
       </c>
-      <c r="B76" s="1">
+      <c r="B77" s="8">
         <v>9.1999999999999993</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A77" s="4" t="s">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A78" s="10" t="s">
         <v>129</v>
       </c>
-      <c r="B77" s="1">
+      <c r="B78" s="8">
         <v>9.1999999999999993</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A78" s="4" t="s">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A79" s="10" t="s">
         <v>130</v>
       </c>
-      <c r="B78" s="1">
+      <c r="B79" s="8">
         <v>9.1999999999999993</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A79" s="4" t="s">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A80" s="10" t="s">
         <v>104</v>
       </c>
-      <c r="B79" s="1">
+      <c r="B80" s="8">
         <v>9.1999999999999993</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A80" s="4" t="s">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A81" s="10" t="s">
         <v>131</v>
       </c>
-      <c r="B80" s="1">
+      <c r="B81" s="8">
         <v>22.2</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A81" s="4" t="s">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A82" s="10" t="s">
         <v>132</v>
       </c>
-      <c r="B81" s="1">
+      <c r="B82" s="8">
         <v>17.100000000000001</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A82" s="4" t="s">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A83" s="10" t="s">
         <v>133</v>
       </c>
-      <c r="B82" s="1">
+      <c r="B83" s="8">
         <v>17</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A83" s="4" t="s">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A84" s="10" t="s">
         <v>134</v>
       </c>
-      <c r="B83" s="1">
+      <c r="B84" s="8">
         <v>25.4</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A84" s="4" t="s">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A85" s="10" t="s">
         <v>135</v>
       </c>
-      <c r="B84" s="1">
+      <c r="B85" s="8">
         <v>25.4</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A85" s="4" t="s">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A86" s="10" t="s">
         <v>136</v>
       </c>
-      <c r="B85" s="1">
+      <c r="B86" s="8">
         <v>24.3</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A86" s="4" t="s">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A87" s="10" t="s">
         <v>137</v>
       </c>
-      <c r="B86" s="1">
+      <c r="B87" s="8">
         <v>5.8</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A87" s="4" t="s">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A88" s="10" t="s">
         <v>138</v>
       </c>
-      <c r="B87" s="1">
+      <c r="B88" s="8">
         <v>5.8</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A88" s="4" t="s">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A89" s="10" t="s">
         <v>139</v>
       </c>
-      <c r="B88" s="1">
+      <c r="B89" s="8">
         <v>5.8</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A89" s="4" t="s">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A90" s="10" t="s">
         <v>140</v>
       </c>
-      <c r="B89" s="1">
+      <c r="B90" s="8">
         <v>24</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A90" s="4" t="s">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A91" s="10" t="s">
         <v>141</v>
       </c>
-      <c r="B90" s="1">
+      <c r="B91" s="8">
         <v>27.1</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A91" s="4" t="s">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A92" s="10" t="s">
         <v>142</v>
       </c>
-      <c r="B91" s="1">
+      <c r="B92" s="8">
         <v>11.2</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A92" s="4" t="s">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A93" s="10" t="s">
         <v>143</v>
       </c>
-      <c r="B92" s="1">
+      <c r="B93" s="8">
         <v>11.2</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A93" s="4" t="s">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A94" s="10" t="s">
         <v>144</v>
       </c>
-      <c r="B93" s="1">
+      <c r="B94" s="8">
         <v>11.2</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A94" s="4" t="s">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A95" s="10" t="s">
         <v>145</v>
       </c>
-      <c r="B94" s="1">
+      <c r="B95" s="8">
         <v>10.8</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A95" s="4" t="s">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A96" s="10" t="s">
         <v>146</v>
       </c>
-      <c r="B95" s="1">
+      <c r="B96" s="8">
         <v>10.8</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A96" s="4" t="s">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A97" s="10" t="s">
         <v>147</v>
       </c>
-      <c r="B96" s="1">
+      <c r="B97" s="8">
         <v>10.8</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A97" s="4" t="s">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A98" s="10" t="s">
         <v>148</v>
       </c>
-      <c r="B97" s="1">
+      <c r="B98" s="8">
         <v>11.1</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A98" s="4" t="s">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A99" s="10" t="s">
         <v>149</v>
       </c>
-      <c r="B98" s="1">
+      <c r="B99" s="8">
         <v>11</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A99" s="4" t="s">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A100" s="10" t="s">
         <v>150</v>
       </c>
-      <c r="B99" s="1">
+      <c r="B100" s="8">
         <v>11</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A100" s="4" t="s">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A101" s="10" t="s">
         <v>151</v>
       </c>
-      <c r="B100" s="1">
+      <c r="B101" s="8">
         <v>13.1</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A101" s="4" t="s">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A102" s="10" t="s">
         <v>152</v>
       </c>
-      <c r="B101" s="1">
+      <c r="B102" s="8">
         <v>13.1</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A102" s="4" t="s">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A103" s="10" t="s">
         <v>153</v>
       </c>
-      <c r="B102" s="1">
+      <c r="B103" s="8">
         <v>13.1</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A103" s="4" t="s">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A104" s="10" t="s">
         <v>154</v>
       </c>
-      <c r="B103" s="1">
+      <c r="B104" s="8">
         <v>10</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A104" s="4" t="s">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A105" s="10" t="s">
         <v>155</v>
       </c>
-      <c r="B104" s="1">
+      <c r="B105" s="8">
         <v>10</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A105" s="4"/>
-      <c r="B105" s="1"/>
-    </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A106" s="4"/>
-      <c r="B106" s="1"/>
-    </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A107" s="4"/>
-      <c r="B107" s="1"/>
-    </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A108" s="4"/>
-      <c r="B108" s="1"/>
-    </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A109" s="4"/>
-      <c r="B109" s="1"/>
-    </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A110" s="4"/>
-      <c r="B110" s="1"/>
-    </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A111" s="4"/>
-      <c r="B111" s="1"/>
-    </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A112" s="4"/>
-      <c r="B112" s="1"/>
-    </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A113" s="4"/>
-      <c r="B113" s="1"/>
-    </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A114" s="4"/>
-      <c r="B114" s="1"/>
-    </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A115" s="4"/>
-      <c r="B115" s="1"/>
-    </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A116" s="4"/>
-      <c r="B116" s="1"/>
-    </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A117" s="4"/>
-      <c r="B117" s="1"/>
-    </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A118" s="4"/>
-      <c r="B118" s="1"/>
-    </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A119" s="4"/>
-      <c r="B119" s="1"/>
-    </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A120" s="4"/>
-      <c r="B120" s="1"/>
-    </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A121" s="4"/>
-      <c r="B121" s="1"/>
-    </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A122" s="4"/>
-      <c r="B122" s="1"/>
-    </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A123" s="4"/>
-      <c r="B123" s="1"/>
-    </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A124" s="4"/>
-      <c r="B124" s="1"/>
-    </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A125" s="4"/>
-      <c r="B125" s="1"/>
-    </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A126" s="4"/>
-      <c r="B126" s="1"/>
-    </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A127" s="4"/>
-      <c r="B127" s="1"/>
-    </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A128" s="4"/>
-      <c r="B128" s="1"/>
-    </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A129" s="4"/>
-      <c r="B129" s="1"/>
-    </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A130" s="4"/>
-      <c r="B130" s="1"/>
-    </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A131" s="4"/>
-      <c r="B131" s="1"/>
-    </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A132" s="4"/>
-      <c r="B132" s="1"/>
-    </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A133" s="4"/>
-      <c r="B133" s="1"/>
-    </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A134" s="4"/>
-      <c r="B134" s="1"/>
-    </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A135" s="4"/>
-      <c r="B135" s="1"/>
-    </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A136" s="4"/>
-      <c r="B136" s="1"/>
-    </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A137" s="4"/>
-      <c r="B137" s="1"/>
-    </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A138" s="4"/>
-      <c r="B138" s="1"/>
-    </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A139" s="4"/>
-      <c r="B139" s="1"/>
-    </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A140" s="4"/>
-      <c r="B140" s="1"/>
-    </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A141" s="4"/>
-      <c r="B141" s="1"/>
-    </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A142" s="4"/>
-      <c r="B142" s="1"/>
-    </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A143" s="4"/>
-      <c r="B143" s="1"/>
-    </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A144" s="4"/>
-      <c r="B144" s="1"/>
-    </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A145" s="4"/>
-      <c r="B145" s="1"/>
-    </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A146" s="4"/>
-      <c r="B146" s="1"/>
-    </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A147" s="4"/>
-      <c r="B147" s="1"/>
-    </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A148" s="4"/>
-      <c r="B148" s="1"/>
-    </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A149" s="4"/>
-      <c r="B149" s="1"/>
-    </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A150" s="4"/>
-      <c r="B150" s="1"/>
-    </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A151" s="4"/>
-      <c r="B151" s="1"/>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A106" s="10" t="s">
+        <v>177</v>
+      </c>
+      <c r="B106" s="8">
+        <v>12.9</v>
+      </c>
+      <c r="D106" s="14"/>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A107" s="10" t="s">
+        <v>178</v>
+      </c>
+      <c r="B107" s="8">
+        <v>12.9</v>
+      </c>
+      <c r="D107" s="14"/>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A108" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="B108" s="8">
+        <v>12.9</v>
+      </c>
+      <c r="D108" s="14"/>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A109" s="10" t="s">
+        <v>180</v>
+      </c>
+      <c r="B109" s="8">
+        <v>12.9</v>
+      </c>
+      <c r="D109" s="14"/>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A110" s="10" t="s">
+        <v>181</v>
+      </c>
+      <c r="B110" s="8">
+        <v>12.9</v>
+      </c>
+      <c r="D110" s="14"/>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A111" s="10" t="s">
+        <v>182</v>
+      </c>
+      <c r="B111" s="8">
+        <v>12.2</v>
+      </c>
+      <c r="D111" s="14"/>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A112" s="10" t="s">
+        <v>183</v>
+      </c>
+      <c r="B112" s="8">
+        <v>12.2</v>
+      </c>
+      <c r="D112" s="14"/>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A113" s="10" t="s">
+        <v>184</v>
+      </c>
+      <c r="B113" s="8">
+        <v>12.2</v>
+      </c>
+      <c r="D113" s="14"/>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A114" s="10" t="s">
+        <v>185</v>
+      </c>
+      <c r="B114" s="8">
+        <v>12.1</v>
+      </c>
+      <c r="D114" s="14"/>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A115" s="10" t="s">
+        <v>186</v>
+      </c>
+      <c r="B115" s="8">
+        <v>15.2</v>
+      </c>
+      <c r="D115" s="14"/>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A116" s="10" t="s">
+        <v>187</v>
+      </c>
+      <c r="B116" s="8">
+        <v>17.3</v>
+      </c>
+      <c r="D116" s="14"/>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A117" s="10" t="s">
+        <v>188</v>
+      </c>
+      <c r="B117" s="8">
+        <v>17.3</v>
+      </c>
+      <c r="D117" s="14"/>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A118" s="10" t="s">
+        <v>189</v>
+      </c>
+      <c r="B118" s="8">
+        <v>17.3</v>
+      </c>
+      <c r="D118" s="14"/>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A119" s="10" t="s">
+        <v>190</v>
+      </c>
+      <c r="B119" s="8">
+        <v>16.100000000000001</v>
+      </c>
+      <c r="D119" s="14"/>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A120" s="10" t="s">
+        <v>191</v>
+      </c>
+      <c r="B120" s="8">
+        <v>17.100000000000001</v>
+      </c>
+      <c r="D120" s="14"/>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A121" s="10" t="s">
+        <v>192</v>
+      </c>
+      <c r="B121" s="8">
+        <v>7.8</v>
+      </c>
+      <c r="D121" s="14"/>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A122" s="10" t="s">
+        <v>193</v>
+      </c>
+      <c r="B122" s="8">
+        <v>7.8</v>
+      </c>
+      <c r="D122" s="14"/>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A123" s="10" t="s">
+        <v>194</v>
+      </c>
+      <c r="B123" s="8">
+        <v>7.8</v>
+      </c>
+      <c r="D123" s="14"/>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A124" s="10" t="s">
+        <v>195</v>
+      </c>
+      <c r="B124" s="8">
+        <v>7.8</v>
+      </c>
+      <c r="D124" s="14"/>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A125" s="10" t="s">
+        <v>196</v>
+      </c>
+      <c r="B125" s="8">
+        <v>11.4</v>
+      </c>
+      <c r="D125" s="14"/>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A126" s="10" t="s">
+        <v>197</v>
+      </c>
+      <c r="B126" s="8">
+        <v>11.2</v>
+      </c>
+      <c r="D126" s="14"/>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A127" s="10" t="s">
+        <v>198</v>
+      </c>
+      <c r="B127" s="8">
+        <v>11.4</v>
+      </c>
+      <c r="D127" s="14"/>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A128" s="10" t="s">
+        <v>199</v>
+      </c>
+      <c r="B128" s="8">
+        <v>11.4</v>
+      </c>
+      <c r="D128" s="14"/>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A129" s="10" t="s">
+        <v>200</v>
+      </c>
+      <c r="B129" s="8">
+        <v>12.9</v>
+      </c>
+      <c r="D129" s="14"/>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A130" s="10" t="s">
+        <v>201</v>
+      </c>
+      <c r="B130" s="8">
+        <v>12.9</v>
+      </c>
+      <c r="D130" s="14"/>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A131" s="10" t="s">
+        <v>202</v>
+      </c>
+      <c r="B131" s="8">
+        <v>12.8</v>
+      </c>
+      <c r="D131" s="14"/>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A132" s="10" t="s">
+        <v>203</v>
+      </c>
+      <c r="B132" s="8">
+        <v>17.5</v>
+      </c>
+      <c r="D132" s="14"/>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A133" s="10" t="s">
+        <v>204</v>
+      </c>
+      <c r="B133" s="8">
+        <v>28.2</v>
+      </c>
+      <c r="D133" s="14"/>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A134" s="10" t="s">
+        <v>205</v>
+      </c>
+      <c r="B134" s="8">
+        <v>28.2</v>
+      </c>
+      <c r="D134" s="14"/>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A135" s="10" t="s">
+        <v>206</v>
+      </c>
+      <c r="B135" s="8">
+        <v>28.2</v>
+      </c>
+      <c r="D135" s="14"/>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A136" s="10" t="s">
+        <v>207</v>
+      </c>
+      <c r="B136" s="8">
+        <v>7.9</v>
+      </c>
+      <c r="D136" s="14"/>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A137" s="10" t="s">
+        <v>208</v>
+      </c>
+      <c r="B137" s="8">
+        <v>11.6</v>
+      </c>
+      <c r="D137" s="14"/>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A138" s="10" t="s">
+        <v>209</v>
+      </c>
+      <c r="B138" s="8">
+        <v>10.1</v>
+      </c>
+      <c r="D138" s="14"/>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A139" s="10" t="s">
+        <v>210</v>
+      </c>
+      <c r="B139" s="8">
+        <v>10.1</v>
+      </c>
+      <c r="D139" s="14"/>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A140" s="10" t="s">
+        <v>211</v>
+      </c>
+      <c r="B140" s="8">
+        <v>10.1</v>
+      </c>
+      <c r="D140" s="14"/>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A141" s="10" t="s">
+        <v>212</v>
+      </c>
+      <c r="B141" s="8">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="D141" s="14"/>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A142" s="10" t="s">
+        <v>213</v>
+      </c>
+      <c r="B142" s="8">
+        <v>10.1</v>
+      </c>
+      <c r="D142" s="14"/>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A143" s="10" t="s">
+        <v>214</v>
+      </c>
+      <c r="B143" s="8">
+        <v>10</v>
+      </c>
+      <c r="D143" s="14"/>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A144" s="10" t="s">
+        <v>215</v>
+      </c>
+      <c r="B144" s="8">
+        <v>10</v>
+      </c>
+      <c r="D144" s="14"/>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A145" s="10" t="s">
+        <v>216</v>
+      </c>
+      <c r="B145" s="8">
+        <v>10</v>
+      </c>
+      <c r="D145" s="14"/>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A146" s="10" t="s">
+        <v>217</v>
+      </c>
+      <c r="B146" s="8">
+        <v>10</v>
+      </c>
+      <c r="D146" s="14"/>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A147" s="10" t="s">
+        <v>218</v>
+      </c>
+      <c r="B147" s="8">
+        <v>10</v>
+      </c>
+      <c r="D147" s="14"/>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A148" s="10" t="s">
+        <v>219</v>
+      </c>
+      <c r="B148" s="8">
+        <v>10.1</v>
+      </c>
+      <c r="D148" s="14"/>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A149" s="10" t="s">
+        <v>220</v>
+      </c>
+      <c r="B149" s="8">
+        <v>10.3</v>
+      </c>
+      <c r="D149" s="14"/>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A150" s="10" t="s">
+        <v>221</v>
+      </c>
+      <c r="B150" s="8">
+        <v>10</v>
+      </c>
+      <c r="D150" s="14"/>
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A151" s="10" t="s">
+        <v>222</v>
+      </c>
+      <c r="B151" s="8">
+        <v>10.1</v>
+      </c>
+      <c r="D151" s="14"/>
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A152" s="10" t="s">
+        <v>223</v>
+      </c>
+      <c r="B152" s="8">
+        <v>10.1</v>
+      </c>
+      <c r="D152" s="14"/>
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A153" s="10" t="s">
+        <v>224</v>
+      </c>
+      <c r="B153" s="8">
+        <v>10.1</v>
+      </c>
+      <c r="D153" s="14"/>
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A154" s="10" t="s">
+        <v>225</v>
+      </c>
+      <c r="B154" s="8">
+        <v>10</v>
+      </c>
+      <c r="D154" s="14"/>
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A155" s="10" t="s">
+        <v>226</v>
+      </c>
+      <c r="B155" s="8">
+        <v>10</v>
+      </c>
+      <c r="D155" s="14"/>
+    </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A156" s="10" t="s">
+        <v>227</v>
+      </c>
+      <c r="B156" s="8">
+        <v>10</v>
+      </c>
+      <c r="D156" s="14"/>
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A157" s="10" t="s">
+        <v>228</v>
+      </c>
+      <c r="B157" s="8">
+        <v>10</v>
+      </c>
+      <c r="D157" s="14"/>
+    </row>
+    <row r="158" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A158" s="10" t="s">
+        <v>229</v>
+      </c>
+      <c r="B158" s="8">
+        <v>9.6</v>
+      </c>
+      <c r="D158" s="14"/>
+    </row>
+    <row r="159" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A159" s="10" t="s">
+        <v>230</v>
+      </c>
+      <c r="B159" s="8">
+        <v>9.6</v>
+      </c>
+      <c r="D159" s="14"/>
+    </row>
+    <row r="160" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A160" s="10" t="s">
+        <v>231</v>
+      </c>
+      <c r="B160" s="8">
+        <v>9.6</v>
+      </c>
+      <c r="D160" s="14"/>
+    </row>
+    <row r="161" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A161" s="10" t="s">
+        <v>232</v>
+      </c>
+      <c r="B161" s="8">
+        <v>9.6</v>
+      </c>
+      <c r="D161" s="14"/>
+    </row>
+    <row r="162" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A162" s="10" t="s">
+        <v>233</v>
+      </c>
+      <c r="B162" s="8">
+        <v>9.9</v>
+      </c>
+      <c r="D162" s="14"/>
+    </row>
+    <row r="163" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A163" s="10" t="s">
+        <v>234</v>
+      </c>
+      <c r="B163" s="8">
+        <v>9.9</v>
+      </c>
+      <c r="D163" s="14"/>
+    </row>
+    <row r="164" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A164" s="10" t="s">
+        <v>235</v>
+      </c>
+      <c r="B164" s="8">
+        <v>9.6</v>
+      </c>
+      <c r="D164" s="14"/>
+    </row>
+    <row r="165" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A165" s="10" t="s">
+        <v>236</v>
+      </c>
+      <c r="B165" s="8">
+        <v>9.6</v>
+      </c>
+      <c r="D165" s="14"/>
+    </row>
+    <row r="166" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A166" s="10" t="s">
+        <v>237</v>
+      </c>
+      <c r="B166" s="8">
+        <v>9.5</v>
+      </c>
+      <c r="D166" s="14"/>
+    </row>
+    <row r="167" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A167" s="10" t="s">
+        <v>238</v>
+      </c>
+      <c r="B167" s="8">
+        <v>9.4</v>
+      </c>
+      <c r="D167" s="14"/>
+    </row>
+    <row r="168" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A168" s="10" t="s">
+        <v>239</v>
+      </c>
+      <c r="B168" s="8">
+        <v>9.4</v>
+      </c>
+      <c r="D168" s="14"/>
+    </row>
+    <row r="169" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A169" s="10" t="s">
+        <v>240</v>
+      </c>
+      <c r="B169" s="8">
+        <v>9.4</v>
+      </c>
+      <c r="D169" s="14"/>
+    </row>
+    <row r="170" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A170" s="10" t="s">
+        <v>241</v>
+      </c>
+      <c r="B170" s="8">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="D170" s="14"/>
+    </row>
+    <row r="171" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A171" s="10" t="s">
+        <v>242</v>
+      </c>
+      <c r="B171" s="8">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="D171" s="14"/>
+    </row>
+    <row r="172" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A172" s="10" t="s">
+        <v>243</v>
+      </c>
+      <c r="B172" s="8">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="D172" s="14"/>
+    </row>
+    <row r="173" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A173" s="10" t="s">
+        <v>244</v>
+      </c>
+      <c r="B173" s="8">
+        <v>9.4</v>
+      </c>
+      <c r="D173" s="14"/>
+    </row>
+    <row r="174" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A174" s="10" t="s">
+        <v>245</v>
+      </c>
+      <c r="B174" s="8">
+        <v>9.4</v>
+      </c>
+      <c r="D174" s="14"/>
+    </row>
+    <row r="175" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A175" s="10"/>
+      <c r="D175" s="14"/>
+    </row>
+    <row r="176" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A176" s="10"/>
+      <c r="D176" s="13"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2720,581 +3401,581 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB957D0E-C1D3-4DE8-9D35-A9D8A8951233}">
   <dimension ref="A1:B71"/>
   <sheetViews>
-    <sheetView topLeftCell="A59" workbookViewId="0">
-      <selection activeCell="A72" sqref="A72:XFD174"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16" style="4" customWidth="1"/>
-    <col min="2" max="2" width="16" style="6" customWidth="1"/>
+    <col min="1" max="1" width="16" style="3" customWidth="1"/>
+    <col min="2" max="2" width="16" style="5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="6" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="6">
+      <c r="B2" s="5">
         <v>5.5</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="6">
+      <c r="B3" s="5">
         <v>5.5</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="6">
+      <c r="B4" s="5">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="6">
+      <c r="B5" s="5">
         <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="6">
+      <c r="B6" s="5">
         <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="6">
+      <c r="B7" s="5">
         <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="6">
+      <c r="B8" s="5">
         <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" s="4" t="s">
+      <c r="A9" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="6">
+      <c r="B9" s="5">
         <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" s="4" t="s">
+      <c r="A10" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="6">
+      <c r="B10" s="5">
         <v>5.4</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11" s="4" t="s">
+      <c r="A11" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="6">
+      <c r="B11" s="5">
         <v>9</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12" s="4" t="s">
+      <c r="A12" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="6">
+      <c r="B12" s="5">
         <v>9</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A13" s="4" t="s">
+      <c r="A13" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="6">
+      <c r="B13" s="5">
         <v>9</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A14" s="4" t="s">
+      <c r="A14" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B14" s="6">
+      <c r="B14" s="5">
         <v>9</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A15" s="4" t="s">
+      <c r="A15" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B15" s="6">
+      <c r="B15" s="5">
         <v>9</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A16" s="4" t="s">
+      <c r="A16" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B16" s="6">
+      <c r="B16" s="5">
         <v>5.5</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A17" s="4" t="s">
+      <c r="A17" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B17" s="6">
+      <c r="B17" s="5">
         <v>5.5</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A18" s="4" t="s">
+      <c r="A18" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B18" s="6">
+      <c r="B18" s="5">
         <v>5.5</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A19" s="4" t="s">
+      <c r="A19" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B19" s="6">
+      <c r="B19" s="5">
         <v>5.5</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A20" s="4" t="s">
+      <c r="A20" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B20" s="6">
+      <c r="B20" s="5">
         <v>5.5</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A21" s="4" t="s">
+      <c r="A21" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B21" s="6">
+      <c r="B21" s="5">
         <v>13.55</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A22" s="4" t="s">
+      <c r="A22" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B22" s="6">
+      <c r="B22" s="5">
         <v>14.4</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A23" s="4" t="s">
+      <c r="A23" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B23" s="6">
+      <c r="B23" s="5">
         <v>5.6</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A24" s="4" t="s">
+      <c r="A24" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B24" s="6">
+      <c r="B24" s="5">
         <v>5.6</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A25" s="4" t="s">
+      <c r="A25" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B25" s="6">
+      <c r="B25" s="5">
         <v>5.6</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A26" s="4" t="s">
+      <c r="A26" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B26" s="6">
+      <c r="B26" s="5">
         <v>7.1</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A27" s="4" t="s">
+      <c r="A27" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="B27" s="6">
+      <c r="B27" s="5">
         <v>5.5</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A28" s="4" t="s">
+      <c r="A28" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B28" s="6">
+      <c r="B28" s="5">
         <v>5.5</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A29" s="4" t="s">
+      <c r="A29" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B29" s="6">
+      <c r="B29" s="5">
         <v>11.85</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A30" s="4" t="s">
+      <c r="A30" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B30" s="6">
+      <c r="B30" s="5">
         <v>8</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A31" s="4" t="s">
+      <c r="A31" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="B31" s="6">
+      <c r="B31" s="5">
         <v>8</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A32" s="4" t="s">
+      <c r="A32" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B32" s="6">
+      <c r="B32" s="5">
         <v>8</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A33" s="4" t="s">
+      <c r="A33" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="B33" s="6">
+      <c r="B33" s="5">
         <v>8</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A34" s="4" t="s">
+      <c r="A34" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="B34" s="6">
+      <c r="B34" s="5">
         <v>16</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A35" s="4" t="s">
+      <c r="A35" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="B35" s="6">
+      <c r="B35" s="5">
         <v>4.0999999999999996</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A36" s="4" t="s">
+      <c r="A36" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="B36" s="6">
+      <c r="B36" s="5">
         <v>5.35</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A37" s="4" t="s">
+      <c r="A37" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="B37" s="6">
+      <c r="B37" s="5">
         <v>5.35</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A38" s="4" t="s">
+      <c r="A38" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="B38" s="6">
+      <c r="B38" s="5">
         <v>6.1</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A39" s="4" t="s">
+      <c r="A39" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="B39" s="6">
+      <c r="B39" s="5">
         <v>6.1</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A40" s="4" t="s">
+      <c r="A40" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="B40" s="6">
+      <c r="B40" s="5">
         <v>6.1</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A41" s="4" t="s">
+      <c r="A41" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="B41" s="6">
+      <c r="B41" s="5">
         <v>6</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A42" s="4" t="s">
+      <c r="A42" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="B42" s="6">
+      <c r="B42" s="5">
         <v>6</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A43" s="4" t="s">
+      <c r="A43" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="B43" s="6">
+      <c r="B43" s="5">
         <v>6</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A44" s="4" t="s">
+      <c r="A44" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="B44" s="6">
+      <c r="B44" s="5">
         <v>6</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A45" s="4" t="s">
+      <c r="A45" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="B45" s="6">
+      <c r="B45" s="5">
         <v>6</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A46" s="4" t="s">
+      <c r="A46" s="3" t="s">
         <v>173</v>
       </c>
-      <c r="B46" s="6">
+      <c r="B46" s="5">
         <v>6</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A47" s="4" t="s">
+      <c r="A47" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="B47" s="6">
+      <c r="B47" s="5">
         <v>6</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A48" s="4" t="s">
+      <c r="A48" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="B48" s="6">
+      <c r="B48" s="5">
         <v>6</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A49" s="4" t="s">
+      <c r="A49" s="3" t="s">
         <v>174</v>
       </c>
-      <c r="B49" s="6">
+      <c r="B49" s="5">
         <v>6</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A50" s="4" t="s">
+      <c r="A50" s="3" t="s">
         <v>175</v>
       </c>
-      <c r="B50" s="6">
+      <c r="B50" s="5">
         <v>9</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A51" s="4" t="s">
+      <c r="A51" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="B51" s="6">
+      <c r="B51" s="5">
         <v>6</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A52" s="4" t="s">
+      <c r="A52" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="B52" s="6">
+      <c r="B52" s="5">
         <v>6</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A53" s="4" t="s">
+      <c r="A53" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="B53" s="6">
+      <c r="B53" s="5">
         <v>6</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A54" s="4" t="s">
+      <c r="A54" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="B54" s="6">
+      <c r="B54" s="5">
         <v>12</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A55" s="4" t="s">
+      <c r="A55" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="B55" s="6">
+      <c r="B55" s="5">
         <v>12</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A56" s="4" t="s">
+      <c r="A56" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="B56" s="6">
+      <c r="B56" s="5">
         <v>6</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A57" s="4" t="s">
+      <c r="A57" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="B57" s="6">
+      <c r="B57" s="5">
         <v>6</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A58" s="4" t="s">
+      <c r="A58" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="B58" s="6">
+      <c r="B58" s="5">
         <v>6</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A59" s="4" t="s">
+      <c r="A59" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="B59" s="6">
+      <c r="B59" s="5">
         <v>6</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A60" s="4" t="s">
+      <c r="A60" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="B60" s="6">
+      <c r="B60" s="5">
         <v>12</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A61" s="4" t="s">
+      <c r="A61" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="B61" s="6">
+      <c r="B61" s="5">
         <v>6</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A62" s="4" t="s">
+      <c r="A62" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="B62" s="6">
+      <c r="B62" s="5">
         <v>6</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A63" s="4" t="s">
+      <c r="A63" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="B63" s="6">
+      <c r="B63" s="5">
         <v>6</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A64" s="4" t="s">
+      <c r="A64" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="B64" s="6">
+      <c r="B64" s="5">
         <v>15.5</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A65" s="4" t="s">
+      <c r="A65" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="B65" s="6">
+      <c r="B65" s="5">
         <v>15.5</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A66" s="4" t="s">
+      <c r="A66" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="B66" s="6">
+      <c r="B66" s="5">
         <v>6</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A67" s="4" t="s">
+      <c r="A67" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="B67" s="6">
+      <c r="B67" s="5">
         <v>12</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A68" s="4" t="s">
+      <c r="A68" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="B68" s="6">
+      <c r="B68" s="5">
         <v>6</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A69" s="4" t="s">
+      <c r="A69" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="B69" s="6">
+      <c r="B69" s="5">
         <v>6</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A70" s="4" t="s">
+      <c r="A70" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="B70" s="6">
+      <c r="B70" s="5">
         <v>6</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A71" s="4" t="s">
+      <c r="A71" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="B71" s="6">
+      <c r="B71" s="5">
         <v>6</v>
       </c>
     </row>
@@ -3305,845 +3986,1416 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C5F8EFB-CA14-4021-AA8B-5C6B702C125E}">
-  <dimension ref="A1:B104"/>
+  <dimension ref="A1:D176"/>
   <sheetViews>
-    <sheetView topLeftCell="A94" workbookViewId="0">
-      <selection sqref="A1:B1048576"/>
+    <sheetView topLeftCell="A155" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C161" sqref="C161"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="14.33203125" style="9" customWidth="1"/>
+    <col min="2" max="2" width="14.33203125" style="8" customWidth="1"/>
+    <col min="4" max="4" width="11.21875" style="8" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="8" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="11" t="s">
+        <v>176</v>
+      </c>
+      <c r="B2" s="8">
+        <v>7.25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="B2" s="1">
-        <v>3.6166649999999998</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" s="4" t="s">
+      <c r="B3" s="8">
+        <v>3.6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="B3" s="1">
+      <c r="B4" s="8">
         <v>5.15</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" s="4" t="s">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="B4" s="1">
+      <c r="B5" s="8">
         <v>5.15</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" s="4" t="s">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="B5" s="1">
-        <v>5.0262028396142</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" s="4" t="s">
+      <c r="B6" s="8">
+        <v>5.05</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="B6" s="1">
-        <v>4.9865458561506948</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" s="4" t="s">
+      <c r="B7" s="8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="B7" s="1">
-        <v>5.0645805655466001</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" s="4" t="s">
+      <c r="B8" s="8">
+        <v>5.05</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="B8" s="1">
-        <v>4.9456096151561297</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" s="4" t="s">
+      <c r="B9" s="8">
+        <v>4.95</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="B9" s="1">
-        <v>4.7204602896860104</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" s="4" t="s">
+      <c r="B10" s="8">
+        <v>4.7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="B10" s="1">
+      <c r="B11" s="8">
         <v>5.05</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11" s="4" t="s">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="B11" s="1">
+      <c r="B12" s="8">
         <v>5.05</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12" s="4" t="s">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" s="10" t="s">
         <v>163</v>
       </c>
-      <c r="B12" s="1">
+      <c r="B13" s="8">
         <v>4.7</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A13" s="4" t="s">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" s="10" t="s">
         <v>158</v>
       </c>
-      <c r="B13" s="1">
+      <c r="B14" s="8">
         <v>4.7</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A14" s="4" t="s">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" s="10" t="s">
         <v>159</v>
       </c>
-      <c r="B14" s="1">
+      <c r="B15" s="8">
         <v>4.7</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A15" s="4" t="s">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" s="10" t="s">
         <v>160</v>
       </c>
-      <c r="B15" s="1">
+      <c r="B16" s="8">
         <v>4.7</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A16" s="4" t="s">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" s="10" t="s">
         <v>161</v>
       </c>
-      <c r="B16" s="1">
+      <c r="B17" s="8">
         <v>6.25</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A17" s="4" t="s">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" s="10" t="s">
         <v>162</v>
       </c>
-      <c r="B17" s="1">
+      <c r="B18" s="8">
         <v>4.7</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A18" s="4" t="s">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="B18" s="1">
+      <c r="B19" s="8">
         <v>4.7</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A19" s="4" t="s">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="B19" s="1">
+      <c r="B20" s="8">
         <v>4.7</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A20" s="4" t="s">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="B20" s="1">
+      <c r="B21" s="8">
         <v>4.9000000000000004</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A21" s="4" t="s">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="B21" s="1">
+      <c r="B22" s="8">
         <v>4.75</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A22" s="4" t="s">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="B22" s="1">
+      <c r="B23" s="8">
         <v>4.75</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A23" s="4" t="s">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A24" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="B23" s="1">
+      <c r="B24" s="8">
         <v>4.75</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A24" s="4" t="s">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A25" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="B24" s="1">
+      <c r="B25" s="8">
         <v>4.95</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A25" s="4" t="s">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A26" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="B25" s="1">
+      <c r="B26" s="8">
         <v>7.2</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A26" s="4" t="s">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A27" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="B26" s="1">
+      <c r="B27" s="8">
         <v>7.2</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A27" s="4" t="s">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A28" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="B27" s="1">
+      <c r="B28" s="8">
         <v>7.15</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A28" s="4" t="s">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A29" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="B28" s="1">
+      <c r="B29" s="8">
         <v>6.95</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A29" s="4" t="s">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A30" s="10" t="s">
         <v>89</v>
       </c>
-      <c r="B29" s="1">
+      <c r="B30" s="8">
         <v>7</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A30" s="4" t="s">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A31" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="B30" s="1">
+      <c r="B31" s="8">
         <v>6.85</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A31" s="4" t="s">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A32" s="10" t="s">
         <v>164</v>
       </c>
-      <c r="B31" s="1">
+      <c r="B32" s="8">
         <v>6.95</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A32" s="4" t="s">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A33" s="10" t="s">
         <v>165</v>
       </c>
-      <c r="B32" s="1">
+      <c r="B33" s="8">
         <v>7</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A33" s="4" t="s">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A34" s="10" t="s">
         <v>166</v>
       </c>
-      <c r="B33" s="1">
+      <c r="B34" s="8">
         <v>7</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A34" s="4" t="s">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A35" s="10" t="s">
         <v>167</v>
       </c>
-      <c r="B34" s="1">
+      <c r="B35" s="8">
         <v>6.9</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A35" s="4" t="s">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A36" s="10" t="s">
         <v>168</v>
       </c>
-      <c r="B35" s="1">
+      <c r="B36" s="8">
         <v>6.85</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A36" s="4" t="s">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A37" s="10" t="s">
         <v>169</v>
       </c>
-      <c r="B36" s="1">
+      <c r="B37" s="8">
         <v>6.85</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A37" s="4" t="s">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A38" s="10" t="s">
         <v>170</v>
       </c>
-      <c r="B37" s="1">
+      <c r="B38" s="8">
         <v>6.85</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A38" s="4" t="s">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A39" s="10" t="s">
         <v>171</v>
       </c>
-      <c r="B38" s="1">
+      <c r="B39" s="8">
         <v>6.85</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A39" s="4" t="s">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A40" s="10" t="s">
         <v>91</v>
       </c>
-      <c r="B39" s="1">
+      <c r="B40" s="8">
         <v>4.75</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A40" s="4" t="s">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A41" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="B40" s="1">
+      <c r="B41" s="8">
         <v>4.75</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A41" s="4" t="s">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A42" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="B41" s="1">
+      <c r="B42" s="8">
         <v>4.75</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A42" s="4" t="s">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A43" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="B42" s="1">
+      <c r="B43" s="8">
         <v>4.75</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A43" s="4" t="s">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A44" s="10" t="s">
         <v>95</v>
       </c>
-      <c r="B43" s="1">
+      <c r="B44" s="8">
         <v>4.75</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A44" s="4" t="s">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A45" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="B44" s="1">
+      <c r="B45" s="8">
         <v>4.75</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A45" s="4" t="s">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A46" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="B45" s="1">
+      <c r="B46" s="8">
         <v>4.7</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A46" s="4" t="s">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A47" s="10" t="s">
         <v>98</v>
       </c>
-      <c r="B46" s="1">
+      <c r="B47" s="8">
         <v>4.7</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A47" s="4" t="s">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A48" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="B47" s="1">
+      <c r="B48" s="8">
         <v>4.7</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A48" s="4" t="s">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A49" s="10" t="s">
         <v>100</v>
       </c>
-      <c r="B48" s="1">
+      <c r="B49" s="8">
         <v>5</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A49" s="4" t="s">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A50" s="10" t="s">
         <v>101</v>
       </c>
-      <c r="B49" s="1">
+      <c r="B50" s="8">
         <v>6.95</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A50" s="4" t="s">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A51" s="10" t="s">
         <v>102</v>
       </c>
-      <c r="B50" s="1">
+      <c r="B51" s="8">
         <v>6.95</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A51" s="4" t="s">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A52" s="10" t="s">
         <v>103</v>
       </c>
-      <c r="B51" s="1">
+      <c r="B52" s="8">
         <v>6.95</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A52" s="4" t="s">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A53" s="10" t="s">
         <v>104</v>
       </c>
-      <c r="B52" s="1">
+      <c r="B53" s="8">
         <v>6.95</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A53" s="4" t="s">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A54" s="10" t="s">
         <v>105</v>
       </c>
-      <c r="B53" s="1">
+      <c r="B54" s="8">
         <v>6.95</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A54" s="4" t="s">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A55" s="10" t="s">
         <v>106</v>
       </c>
-      <c r="B54" s="1">
+      <c r="B55" s="8">
         <v>5.7</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A55" s="4" t="s">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A56" s="10" t="s">
         <v>111</v>
       </c>
-      <c r="B55" s="1">
+      <c r="B56" s="8">
         <v>5.7</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A56" s="4" t="s">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A57" s="10" t="s">
         <v>112</v>
       </c>
-      <c r="B56" s="1">
+      <c r="B57" s="8">
         <v>5.7</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A57" s="4" t="s">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A58" s="10" t="s">
         <v>107</v>
       </c>
-      <c r="B57" s="1">
+      <c r="B58" s="8">
         <v>5.7</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A58" s="4" t="s">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A59" s="10" t="s">
         <v>108</v>
       </c>
-      <c r="B58" s="1">
+      <c r="B59" s="8">
         <v>5.7</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A59" s="4" t="s">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A60" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="B59" s="1">
+      <c r="B60" s="8">
         <v>5.7</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A60" s="4" t="s">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A61" s="10" t="s">
         <v>110</v>
       </c>
-      <c r="B60" s="1">
+      <c r="B61" s="8">
         <v>5.7</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A61" s="4" t="s">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A62" s="10" t="s">
         <v>113</v>
       </c>
-      <c r="B61" s="1">
+      <c r="B62" s="8">
         <v>8.1</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A62" s="4" t="s">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A63" s="10" t="s">
         <v>114</v>
       </c>
-      <c r="B62" s="1">
+      <c r="B63" s="8">
         <v>8.1</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A63" s="4" t="s">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A64" s="10" t="s">
         <v>115</v>
       </c>
-      <c r="B63" s="1">
+      <c r="B64" s="8">
         <v>8.1</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A64" s="4" t="s">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A65" s="10" t="s">
         <v>116</v>
       </c>
-      <c r="B64" s="1">
+      <c r="B65" s="8">
         <v>8.1</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A65" s="4" t="s">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A66" s="10" t="s">
         <v>117</v>
       </c>
-      <c r="B65" s="1">
+      <c r="B66" s="8">
         <v>8.1</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A66" s="4" t="s">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A67" s="10" t="s">
         <v>118</v>
       </c>
-      <c r="B66" s="1">
+      <c r="B67" s="8">
         <v>8.1</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A67" s="4" t="s">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A68" s="10" t="s">
         <v>119</v>
       </c>
-      <c r="B67" s="1">
+      <c r="B68" s="8">
         <v>5.5</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A68" s="4" t="s">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A69" s="10" t="s">
         <v>120</v>
       </c>
-      <c r="B68" s="1">
+      <c r="B69" s="8">
         <v>5.5</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A69" s="4" t="s">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A70" s="10" t="s">
         <v>121</v>
       </c>
-      <c r="B69" s="1">
+      <c r="B70" s="8">
         <v>5.5</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A70" s="4" t="s">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A71" s="10" t="s">
         <v>122</v>
       </c>
-      <c r="B70" s="1">
+      <c r="B71" s="8">
         <v>5.5</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A71" s="4" t="s">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A72" s="10" t="s">
         <v>123</v>
       </c>
-      <c r="B71" s="1">
+      <c r="B72" s="8">
         <v>5.5</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A72" s="4" t="s">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A73" s="10" t="s">
         <v>124</v>
       </c>
-      <c r="B72" s="1">
+      <c r="B73" s="8">
         <v>5.5</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A73" s="4" t="s">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A74" s="10" t="s">
         <v>125</v>
       </c>
-      <c r="B73" s="1">
+      <c r="B74" s="8">
         <v>4.5999999999999996</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A74" s="4" t="s">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A75" s="10" t="s">
         <v>126</v>
       </c>
-      <c r="B74" s="1">
+      <c r="B75" s="8">
         <v>4.5999999999999996</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A75" s="4" t="s">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A76" s="10" t="s">
         <v>127</v>
       </c>
-      <c r="B75" s="1">
+      <c r="B76" s="8">
         <v>4.5999999999999996</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A76" s="4" t="s">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A77" s="10" t="s">
         <v>128</v>
       </c>
-      <c r="B76" s="1">
+      <c r="B77" s="8">
         <v>4.5999999999999996</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A77" s="4" t="s">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A78" s="10" t="s">
         <v>129</v>
       </c>
-      <c r="B77" s="1">
+      <c r="B78" s="8">
         <v>4.5999999999999996</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A78" s="4" t="s">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A79" s="10" t="s">
         <v>130</v>
       </c>
-      <c r="B78" s="1">
+      <c r="B79" s="8">
         <v>4.5999999999999996</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A79" s="4" t="s">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A80" s="10" t="s">
         <v>104</v>
       </c>
-      <c r="B79" s="1">
+      <c r="B80" s="8">
         <v>4.5999999999999996</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A80" s="4" t="s">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A81" s="10" t="s">
         <v>131</v>
       </c>
-      <c r="B80" s="1">
+      <c r="B81" s="8">
         <v>11.1</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A81" s="4" t="s">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A82" s="10" t="s">
         <v>132</v>
       </c>
-      <c r="B81" s="1">
+      <c r="B82" s="8">
         <v>8.5500000000000007</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A82" s="4" t="s">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A83" s="10" t="s">
         <v>133</v>
       </c>
-      <c r="B82" s="1">
+      <c r="B83" s="8">
         <v>8.5</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A83" s="4" t="s">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A84" s="10" t="s">
         <v>134</v>
       </c>
-      <c r="B83" s="1">
+      <c r="B84" s="8">
         <v>12.7</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A84" s="4" t="s">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A85" s="10" t="s">
         <v>135</v>
       </c>
-      <c r="B84" s="1">
+      <c r="B85" s="8">
         <v>12.7</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A85" s="4" t="s">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A86" s="10" t="s">
         <v>136</v>
       </c>
-      <c r="B85" s="1">
+      <c r="B86" s="8">
         <v>12.15</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A86" s="4" t="s">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A87" s="10" t="s">
         <v>137</v>
       </c>
-      <c r="B86" s="1">
+      <c r="B87" s="8">
         <v>2.9</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A87" s="4" t="s">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A88" s="10" t="s">
         <v>138</v>
       </c>
-      <c r="B87" s="1">
+      <c r="B88" s="8">
         <v>2.9</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A88" s="4" t="s">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A89" s="10" t="s">
         <v>139</v>
       </c>
-      <c r="B88" s="1">
+      <c r="B89" s="8">
         <v>2.9</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A89" s="4" t="s">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A90" s="10" t="s">
         <v>140</v>
       </c>
-      <c r="B89" s="1">
+      <c r="B90" s="8">
         <v>12</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A90" s="4" t="s">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A91" s="10" t="s">
         <v>141</v>
       </c>
-      <c r="B90" s="1">
+      <c r="B91" s="8">
         <v>13.55</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A91" s="4" t="s">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A92" s="10" t="s">
         <v>142</v>
       </c>
-      <c r="B91" s="1">
+      <c r="B92" s="8">
         <v>5.6</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A92" s="4" t="s">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A93" s="10" t="s">
         <v>143</v>
       </c>
-      <c r="B92" s="1">
+      <c r="B93" s="8">
         <v>5.6</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A93" s="4" t="s">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A94" s="10" t="s">
         <v>144</v>
       </c>
-      <c r="B93" s="1">
+      <c r="B94" s="8">
         <v>5.6</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A94" s="4" t="s">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A95" s="10" t="s">
         <v>145</v>
       </c>
-      <c r="B94" s="1">
+      <c r="B95" s="8">
         <v>5.4</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A95" s="4" t="s">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A96" s="10" t="s">
         <v>146</v>
       </c>
-      <c r="B95" s="1">
+      <c r="B96" s="8">
         <v>5.4</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A96" s="4" t="s">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A97" s="10" t="s">
         <v>147</v>
       </c>
-      <c r="B96" s="1">
+      <c r="B97" s="8">
         <v>5.4</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A97" s="4" t="s">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A98" s="10" t="s">
         <v>148</v>
       </c>
-      <c r="B97" s="1">
+      <c r="B98" s="8">
         <v>5.55</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A98" s="4" t="s">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A99" s="10" t="s">
         <v>149</v>
       </c>
-      <c r="B98" s="1">
+      <c r="B99" s="8">
         <v>5.5</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A99" s="4" t="s">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A100" s="10" t="s">
         <v>150</v>
       </c>
-      <c r="B99" s="1">
+      <c r="B100" s="8">
         <v>5.5</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A100" s="4" t="s">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A101" s="10" t="s">
         <v>151</v>
       </c>
-      <c r="B100" s="1">
+      <c r="B101" s="8">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A102" s="10" t="s">
+        <v>152</v>
+      </c>
+      <c r="B102" s="8">
         <v>6.55</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A101" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="B101" s="1">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A103" s="10" t="s">
+        <v>153</v>
+      </c>
+      <c r="B103" s="8">
         <v>6.55</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A102" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="B102" s="1">
-        <v>6.55</v>
-      </c>
-    </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A103" s="4" t="s">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A104" s="10" t="s">
         <v>154</v>
       </c>
-      <c r="B103" s="1">
+      <c r="B104" s="8">
         <v>5</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A104" s="4" t="s">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A105" s="10" t="s">
         <v>155</v>
       </c>
-      <c r="B104" s="1">
+      <c r="B105" s="8">
         <v>5</v>
       </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A106" s="10" t="s">
+        <v>177</v>
+      </c>
+      <c r="B106" s="8">
+        <v>6.45</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A107" s="10" t="s">
+        <v>178</v>
+      </c>
+      <c r="B107" s="8">
+        <v>6.45</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A108" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="B108" s="8">
+        <v>6.45</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A109" s="10" t="s">
+        <v>180</v>
+      </c>
+      <c r="B109" s="8">
+        <v>6.45</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A110" s="10" t="s">
+        <v>181</v>
+      </c>
+      <c r="B110" s="8">
+        <v>6.45</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A111" s="10" t="s">
+        <v>182</v>
+      </c>
+      <c r="B111" s="8">
+        <v>6.1</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A112" s="10" t="s">
+        <v>183</v>
+      </c>
+      <c r="B112" s="8">
+        <v>6.1</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A113" s="10" t="s">
+        <v>184</v>
+      </c>
+      <c r="B113" s="8">
+        <v>6.1</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A114" s="10" t="s">
+        <v>185</v>
+      </c>
+      <c r="B114" s="8">
+        <v>6.05</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A115" s="10" t="s">
+        <v>186</v>
+      </c>
+      <c r="B115" s="8">
+        <v>7.6</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A116" s="10" t="s">
+        <v>187</v>
+      </c>
+      <c r="B116" s="8">
+        <v>8.65</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A117" s="10" t="s">
+        <v>188</v>
+      </c>
+      <c r="B117" s="8">
+        <v>8.65</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A118" s="10" t="s">
+        <v>189</v>
+      </c>
+      <c r="B118" s="8">
+        <v>8.65</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A119" s="10" t="s">
+        <v>190</v>
+      </c>
+      <c r="B119" s="8">
+        <v>8.0500000000000007</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A120" s="10" t="s">
+        <v>191</v>
+      </c>
+      <c r="B120" s="8">
+        <v>8.5500000000000007</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A121" s="10" t="s">
+        <v>192</v>
+      </c>
+      <c r="B121" s="8">
+        <v>3.9</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A122" s="10" t="s">
+        <v>193</v>
+      </c>
+      <c r="B122" s="8">
+        <v>3.9</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A123" s="10" t="s">
+        <v>194</v>
+      </c>
+      <c r="B123" s="8">
+        <v>3.9</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A124" s="10" t="s">
+        <v>195</v>
+      </c>
+      <c r="B124" s="8">
+        <v>3.9</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A125" s="10" t="s">
+        <v>196</v>
+      </c>
+      <c r="B125" s="8">
+        <v>5.7</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A126" s="10" t="s">
+        <v>197</v>
+      </c>
+      <c r="B126" s="8">
+        <v>5.6</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A127" s="10" t="s">
+        <v>198</v>
+      </c>
+      <c r="B127" s="8">
+        <v>5.7</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A128" s="10" t="s">
+        <v>199</v>
+      </c>
+      <c r="B128" s="8">
+        <v>5.7</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A129" s="10" t="s">
+        <v>200</v>
+      </c>
+      <c r="B129" s="8">
+        <v>6.45</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A130" s="10" t="s">
+        <v>201</v>
+      </c>
+      <c r="B130" s="8">
+        <v>6.45</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A131" s="10" t="s">
+        <v>202</v>
+      </c>
+      <c r="B131" s="8">
+        <v>6.4</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A132" s="10" t="s">
+        <v>203</v>
+      </c>
+      <c r="B132" s="8">
+        <v>8.75</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A133" s="10" t="s">
+        <v>204</v>
+      </c>
+      <c r="B133" s="8">
+        <v>14.1</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A134" s="10" t="s">
+        <v>205</v>
+      </c>
+      <c r="B134" s="8">
+        <v>14.1</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A135" s="10" t="s">
+        <v>206</v>
+      </c>
+      <c r="B135" s="8">
+        <v>14.1</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A136" s="10" t="s">
+        <v>207</v>
+      </c>
+      <c r="B136" s="8">
+        <v>3.95</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A137" s="10" t="s">
+        <v>208</v>
+      </c>
+      <c r="B137" s="8">
+        <v>5.8</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A138" s="10" t="s">
+        <v>209</v>
+      </c>
+      <c r="B138" s="8">
+        <v>5.05</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A139" s="10" t="s">
+        <v>210</v>
+      </c>
+      <c r="B139" s="8">
+        <v>5.05</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A140" s="10" t="s">
+        <v>211</v>
+      </c>
+      <c r="B140" s="8">
+        <v>5.05</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A141" s="10" t="s">
+        <v>212</v>
+      </c>
+      <c r="B141" s="8">
+        <v>5.0999999999999996</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A142" s="10" t="s">
+        <v>213</v>
+      </c>
+      <c r="B142" s="8">
+        <v>5.05</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A143" s="10" t="s">
+        <v>214</v>
+      </c>
+      <c r="B143" s="8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A144" s="10" t="s">
+        <v>215</v>
+      </c>
+      <c r="B144" s="8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A145" s="10" t="s">
+        <v>216</v>
+      </c>
+      <c r="B145" s="8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A146" s="10" t="s">
+        <v>217</v>
+      </c>
+      <c r="B146" s="8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A147" s="10" t="s">
+        <v>218</v>
+      </c>
+      <c r="B147" s="8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A148" s="10" t="s">
+        <v>219</v>
+      </c>
+      <c r="B148" s="8">
+        <v>5.05</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A149" s="10" t="s">
+        <v>220</v>
+      </c>
+      <c r="B149" s="8">
+        <v>5.15</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A150" s="10" t="s">
+        <v>221</v>
+      </c>
+      <c r="B150" s="8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A151" s="10" t="s">
+        <v>222</v>
+      </c>
+      <c r="B151" s="8">
+        <v>5.05</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A152" s="10" t="s">
+        <v>223</v>
+      </c>
+      <c r="B152" s="8">
+        <v>5.05</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A153" s="10" t="s">
+        <v>224</v>
+      </c>
+      <c r="B153" s="8">
+        <v>5.05</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A154" s="10" t="s">
+        <v>225</v>
+      </c>
+      <c r="B154" s="8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A155" s="10" t="s">
+        <v>226</v>
+      </c>
+      <c r="B155" s="8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A156" s="10" t="s">
+        <v>227</v>
+      </c>
+      <c r="B156" s="8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A157" s="10" t="s">
+        <v>228</v>
+      </c>
+      <c r="B157" s="8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A158" s="10" t="s">
+        <v>229</v>
+      </c>
+      <c r="B158" s="8">
+        <v>4.8</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A159" s="10" t="s">
+        <v>230</v>
+      </c>
+      <c r="B159" s="8">
+        <v>4.8</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A160" s="10" t="s">
+        <v>231</v>
+      </c>
+      <c r="B160" s="8">
+        <v>4.8</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A161" s="10" t="s">
+        <v>232</v>
+      </c>
+      <c r="B161" s="8">
+        <v>4.8</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A162" s="10" t="s">
+        <v>233</v>
+      </c>
+      <c r="B162" s="8">
+        <v>4.95</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A163" s="10" t="s">
+        <v>234</v>
+      </c>
+      <c r="B163" s="8">
+        <v>4.95</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A164" s="10" t="s">
+        <v>235</v>
+      </c>
+      <c r="B164" s="8">
+        <v>4.8</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A165" s="10" t="s">
+        <v>236</v>
+      </c>
+      <c r="B165" s="8">
+        <v>4.8</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A166" s="10" t="s">
+        <v>237</v>
+      </c>
+      <c r="B166" s="8">
+        <v>4.75</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A167" s="10" t="s">
+        <v>238</v>
+      </c>
+      <c r="B167" s="8">
+        <v>4.7</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A168" s="10" t="s">
+        <v>239</v>
+      </c>
+      <c r="B168" s="8">
+        <v>4.7</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A169" s="10" t="s">
+        <v>240</v>
+      </c>
+      <c r="B169" s="8">
+        <v>4.7</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A170" s="10" t="s">
+        <v>241</v>
+      </c>
+      <c r="B170" s="8">
+        <v>4.6500000000000004</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A171" s="10" t="s">
+        <v>242</v>
+      </c>
+      <c r="B171" s="8">
+        <v>4.6500000000000004</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A172" s="10" t="s">
+        <v>243</v>
+      </c>
+      <c r="B172" s="8">
+        <v>4.6500000000000004</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A173" s="10" t="s">
+        <v>244</v>
+      </c>
+      <c r="B173" s="8">
+        <v>4.7</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A174" s="10" t="s">
+        <v>245</v>
+      </c>
+      <c r="B174" s="8">
+        <v>4.7</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A175" s="10"/>
+    </row>
+    <row r="176" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A176" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4154,581 +5406,581 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADF72B8C-4724-4CAA-A8AF-3DC314968759}">
   <dimension ref="A1:B71"/>
   <sheetViews>
-    <sheetView topLeftCell="A59" workbookViewId="0">
-      <selection activeCell="A72" sqref="A72:XFD176"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="G74" sqref="G74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16" style="4" customWidth="1"/>
-    <col min="2" max="2" width="13.33203125" style="8" customWidth="1"/>
+    <col min="1" max="1" width="16" style="3" customWidth="1"/>
+    <col min="2" max="2" width="13.33203125" style="7" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="7" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="8">
+      <c r="B2" s="7">
         <v>16.5</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="8">
+      <c r="B3" s="7">
         <v>16.5</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="8">
+      <c r="B4" s="7">
         <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="8">
+      <c r="B5" s="7">
         <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="8">
+      <c r="B6" s="7">
         <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="8">
+      <c r="B7" s="7">
         <v>24</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="8">
+      <c r="B8" s="7">
         <v>24</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" s="4" t="s">
+      <c r="A9" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="8">
+      <c r="B9" s="7">
         <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" s="4" t="s">
+      <c r="A10" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="8">
+      <c r="B10" s="7">
         <v>16.200000000000003</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11" s="4" t="s">
+      <c r="A11" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="8">
+      <c r="B11" s="7">
         <v>27</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12" s="4" t="s">
+      <c r="A12" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="8">
+      <c r="B12" s="7">
         <v>27</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A13" s="4" t="s">
+      <c r="A13" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="8">
+      <c r="B13" s="7">
         <v>27</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A14" s="4" t="s">
+      <c r="A14" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B14" s="8">
+      <c r="B14" s="7">
         <v>27</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A15" s="4" t="s">
+      <c r="A15" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B15" s="8">
+      <c r="B15" s="7">
         <v>27</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A16" s="4" t="s">
+      <c r="A16" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B16" s="8">
+      <c r="B16" s="7">
         <v>16.5</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A17" s="4" t="s">
+      <c r="A17" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B17" s="8">
+      <c r="B17" s="7">
         <v>16.5</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A18" s="4" t="s">
+      <c r="A18" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B18" s="8">
+      <c r="B18" s="7">
         <v>16.5</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A19" s="4" t="s">
+      <c r="A19" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B19" s="8">
+      <c r="B19" s="7">
         <v>16.5</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A20" s="4" t="s">
+      <c r="A20" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B20" s="8">
+      <c r="B20" s="7">
         <v>16.5</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A21" s="4" t="s">
+      <c r="A21" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B21" s="8">
+      <c r="B21" s="7">
         <v>40.65</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A22" s="4" t="s">
+      <c r="A22" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B22" s="8">
+      <c r="B22" s="7">
         <v>43.2</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A23" s="4" t="s">
+      <c r="A23" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B23" s="8">
+      <c r="B23" s="7">
         <v>16.799999999999997</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A24" s="4" t="s">
+      <c r="A24" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B24" s="8">
+      <c r="B24" s="7">
         <v>16.799999999999997</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A25" s="4" t="s">
+      <c r="A25" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B25" s="8">
+      <c r="B25" s="7">
         <v>16.799999999999997</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A26" s="4" t="s">
+      <c r="A26" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B26" s="8">
+      <c r="B26" s="7">
         <v>21.299999999999997</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A27" s="4" t="s">
+      <c r="A27" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="B27" s="8">
+      <c r="B27" s="7">
         <v>16.5</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A28" s="4" t="s">
+      <c r="A28" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B28" s="8">
+      <c r="B28" s="7">
         <v>16.5</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A29" s="4" t="s">
+      <c r="A29" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B29" s="8">
+      <c r="B29" s="7">
         <v>35.549999999999997</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A30" s="4" t="s">
+      <c r="A30" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B30" s="8">
+      <c r="B30" s="7">
         <v>24</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A31" s="4" t="s">
+      <c r="A31" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="B31" s="8">
+      <c r="B31" s="7">
         <v>24</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A32" s="4" t="s">
+      <c r="A32" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B32" s="8">
+      <c r="B32" s="7">
         <v>24</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A33" s="4" t="s">
+      <c r="A33" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="B33" s="8">
+      <c r="B33" s="7">
         <v>24</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A34" s="4" t="s">
+      <c r="A34" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="B34" s="8">
+      <c r="B34" s="7">
         <v>48</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A35" s="4" t="s">
+      <c r="A35" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="B35" s="8">
+      <c r="B35" s="7">
         <v>12.299999999999999</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A36" s="4" t="s">
+      <c r="A36" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="B36" s="8">
+      <c r="B36" s="7">
         <v>16.049999999999997</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A37" s="4" t="s">
+      <c r="A37" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="B37" s="8">
+      <c r="B37" s="7">
         <v>16.049999999999997</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A38" s="4" t="s">
+      <c r="A38" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="B38" s="8">
+      <c r="B38" s="7">
         <v>18.299999999999997</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A39" s="4" t="s">
+      <c r="A39" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="B39" s="8">
+      <c r="B39" s="7">
         <v>18.299999999999997</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A40" s="4" t="s">
+      <c r="A40" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="B40" s="8">
+      <c r="B40" s="7">
         <v>18.299999999999997</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A41" s="4" t="s">
+      <c r="A41" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="B41" s="8">
+      <c r="B41" s="7">
         <v>18</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A42" s="4" t="s">
+      <c r="A42" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="B42" s="8">
+      <c r="B42" s="7">
         <v>18</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A43" s="4" t="s">
+      <c r="A43" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="B43" s="8">
+      <c r="B43" s="7">
         <v>18</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A44" s="4" t="s">
+      <c r="A44" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="B44" s="8">
+      <c r="B44" s="7">
         <v>18</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A45" s="4" t="s">
+      <c r="A45" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="B45" s="8">
+      <c r="B45" s="7">
         <v>18</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A46" s="4" t="s">
+      <c r="A46" s="3" t="s">
         <v>173</v>
       </c>
-      <c r="B46" s="8">
+      <c r="B46" s="7">
         <v>18</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A47" s="4" t="s">
+      <c r="A47" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="B47" s="8">
+      <c r="B47" s="7">
         <v>18</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A48" s="4" t="s">
+      <c r="A48" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="B48" s="8">
+      <c r="B48" s="7">
         <v>18</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A49" s="4" t="s">
+      <c r="A49" s="3" t="s">
         <v>174</v>
       </c>
-      <c r="B49" s="8">
+      <c r="B49" s="7">
         <v>18</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A50" s="4" t="s">
+      <c r="A50" s="3" t="s">
         <v>175</v>
       </c>
-      <c r="B50" s="8">
+      <c r="B50" s="7">
         <v>27</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A51" s="4" t="s">
+      <c r="A51" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="B51" s="8">
+      <c r="B51" s="7">
         <v>18</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A52" s="4" t="s">
+      <c r="A52" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="B52" s="8">
+      <c r="B52" s="7">
         <v>18</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A53" s="4" t="s">
+      <c r="A53" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="B53" s="8">
+      <c r="B53" s="7">
         <v>18</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A54" s="4" t="s">
+      <c r="A54" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="B54" s="8">
+      <c r="B54" s="7">
         <v>36</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A55" s="4" t="s">
+      <c r="A55" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="B55" s="8">
+      <c r="B55" s="7">
         <v>36</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A56" s="4" t="s">
+      <c r="A56" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="B56" s="8">
+      <c r="B56" s="7">
         <v>18</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A57" s="4" t="s">
+      <c r="A57" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="B57" s="8">
+      <c r="B57" s="7">
         <v>18</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A58" s="4" t="s">
+      <c r="A58" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="B58" s="8">
+      <c r="B58" s="7">
         <v>18</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A59" s="4" t="s">
+      <c r="A59" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="B59" s="8">
+      <c r="B59" s="7">
         <v>18</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A60" s="4" t="s">
+      <c r="A60" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="B60" s="8">
+      <c r="B60" s="7">
         <v>36</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A61" s="4" t="s">
+      <c r="A61" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="B61" s="8">
+      <c r="B61" s="7">
         <v>18</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A62" s="4" t="s">
+      <c r="A62" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="B62" s="8">
+      <c r="B62" s="7">
         <v>18</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A63" s="4" t="s">
+      <c r="A63" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="B63" s="8">
+      <c r="B63" s="7">
         <v>18</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A64" s="4" t="s">
+      <c r="A64" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="B64" s="8">
+      <c r="B64" s="7">
         <v>46.5</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A65" s="4" t="s">
+      <c r="A65" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="B65" s="8">
+      <c r="B65" s="7">
         <v>46.5</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A66" s="4" t="s">
+      <c r="A66" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="B66" s="8">
+      <c r="B66" s="7">
         <v>18</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A67" s="4" t="s">
+      <c r="A67" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="B67" s="8">
+      <c r="B67" s="7">
         <v>36</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A68" s="4" t="s">
+      <c r="A68" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="B68" s="8">
+      <c r="B68" s="7">
         <v>18</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A69" s="4" t="s">
+      <c r="A69" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="B69" s="8">
+      <c r="B69" s="7">
         <v>18</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A70" s="4" t="s">
+      <c r="A70" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="B70" s="8">
+      <c r="B70" s="7">
         <v>18</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A71" s="4" t="s">
+      <c r="A71" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="B71" s="8">
+      <c r="B71" s="7">
         <v>18</v>
       </c>
     </row>
@@ -4739,845 +5991,1416 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81ACF73D-EE59-44A3-A7D9-13D9B876FD8D}">
-  <dimension ref="A1:B104"/>
+  <dimension ref="A1:D176"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+    <sheetView tabSelected="1" topLeftCell="A159" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="D159" sqref="D1:E1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="11.77734375" style="9" customWidth="1"/>
+    <col min="2" max="2" width="11.21875" style="8" customWidth="1"/>
+    <col min="4" max="4" width="11.21875" style="8" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="8" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="11" t="s">
+        <v>176</v>
+      </c>
+      <c r="B2" s="8">
+        <v>21.75</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="B2" s="10">
-        <v>10.849995</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" s="4" t="s">
+      <c r="B3" s="8">
+        <v>10.8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="B3" s="10">
-        <v>15.450000000000001</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" s="4" t="s">
+      <c r="B4" s="8">
+        <v>15.45</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="B4" s="10">
-        <v>15.450000000000001</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" s="4" t="s">
+      <c r="B5" s="8">
+        <v>15.45</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="B5" s="10">
-        <v>15.0786085188426</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" s="4" t="s">
+      <c r="B6" s="8">
+        <v>15.15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="B6" s="10">
-        <v>14.959637568452084</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" s="4" t="s">
+      <c r="B7" s="8">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="B7" s="10">
-        <v>15.193741696639801</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" s="4" t="s">
+      <c r="B8" s="8">
+        <v>15.15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="B8" s="10">
-        <v>14.836828845468389</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" s="4" t="s">
+      <c r="B9" s="8">
+        <v>14.85</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="B9" s="10">
-        <v>14.161380869058032</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" s="4" t="s">
+      <c r="B10" s="8">
+        <v>14.1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="B10" s="10">
-        <v>15.149999999999999</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11" s="4" t="s">
+      <c r="B11" s="8">
+        <v>15.15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="B11" s="10">
-        <v>15.149999999999999</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12" s="4" t="s">
+      <c r="B12" s="8">
+        <v>15.15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" s="10" t="s">
         <v>163</v>
       </c>
-      <c r="B12" s="10">
-        <v>14.100000000000001</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A13" s="4" t="s">
+      <c r="B13" s="8">
+        <v>14.1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" s="10" t="s">
         <v>158</v>
       </c>
-      <c r="B13" s="10">
-        <v>14.100000000000001</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A14" s="4" t="s">
+      <c r="B14" s="8">
+        <v>14.1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" s="10" t="s">
         <v>159</v>
       </c>
-      <c r="B14" s="10">
-        <v>14.100000000000001</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A15" s="4" t="s">
+      <c r="B15" s="8">
+        <v>14.1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" s="10" t="s">
         <v>160</v>
       </c>
-      <c r="B15" s="10">
-        <v>14.100000000000001</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A16" s="4" t="s">
+      <c r="B16" s="8">
+        <v>14.1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" s="10" t="s">
         <v>161</v>
       </c>
-      <c r="B16" s="10">
+      <c r="B17" s="8">
         <v>18.75</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A17" s="4" t="s">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" s="10" t="s">
         <v>162</v>
       </c>
-      <c r="B17" s="10">
-        <v>14.100000000000001</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A18" s="4" t="s">
+      <c r="B18" s="8">
+        <v>14.1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="B18" s="10">
-        <v>14.100000000000001</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A19" s="4" t="s">
+      <c r="B19" s="8">
+        <v>14.1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="B19" s="10">
-        <v>14.100000000000001</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A20" s="4" t="s">
+      <c r="B20" s="8">
+        <v>14.1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="B20" s="10">
-        <v>14.700000000000001</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A21" s="4" t="s">
+      <c r="B21" s="8">
+        <v>14.7</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="B21" s="10">
+      <c r="B22" s="8">
         <v>14.25</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A22" s="4" t="s">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="B22" s="10">
+      <c r="B23" s="8">
         <v>14.25</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A23" s="4" t="s">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A24" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="B23" s="10">
+      <c r="B24" s="8">
         <v>14.25</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A24" s="4" t="s">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A25" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="B24" s="10">
-        <v>14.850000000000001</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A25" s="4" t="s">
+      <c r="B25" s="8">
+        <v>14.85</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A26" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="B25" s="10">
+      <c r="B26" s="8">
         <v>21.6</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A26" s="4" t="s">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A27" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="B26" s="10">
+      <c r="B27" s="8">
         <v>21.6</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A27" s="4" t="s">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A28" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="B27" s="10">
-        <v>21.450000000000003</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A28" s="4" t="s">
+      <c r="B28" s="8">
+        <v>21.45</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A29" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="B28" s="10">
+      <c r="B29" s="8">
         <v>20.85</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A29" s="4" t="s">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A30" s="10" t="s">
         <v>89</v>
       </c>
-      <c r="B29" s="10">
+      <c r="B30" s="8">
         <v>21</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A30" s="4" t="s">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A31" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="B30" s="10">
-        <v>20.549999999999997</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A31" s="4" t="s">
+      <c r="B31" s="8">
+        <v>20.55</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A32" s="10" t="s">
         <v>164</v>
       </c>
-      <c r="B31" s="10">
+      <c r="B32" s="8">
         <v>20.85</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A32" s="4" t="s">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A33" s="10" t="s">
         <v>165</v>
       </c>
-      <c r="B32" s="10">
+      <c r="B33" s="8">
         <v>21</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A33" s="4" t="s">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A34" s="10" t="s">
         <v>166</v>
       </c>
-      <c r="B33" s="10">
+      <c r="B34" s="8">
         <v>21</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A34" s="4" t="s">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A35" s="10" t="s">
         <v>167</v>
       </c>
-      <c r="B34" s="10">
-        <v>20.700000000000003</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A35" s="4" t="s">
+      <c r="B35" s="8">
+        <v>20.7</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A36" s="10" t="s">
         <v>168</v>
       </c>
-      <c r="B35" s="10">
-        <v>20.549999999999997</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A36" s="4" t="s">
+      <c r="B36" s="8">
+        <v>20.55</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A37" s="10" t="s">
         <v>169</v>
       </c>
-      <c r="B36" s="10">
-        <v>20.549999999999997</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A37" s="4" t="s">
+      <c r="B37" s="8">
+        <v>20.55</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A38" s="10" t="s">
         <v>170</v>
       </c>
-      <c r="B37" s="10">
-        <v>20.549999999999997</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A38" s="4" t="s">
+      <c r="B38" s="8">
+        <v>20.55</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A39" s="10" t="s">
         <v>171</v>
       </c>
-      <c r="B38" s="10">
-        <v>20.549999999999997</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A39" s="4" t="s">
+      <c r="B39" s="8">
+        <v>20.55</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A40" s="10" t="s">
         <v>91</v>
       </c>
-      <c r="B39" s="10">
+      <c r="B40" s="8">
         <v>14.25</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A40" s="4" t="s">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A41" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="B40" s="10">
+      <c r="B41" s="8">
         <v>14.25</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A41" s="4" t="s">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A42" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="B41" s="10">
+      <c r="B42" s="8">
         <v>14.25</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A42" s="4" t="s">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A43" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="B42" s="10">
+      <c r="B43" s="8">
         <v>14.25</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A43" s="4" t="s">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A44" s="10" t="s">
         <v>95</v>
       </c>
-      <c r="B43" s="10">
+      <c r="B44" s="8">
         <v>14.25</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A44" s="4" t="s">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A45" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="B44" s="10">
+      <c r="B45" s="8">
         <v>14.25</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A45" s="4" t="s">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A46" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="B45" s="10">
-        <v>14.100000000000001</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A46" s="4" t="s">
+      <c r="B46" s="8">
+        <v>14.1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A47" s="10" t="s">
         <v>98</v>
       </c>
-      <c r="B46" s="10">
-        <v>14.100000000000001</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A47" s="4" t="s">
+      <c r="B47" s="8">
+        <v>14.1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A48" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="B47" s="10">
-        <v>14.100000000000001</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A48" s="4" t="s">
+      <c r="B48" s="8">
+        <v>14.1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A49" s="10" t="s">
         <v>100</v>
       </c>
-      <c r="B48" s="10">
+      <c r="B49" s="8">
         <v>15</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A49" s="4" t="s">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A50" s="10" t="s">
         <v>101</v>
       </c>
-      <c r="B49" s="10">
+      <c r="B50" s="8">
         <v>20.85</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A50" s="4" t="s">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A51" s="10" t="s">
         <v>102</v>
       </c>
-      <c r="B50" s="10">
+      <c r="B51" s="8">
         <v>20.85</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A51" s="4" t="s">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A52" s="10" t="s">
         <v>103</v>
       </c>
-      <c r="B51" s="10">
+      <c r="B52" s="8">
         <v>20.85</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A52" s="4" t="s">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A53" s="10" t="s">
         <v>104</v>
       </c>
-      <c r="B52" s="10">
+      <c r="B53" s="8">
         <v>20.85</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A53" s="4" t="s">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A54" s="10" t="s">
         <v>105</v>
       </c>
-      <c r="B53" s="10">
+      <c r="B54" s="8">
         <v>20.85</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A54" s="4" t="s">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A55" s="10" t="s">
         <v>106</v>
       </c>
-      <c r="B54" s="10">
+      <c r="B55" s="8">
         <v>17.100000000000001</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A55" s="4" t="s">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A56" s="10" t="s">
         <v>111</v>
       </c>
-      <c r="B55" s="10">
+      <c r="B56" s="8">
         <v>17.100000000000001</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A56" s="4" t="s">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A57" s="10" t="s">
         <v>112</v>
       </c>
-      <c r="B56" s="10">
+      <c r="B57" s="8">
         <v>17.100000000000001</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A57" s="4" t="s">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A58" s="10" t="s">
         <v>107</v>
       </c>
-      <c r="B57" s="10">
+      <c r="B58" s="8">
         <v>17.100000000000001</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A58" s="4" t="s">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A59" s="10" t="s">
         <v>108</v>
       </c>
-      <c r="B58" s="10">
+      <c r="B59" s="8">
         <v>17.100000000000001</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A59" s="4" t="s">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A60" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="B59" s="10">
+      <c r="B60" s="8">
         <v>17.100000000000001</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A60" s="4" t="s">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A61" s="10" t="s">
         <v>110</v>
       </c>
-      <c r="B60" s="10">
+      <c r="B61" s="8">
         <v>17.100000000000001</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A61" s="4" t="s">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A62" s="10" t="s">
         <v>113</v>
       </c>
-      <c r="B61" s="10">
-        <v>24.299999999999997</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A62" s="4" t="s">
+      <c r="B62" s="8">
+        <v>24.3</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A63" s="10" t="s">
         <v>114</v>
       </c>
-      <c r="B62" s="10">
-        <v>24.299999999999997</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A63" s="4" t="s">
+      <c r="B63" s="8">
+        <v>24.3</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A64" s="10" t="s">
         <v>115</v>
       </c>
-      <c r="B63" s="10">
-        <v>24.299999999999997</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A64" s="4" t="s">
+      <c r="B64" s="8">
+        <v>24.3</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A65" s="10" t="s">
         <v>116</v>
       </c>
-      <c r="B64" s="10">
-        <v>24.299999999999997</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A65" s="4" t="s">
+      <c r="B65" s="8">
+        <v>24.3</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A66" s="10" t="s">
         <v>117</v>
       </c>
-      <c r="B65" s="10">
-        <v>24.299999999999997</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A66" s="4" t="s">
+      <c r="B66" s="8">
+        <v>24.3</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A67" s="10" t="s">
         <v>118</v>
       </c>
-      <c r="B66" s="10">
-        <v>24.299999999999997</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A67" s="4" t="s">
+      <c r="B67" s="8">
+        <v>24.3</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A68" s="10" t="s">
         <v>119</v>
       </c>
-      <c r="B67" s="10">
+      <c r="B68" s="8">
         <v>16.5</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A68" s="4" t="s">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A69" s="10" t="s">
         <v>120</v>
       </c>
-      <c r="B68" s="10">
+      <c r="B69" s="8">
         <v>16.5</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A69" s="4" t="s">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A70" s="10" t="s">
         <v>121</v>
       </c>
-      <c r="B69" s="10">
+      <c r="B70" s="8">
         <v>16.5</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A70" s="4" t="s">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A71" s="10" t="s">
         <v>122</v>
       </c>
-      <c r="B70" s="10">
+      <c r="B71" s="8">
         <v>16.5</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A71" s="4" t="s">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A72" s="10" t="s">
         <v>123</v>
       </c>
-      <c r="B71" s="10">
+      <c r="B72" s="8">
         <v>16.5</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A72" s="4" t="s">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A73" s="10" t="s">
         <v>124</v>
       </c>
-      <c r="B72" s="10">
+      <c r="B73" s="8">
         <v>16.5</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A73" s="4" t="s">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A74" s="10" t="s">
         <v>125</v>
       </c>
-      <c r="B73" s="10">
-        <v>13.799999999999999</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A74" s="4" t="s">
+      <c r="B74" s="8">
+        <v>13.8</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A75" s="10" t="s">
         <v>126</v>
       </c>
-      <c r="B74" s="10">
-        <v>13.799999999999999</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A75" s="4" t="s">
+      <c r="B75" s="8">
+        <v>13.8</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A76" s="10" t="s">
         <v>127</v>
       </c>
-      <c r="B75" s="10">
-        <v>13.799999999999999</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A76" s="4" t="s">
+      <c r="B76" s="8">
+        <v>13.8</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A77" s="10" t="s">
         <v>128</v>
       </c>
-      <c r="B76" s="10">
-        <v>13.799999999999999</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A77" s="4" t="s">
+      <c r="B77" s="8">
+        <v>13.8</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A78" s="10" t="s">
         <v>129</v>
       </c>
-      <c r="B77" s="10">
-        <v>13.799999999999999</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A78" s="4" t="s">
+      <c r="B78" s="8">
+        <v>13.8</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A79" s="10" t="s">
         <v>130</v>
       </c>
-      <c r="B78" s="10">
-        <v>13.799999999999999</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A79" s="4" t="s">
+      <c r="B79" s="8">
+        <v>13.8</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A80" s="10" t="s">
         <v>104</v>
       </c>
-      <c r="B79" s="10">
-        <v>13.799999999999999</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A80" s="4" t="s">
+      <c r="B80" s="8">
+        <v>13.8</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A81" s="10" t="s">
         <v>131</v>
       </c>
-      <c r="B80" s="10">
+      <c r="B81" s="8">
         <v>33.299999999999997</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A81" s="4" t="s">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A82" s="10" t="s">
         <v>132</v>
       </c>
-      <c r="B81" s="10">
-        <v>25.650000000000002</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A82" s="4" t="s">
+      <c r="B82" s="8">
+        <v>25.65</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A83" s="10" t="s">
         <v>133</v>
       </c>
-      <c r="B82" s="10">
+      <c r="B83" s="8">
         <v>25.5</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A83" s="4" t="s">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A84" s="10" t="s">
         <v>134</v>
       </c>
-      <c r="B83" s="10">
-        <v>38.099999999999994</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A84" s="4" t="s">
+      <c r="B84" s="8">
+        <v>38.1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A85" s="10" t="s">
         <v>135</v>
       </c>
-      <c r="B84" s="10">
-        <v>38.099999999999994</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A85" s="4" t="s">
+      <c r="B85" s="8">
+        <v>38.1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A86" s="10" t="s">
         <v>136</v>
       </c>
-      <c r="B85" s="10">
+      <c r="B86" s="8">
         <v>36.450000000000003</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A86" s="4" t="s">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A87" s="10" t="s">
         <v>137</v>
       </c>
-      <c r="B86" s="10">
+      <c r="B87" s="8">
         <v>8.6999999999999993</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A87" s="4" t="s">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A88" s="10" t="s">
         <v>138</v>
       </c>
-      <c r="B87" s="10">
+      <c r="B88" s="8">
         <v>8.6999999999999993</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A88" s="4" t="s">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A89" s="10" t="s">
         <v>139</v>
       </c>
-      <c r="B88" s="10">
+      <c r="B89" s="8">
         <v>8.6999999999999993</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A89" s="4" t="s">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A90" s="10" t="s">
         <v>140</v>
       </c>
-      <c r="B89" s="10">
+      <c r="B90" s="8">
         <v>36</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A90" s="4" t="s">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A91" s="10" t="s">
         <v>141</v>
       </c>
-      <c r="B90" s="10">
-        <v>40.650000000000006</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A91" s="4" t="s">
+      <c r="B91" s="8">
+        <v>40.65</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A92" s="10" t="s">
         <v>142</v>
       </c>
-      <c r="B91" s="10">
-        <v>16.799999999999997</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A92" s="4" t="s">
+      <c r="B92" s="8">
+        <v>16.8</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A93" s="10" t="s">
         <v>143</v>
       </c>
-      <c r="B92" s="10">
-        <v>16.799999999999997</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A93" s="4" t="s">
+      <c r="B93" s="8">
+        <v>16.8</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A94" s="10" t="s">
         <v>144</v>
       </c>
-      <c r="B93" s="10">
-        <v>16.799999999999997</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A94" s="4" t="s">
+      <c r="B94" s="8">
+        <v>16.8</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A95" s="10" t="s">
         <v>145</v>
       </c>
-      <c r="B94" s="10">
-        <v>16.200000000000003</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A95" s="4" t="s">
+      <c r="B95" s="8">
+        <v>16.2</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A96" s="10" t="s">
         <v>146</v>
       </c>
-      <c r="B95" s="10">
-        <v>16.200000000000003</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A96" s="4" t="s">
+      <c r="B96" s="8">
+        <v>16.2</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A97" s="10" t="s">
         <v>147</v>
       </c>
-      <c r="B96" s="10">
-        <v>16.200000000000003</v>
-      </c>
-    </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A97" s="4" t="s">
+      <c r="B97" s="8">
+        <v>16.2</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A98" s="10" t="s">
         <v>148</v>
       </c>
-      <c r="B97" s="10">
+      <c r="B98" s="8">
         <v>16.649999999999999</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A98" s="4" t="s">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A99" s="10" t="s">
         <v>149</v>
       </c>
-      <c r="B98" s="10">
+      <c r="B99" s="8">
         <v>16.5</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A99" s="4" t="s">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A100" s="10" t="s">
         <v>150</v>
       </c>
-      <c r="B99" s="10">
+      <c r="B100" s="8">
         <v>16.5</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A100" s="4" t="s">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A101" s="10" t="s">
         <v>151</v>
       </c>
-      <c r="B100" s="10">
+      <c r="B101" s="8">
         <v>19.649999999999999</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A101" s="4" t="s">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A102" s="10" t="s">
         <v>152</v>
       </c>
-      <c r="B101" s="10">
+      <c r="B102" s="8">
         <v>19.649999999999999</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A102" s="4" t="s">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A103" s="10" t="s">
         <v>153</v>
       </c>
-      <c r="B102" s="10">
+      <c r="B103" s="8">
         <v>19.649999999999999</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A103" s="4" t="s">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A104" s="10" t="s">
         <v>154</v>
       </c>
-      <c r="B103" s="10">
+      <c r="B104" s="8">
         <v>15</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A104" s="4" t="s">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A105" s="10" t="s">
         <v>155</v>
       </c>
-      <c r="B104" s="10">
+      <c r="B105" s="8">
         <v>15</v>
       </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A106" s="10" t="s">
+        <v>177</v>
+      </c>
+      <c r="B106" s="8">
+        <v>19.350000000000001</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A107" s="10" t="s">
+        <v>178</v>
+      </c>
+      <c r="B107" s="8">
+        <v>19.350000000000001</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A108" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="B108" s="8">
+        <v>19.350000000000001</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A109" s="10" t="s">
+        <v>180</v>
+      </c>
+      <c r="B109" s="8">
+        <v>19.350000000000001</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A110" s="10" t="s">
+        <v>181</v>
+      </c>
+      <c r="B110" s="8">
+        <v>19.350000000000001</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A111" s="10" t="s">
+        <v>182</v>
+      </c>
+      <c r="B111" s="8">
+        <v>18.3</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A112" s="10" t="s">
+        <v>183</v>
+      </c>
+      <c r="B112" s="8">
+        <v>18.3</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A113" s="10" t="s">
+        <v>184</v>
+      </c>
+      <c r="B113" s="8">
+        <v>18.3</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A114" s="10" t="s">
+        <v>185</v>
+      </c>
+      <c r="B114" s="8">
+        <v>18.149999999999999</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A115" s="10" t="s">
+        <v>186</v>
+      </c>
+      <c r="B115" s="8">
+        <v>22.8</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A116" s="10" t="s">
+        <v>187</v>
+      </c>
+      <c r="B116" s="8">
+        <v>25.95</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A117" s="10" t="s">
+        <v>188</v>
+      </c>
+      <c r="B117" s="8">
+        <v>25.95</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A118" s="10" t="s">
+        <v>189</v>
+      </c>
+      <c r="B118" s="8">
+        <v>25.95</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A119" s="10" t="s">
+        <v>190</v>
+      </c>
+      <c r="B119" s="8">
+        <v>24.15</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A120" s="10" t="s">
+        <v>191</v>
+      </c>
+      <c r="B120" s="8">
+        <v>25.65</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A121" s="10" t="s">
+        <v>192</v>
+      </c>
+      <c r="B121" s="8">
+        <v>11.7</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A122" s="10" t="s">
+        <v>193</v>
+      </c>
+      <c r="B122" s="8">
+        <v>11.7</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A123" s="10" t="s">
+        <v>194</v>
+      </c>
+      <c r="B123" s="8">
+        <v>11.7</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A124" s="10" t="s">
+        <v>195</v>
+      </c>
+      <c r="B124" s="8">
+        <v>11.7</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A125" s="10" t="s">
+        <v>196</v>
+      </c>
+      <c r="B125" s="8">
+        <v>17.100000000000001</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A126" s="10" t="s">
+        <v>197</v>
+      </c>
+      <c r="B126" s="8">
+        <v>16.8</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A127" s="10" t="s">
+        <v>198</v>
+      </c>
+      <c r="B127" s="8">
+        <v>17.100000000000001</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A128" s="10" t="s">
+        <v>199</v>
+      </c>
+      <c r="B128" s="8">
+        <v>17.100000000000001</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A129" s="10" t="s">
+        <v>200</v>
+      </c>
+      <c r="B129" s="8">
+        <v>19.350000000000001</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A130" s="10" t="s">
+        <v>201</v>
+      </c>
+      <c r="B130" s="8">
+        <v>19.350000000000001</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A131" s="10" t="s">
+        <v>202</v>
+      </c>
+      <c r="B131" s="8">
+        <v>19.2</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A132" s="10" t="s">
+        <v>203</v>
+      </c>
+      <c r="B132" s="8">
+        <v>26.25</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A133" s="10" t="s">
+        <v>204</v>
+      </c>
+      <c r="B133" s="8">
+        <v>42.3</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A134" s="10" t="s">
+        <v>205</v>
+      </c>
+      <c r="B134" s="8">
+        <v>42.3</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A135" s="10" t="s">
+        <v>206</v>
+      </c>
+      <c r="B135" s="8">
+        <v>42.3</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A136" s="10" t="s">
+        <v>207</v>
+      </c>
+      <c r="B136" s="8">
+        <v>11.85</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A137" s="10" t="s">
+        <v>208</v>
+      </c>
+      <c r="B137" s="8">
+        <v>17.399999999999999</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A138" s="10" t="s">
+        <v>209</v>
+      </c>
+      <c r="B138" s="8">
+        <v>15.15</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A139" s="10" t="s">
+        <v>210</v>
+      </c>
+      <c r="B139" s="8">
+        <v>15.15</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A140" s="10" t="s">
+        <v>211</v>
+      </c>
+      <c r="B140" s="8">
+        <v>15.15</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A141" s="10" t="s">
+        <v>212</v>
+      </c>
+      <c r="B141" s="8">
+        <v>15.3</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A142" s="10" t="s">
+        <v>213</v>
+      </c>
+      <c r="B142" s="8">
+        <v>15.15</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A143" s="10" t="s">
+        <v>214</v>
+      </c>
+      <c r="B143" s="8">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A144" s="10" t="s">
+        <v>215</v>
+      </c>
+      <c r="B144" s="8">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A145" s="10" t="s">
+        <v>216</v>
+      </c>
+      <c r="B145" s="8">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A146" s="10" t="s">
+        <v>217</v>
+      </c>
+      <c r="B146" s="8">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A147" s="10" t="s">
+        <v>218</v>
+      </c>
+      <c r="B147" s="8">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A148" s="10" t="s">
+        <v>219</v>
+      </c>
+      <c r="B148" s="8">
+        <v>15.15</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A149" s="10" t="s">
+        <v>220</v>
+      </c>
+      <c r="B149" s="8">
+        <v>15.45</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A150" s="10" t="s">
+        <v>221</v>
+      </c>
+      <c r="B150" s="8">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A151" s="10" t="s">
+        <v>222</v>
+      </c>
+      <c r="B151" s="8">
+        <v>15.15</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A152" s="10" t="s">
+        <v>223</v>
+      </c>
+      <c r="B152" s="8">
+        <v>15.15</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A153" s="10" t="s">
+        <v>224</v>
+      </c>
+      <c r="B153" s="8">
+        <v>15.15</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A154" s="10" t="s">
+        <v>225</v>
+      </c>
+      <c r="B154" s="8">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A155" s="10" t="s">
+        <v>226</v>
+      </c>
+      <c r="B155" s="8">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A156" s="10" t="s">
+        <v>227</v>
+      </c>
+      <c r="B156" s="8">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A157" s="10" t="s">
+        <v>228</v>
+      </c>
+      <c r="B157" s="8">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A158" s="10" t="s">
+        <v>229</v>
+      </c>
+      <c r="B158" s="8">
+        <v>14.4</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A159" s="10" t="s">
+        <v>230</v>
+      </c>
+      <c r="B159" s="8">
+        <v>14.4</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A160" s="10" t="s">
+        <v>231</v>
+      </c>
+      <c r="B160" s="8">
+        <v>14.4</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A161" s="10" t="s">
+        <v>232</v>
+      </c>
+      <c r="B161" s="8">
+        <v>14.4</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A162" s="10" t="s">
+        <v>233</v>
+      </c>
+      <c r="B162" s="8">
+        <v>14.85</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A163" s="10" t="s">
+        <v>234</v>
+      </c>
+      <c r="B163" s="8">
+        <v>14.85</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A164" s="10" t="s">
+        <v>235</v>
+      </c>
+      <c r="B164" s="8">
+        <v>14.4</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A165" s="10" t="s">
+        <v>236</v>
+      </c>
+      <c r="B165" s="8">
+        <v>14.4</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A166" s="10" t="s">
+        <v>237</v>
+      </c>
+      <c r="B166" s="8">
+        <v>14.25</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A167" s="10" t="s">
+        <v>238</v>
+      </c>
+      <c r="B167" s="8">
+        <v>14.1</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A168" s="10" t="s">
+        <v>239</v>
+      </c>
+      <c r="B168" s="8">
+        <v>14.1</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A169" s="10" t="s">
+        <v>240</v>
+      </c>
+      <c r="B169" s="8">
+        <v>14.1</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A170" s="10" t="s">
+        <v>241</v>
+      </c>
+      <c r="B170" s="8">
+        <v>13.95</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A171" s="10" t="s">
+        <v>242</v>
+      </c>
+      <c r="B171" s="8">
+        <v>13.95</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A172" s="10" t="s">
+        <v>243</v>
+      </c>
+      <c r="B172" s="8">
+        <v>13.95</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A173" s="10" t="s">
+        <v>244</v>
+      </c>
+      <c r="B173" s="8">
+        <v>14.1</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A174" s="10" t="s">
+        <v>245</v>
+      </c>
+      <c r="B174" s="8">
+        <v>14.1</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A175" s="10"/>
+    </row>
+    <row r="176" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A176" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Irrigation Dates Depths.xlsx
+++ b/Irrigation Dates Depths.xlsx
@@ -8,17 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\seosu\Desktop\Guayule Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4308EF4-BB63-40E6-8C9F-1FB31B93DC87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C7D1166-98AF-4303-A5C2-A469D286E3BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2018Depth" sheetId="1" r:id="rId1"/>
-    <sheet name="2019Depth" sheetId="4" r:id="rId2"/>
-    <sheet name="2018D50" sheetId="2" r:id="rId3"/>
-    <sheet name="2019D50" sheetId="5" r:id="rId4"/>
-    <sheet name="2018D150" sheetId="3" r:id="rId5"/>
-    <sheet name="2019D150" sheetId="6" r:id="rId6"/>
+    <sheet name="2019test" sheetId="7" r:id="rId2"/>
+    <sheet name="2019Depth" sheetId="4" r:id="rId3"/>
+    <sheet name="2018D50" sheetId="2" r:id="rId4"/>
+    <sheet name="2019D50" sheetId="5" r:id="rId5"/>
+    <sheet name="2018D150" sheetId="3" r:id="rId6"/>
+    <sheet name="2019D150" sheetId="6" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="741" uniqueCount="246">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="784" uniqueCount="256">
   <si>
     <t>Date</t>
   </si>
@@ -778,6 +779,36 @@
   </si>
   <si>
     <t>15/11/2019</t>
+  </si>
+  <si>
+    <t>13/7/2019</t>
+  </si>
+  <si>
+    <t>23/7/2019</t>
+  </si>
+  <si>
+    <t>29/7/2019</t>
+  </si>
+  <si>
+    <t>13/9/2019</t>
+  </si>
+  <si>
+    <t>14/9/2019</t>
+  </si>
+  <si>
+    <t>15/9/2019</t>
+  </si>
+  <si>
+    <t>18/9/2019</t>
+  </si>
+  <si>
+    <t>19/9/2019</t>
+  </si>
+  <si>
+    <t>28/10/2019</t>
+  </si>
+  <si>
+    <t>30/10/2019</t>
   </si>
 </sst>
 </file>
@@ -835,7 +866,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -874,6 +905,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1158,7 +1192,7 @@
   <dimension ref="A1:E123"/>
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B1048576"/>
+      <selection sqref="A1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1910,10 +1944,599 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2DEE10A-1309-4C83-B5F7-E001627C82E1}">
+  <dimension ref="A1:B71"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="16" style="10" customWidth="1"/>
+    <col min="2" max="2" width="16" style="8" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="16">
+        <v>43591</v>
+      </c>
+      <c r="B2" s="8">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="16">
+        <v>43622</v>
+      </c>
+      <c r="B3" s="8">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="16">
+        <v>43652</v>
+      </c>
+      <c r="B4" s="8">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="16">
+        <v>43683</v>
+      </c>
+      <c r="B5" s="8">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="16">
+        <v>43714</v>
+      </c>
+      <c r="B6" s="8">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" s="16">
+        <v>43744</v>
+      </c>
+      <c r="B7" s="8">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="B8" s="8">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" s="10" t="s">
+        <v>124</v>
+      </c>
+      <c r="B9" s="8">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="B10" s="8">
+        <v>10.8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" s="16">
+        <v>43503</v>
+      </c>
+      <c r="B11" s="8">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" s="16">
+        <v>43562</v>
+      </c>
+      <c r="B12" s="8">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" s="16">
+        <v>43592</v>
+      </c>
+      <c r="B13" s="8">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" s="16">
+        <v>43623</v>
+      </c>
+      <c r="B14" s="8">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" s="16">
+        <v>43653</v>
+      </c>
+      <c r="B15" s="8">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" s="16">
+        <v>43715</v>
+      </c>
+      <c r="B16" s="8">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" s="16">
+        <v>43745</v>
+      </c>
+      <c r="B17" s="8">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" s="16">
+        <v>43776</v>
+      </c>
+      <c r="B18" s="8">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" s="10" t="s">
+        <v>246</v>
+      </c>
+      <c r="B19" s="8">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" s="10" t="s">
+        <v>142</v>
+      </c>
+      <c r="B20" s="8">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" s="10" t="s">
+        <v>146</v>
+      </c>
+      <c r="B21" s="8">
+        <v>27.1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22" s="10" t="s">
+        <v>147</v>
+      </c>
+      <c r="B22" s="8">
+        <v>28.8</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23" s="10" t="s">
+        <v>148</v>
+      </c>
+      <c r="B23" s="8">
+        <v>11.2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A24" s="10" t="s">
+        <v>247</v>
+      </c>
+      <c r="B24" s="8">
+        <v>11.2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A25" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="B25" s="8">
+        <v>11.2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A26" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="B26" s="8">
+        <v>14.2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A27" s="10" t="s">
+        <v>152</v>
+      </c>
+      <c r="B27" s="8">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A28" s="10" t="s">
+        <v>153</v>
+      </c>
+      <c r="B28" s="8">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A29" s="10" t="s">
+        <v>248</v>
+      </c>
+      <c r="B29" s="8">
+        <v>23.7</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A30" s="10" t="s">
+        <v>155</v>
+      </c>
+      <c r="B30" s="8">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A31" s="16">
+        <v>43504</v>
+      </c>
+      <c r="B31" s="8">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A32" s="16">
+        <v>43685</v>
+      </c>
+      <c r="B32" s="8">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A33" s="16">
+        <v>43716</v>
+      </c>
+      <c r="B33" s="8">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A34" s="16">
+        <v>43807</v>
+      </c>
+      <c r="B34" s="8">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A35" s="10" t="s">
+        <v>186</v>
+      </c>
+      <c r="B35" s="8">
+        <v>8.1999999999999993</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A36" s="10" t="s">
+        <v>187</v>
+      </c>
+      <c r="B36" s="8">
+        <v>10.7</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A37" s="10" t="s">
+        <v>189</v>
+      </c>
+      <c r="B37" s="8">
+        <v>10.7</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A38" s="10" t="s">
+        <v>192</v>
+      </c>
+      <c r="B38" s="8">
+        <v>12.2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A39" s="10" t="s">
+        <v>193</v>
+      </c>
+      <c r="B39" s="8">
+        <v>12.2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A40" s="10" t="s">
+        <v>194</v>
+      </c>
+      <c r="B40" s="8">
+        <v>12.2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A41" s="10" t="s">
+        <v>196</v>
+      </c>
+      <c r="B41" s="8">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A42" s="10" t="s">
+        <v>197</v>
+      </c>
+      <c r="B42" s="8">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A43" s="10" t="s">
+        <v>198</v>
+      </c>
+      <c r="B43" s="8">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A44" s="10" t="s">
+        <v>199</v>
+      </c>
+      <c r="B44" s="8">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A45" s="16">
+        <v>43474</v>
+      </c>
+      <c r="B45" s="8">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A46" s="16">
+        <v>43505</v>
+      </c>
+      <c r="B46" s="8">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A47" s="16">
+        <v>43533</v>
+      </c>
+      <c r="B47" s="8">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A48" s="16">
+        <v>43564</v>
+      </c>
+      <c r="B48" s="8">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A49" s="16">
+        <v>43778</v>
+      </c>
+      <c r="B49" s="8">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A50" s="16">
+        <v>43808</v>
+      </c>
+      <c r="B50" s="8">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A51" s="10" t="s">
+        <v>249</v>
+      </c>
+      <c r="B51" s="8">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A52" s="10" t="s">
+        <v>250</v>
+      </c>
+      <c r="B52" s="8">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A53" s="10" t="s">
+        <v>251</v>
+      </c>
+      <c r="B53" s="8">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A54" s="10" t="s">
+        <v>252</v>
+      </c>
+      <c r="B54" s="8">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A55" s="10" t="s">
+        <v>253</v>
+      </c>
+      <c r="B55" s="8">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A56" s="10" t="s">
+        <v>208</v>
+      </c>
+      <c r="B56" s="8">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A57" s="10" t="s">
+        <v>209</v>
+      </c>
+      <c r="B57" s="8">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A58" s="10" t="s">
+        <v>210</v>
+      </c>
+      <c r="B58" s="8">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A59" s="10" t="s">
+        <v>211</v>
+      </c>
+      <c r="B59" s="8">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A60" s="10" t="s">
+        <v>213</v>
+      </c>
+      <c r="B60" s="8">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A61" s="10" t="s">
+        <v>214</v>
+      </c>
+      <c r="B61" s="8">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A62" s="10" t="s">
+        <v>215</v>
+      </c>
+      <c r="B62" s="8">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A63" s="16">
+        <v>43565</v>
+      </c>
+      <c r="B63" s="8">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A64" s="10" t="s">
+        <v>254</v>
+      </c>
+      <c r="B64" s="8">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A65" s="10" t="s">
+        <v>255</v>
+      </c>
+      <c r="B65" s="8">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A66" s="16">
+        <v>43476</v>
+      </c>
+      <c r="B66" s="8">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A67" s="16">
+        <v>43535</v>
+      </c>
+      <c r="B67" s="8">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A68" s="16">
+        <v>43657</v>
+      </c>
+      <c r="B68" s="8">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A69" s="16">
+        <v>43749</v>
+      </c>
+      <c r="B69" s="8">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A70" s="10" t="s">
+        <v>243</v>
+      </c>
+      <c r="B70" s="8">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A71" s="10" t="s">
+        <v>245</v>
+      </c>
+      <c r="B71" s="8">
+        <v>12</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12AA9BAA-E3F5-40EE-BC7B-22893B26F7D0}">
   <dimension ref="A1:D176"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0"/>
+    <sheetView topLeftCell="A158" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="G168" sqref="G168"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -3397,12 +4020,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB957D0E-C1D3-4DE8-9D35-A9D8A8951233}">
   <dimension ref="A1:B71"/>
   <sheetViews>
     <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3984,12 +4607,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C5F8EFB-CA14-4021-AA8B-5C6B702C125E}">
   <dimension ref="A1:D176"/>
   <sheetViews>
     <sheetView topLeftCell="A155" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C161" sqref="C161"/>
+      <selection activeCell="B155" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5402,12 +6025,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADF72B8C-4724-4CAA-A8AF-3DC314968759}">
   <dimension ref="A1:B71"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G74" sqref="G74"/>
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5989,12 +6612,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81ACF73D-EE59-44A3-A7D9-13D9B876FD8D}">
   <dimension ref="A1:D176"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A159" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="D159" sqref="D1:E1048576"/>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Irrigation Dates Depths.xlsx
+++ b/Irrigation Dates Depths.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\seosu\Desktop\Guayule Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C7D1166-98AF-4303-A5C2-A469D286E3BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9283EA2-2482-4943-8C1D-AE533CE47748}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="784" uniqueCount="256">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="813" uniqueCount="262">
   <si>
     <t>Date</t>
   </si>
@@ -809,6 +809,24 @@
   </si>
   <si>
     <t>30/10/2019</t>
+  </si>
+  <si>
+    <t>6/7/2019</t>
+  </si>
+  <si>
+    <t>8/8/2019</t>
+  </si>
+  <si>
+    <t>1/9/2019</t>
+  </si>
+  <si>
+    <t>3/9/2019</t>
+  </si>
+  <si>
+    <t>2/9/2019</t>
+  </si>
+  <si>
+    <t>4/9/2019</t>
   </si>
 </sst>
 </file>
@@ -866,7 +884,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -908,6 +926,7 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1192,7 +1211,7 @@
   <dimension ref="A1:E123"/>
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection sqref="A1:B1048576"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1945,75 +1964,83 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2DEE10A-1309-4C83-B5F7-E001627C82E1}">
-  <dimension ref="A1:B71"/>
+  <dimension ref="A1:C71"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="16" style="10" customWidth="1"/>
     <col min="2" max="2" width="16" style="8" customWidth="1"/>
+    <col min="3" max="3" width="16" style="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="8" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" s="16">
-        <v>43591</v>
+      <c r="C1" s="11"/>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="10" t="s">
+        <v>112</v>
       </c>
       <c r="B2" s="8">
         <v>11</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" s="16">
-        <v>43622</v>
+      <c r="C2" s="16"/>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="10" t="s">
+        <v>107</v>
       </c>
       <c r="B3" s="8">
         <v>11</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" s="16">
-        <v>43652</v>
+      <c r="C3" s="16"/>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="10" t="s">
+        <v>108</v>
       </c>
       <c r="B4" s="8">
         <v>16</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" s="16">
-        <v>43683</v>
+      <c r="C4" s="16"/>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="10" t="s">
+        <v>109</v>
       </c>
       <c r="B5" s="8">
         <v>16</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" s="16">
-        <v>43714</v>
+      <c r="C5" s="16"/>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="10" t="s">
+        <v>110</v>
       </c>
       <c r="B6" s="8">
         <v>16</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" s="16">
-        <v>43744</v>
+      <c r="C6" s="16"/>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" s="10" t="s">
+        <v>113</v>
       </c>
       <c r="B7" s="8">
         <v>16</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C7" s="16"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="10" t="s">
         <v>118</v>
       </c>
@@ -2021,7 +2048,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="10" t="s">
         <v>124</v>
       </c>
@@ -2029,7 +2056,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="10" t="s">
         <v>129</v>
       </c>
@@ -2037,71 +2064,79 @@
         <v>10.8</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11" s="16">
-        <v>43503</v>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" s="10" t="s">
+        <v>132</v>
       </c>
       <c r="B11" s="8">
         <v>18</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12" s="16">
-        <v>43562</v>
+      <c r="C11" s="16"/>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" s="10" t="s">
+        <v>134</v>
       </c>
       <c r="B12" s="8">
         <v>18</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A13" s="16">
-        <v>43592</v>
+      <c r="C12" s="16"/>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" s="10" t="s">
+        <v>135</v>
       </c>
       <c r="B13" s="8">
         <v>18</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A14" s="16">
-        <v>43623</v>
+      <c r="C13" s="16"/>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" s="10" t="s">
+        <v>256</v>
       </c>
       <c r="B14" s="8">
         <v>18</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A15" s="16">
-        <v>43653</v>
+      <c r="C14" s="16"/>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" s="10" t="s">
+        <v>136</v>
       </c>
       <c r="B15" s="8">
         <v>18</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A16" s="16">
-        <v>43715</v>
+      <c r="C15" s="16"/>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" s="10" t="s">
+        <v>138</v>
       </c>
       <c r="B16" s="8">
         <v>11</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A17" s="16">
-        <v>43745</v>
+      <c r="C16" s="16"/>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" s="10" t="s">
+        <v>139</v>
       </c>
       <c r="B17" s="8">
         <v>11</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A18" s="16">
-        <v>43776</v>
+      <c r="C17" s="16"/>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" s="10" t="s">
+        <v>140</v>
       </c>
       <c r="B18" s="8">
         <v>11</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C18" s="16"/>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="10" t="s">
         <v>246</v>
       </c>
@@ -2109,7 +2144,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="10" t="s">
         <v>142</v>
       </c>
@@ -2117,7 +2152,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="10" t="s">
         <v>146</v>
       </c>
@@ -2125,7 +2160,7 @@
         <v>27.1</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="10" t="s">
         <v>147</v>
       </c>
@@ -2133,7 +2168,7 @@
         <v>28.8</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="10" t="s">
         <v>148</v>
       </c>
@@ -2141,7 +2176,7 @@
         <v>11.2</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="10" t="s">
         <v>247</v>
       </c>
@@ -2149,7 +2184,7 @@
         <v>11.2</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="10" t="s">
         <v>150</v>
       </c>
@@ -2157,7 +2192,7 @@
         <v>11.2</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="10" t="s">
         <v>151</v>
       </c>
@@ -2165,7 +2200,7 @@
         <v>14.2</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" s="10" t="s">
         <v>152</v>
       </c>
@@ -2173,7 +2208,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" s="10" t="s">
         <v>153</v>
       </c>
@@ -2181,7 +2216,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" s="10" t="s">
         <v>248</v>
       </c>
@@ -2189,7 +2224,7 @@
         <v>23.7</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" s="10" t="s">
         <v>155</v>
       </c>
@@ -2197,39 +2232,43 @@
         <v>16</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A31" s="16">
-        <v>43504</v>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A31" s="10" t="s">
+        <v>178</v>
       </c>
       <c r="B31" s="8">
         <v>16</v>
       </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A32" s="16">
-        <v>43685</v>
+      <c r="C31" s="16"/>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A32" s="10" t="s">
+        <v>257</v>
       </c>
       <c r="B32" s="8">
         <v>16</v>
       </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A33" s="16">
-        <v>43716</v>
+      <c r="C32" s="16"/>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A33" s="10" t="s">
+        <v>182</v>
       </c>
       <c r="B33" s="8">
         <v>16</v>
       </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A34" s="16">
-        <v>43807</v>
+      <c r="C33" s="16"/>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A34" s="10" t="s">
+        <v>185</v>
       </c>
       <c r="B34" s="8">
         <v>32</v>
       </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C34" s="16"/>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" s="10" t="s">
         <v>186</v>
       </c>
@@ -2237,7 +2276,7 @@
         <v>8.1999999999999993</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" s="10" t="s">
         <v>187</v>
       </c>
@@ -2245,7 +2284,7 @@
         <v>10.7</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" s="10" t="s">
         <v>189</v>
       </c>
@@ -2253,7 +2292,7 @@
         <v>10.7</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" s="10" t="s">
         <v>192</v>
       </c>
@@ -2261,7 +2300,7 @@
         <v>12.2</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" s="10" t="s">
         <v>193</v>
       </c>
@@ -2269,7 +2308,7 @@
         <v>12.2</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" s="10" t="s">
         <v>194</v>
       </c>
@@ -2277,7 +2316,7 @@
         <v>12.2</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" s="10" t="s">
         <v>196</v>
       </c>
@@ -2285,7 +2324,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" s="10" t="s">
         <v>197</v>
       </c>
@@ -2293,7 +2332,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" s="10" t="s">
         <v>198</v>
       </c>
@@ -2301,7 +2340,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44" s="10" t="s">
         <v>199</v>
       </c>
@@ -2309,55 +2348,61 @@
         <v>12</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A45" s="16">
-        <v>43474</v>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A45" s="10" t="s">
+        <v>258</v>
       </c>
       <c r="B45" s="8">
         <v>12</v>
       </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A46" s="16">
-        <v>43505</v>
+      <c r="C45" s="16"/>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A46" s="10" t="s">
+        <v>260</v>
       </c>
       <c r="B46" s="8">
         <v>12</v>
       </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A47" s="16">
-        <v>43533</v>
+      <c r="C46" s="16"/>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A47" s="10" t="s">
+        <v>259</v>
       </c>
       <c r="B47" s="8">
         <v>12</v>
       </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A48" s="16">
-        <v>43564</v>
+      <c r="C47" s="16"/>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A48" s="10" t="s">
+        <v>261</v>
       </c>
       <c r="B48" s="8">
         <v>12</v>
       </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A49" s="16">
-        <v>43778</v>
+      <c r="C48" s="16"/>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A49" s="10" t="s">
+        <v>205</v>
       </c>
       <c r="B49" s="8">
         <v>12</v>
       </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A50" s="16">
-        <v>43808</v>
+      <c r="C49" s="16"/>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A50" s="10" t="s">
+        <v>206</v>
       </c>
       <c r="B50" s="8">
         <v>18</v>
       </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C50" s="16"/>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51" s="10" t="s">
         <v>249</v>
       </c>
@@ -2365,7 +2410,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52" s="10" t="s">
         <v>250</v>
       </c>
@@ -2373,7 +2418,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53" s="10" t="s">
         <v>251</v>
       </c>
@@ -2381,7 +2426,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A54" s="10" t="s">
         <v>252</v>
       </c>
@@ -2389,7 +2434,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A55" s="10" t="s">
         <v>253</v>
       </c>
@@ -2397,7 +2442,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A56" s="10" t="s">
         <v>208</v>
       </c>
@@ -2405,7 +2450,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A57" s="10" t="s">
         <v>209</v>
       </c>
@@ -2413,7 +2458,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A58" s="10" t="s">
         <v>210</v>
       </c>
@@ -2421,7 +2466,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A59" s="10" t="s">
         <v>211</v>
       </c>
@@ -2429,7 +2474,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A60" s="10" t="s">
         <v>213</v>
       </c>
@@ -2437,7 +2482,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A61" s="10" t="s">
         <v>214</v>
       </c>
@@ -2445,7 +2490,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A62" s="10" t="s">
         <v>215</v>
       </c>
@@ -2453,15 +2498,16 @@
         <v>12</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A63" s="16">
-        <v>43565</v>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A63" s="10" t="s">
+        <v>218</v>
       </c>
       <c r="B63" s="8">
         <v>12</v>
       </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C63" s="16"/>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A64" s="10" t="s">
         <v>254</v>
       </c>
@@ -2469,7 +2515,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A65" s="10" t="s">
         <v>255</v>
       </c>
@@ -2477,39 +2523,43 @@
         <v>31</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A66" s="16">
-        <v>43476</v>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A66" s="10" t="s">
+        <v>234</v>
       </c>
       <c r="B66" s="8">
         <v>12</v>
       </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A67" s="16">
-        <v>43535</v>
+      <c r="C66" s="16"/>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A67" s="10" t="s">
+        <v>236</v>
       </c>
       <c r="B67" s="8">
         <v>24</v>
       </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A68" s="16">
-        <v>43657</v>
+      <c r="C67" s="16"/>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A68" s="10" t="s">
+        <v>239</v>
       </c>
       <c r="B68" s="8">
         <v>12</v>
       </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A69" s="16">
-        <v>43749</v>
+      <c r="C68" s="16"/>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A69" s="10" t="s">
+        <v>242</v>
       </c>
       <c r="B69" s="8">
         <v>12</v>
       </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C69" s="16"/>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A70" s="10" t="s">
         <v>243</v>
       </c>
@@ -2517,7 +2567,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A71" s="10" t="s">
         <v>245</v>
       </c>
@@ -2534,13 +2584,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12AA9BAA-E3F5-40EE-BC7B-22893B26F7D0}">
   <dimension ref="A1:D176"/>
   <sheetViews>
-    <sheetView topLeftCell="A158" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="G168" sqref="G168"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.77734375" style="9" customWidth="1"/>
+    <col min="1" max="1" width="11.77734375" style="17" customWidth="1"/>
     <col min="2" max="2" width="11.21875" style="8" customWidth="1"/>
     <col min="3" max="3" width="12.21875" style="15" customWidth="1"/>
     <col min="4" max="4" width="8.88671875" style="12"/>

--- a/Irrigation Dates Depths.xlsx
+++ b/Irrigation Dates Depths.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\seosu\Desktop\Guayule Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9283EA2-2482-4943-8C1D-AE533CE47748}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DAF0E3B-84F4-46C2-BD30-70BBD9333009}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2018Depth" sheetId="1" r:id="rId1"/>
@@ -926,7 +926,9 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1211,7 +1213,7 @@
   <dimension ref="A1:E123"/>
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1966,8 +1968,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2DEE10A-1309-4C83-B5F7-E001627C82E1}">
   <dimension ref="A1:C71"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2584,14 +2586,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12AA9BAA-E3F5-40EE-BC7B-22893B26F7D0}">
   <dimension ref="A1:D176"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" topLeftCell="A166" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="A174" sqref="A174"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.77734375" style="17" customWidth="1"/>
-    <col min="2" max="2" width="11.21875" style="8" customWidth="1"/>
+    <col min="1" max="1" width="16" style="10" customWidth="1"/>
+    <col min="2" max="2" width="16" style="17" customWidth="1"/>
     <col min="3" max="3" width="12.21875" style="15" customWidth="1"/>
     <col min="4" max="4" width="8.88671875" style="12"/>
   </cols>
@@ -2600,15 +2602,15 @@
       <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="17" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="10" t="s">
         <v>176</v>
       </c>
-      <c r="B2" s="8">
+      <c r="B2" s="17">
         <v>14.5</v>
       </c>
     </row>
@@ -2616,7 +2618,7 @@
       <c r="A3" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="B3" s="8">
+      <c r="B3" s="17">
         <v>7.2</v>
       </c>
     </row>
@@ -2624,7 +2626,7 @@
       <c r="A4" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="B4" s="8">
+      <c r="B4" s="17">
         <v>10.3</v>
       </c>
     </row>
@@ -2632,7 +2634,7 @@
       <c r="A5" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="B5" s="8">
+      <c r="B5" s="17">
         <v>10.3</v>
       </c>
     </row>
@@ -2640,7 +2642,7 @@
       <c r="A6" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="B6" s="8">
+      <c r="B6" s="17">
         <v>10.1</v>
       </c>
     </row>
@@ -2648,7 +2650,7 @@
       <c r="A7" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="B7" s="8">
+      <c r="B7" s="17">
         <v>10</v>
       </c>
     </row>
@@ -2656,7 +2658,7 @@
       <c r="A8" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="B8" s="8">
+      <c r="B8" s="17">
         <v>10.1</v>
       </c>
     </row>
@@ -2664,7 +2666,7 @@
       <c r="A9" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="B9" s="8">
+      <c r="B9" s="17">
         <v>9.9</v>
       </c>
     </row>
@@ -2672,7 +2674,7 @@
       <c r="A10" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="B10" s="8">
+      <c r="B10" s="17">
         <v>9.4</v>
       </c>
     </row>
@@ -2680,7 +2682,7 @@
       <c r="A11" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="B11" s="8">
+      <c r="B11" s="17">
         <v>10.1</v>
       </c>
     </row>
@@ -2688,7 +2690,7 @@
       <c r="A12" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="B12" s="8">
+      <c r="B12" s="17">
         <v>10.1</v>
       </c>
     </row>
@@ -2696,7 +2698,7 @@
       <c r="A13" s="10" t="s">
         <v>163</v>
       </c>
-      <c r="B13" s="8">
+      <c r="B13" s="17">
         <v>9.4</v>
       </c>
     </row>
@@ -2704,7 +2706,7 @@
       <c r="A14" s="10" t="s">
         <v>158</v>
       </c>
-      <c r="B14" s="8">
+      <c r="B14" s="17">
         <v>9.4</v>
       </c>
     </row>
@@ -2712,7 +2714,7 @@
       <c r="A15" s="10" t="s">
         <v>159</v>
       </c>
-      <c r="B15" s="8">
+      <c r="B15" s="17">
         <v>9.4</v>
       </c>
     </row>
@@ -2720,7 +2722,7 @@
       <c r="A16" s="10" t="s">
         <v>160</v>
       </c>
-      <c r="B16" s="8">
+      <c r="B16" s="17">
         <v>9.4</v>
       </c>
     </row>
@@ -2728,7 +2730,7 @@
       <c r="A17" s="10" t="s">
         <v>161</v>
       </c>
-      <c r="B17" s="8">
+      <c r="B17" s="17">
         <v>12.5</v>
       </c>
     </row>
@@ -2736,7 +2738,7 @@
       <c r="A18" s="10" t="s">
         <v>162</v>
       </c>
-      <c r="B18" s="8">
+      <c r="B18" s="17">
         <v>9.4</v>
       </c>
     </row>
@@ -2744,7 +2746,7 @@
       <c r="A19" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="B19" s="8">
+      <c r="B19" s="17">
         <v>9.4</v>
       </c>
     </row>
@@ -2752,7 +2754,7 @@
       <c r="A20" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="B20" s="8">
+      <c r="B20" s="17">
         <v>9.4</v>
       </c>
     </row>
@@ -2760,7 +2762,7 @@
       <c r="A21" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="B21" s="8">
+      <c r="B21" s="17">
         <v>9.8000000000000007</v>
       </c>
     </row>
@@ -2768,7 +2770,7 @@
       <c r="A22" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="B22" s="8">
+      <c r="B22" s="17">
         <v>9.5</v>
       </c>
     </row>
@@ -2776,7 +2778,7 @@
       <c r="A23" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="B23" s="8">
+      <c r="B23" s="17">
         <v>9.5</v>
       </c>
     </row>
@@ -2784,7 +2786,7 @@
       <c r="A24" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="B24" s="8">
+      <c r="B24" s="17">
         <v>9.5</v>
       </c>
     </row>
@@ -2792,7 +2794,7 @@
       <c r="A25" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="B25" s="8">
+      <c r="B25" s="17">
         <v>9.9</v>
       </c>
     </row>
@@ -2800,7 +2802,7 @@
       <c r="A26" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="B26" s="8">
+      <c r="B26" s="17">
         <v>14.4</v>
       </c>
     </row>
@@ -2808,7 +2810,7 @@
       <c r="A27" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="B27" s="8">
+      <c r="B27" s="17">
         <v>14.4</v>
       </c>
     </row>
@@ -2816,7 +2818,7 @@
       <c r="A28" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="B28" s="8">
+      <c r="B28" s="17">
         <v>14.3</v>
       </c>
     </row>
@@ -2824,7 +2826,7 @@
       <c r="A29" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="B29" s="8">
+      <c r="B29" s="17">
         <v>13.9</v>
       </c>
     </row>
@@ -2832,7 +2834,7 @@
       <c r="A30" s="10" t="s">
         <v>89</v>
       </c>
-      <c r="B30" s="8">
+      <c r="B30" s="17">
         <v>14</v>
       </c>
     </row>
@@ -2840,7 +2842,7 @@
       <c r="A31" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="B31" s="8">
+      <c r="B31" s="17">
         <v>13.7</v>
       </c>
     </row>
@@ -2848,7 +2850,7 @@
       <c r="A32" s="10" t="s">
         <v>164</v>
       </c>
-      <c r="B32" s="8">
+      <c r="B32" s="17">
         <v>13.9</v>
       </c>
     </row>
@@ -2856,7 +2858,7 @@
       <c r="A33" s="10" t="s">
         <v>165</v>
       </c>
-      <c r="B33" s="8">
+      <c r="B33" s="17">
         <v>14</v>
       </c>
     </row>
@@ -2864,7 +2866,7 @@
       <c r="A34" s="10" t="s">
         <v>166</v>
       </c>
-      <c r="B34" s="8">
+      <c r="B34" s="17">
         <v>14</v>
       </c>
     </row>
@@ -2872,7 +2874,7 @@
       <c r="A35" s="10" t="s">
         <v>167</v>
       </c>
-      <c r="B35" s="8">
+      <c r="B35" s="17">
         <v>13.8</v>
       </c>
     </row>
@@ -2880,7 +2882,7 @@
       <c r="A36" s="10" t="s">
         <v>168</v>
       </c>
-      <c r="B36" s="8">
+      <c r="B36" s="17">
         <v>13.7</v>
       </c>
     </row>
@@ -2888,7 +2890,7 @@
       <c r="A37" s="10" t="s">
         <v>169</v>
       </c>
-      <c r="B37" s="8">
+      <c r="B37" s="17">
         <v>13.7</v>
       </c>
     </row>
@@ -2896,7 +2898,7 @@
       <c r="A38" s="10" t="s">
         <v>170</v>
       </c>
-      <c r="B38" s="8">
+      <c r="B38" s="17">
         <v>13.7</v>
       </c>
     </row>
@@ -2904,7 +2906,7 @@
       <c r="A39" s="10" t="s">
         <v>171</v>
       </c>
-      <c r="B39" s="8">
+      <c r="B39" s="17">
         <v>13.7</v>
       </c>
     </row>
@@ -2912,7 +2914,7 @@
       <c r="A40" s="10" t="s">
         <v>91</v>
       </c>
-      <c r="B40" s="8">
+      <c r="B40" s="17">
         <v>9.5</v>
       </c>
     </row>
@@ -2920,7 +2922,7 @@
       <c r="A41" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="B41" s="8">
+      <c r="B41" s="17">
         <v>9.5</v>
       </c>
     </row>
@@ -2928,7 +2930,7 @@
       <c r="A42" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="B42" s="8">
+      <c r="B42" s="17">
         <v>9.5</v>
       </c>
     </row>
@@ -2936,7 +2938,7 @@
       <c r="A43" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="B43" s="8">
+      <c r="B43" s="17">
         <v>9.5</v>
       </c>
     </row>
@@ -2944,7 +2946,7 @@
       <c r="A44" s="10" t="s">
         <v>95</v>
       </c>
-      <c r="B44" s="8">
+      <c r="B44" s="17">
         <v>9.5</v>
       </c>
     </row>
@@ -2952,7 +2954,7 @@
       <c r="A45" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="B45" s="8">
+      <c r="B45" s="17">
         <v>9.5</v>
       </c>
     </row>
@@ -2960,7 +2962,7 @@
       <c r="A46" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="B46" s="8">
+      <c r="B46" s="17">
         <v>9.4</v>
       </c>
     </row>
@@ -2968,7 +2970,7 @@
       <c r="A47" s="10" t="s">
         <v>98</v>
       </c>
-      <c r="B47" s="8">
+      <c r="B47" s="17">
         <v>9.4</v>
       </c>
     </row>
@@ -2976,7 +2978,7 @@
       <c r="A48" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="B48" s="8">
+      <c r="B48" s="17">
         <v>9.4</v>
       </c>
     </row>
@@ -2984,7 +2986,7 @@
       <c r="A49" s="10" t="s">
         <v>100</v>
       </c>
-      <c r="B49" s="8">
+      <c r="B49" s="17">
         <v>10</v>
       </c>
     </row>
@@ -2992,7 +2994,7 @@
       <c r="A50" s="10" t="s">
         <v>101</v>
       </c>
-      <c r="B50" s="8">
+      <c r="B50" s="17">
         <v>13.9</v>
       </c>
     </row>
@@ -3000,7 +3002,7 @@
       <c r="A51" s="10" t="s">
         <v>102</v>
       </c>
-      <c r="B51" s="8">
+      <c r="B51" s="17">
         <v>13.9</v>
       </c>
     </row>
@@ -3008,7 +3010,7 @@
       <c r="A52" s="10" t="s">
         <v>103</v>
       </c>
-      <c r="B52" s="8">
+      <c r="B52" s="17">
         <v>13.9</v>
       </c>
     </row>
@@ -3016,7 +3018,7 @@
       <c r="A53" s="10" t="s">
         <v>104</v>
       </c>
-      <c r="B53" s="8">
+      <c r="B53" s="17">
         <v>13.9</v>
       </c>
     </row>
@@ -3024,7 +3026,7 @@
       <c r="A54" s="10" t="s">
         <v>105</v>
       </c>
-      <c r="B54" s="8">
+      <c r="B54" s="17">
         <v>13.9</v>
       </c>
     </row>
@@ -3032,7 +3034,7 @@
       <c r="A55" s="10" t="s">
         <v>106</v>
       </c>
-      <c r="B55" s="8">
+      <c r="B55" s="17">
         <v>11.4</v>
       </c>
     </row>
@@ -3040,7 +3042,7 @@
       <c r="A56" s="10" t="s">
         <v>111</v>
       </c>
-      <c r="B56" s="8">
+      <c r="B56" s="17">
         <v>11.4</v>
       </c>
     </row>
@@ -3048,7 +3050,7 @@
       <c r="A57" s="10" t="s">
         <v>112</v>
       </c>
-      <c r="B57" s="8">
+      <c r="B57" s="17">
         <v>11.4</v>
       </c>
     </row>
@@ -3056,7 +3058,7 @@
       <c r="A58" s="10" t="s">
         <v>107</v>
       </c>
-      <c r="B58" s="8">
+      <c r="B58" s="17">
         <v>11.4</v>
       </c>
     </row>
@@ -3064,7 +3066,7 @@
       <c r="A59" s="10" t="s">
         <v>108</v>
       </c>
-      <c r="B59" s="8">
+      <c r="B59" s="17">
         <v>11.4</v>
       </c>
     </row>
@@ -3072,7 +3074,7 @@
       <c r="A60" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="B60" s="8">
+      <c r="B60" s="17">
         <v>11.4</v>
       </c>
     </row>
@@ -3080,7 +3082,7 @@
       <c r="A61" s="10" t="s">
         <v>110</v>
       </c>
-      <c r="B61" s="8">
+      <c r="B61" s="17">
         <v>11.4</v>
       </c>
     </row>
@@ -3088,7 +3090,7 @@
       <c r="A62" s="10" t="s">
         <v>113</v>
       </c>
-      <c r="B62" s="8">
+      <c r="B62" s="17">
         <v>16.2</v>
       </c>
     </row>
@@ -3096,7 +3098,7 @@
       <c r="A63" s="10" t="s">
         <v>114</v>
       </c>
-      <c r="B63" s="8">
+      <c r="B63" s="17">
         <v>16.2</v>
       </c>
     </row>
@@ -3104,7 +3106,7 @@
       <c r="A64" s="10" t="s">
         <v>115</v>
       </c>
-      <c r="B64" s="8">
+      <c r="B64" s="17">
         <v>16.2</v>
       </c>
     </row>
@@ -3112,7 +3114,7 @@
       <c r="A65" s="10" t="s">
         <v>116</v>
       </c>
-      <c r="B65" s="8">
+      <c r="B65" s="17">
         <v>16.2</v>
       </c>
     </row>
@@ -3120,7 +3122,7 @@
       <c r="A66" s="10" t="s">
         <v>117</v>
       </c>
-      <c r="B66" s="8">
+      <c r="B66" s="17">
         <v>16.2</v>
       </c>
     </row>
@@ -3128,7 +3130,7 @@
       <c r="A67" s="10" t="s">
         <v>118</v>
       </c>
-      <c r="B67" s="8">
+      <c r="B67" s="17">
         <v>16.2</v>
       </c>
     </row>
@@ -3136,7 +3138,7 @@
       <c r="A68" s="10" t="s">
         <v>119</v>
       </c>
-      <c r="B68" s="8">
+      <c r="B68" s="17">
         <v>11</v>
       </c>
     </row>
@@ -3144,7 +3146,7 @@
       <c r="A69" s="10" t="s">
         <v>120</v>
       </c>
-      <c r="B69" s="8">
+      <c r="B69" s="17">
         <v>11</v>
       </c>
     </row>
@@ -3152,7 +3154,7 @@
       <c r="A70" s="10" t="s">
         <v>121</v>
       </c>
-      <c r="B70" s="8">
+      <c r="B70" s="17">
         <v>11</v>
       </c>
     </row>
@@ -3160,7 +3162,7 @@
       <c r="A71" s="10" t="s">
         <v>122</v>
       </c>
-      <c r="B71" s="8">
+      <c r="B71" s="17">
         <v>11</v>
       </c>
     </row>
@@ -3168,7 +3170,7 @@
       <c r="A72" s="10" t="s">
         <v>123</v>
       </c>
-      <c r="B72" s="8">
+      <c r="B72" s="17">
         <v>11</v>
       </c>
     </row>
@@ -3176,7 +3178,7 @@
       <c r="A73" s="10" t="s">
         <v>124</v>
       </c>
-      <c r="B73" s="8">
+      <c r="B73" s="17">
         <v>11</v>
       </c>
     </row>
@@ -3184,7 +3186,7 @@
       <c r="A74" s="10" t="s">
         <v>125</v>
       </c>
-      <c r="B74" s="8">
+      <c r="B74" s="17">
         <v>9.1999999999999993</v>
       </c>
     </row>
@@ -3192,7 +3194,7 @@
       <c r="A75" s="10" t="s">
         <v>126</v>
       </c>
-      <c r="B75" s="8">
+      <c r="B75" s="17">
         <v>9.1999999999999993</v>
       </c>
     </row>
@@ -3200,7 +3202,7 @@
       <c r="A76" s="10" t="s">
         <v>127</v>
       </c>
-      <c r="B76" s="8">
+      <c r="B76" s="17">
         <v>9.1999999999999993</v>
       </c>
     </row>
@@ -3208,7 +3210,7 @@
       <c r="A77" s="10" t="s">
         <v>128</v>
       </c>
-      <c r="B77" s="8">
+      <c r="B77" s="17">
         <v>9.1999999999999993</v>
       </c>
     </row>
@@ -3216,7 +3218,7 @@
       <c r="A78" s="10" t="s">
         <v>129</v>
       </c>
-      <c r="B78" s="8">
+      <c r="B78" s="17">
         <v>9.1999999999999993</v>
       </c>
     </row>
@@ -3224,7 +3226,7 @@
       <c r="A79" s="10" t="s">
         <v>130</v>
       </c>
-      <c r="B79" s="8">
+      <c r="B79" s="17">
         <v>9.1999999999999993</v>
       </c>
     </row>
@@ -3232,7 +3234,7 @@
       <c r="A80" s="10" t="s">
         <v>104</v>
       </c>
-      <c r="B80" s="8">
+      <c r="B80" s="17">
         <v>9.1999999999999993</v>
       </c>
     </row>
@@ -3240,7 +3242,7 @@
       <c r="A81" s="10" t="s">
         <v>131</v>
       </c>
-      <c r="B81" s="8">
+      <c r="B81" s="17">
         <v>22.2</v>
       </c>
     </row>
@@ -3248,7 +3250,7 @@
       <c r="A82" s="10" t="s">
         <v>132</v>
       </c>
-      <c r="B82" s="8">
+      <c r="B82" s="17">
         <v>17.100000000000001</v>
       </c>
     </row>
@@ -3256,7 +3258,7 @@
       <c r="A83" s="10" t="s">
         <v>133</v>
       </c>
-      <c r="B83" s="8">
+      <c r="B83" s="17">
         <v>17</v>
       </c>
     </row>
@@ -3264,7 +3266,7 @@
       <c r="A84" s="10" t="s">
         <v>134</v>
       </c>
-      <c r="B84" s="8">
+      <c r="B84" s="17">
         <v>25.4</v>
       </c>
     </row>
@@ -3272,7 +3274,7 @@
       <c r="A85" s="10" t="s">
         <v>135</v>
       </c>
-      <c r="B85" s="8">
+      <c r="B85" s="17">
         <v>25.4</v>
       </c>
     </row>
@@ -3280,7 +3282,7 @@
       <c r="A86" s="10" t="s">
         <v>136</v>
       </c>
-      <c r="B86" s="8">
+      <c r="B86" s="17">
         <v>24.3</v>
       </c>
     </row>
@@ -3288,7 +3290,7 @@
       <c r="A87" s="10" t="s">
         <v>137</v>
       </c>
-      <c r="B87" s="8">
+      <c r="B87" s="17">
         <v>5.8</v>
       </c>
     </row>
@@ -3296,7 +3298,7 @@
       <c r="A88" s="10" t="s">
         <v>138</v>
       </c>
-      <c r="B88" s="8">
+      <c r="B88" s="17">
         <v>5.8</v>
       </c>
     </row>
@@ -3304,7 +3306,7 @@
       <c r="A89" s="10" t="s">
         <v>139</v>
       </c>
-      <c r="B89" s="8">
+      <c r="B89" s="17">
         <v>5.8</v>
       </c>
     </row>
@@ -3312,7 +3314,7 @@
       <c r="A90" s="10" t="s">
         <v>140</v>
       </c>
-      <c r="B90" s="8">
+      <c r="B90" s="17">
         <v>24</v>
       </c>
     </row>
@@ -3320,7 +3322,7 @@
       <c r="A91" s="10" t="s">
         <v>141</v>
       </c>
-      <c r="B91" s="8">
+      <c r="B91" s="17">
         <v>27.1</v>
       </c>
     </row>
@@ -3328,7 +3330,7 @@
       <c r="A92" s="10" t="s">
         <v>142</v>
       </c>
-      <c r="B92" s="8">
+      <c r="B92" s="17">
         <v>11.2</v>
       </c>
     </row>
@@ -3336,7 +3338,7 @@
       <c r="A93" s="10" t="s">
         <v>143</v>
       </c>
-      <c r="B93" s="8">
+      <c r="B93" s="17">
         <v>11.2</v>
       </c>
     </row>
@@ -3344,7 +3346,7 @@
       <c r="A94" s="10" t="s">
         <v>144</v>
       </c>
-      <c r="B94" s="8">
+      <c r="B94" s="17">
         <v>11.2</v>
       </c>
     </row>
@@ -3352,7 +3354,7 @@
       <c r="A95" s="10" t="s">
         <v>145</v>
       </c>
-      <c r="B95" s="8">
+      <c r="B95" s="17">
         <v>10.8</v>
       </c>
     </row>
@@ -3360,7 +3362,7 @@
       <c r="A96" s="10" t="s">
         <v>146</v>
       </c>
-      <c r="B96" s="8">
+      <c r="B96" s="17">
         <v>10.8</v>
       </c>
     </row>
@@ -3368,7 +3370,7 @@
       <c r="A97" s="10" t="s">
         <v>147</v>
       </c>
-      <c r="B97" s="8">
+      <c r="B97" s="17">
         <v>10.8</v>
       </c>
     </row>
@@ -3376,7 +3378,7 @@
       <c r="A98" s="10" t="s">
         <v>148</v>
       </c>
-      <c r="B98" s="8">
+      <c r="B98" s="17">
         <v>11.1</v>
       </c>
     </row>
@@ -3384,7 +3386,7 @@
       <c r="A99" s="10" t="s">
         <v>149</v>
       </c>
-      <c r="B99" s="8">
+      <c r="B99" s="17">
         <v>11</v>
       </c>
     </row>
@@ -3392,7 +3394,7 @@
       <c r="A100" s="10" t="s">
         <v>150</v>
       </c>
-      <c r="B100" s="8">
+      <c r="B100" s="17">
         <v>11</v>
       </c>
     </row>
@@ -3400,7 +3402,7 @@
       <c r="A101" s="10" t="s">
         <v>151</v>
       </c>
-      <c r="B101" s="8">
+      <c r="B101" s="17">
         <v>13.1</v>
       </c>
     </row>
@@ -3408,7 +3410,7 @@
       <c r="A102" s="10" t="s">
         <v>152</v>
       </c>
-      <c r="B102" s="8">
+      <c r="B102" s="17">
         <v>13.1</v>
       </c>
     </row>
@@ -3416,7 +3418,7 @@
       <c r="A103" s="10" t="s">
         <v>153</v>
       </c>
-      <c r="B103" s="8">
+      <c r="B103" s="17">
         <v>13.1</v>
       </c>
     </row>
@@ -3424,7 +3426,7 @@
       <c r="A104" s="10" t="s">
         <v>154</v>
       </c>
-      <c r="B104" s="8">
+      <c r="B104" s="17">
         <v>10</v>
       </c>
     </row>
@@ -3432,7 +3434,7 @@
       <c r="A105" s="10" t="s">
         <v>155</v>
       </c>
-      <c r="B105" s="8">
+      <c r="B105" s="17">
         <v>10</v>
       </c>
     </row>
@@ -3440,7 +3442,7 @@
       <c r="A106" s="10" t="s">
         <v>177</v>
       </c>
-      <c r="B106" s="8">
+      <c r="B106" s="17">
         <v>12.9</v>
       </c>
       <c r="D106" s="14"/>
@@ -3449,7 +3451,7 @@
       <c r="A107" s="10" t="s">
         <v>178</v>
       </c>
-      <c r="B107" s="8">
+      <c r="B107" s="17">
         <v>12.9</v>
       </c>
       <c r="D107" s="14"/>
@@ -3458,7 +3460,7 @@
       <c r="A108" s="10" t="s">
         <v>179</v>
       </c>
-      <c r="B108" s="8">
+      <c r="B108" s="17">
         <v>12.9</v>
       </c>
       <c r="D108" s="14"/>
@@ -3467,7 +3469,7 @@
       <c r="A109" s="10" t="s">
         <v>180</v>
       </c>
-      <c r="B109" s="8">
+      <c r="B109" s="17">
         <v>12.9</v>
       </c>
       <c r="D109" s="14"/>
@@ -3476,7 +3478,7 @@
       <c r="A110" s="10" t="s">
         <v>181</v>
       </c>
-      <c r="B110" s="8">
+      <c r="B110" s="17">
         <v>12.9</v>
       </c>
       <c r="D110" s="14"/>
@@ -3485,7 +3487,7 @@
       <c r="A111" s="10" t="s">
         <v>182</v>
       </c>
-      <c r="B111" s="8">
+      <c r="B111" s="17">
         <v>12.2</v>
       </c>
       <c r="D111" s="14"/>
@@ -3494,7 +3496,7 @@
       <c r="A112" s="10" t="s">
         <v>183</v>
       </c>
-      <c r="B112" s="8">
+      <c r="B112" s="17">
         <v>12.2</v>
       </c>
       <c r="D112" s="14"/>
@@ -3503,7 +3505,7 @@
       <c r="A113" s="10" t="s">
         <v>184</v>
       </c>
-      <c r="B113" s="8">
+      <c r="B113" s="17">
         <v>12.2</v>
       </c>
       <c r="D113" s="14"/>
@@ -3512,7 +3514,7 @@
       <c r="A114" s="10" t="s">
         <v>185</v>
       </c>
-      <c r="B114" s="8">
+      <c r="B114" s="17">
         <v>12.1</v>
       </c>
       <c r="D114" s="14"/>
@@ -3521,7 +3523,7 @@
       <c r="A115" s="10" t="s">
         <v>186</v>
       </c>
-      <c r="B115" s="8">
+      <c r="B115" s="17">
         <v>15.2</v>
       </c>
       <c r="D115" s="14"/>
@@ -3530,7 +3532,7 @@
       <c r="A116" s="10" t="s">
         <v>187</v>
       </c>
-      <c r="B116" s="8">
+      <c r="B116" s="17">
         <v>17.3</v>
       </c>
       <c r="D116" s="14"/>
@@ -3539,7 +3541,7 @@
       <c r="A117" s="10" t="s">
         <v>188</v>
       </c>
-      <c r="B117" s="8">
+      <c r="B117" s="17">
         <v>17.3</v>
       </c>
       <c r="D117" s="14"/>
@@ -3548,7 +3550,7 @@
       <c r="A118" s="10" t="s">
         <v>189</v>
       </c>
-      <c r="B118" s="8">
+      <c r="B118" s="17">
         <v>17.3</v>
       </c>
       <c r="D118" s="14"/>
@@ -3557,7 +3559,7 @@
       <c r="A119" s="10" t="s">
         <v>190</v>
       </c>
-      <c r="B119" s="8">
+      <c r="B119" s="17">
         <v>16.100000000000001</v>
       </c>
       <c r="D119" s="14"/>
@@ -3566,7 +3568,7 @@
       <c r="A120" s="10" t="s">
         <v>191</v>
       </c>
-      <c r="B120" s="8">
+      <c r="B120" s="17">
         <v>17.100000000000001</v>
       </c>
       <c r="D120" s="14"/>
@@ -3575,7 +3577,7 @@
       <c r="A121" s="10" t="s">
         <v>192</v>
       </c>
-      <c r="B121" s="8">
+      <c r="B121" s="17">
         <v>7.8</v>
       </c>
       <c r="D121" s="14"/>
@@ -3584,7 +3586,7 @@
       <c r="A122" s="10" t="s">
         <v>193</v>
       </c>
-      <c r="B122" s="8">
+      <c r="B122" s="17">
         <v>7.8</v>
       </c>
       <c r="D122" s="14"/>
@@ -3593,7 +3595,7 @@
       <c r="A123" s="10" t="s">
         <v>194</v>
       </c>
-      <c r="B123" s="8">
+      <c r="B123" s="17">
         <v>7.8</v>
       </c>
       <c r="D123" s="14"/>
@@ -3602,7 +3604,7 @@
       <c r="A124" s="10" t="s">
         <v>195</v>
       </c>
-      <c r="B124" s="8">
+      <c r="B124" s="17">
         <v>7.8</v>
       </c>
       <c r="D124" s="14"/>
@@ -3611,7 +3613,7 @@
       <c r="A125" s="10" t="s">
         <v>196</v>
       </c>
-      <c r="B125" s="8">
+      <c r="B125" s="17">
         <v>11.4</v>
       </c>
       <c r="D125" s="14"/>
@@ -3620,7 +3622,7 @@
       <c r="A126" s="10" t="s">
         <v>197</v>
       </c>
-      <c r="B126" s="8">
+      <c r="B126" s="17">
         <v>11.2</v>
       </c>
       <c r="D126" s="14"/>
@@ -3629,7 +3631,7 @@
       <c r="A127" s="10" t="s">
         <v>198</v>
       </c>
-      <c r="B127" s="8">
+      <c r="B127" s="17">
         <v>11.4</v>
       </c>
       <c r="D127" s="14"/>
@@ -3638,7 +3640,7 @@
       <c r="A128" s="10" t="s">
         <v>199</v>
       </c>
-      <c r="B128" s="8">
+      <c r="B128" s="17">
         <v>11.4</v>
       </c>
       <c r="D128" s="14"/>
@@ -3647,7 +3649,7 @@
       <c r="A129" s="10" t="s">
         <v>200</v>
       </c>
-      <c r="B129" s="8">
+      <c r="B129" s="17">
         <v>12.9</v>
       </c>
       <c r="D129" s="14"/>
@@ -3656,7 +3658,7 @@
       <c r="A130" s="10" t="s">
         <v>201</v>
       </c>
-      <c r="B130" s="8">
+      <c r="B130" s="17">
         <v>12.9</v>
       </c>
       <c r="D130" s="14"/>
@@ -3665,7 +3667,7 @@
       <c r="A131" s="10" t="s">
         <v>202</v>
       </c>
-      <c r="B131" s="8">
+      <c r="B131" s="17">
         <v>12.8</v>
       </c>
       <c r="D131" s="14"/>
@@ -3674,7 +3676,7 @@
       <c r="A132" s="10" t="s">
         <v>203</v>
       </c>
-      <c r="B132" s="8">
+      <c r="B132" s="17">
         <v>17.5</v>
       </c>
       <c r="D132" s="14"/>
@@ -3683,7 +3685,7 @@
       <c r="A133" s="10" t="s">
         <v>204</v>
       </c>
-      <c r="B133" s="8">
+      <c r="B133" s="17">
         <v>28.2</v>
       </c>
       <c r="D133" s="14"/>
@@ -3692,7 +3694,7 @@
       <c r="A134" s="10" t="s">
         <v>205</v>
       </c>
-      <c r="B134" s="8">
+      <c r="B134" s="17">
         <v>28.2</v>
       </c>
       <c r="D134" s="14"/>
@@ -3701,7 +3703,7 @@
       <c r="A135" s="10" t="s">
         <v>206</v>
       </c>
-      <c r="B135" s="8">
+      <c r="B135" s="17">
         <v>28.2</v>
       </c>
       <c r="D135" s="14"/>
@@ -3710,7 +3712,7 @@
       <c r="A136" s="10" t="s">
         <v>207</v>
       </c>
-      <c r="B136" s="8">
+      <c r="B136" s="17">
         <v>7.9</v>
       </c>
       <c r="D136" s="14"/>
@@ -3719,7 +3721,7 @@
       <c r="A137" s="10" t="s">
         <v>208</v>
       </c>
-      <c r="B137" s="8">
+      <c r="B137" s="17">
         <v>11.6</v>
       </c>
       <c r="D137" s="14"/>
@@ -3728,7 +3730,7 @@
       <c r="A138" s="10" t="s">
         <v>209</v>
       </c>
-      <c r="B138" s="8">
+      <c r="B138" s="17">
         <v>10.1</v>
       </c>
       <c r="D138" s="14"/>
@@ -3737,7 +3739,7 @@
       <c r="A139" s="10" t="s">
         <v>210</v>
       </c>
-      <c r="B139" s="8">
+      <c r="B139" s="17">
         <v>10.1</v>
       </c>
       <c r="D139" s="14"/>
@@ -3746,7 +3748,7 @@
       <c r="A140" s="10" t="s">
         <v>211</v>
       </c>
-      <c r="B140" s="8">
+      <c r="B140" s="17">
         <v>10.1</v>
       </c>
       <c r="D140" s="14"/>
@@ -3755,7 +3757,7 @@
       <c r="A141" s="10" t="s">
         <v>212</v>
       </c>
-      <c r="B141" s="8">
+      <c r="B141" s="17">
         <v>10.199999999999999</v>
       </c>
       <c r="D141" s="14"/>
@@ -3764,7 +3766,7 @@
       <c r="A142" s="10" t="s">
         <v>213</v>
       </c>
-      <c r="B142" s="8">
+      <c r="B142" s="17">
         <v>10.1</v>
       </c>
       <c r="D142" s="14"/>
@@ -3773,7 +3775,7 @@
       <c r="A143" s="10" t="s">
         <v>214</v>
       </c>
-      <c r="B143" s="8">
+      <c r="B143" s="17">
         <v>10</v>
       </c>
       <c r="D143" s="14"/>
@@ -3782,7 +3784,7 @@
       <c r="A144" s="10" t="s">
         <v>215</v>
       </c>
-      <c r="B144" s="8">
+      <c r="B144" s="17">
         <v>10</v>
       </c>
       <c r="D144" s="14"/>
@@ -3791,7 +3793,7 @@
       <c r="A145" s="10" t="s">
         <v>216</v>
       </c>
-      <c r="B145" s="8">
+      <c r="B145" s="17">
         <v>10</v>
       </c>
       <c r="D145" s="14"/>
@@ -3800,7 +3802,7 @@
       <c r="A146" s="10" t="s">
         <v>217</v>
       </c>
-      <c r="B146" s="8">
+      <c r="B146" s="17">
         <v>10</v>
       </c>
       <c r="D146" s="14"/>
@@ -3809,7 +3811,7 @@
       <c r="A147" s="10" t="s">
         <v>218</v>
       </c>
-      <c r="B147" s="8">
+      <c r="B147" s="17">
         <v>10</v>
       </c>
       <c r="D147" s="14"/>
@@ -3818,7 +3820,7 @@
       <c r="A148" s="10" t="s">
         <v>219</v>
       </c>
-      <c r="B148" s="8">
+      <c r="B148" s="17">
         <v>10.1</v>
       </c>
       <c r="D148" s="14"/>
@@ -3827,7 +3829,7 @@
       <c r="A149" s="10" t="s">
         <v>220</v>
       </c>
-      <c r="B149" s="8">
+      <c r="B149" s="17">
         <v>10.3</v>
       </c>
       <c r="D149" s="14"/>
@@ -3836,7 +3838,7 @@
       <c r="A150" s="10" t="s">
         <v>221</v>
       </c>
-      <c r="B150" s="8">
+      <c r="B150" s="17">
         <v>10</v>
       </c>
       <c r="D150" s="14"/>
@@ -3845,7 +3847,7 @@
       <c r="A151" s="10" t="s">
         <v>222</v>
       </c>
-      <c r="B151" s="8">
+      <c r="B151" s="17">
         <v>10.1</v>
       </c>
       <c r="D151" s="14"/>
@@ -3854,7 +3856,7 @@
       <c r="A152" s="10" t="s">
         <v>223</v>
       </c>
-      <c r="B152" s="8">
+      <c r="B152" s="17">
         <v>10.1</v>
       </c>
       <c r="D152" s="14"/>
@@ -3863,7 +3865,7 @@
       <c r="A153" s="10" t="s">
         <v>224</v>
       </c>
-      <c r="B153" s="8">
+      <c r="B153" s="17">
         <v>10.1</v>
       </c>
       <c r="D153" s="14"/>
@@ -3872,7 +3874,7 @@
       <c r="A154" s="10" t="s">
         <v>225</v>
       </c>
-      <c r="B154" s="8">
+      <c r="B154" s="17">
         <v>10</v>
       </c>
       <c r="D154" s="14"/>
@@ -3881,7 +3883,7 @@
       <c r="A155" s="10" t="s">
         <v>226</v>
       </c>
-      <c r="B155" s="8">
+      <c r="B155" s="17">
         <v>10</v>
       </c>
       <c r="D155" s="14"/>
@@ -3890,7 +3892,7 @@
       <c r="A156" s="10" t="s">
         <v>227</v>
       </c>
-      <c r="B156" s="8">
+      <c r="B156" s="17">
         <v>10</v>
       </c>
       <c r="D156" s="14"/>
@@ -3899,7 +3901,7 @@
       <c r="A157" s="10" t="s">
         <v>228</v>
       </c>
-      <c r="B157" s="8">
+      <c r="B157" s="17">
         <v>10</v>
       </c>
       <c r="D157" s="14"/>
@@ -3908,7 +3910,7 @@
       <c r="A158" s="10" t="s">
         <v>229</v>
       </c>
-      <c r="B158" s="8">
+      <c r="B158" s="17">
         <v>9.6</v>
       </c>
       <c r="D158" s="14"/>
@@ -3917,7 +3919,7 @@
       <c r="A159" s="10" t="s">
         <v>230</v>
       </c>
-      <c r="B159" s="8">
+      <c r="B159" s="17">
         <v>9.6</v>
       </c>
       <c r="D159" s="14"/>
@@ -3926,7 +3928,7 @@
       <c r="A160" s="10" t="s">
         <v>231</v>
       </c>
-      <c r="B160" s="8">
+      <c r="B160" s="17">
         <v>9.6</v>
       </c>
       <c r="D160" s="14"/>
@@ -3935,7 +3937,7 @@
       <c r="A161" s="10" t="s">
         <v>232</v>
       </c>
-      <c r="B161" s="8">
+      <c r="B161" s="17">
         <v>9.6</v>
       </c>
       <c r="D161" s="14"/>
@@ -3944,7 +3946,7 @@
       <c r="A162" s="10" t="s">
         <v>233</v>
       </c>
-      <c r="B162" s="8">
+      <c r="B162" s="17">
         <v>9.9</v>
       </c>
       <c r="D162" s="14"/>
@@ -3953,7 +3955,7 @@
       <c r="A163" s="10" t="s">
         <v>234</v>
       </c>
-      <c r="B163" s="8">
+      <c r="B163" s="17">
         <v>9.9</v>
       </c>
       <c r="D163" s="14"/>
@@ -3962,7 +3964,7 @@
       <c r="A164" s="10" t="s">
         <v>235</v>
       </c>
-      <c r="B164" s="8">
+      <c r="B164" s="17">
         <v>9.6</v>
       </c>
       <c r="D164" s="14"/>
@@ -3971,7 +3973,7 @@
       <c r="A165" s="10" t="s">
         <v>236</v>
       </c>
-      <c r="B165" s="8">
+      <c r="B165" s="17">
         <v>9.6</v>
       </c>
       <c r="D165" s="14"/>
@@ -3980,7 +3982,7 @@
       <c r="A166" s="10" t="s">
         <v>237</v>
       </c>
-      <c r="B166" s="8">
+      <c r="B166" s="17">
         <v>9.5</v>
       </c>
       <c r="D166" s="14"/>
@@ -3989,7 +3991,7 @@
       <c r="A167" s="10" t="s">
         <v>238</v>
       </c>
-      <c r="B167" s="8">
+      <c r="B167" s="17">
         <v>9.4</v>
       </c>
       <c r="D167" s="14"/>
@@ -3998,7 +4000,7 @@
       <c r="A168" s="10" t="s">
         <v>239</v>
       </c>
-      <c r="B168" s="8">
+      <c r="B168" s="17">
         <v>9.4</v>
       </c>
       <c r="D168" s="14"/>
@@ -4007,7 +4009,7 @@
       <c r="A169" s="10" t="s">
         <v>240</v>
       </c>
-      <c r="B169" s="8">
+      <c r="B169" s="17">
         <v>9.4</v>
       </c>
       <c r="D169" s="14"/>
@@ -4016,7 +4018,7 @@
       <c r="A170" s="10" t="s">
         <v>241</v>
       </c>
-      <c r="B170" s="8">
+      <c r="B170" s="17">
         <v>9.3000000000000007</v>
       </c>
       <c r="D170" s="14"/>
@@ -4025,7 +4027,7 @@
       <c r="A171" s="10" t="s">
         <v>242</v>
       </c>
-      <c r="B171" s="8">
+      <c r="B171" s="17">
         <v>9.3000000000000007</v>
       </c>
       <c r="D171" s="14"/>
@@ -4034,7 +4036,7 @@
       <c r="A172" s="10" t="s">
         <v>243</v>
       </c>
-      <c r="B172" s="8">
+      <c r="B172" s="17">
         <v>9.3000000000000007</v>
       </c>
       <c r="D172" s="14"/>
@@ -4043,7 +4045,7 @@
       <c r="A173" s="10" t="s">
         <v>244</v>
       </c>
-      <c r="B173" s="8">
+      <c r="B173" s="17">
         <v>9.4</v>
       </c>
       <c r="D173" s="14"/>
@@ -4052,17 +4054,15 @@
       <c r="A174" s="10" t="s">
         <v>245</v>
       </c>
-      <c r="B174" s="8">
+      <c r="B174" s="17">
         <v>9.4</v>
       </c>
       <c r="D174" s="14"/>
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A175" s="10"/>
       <c r="D175" s="14"/>
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A176" s="10"/>
       <c r="D176" s="13"/>
     </row>
   </sheetData>

--- a/Irrigation Dates Depths.xlsx
+++ b/Irrigation Dates Depths.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\seosu\Desktop\Guayule Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DAF0E3B-84F4-46C2-BD30-70BBD9333009}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20BB3E93-0480-497D-8B4F-6E98DB3DACC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2018Depth" sheetId="1" r:id="rId1"/>
@@ -1213,7 +1213,7 @@
   <dimension ref="A1:E123"/>
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1968,8 +1968,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2DEE10A-1309-4C83-B5F7-E001627C82E1}">
   <dimension ref="A1:C71"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="B72" sqref="B72:B84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1993,7 +1993,7 @@
         <v>112</v>
       </c>
       <c r="B2" s="8">
-        <v>11</v>
+        <v>14.5</v>
       </c>
       <c r="C2" s="16"/>
     </row>
@@ -2002,7 +2002,7 @@
         <v>107</v>
       </c>
       <c r="B3" s="8">
-        <v>11</v>
+        <v>7.2</v>
       </c>
       <c r="C3" s="16"/>
     </row>
@@ -2011,7 +2011,7 @@
         <v>108</v>
       </c>
       <c r="B4" s="8">
-        <v>16</v>
+        <v>10.3</v>
       </c>
       <c r="C4" s="16"/>
     </row>
@@ -2020,7 +2020,7 @@
         <v>109</v>
       </c>
       <c r="B5" s="8">
-        <v>16</v>
+        <v>10.3</v>
       </c>
       <c r="C5" s="16"/>
     </row>
@@ -2029,7 +2029,7 @@
         <v>110</v>
       </c>
       <c r="B6" s="8">
-        <v>16</v>
+        <v>10.1</v>
       </c>
       <c r="C6" s="16"/>
     </row>
@@ -2038,7 +2038,7 @@
         <v>113</v>
       </c>
       <c r="B7" s="8">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="C7" s="16"/>
     </row>
@@ -2047,7 +2047,7 @@
         <v>118</v>
       </c>
       <c r="B8" s="8">
-        <v>16</v>
+        <v>10.1</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
@@ -2055,7 +2055,7 @@
         <v>124</v>
       </c>
       <c r="B9" s="8">
-        <v>16</v>
+        <v>9.9</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
@@ -2063,7 +2063,7 @@
         <v>129</v>
       </c>
       <c r="B10" s="8">
-        <v>10.8</v>
+        <v>9.4</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
@@ -2071,7 +2071,7 @@
         <v>132</v>
       </c>
       <c r="B11" s="8">
-        <v>18</v>
+        <v>10.1</v>
       </c>
       <c r="C11" s="16"/>
     </row>
@@ -2080,7 +2080,7 @@
         <v>134</v>
       </c>
       <c r="B12" s="8">
-        <v>18</v>
+        <v>10.1</v>
       </c>
       <c r="C12" s="16"/>
     </row>
@@ -2089,7 +2089,7 @@
         <v>135</v>
       </c>
       <c r="B13" s="8">
-        <v>18</v>
+        <v>9.4</v>
       </c>
       <c r="C13" s="16"/>
     </row>
@@ -2098,7 +2098,7 @@
         <v>256</v>
       </c>
       <c r="B14" s="8">
-        <v>18</v>
+        <v>9.4</v>
       </c>
       <c r="C14" s="16"/>
     </row>
@@ -2107,7 +2107,7 @@
         <v>136</v>
       </c>
       <c r="B15" s="8">
-        <v>18</v>
+        <v>9.4</v>
       </c>
       <c r="C15" s="16"/>
     </row>
@@ -2116,7 +2116,7 @@
         <v>138</v>
       </c>
       <c r="B16" s="8">
-        <v>11</v>
+        <v>9.4</v>
       </c>
       <c r="C16" s="16"/>
     </row>
@@ -2125,7 +2125,7 @@
         <v>139</v>
       </c>
       <c r="B17" s="8">
-        <v>11</v>
+        <v>12.5</v>
       </c>
       <c r="C17" s="16"/>
     </row>
@@ -2134,7 +2134,7 @@
         <v>140</v>
       </c>
       <c r="B18" s="8">
-        <v>11</v>
+        <v>9.4</v>
       </c>
       <c r="C18" s="16"/>
     </row>
@@ -2143,7 +2143,7 @@
         <v>246</v>
       </c>
       <c r="B19" s="8">
-        <v>11</v>
+        <v>9.4</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
@@ -2151,7 +2151,7 @@
         <v>142</v>
       </c>
       <c r="B20" s="8">
-        <v>11</v>
+        <v>9.4</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
@@ -2159,7 +2159,7 @@
         <v>146</v>
       </c>
       <c r="B21" s="8">
-        <v>27.1</v>
+        <v>9.8000000000000007</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
@@ -2167,7 +2167,7 @@
         <v>147</v>
       </c>
       <c r="B22" s="8">
-        <v>28.8</v>
+        <v>9.5</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
@@ -2175,7 +2175,7 @@
         <v>148</v>
       </c>
       <c r="B23" s="8">
-        <v>11.2</v>
+        <v>9.5</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
@@ -2183,7 +2183,7 @@
         <v>247</v>
       </c>
       <c r="B24" s="8">
-        <v>11.2</v>
+        <v>9.5</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
@@ -2191,7 +2191,7 @@
         <v>150</v>
       </c>
       <c r="B25" s="8">
-        <v>11.2</v>
+        <v>9.9</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
@@ -2199,7 +2199,7 @@
         <v>151</v>
       </c>
       <c r="B26" s="8">
-        <v>14.2</v>
+        <v>14.4</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
@@ -2207,7 +2207,7 @@
         <v>152</v>
       </c>
       <c r="B27" s="8">
-        <v>11</v>
+        <v>14.4</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
@@ -2215,7 +2215,7 @@
         <v>153</v>
       </c>
       <c r="B28" s="8">
-        <v>11</v>
+        <v>14.3</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
@@ -2223,7 +2223,7 @@
         <v>248</v>
       </c>
       <c r="B29" s="8">
-        <v>23.7</v>
+        <v>13.9</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
@@ -2231,7 +2231,7 @@
         <v>155</v>
       </c>
       <c r="B30" s="8">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
@@ -2239,7 +2239,7 @@
         <v>178</v>
       </c>
       <c r="B31" s="8">
-        <v>16</v>
+        <v>13.7</v>
       </c>
       <c r="C31" s="16"/>
     </row>
@@ -2248,7 +2248,7 @@
         <v>257</v>
       </c>
       <c r="B32" s="8">
-        <v>16</v>
+        <v>13.9</v>
       </c>
       <c r="C32" s="16"/>
     </row>
@@ -2257,7 +2257,7 @@
         <v>182</v>
       </c>
       <c r="B33" s="8">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C33" s="16"/>
     </row>
@@ -2266,7 +2266,7 @@
         <v>185</v>
       </c>
       <c r="B34" s="8">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="C34" s="16"/>
     </row>
@@ -2275,7 +2275,7 @@
         <v>186</v>
       </c>
       <c r="B35" s="8">
-        <v>8.1999999999999993</v>
+        <v>13.8</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
@@ -2283,7 +2283,7 @@
         <v>187</v>
       </c>
       <c r="B36" s="8">
-        <v>10.7</v>
+        <v>13.7</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
@@ -2291,7 +2291,7 @@
         <v>189</v>
       </c>
       <c r="B37" s="8">
-        <v>10.7</v>
+        <v>13.7</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
@@ -2299,7 +2299,7 @@
         <v>192</v>
       </c>
       <c r="B38" s="8">
-        <v>12.2</v>
+        <v>13.7</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
@@ -2307,7 +2307,7 @@
         <v>193</v>
       </c>
       <c r="B39" s="8">
-        <v>12.2</v>
+        <v>13.7</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.3">
@@ -2315,7 +2315,7 @@
         <v>194</v>
       </c>
       <c r="B40" s="8">
-        <v>12.2</v>
+        <v>9.5</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.3">
@@ -2323,7 +2323,7 @@
         <v>196</v>
       </c>
       <c r="B41" s="8">
-        <v>12</v>
+        <v>9.5</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.3">
@@ -2331,7 +2331,7 @@
         <v>197</v>
       </c>
       <c r="B42" s="8">
-        <v>12</v>
+        <v>9.5</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.3">
@@ -2339,7 +2339,7 @@
         <v>198</v>
       </c>
       <c r="B43" s="8">
-        <v>12</v>
+        <v>9.5</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.3">
@@ -2347,7 +2347,7 @@
         <v>199</v>
       </c>
       <c r="B44" s="8">
-        <v>12</v>
+        <v>9.5</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.3">
@@ -2355,7 +2355,7 @@
         <v>258</v>
       </c>
       <c r="B45" s="8">
-        <v>12</v>
+        <v>9.5</v>
       </c>
       <c r="C45" s="16"/>
     </row>
@@ -2364,7 +2364,7 @@
         <v>260</v>
       </c>
       <c r="B46" s="8">
-        <v>12</v>
+        <v>9.4</v>
       </c>
       <c r="C46" s="16"/>
     </row>
@@ -2373,7 +2373,7 @@
         <v>259</v>
       </c>
       <c r="B47" s="8">
-        <v>12</v>
+        <v>9.4</v>
       </c>
       <c r="C47" s="16"/>
     </row>
@@ -2382,7 +2382,7 @@
         <v>261</v>
       </c>
       <c r="B48" s="8">
-        <v>12</v>
+        <v>9.4</v>
       </c>
       <c r="C48" s="16"/>
     </row>
@@ -2391,7 +2391,7 @@
         <v>205</v>
       </c>
       <c r="B49" s="8">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C49" s="16"/>
     </row>
@@ -2400,7 +2400,7 @@
         <v>206</v>
       </c>
       <c r="B50" s="8">
-        <v>18</v>
+        <v>13.9</v>
       </c>
       <c r="C50" s="16"/>
     </row>
@@ -2409,7 +2409,7 @@
         <v>249</v>
       </c>
       <c r="B51" s="8">
-        <v>12</v>
+        <v>13.9</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.3">
@@ -2417,7 +2417,7 @@
         <v>250</v>
       </c>
       <c r="B52" s="8">
-        <v>12</v>
+        <v>13.9</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.3">
@@ -2425,7 +2425,7 @@
         <v>251</v>
       </c>
       <c r="B53" s="8">
-        <v>12</v>
+        <v>13.9</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.3">
@@ -2433,7 +2433,7 @@
         <v>252</v>
       </c>
       <c r="B54" s="8">
-        <v>24</v>
+        <v>13.9</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.3">
@@ -2441,7 +2441,7 @@
         <v>253</v>
       </c>
       <c r="B55" s="8">
-        <v>24</v>
+        <v>11.4</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.3">
@@ -2449,7 +2449,7 @@
         <v>208</v>
       </c>
       <c r="B56" s="8">
-        <v>12</v>
+        <v>11.4</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.3">
@@ -2457,7 +2457,7 @@
         <v>209</v>
       </c>
       <c r="B57" s="8">
-        <v>12</v>
+        <v>11.4</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.3">
@@ -2465,7 +2465,7 @@
         <v>210</v>
       </c>
       <c r="B58" s="8">
-        <v>12</v>
+        <v>11.4</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.3">
@@ -2473,7 +2473,7 @@
         <v>211</v>
       </c>
       <c r="B59" s="8">
-        <v>12</v>
+        <v>11.4</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.3">
@@ -2481,7 +2481,7 @@
         <v>213</v>
       </c>
       <c r="B60" s="8">
-        <v>24</v>
+        <v>11.4</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.3">
@@ -2489,7 +2489,7 @@
         <v>214</v>
       </c>
       <c r="B61" s="8">
-        <v>12</v>
+        <v>11.4</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.3">
@@ -2497,7 +2497,7 @@
         <v>215</v>
       </c>
       <c r="B62" s="8">
-        <v>12</v>
+        <v>16.2</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.3">
@@ -2505,7 +2505,7 @@
         <v>218</v>
       </c>
       <c r="B63" s="8">
-        <v>12</v>
+        <v>16.2</v>
       </c>
       <c r="C63" s="16"/>
     </row>
@@ -2514,7 +2514,7 @@
         <v>254</v>
       </c>
       <c r="B64" s="8">
-        <v>31</v>
+        <v>16.2</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.3">
@@ -2522,7 +2522,7 @@
         <v>255</v>
       </c>
       <c r="B65" s="8">
-        <v>31</v>
+        <v>16.2</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.3">
@@ -2530,7 +2530,7 @@
         <v>234</v>
       </c>
       <c r="B66" s="8">
-        <v>12</v>
+        <v>16.2</v>
       </c>
       <c r="C66" s="16"/>
     </row>
@@ -2539,7 +2539,7 @@
         <v>236</v>
       </c>
       <c r="B67" s="8">
-        <v>24</v>
+        <v>16.2</v>
       </c>
       <c r="C67" s="16"/>
     </row>
@@ -2548,7 +2548,7 @@
         <v>239</v>
       </c>
       <c r="B68" s="8">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C68" s="16"/>
     </row>
@@ -2557,7 +2557,7 @@
         <v>242</v>
       </c>
       <c r="B69" s="8">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C69" s="16"/>
     </row>
@@ -2566,7 +2566,7 @@
         <v>243</v>
       </c>
       <c r="B70" s="8">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.3">
@@ -2574,7 +2574,7 @@
         <v>245</v>
       </c>
       <c r="B71" s="8">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -2586,8 +2586,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12AA9BAA-E3F5-40EE-BC7B-22893B26F7D0}">
   <dimension ref="A1:D176"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A166" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="A174" sqref="A174"/>
+    <sheetView topLeftCell="A68" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Irrigation Dates Depths.xlsx
+++ b/Irrigation Dates Depths.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\seosu\Desktop\Guayule Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20BB3E93-0480-497D-8B4F-6E98DB3DACC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35DA6EEC-556F-4776-ABDF-1302BBD50D6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="813" uniqueCount="262">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="916" uniqueCount="246">
   <si>
     <t>Date</t>
   </si>
@@ -779,54 +779,6 @@
   </si>
   <si>
     <t>15/11/2019</t>
-  </si>
-  <si>
-    <t>13/7/2019</t>
-  </si>
-  <si>
-    <t>23/7/2019</t>
-  </si>
-  <si>
-    <t>29/7/2019</t>
-  </si>
-  <si>
-    <t>13/9/2019</t>
-  </si>
-  <si>
-    <t>14/9/2019</t>
-  </si>
-  <si>
-    <t>15/9/2019</t>
-  </si>
-  <si>
-    <t>18/9/2019</t>
-  </si>
-  <si>
-    <t>19/9/2019</t>
-  </si>
-  <si>
-    <t>28/10/2019</t>
-  </si>
-  <si>
-    <t>30/10/2019</t>
-  </si>
-  <si>
-    <t>6/7/2019</t>
-  </si>
-  <si>
-    <t>8/8/2019</t>
-  </si>
-  <si>
-    <t>1/9/2019</t>
-  </si>
-  <si>
-    <t>3/9/2019</t>
-  </si>
-  <si>
-    <t>2/9/2019</t>
-  </si>
-  <si>
-    <t>4/9/2019</t>
   </si>
 </sst>
 </file>
@@ -1966,10 +1918,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2DEE10A-1309-4C83-B5F7-E001627C82E1}">
-  <dimension ref="A1:C71"/>
+  <dimension ref="A1:C174"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="B72" sqref="B72:B84"/>
+    <sheetView tabSelected="1" topLeftCell="A160" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1990,7 +1942,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="10" t="s">
-        <v>112</v>
+        <v>176</v>
       </c>
       <c r="B2" s="8">
         <v>14.5</v>
@@ -1999,7 +1951,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="10" t="s">
-        <v>107</v>
+        <v>68</v>
       </c>
       <c r="B3" s="8">
         <v>7.2</v>
@@ -2008,7 +1960,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="10" t="s">
-        <v>108</v>
+        <v>69</v>
       </c>
       <c r="B4" s="8">
         <v>10.3</v>
@@ -2017,7 +1969,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="10" t="s">
-        <v>109</v>
+        <v>70</v>
       </c>
       <c r="B5" s="8">
         <v>10.3</v>
@@ -2026,7 +1978,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="10" t="s">
-        <v>110</v>
+        <v>71</v>
       </c>
       <c r="B6" s="8">
         <v>10.1</v>
@@ -2035,7 +1987,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="10" t="s">
-        <v>113</v>
+        <v>72</v>
       </c>
       <c r="B7" s="8">
         <v>10</v>
@@ -2044,7 +1996,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="10" t="s">
-        <v>118</v>
+        <v>73</v>
       </c>
       <c r="B8" s="8">
         <v>10.1</v>
@@ -2052,7 +2004,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="10" t="s">
-        <v>124</v>
+        <v>74</v>
       </c>
       <c r="B9" s="8">
         <v>9.9</v>
@@ -2060,7 +2012,7 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="10" t="s">
-        <v>129</v>
+        <v>75</v>
       </c>
       <c r="B10" s="8">
         <v>9.4</v>
@@ -2068,7 +2020,7 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="10" t="s">
-        <v>132</v>
+        <v>76</v>
       </c>
       <c r="B11" s="8">
         <v>10.1</v>
@@ -2077,7 +2029,7 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="10" t="s">
-        <v>134</v>
+        <v>77</v>
       </c>
       <c r="B12" s="8">
         <v>10.1</v>
@@ -2086,7 +2038,7 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="10" t="s">
-        <v>135</v>
+        <v>163</v>
       </c>
       <c r="B13" s="8">
         <v>9.4</v>
@@ -2095,7 +2047,7 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="10" t="s">
-        <v>256</v>
+        <v>158</v>
       </c>
       <c r="B14" s="8">
         <v>9.4</v>
@@ -2104,7 +2056,7 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="10" t="s">
-        <v>136</v>
+        <v>159</v>
       </c>
       <c r="B15" s="8">
         <v>9.4</v>
@@ -2113,7 +2065,7 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="10" t="s">
-        <v>138</v>
+        <v>160</v>
       </c>
       <c r="B16" s="8">
         <v>9.4</v>
@@ -2122,7 +2074,7 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="10" t="s">
-        <v>139</v>
+        <v>161</v>
       </c>
       <c r="B17" s="8">
         <v>12.5</v>
@@ -2131,7 +2083,7 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="10" t="s">
-        <v>140</v>
+        <v>162</v>
       </c>
       <c r="B18" s="8">
         <v>9.4</v>
@@ -2140,7 +2092,7 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="10" t="s">
-        <v>246</v>
+        <v>78</v>
       </c>
       <c r="B19" s="8">
         <v>9.4</v>
@@ -2148,7 +2100,7 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="10" t="s">
-        <v>142</v>
+        <v>79</v>
       </c>
       <c r="B20" s="8">
         <v>9.4</v>
@@ -2156,7 +2108,7 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="10" t="s">
-        <v>146</v>
+        <v>80</v>
       </c>
       <c r="B21" s="8">
         <v>9.8000000000000007</v>
@@ -2164,7 +2116,7 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="10" t="s">
-        <v>147</v>
+        <v>81</v>
       </c>
       <c r="B22" s="8">
         <v>9.5</v>
@@ -2172,7 +2124,7 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="10" t="s">
-        <v>148</v>
+        <v>82</v>
       </c>
       <c r="B23" s="8">
         <v>9.5</v>
@@ -2180,7 +2132,7 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="10" t="s">
-        <v>247</v>
+        <v>83</v>
       </c>
       <c r="B24" s="8">
         <v>9.5</v>
@@ -2188,7 +2140,7 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="10" t="s">
-        <v>150</v>
+        <v>84</v>
       </c>
       <c r="B25" s="8">
         <v>9.9</v>
@@ -2196,7 +2148,7 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="10" t="s">
-        <v>151</v>
+        <v>85</v>
       </c>
       <c r="B26" s="8">
         <v>14.4</v>
@@ -2204,7 +2156,7 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" s="10" t="s">
-        <v>152</v>
+        <v>86</v>
       </c>
       <c r="B27" s="8">
         <v>14.4</v>
@@ -2212,7 +2164,7 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" s="10" t="s">
-        <v>153</v>
+        <v>87</v>
       </c>
       <c r="B28" s="8">
         <v>14.3</v>
@@ -2220,7 +2172,7 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" s="10" t="s">
-        <v>248</v>
+        <v>88</v>
       </c>
       <c r="B29" s="8">
         <v>13.9</v>
@@ -2228,7 +2180,7 @@
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" s="10" t="s">
-        <v>155</v>
+        <v>89</v>
       </c>
       <c r="B30" s="8">
         <v>14</v>
@@ -2236,7 +2188,7 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" s="10" t="s">
-        <v>178</v>
+        <v>90</v>
       </c>
       <c r="B31" s="8">
         <v>13.7</v>
@@ -2245,7 +2197,7 @@
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" s="10" t="s">
-        <v>257</v>
+        <v>164</v>
       </c>
       <c r="B32" s="8">
         <v>13.9</v>
@@ -2254,7 +2206,7 @@
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" s="10" t="s">
-        <v>182</v>
+        <v>165</v>
       </c>
       <c r="B33" s="8">
         <v>14</v>
@@ -2263,7 +2215,7 @@
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" s="10" t="s">
-        <v>185</v>
+        <v>166</v>
       </c>
       <c r="B34" s="8">
         <v>14</v>
@@ -2272,7 +2224,7 @@
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" s="10" t="s">
-        <v>186</v>
+        <v>167</v>
       </c>
       <c r="B35" s="8">
         <v>13.8</v>
@@ -2280,7 +2232,7 @@
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" s="10" t="s">
-        <v>187</v>
+        <v>168</v>
       </c>
       <c r="B36" s="8">
         <v>13.7</v>
@@ -2288,7 +2240,7 @@
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" s="10" t="s">
-        <v>189</v>
+        <v>169</v>
       </c>
       <c r="B37" s="8">
         <v>13.7</v>
@@ -2296,7 +2248,7 @@
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" s="10" t="s">
-        <v>192</v>
+        <v>170</v>
       </c>
       <c r="B38" s="8">
         <v>13.7</v>
@@ -2304,7 +2256,7 @@
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" s="10" t="s">
-        <v>193</v>
+        <v>171</v>
       </c>
       <c r="B39" s="8">
         <v>13.7</v>
@@ -2312,7 +2264,7 @@
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" s="10" t="s">
-        <v>194</v>
+        <v>91</v>
       </c>
       <c r="B40" s="8">
         <v>9.5</v>
@@ -2320,7 +2272,7 @@
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" s="10" t="s">
-        <v>196</v>
+        <v>92</v>
       </c>
       <c r="B41" s="8">
         <v>9.5</v>
@@ -2328,7 +2280,7 @@
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" s="10" t="s">
-        <v>197</v>
+        <v>93</v>
       </c>
       <c r="B42" s="8">
         <v>9.5</v>
@@ -2336,7 +2288,7 @@
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" s="10" t="s">
-        <v>198</v>
+        <v>94</v>
       </c>
       <c r="B43" s="8">
         <v>9.5</v>
@@ -2344,7 +2296,7 @@
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44" s="10" t="s">
-        <v>199</v>
+        <v>95</v>
       </c>
       <c r="B44" s="8">
         <v>9.5</v>
@@ -2352,7 +2304,7 @@
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45" s="10" t="s">
-        <v>258</v>
+        <v>96</v>
       </c>
       <c r="B45" s="8">
         <v>9.5</v>
@@ -2361,7 +2313,7 @@
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46" s="10" t="s">
-        <v>260</v>
+        <v>97</v>
       </c>
       <c r="B46" s="8">
         <v>9.4</v>
@@ -2370,7 +2322,7 @@
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47" s="10" t="s">
-        <v>259</v>
+        <v>98</v>
       </c>
       <c r="B47" s="8">
         <v>9.4</v>
@@ -2379,7 +2331,7 @@
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48" s="10" t="s">
-        <v>261</v>
+        <v>99</v>
       </c>
       <c r="B48" s="8">
         <v>9.4</v>
@@ -2388,7 +2340,7 @@
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49" s="10" t="s">
-        <v>205</v>
+        <v>100</v>
       </c>
       <c r="B49" s="8">
         <v>10</v>
@@ -2397,7 +2349,7 @@
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50" s="10" t="s">
-        <v>206</v>
+        <v>101</v>
       </c>
       <c r="B50" s="8">
         <v>13.9</v>
@@ -2406,7 +2358,7 @@
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51" s="10" t="s">
-        <v>249</v>
+        <v>102</v>
       </c>
       <c r="B51" s="8">
         <v>13.9</v>
@@ -2414,7 +2366,7 @@
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52" s="10" t="s">
-        <v>250</v>
+        <v>103</v>
       </c>
       <c r="B52" s="8">
         <v>13.9</v>
@@ -2422,7 +2374,7 @@
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53" s="10" t="s">
-        <v>251</v>
+        <v>104</v>
       </c>
       <c r="B53" s="8">
         <v>13.9</v>
@@ -2430,7 +2382,7 @@
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A54" s="10" t="s">
-        <v>252</v>
+        <v>105</v>
       </c>
       <c r="B54" s="8">
         <v>13.9</v>
@@ -2438,7 +2390,7 @@
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A55" s="10" t="s">
-        <v>253</v>
+        <v>106</v>
       </c>
       <c r="B55" s="8">
         <v>11.4</v>
@@ -2446,7 +2398,7 @@
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A56" s="10" t="s">
-        <v>208</v>
+        <v>111</v>
       </c>
       <c r="B56" s="8">
         <v>11.4</v>
@@ -2454,7 +2406,7 @@
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A57" s="10" t="s">
-        <v>209</v>
+        <v>112</v>
       </c>
       <c r="B57" s="8">
         <v>11.4</v>
@@ -2462,7 +2414,7 @@
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A58" s="10" t="s">
-        <v>210</v>
+        <v>107</v>
       </c>
       <c r="B58" s="8">
         <v>11.4</v>
@@ -2470,7 +2422,7 @@
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A59" s="10" t="s">
-        <v>211</v>
+        <v>108</v>
       </c>
       <c r="B59" s="8">
         <v>11.4</v>
@@ -2478,7 +2430,7 @@
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A60" s="10" t="s">
-        <v>213</v>
+        <v>109</v>
       </c>
       <c r="B60" s="8">
         <v>11.4</v>
@@ -2486,7 +2438,7 @@
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A61" s="10" t="s">
-        <v>214</v>
+        <v>110</v>
       </c>
       <c r="B61" s="8">
         <v>11.4</v>
@@ -2494,7 +2446,7 @@
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A62" s="10" t="s">
-        <v>215</v>
+        <v>113</v>
       </c>
       <c r="B62" s="8">
         <v>16.2</v>
@@ -2502,7 +2454,7 @@
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A63" s="10" t="s">
-        <v>218</v>
+        <v>114</v>
       </c>
       <c r="B63" s="8">
         <v>16.2</v>
@@ -2511,7 +2463,7 @@
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A64" s="10" t="s">
-        <v>254</v>
+        <v>115</v>
       </c>
       <c r="B64" s="8">
         <v>16.2</v>
@@ -2519,7 +2471,7 @@
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A65" s="10" t="s">
-        <v>255</v>
+        <v>116</v>
       </c>
       <c r="B65" s="8">
         <v>16.2</v>
@@ -2527,7 +2479,7 @@
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A66" s="10" t="s">
-        <v>234</v>
+        <v>117</v>
       </c>
       <c r="B66" s="8">
         <v>16.2</v>
@@ -2536,7 +2488,7 @@
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A67" s="10" t="s">
-        <v>236</v>
+        <v>118</v>
       </c>
       <c r="B67" s="8">
         <v>16.2</v>
@@ -2545,7 +2497,7 @@
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A68" s="10" t="s">
-        <v>239</v>
+        <v>119</v>
       </c>
       <c r="B68" s="8">
         <v>11</v>
@@ -2554,7 +2506,7 @@
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A69" s="10" t="s">
-        <v>242</v>
+        <v>120</v>
       </c>
       <c r="B69" s="8">
         <v>11</v>
@@ -2563,7 +2515,7 @@
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A70" s="10" t="s">
-        <v>243</v>
+        <v>121</v>
       </c>
       <c r="B70" s="8">
         <v>11</v>
@@ -2571,10 +2523,834 @@
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A71" s="10" t="s">
-        <v>245</v>
+        <v>122</v>
       </c>
       <c r="B71" s="8">
         <v>11</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A72" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="B72" s="8">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A73" s="10" t="s">
+        <v>124</v>
+      </c>
+      <c r="B73" s="8">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A74" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="B74" s="8">
+        <v>9.1999999999999993</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A75" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="B75" s="8">
+        <v>9.1999999999999993</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A76" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="B76" s="8">
+        <v>9.1999999999999993</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A77" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="B77" s="8">
+        <v>9.1999999999999993</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A78" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="B78" s="8">
+        <v>9.1999999999999993</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A79" s="10" t="s">
+        <v>130</v>
+      </c>
+      <c r="B79" s="8">
+        <v>9.1999999999999993</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A80" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="B80" s="8">
+        <v>9.1999999999999993</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A81" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="B81" s="8">
+        <v>22.2</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A82" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="B82" s="8">
+        <v>17.100000000000001</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A83" s="10" t="s">
+        <v>133</v>
+      </c>
+      <c r="B83" s="8">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A84" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="B84" s="8">
+        <v>25.4</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A85" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="B85" s="8">
+        <v>25.4</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A86" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="B86" s="8">
+        <v>24.3</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A87" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="B87" s="8">
+        <v>5.8</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A88" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="B88" s="8">
+        <v>5.8</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A89" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="B89" s="8">
+        <v>5.8</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A90" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="B90" s="8">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A91" s="10" t="s">
+        <v>141</v>
+      </c>
+      <c r="B91" s="8">
+        <v>27.1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A92" s="10" t="s">
+        <v>142</v>
+      </c>
+      <c r="B92" s="8">
+        <v>11.2</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A93" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="B93" s="8">
+        <v>11.2</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A94" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="B94" s="8">
+        <v>11.2</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A95" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="B95" s="8">
+        <v>10.8</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A96" s="10" t="s">
+        <v>146</v>
+      </c>
+      <c r="B96" s="8">
+        <v>10.8</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A97" s="10" t="s">
+        <v>147</v>
+      </c>
+      <c r="B97" s="8">
+        <v>10.8</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A98" s="10" t="s">
+        <v>148</v>
+      </c>
+      <c r="B98" s="8">
+        <v>11.1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A99" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="B99" s="8">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A100" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="B100" s="8">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A101" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="B101" s="8">
+        <v>13.1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A102" s="10" t="s">
+        <v>152</v>
+      </c>
+      <c r="B102" s="8">
+        <v>13.1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A103" s="10" t="s">
+        <v>153</v>
+      </c>
+      <c r="B103" s="8">
+        <v>13.1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A104" s="10" t="s">
+        <v>154</v>
+      </c>
+      <c r="B104" s="8">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A105" s="10" t="s">
+        <v>155</v>
+      </c>
+      <c r="B105" s="8">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A106" s="10" t="s">
+        <v>177</v>
+      </c>
+      <c r="B106" s="8">
+        <v>12.9</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A107" s="10" t="s">
+        <v>178</v>
+      </c>
+      <c r="B107" s="8">
+        <v>12.9</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A108" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="B108" s="8">
+        <v>12.9</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A109" s="10" t="s">
+        <v>180</v>
+      </c>
+      <c r="B109" s="8">
+        <v>12.9</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A110" s="10" t="s">
+        <v>181</v>
+      </c>
+      <c r="B110" s="8">
+        <v>12.9</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A111" s="10" t="s">
+        <v>182</v>
+      </c>
+      <c r="B111" s="8">
+        <v>12.2</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A112" s="10" t="s">
+        <v>183</v>
+      </c>
+      <c r="B112" s="8">
+        <v>12.2</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A113" s="10" t="s">
+        <v>184</v>
+      </c>
+      <c r="B113" s="8">
+        <v>12.2</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A114" s="10" t="s">
+        <v>185</v>
+      </c>
+      <c r="B114" s="8">
+        <v>12.1</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A115" s="10" t="s">
+        <v>186</v>
+      </c>
+      <c r="B115" s="8">
+        <v>15.2</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A116" s="10" t="s">
+        <v>187</v>
+      </c>
+      <c r="B116" s="8">
+        <v>17.3</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A117" s="10" t="s">
+        <v>188</v>
+      </c>
+      <c r="B117" s="8">
+        <v>17.3</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A118" s="10" t="s">
+        <v>189</v>
+      </c>
+      <c r="B118" s="8">
+        <v>17.3</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A119" s="10" t="s">
+        <v>190</v>
+      </c>
+      <c r="B119" s="8">
+        <v>16.100000000000001</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A120" s="10" t="s">
+        <v>191</v>
+      </c>
+      <c r="B120" s="8">
+        <v>17.100000000000001</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A121" s="10" t="s">
+        <v>192</v>
+      </c>
+      <c r="B121" s="8">
+        <v>7.8</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A122" s="10" t="s">
+        <v>193</v>
+      </c>
+      <c r="B122" s="8">
+        <v>7.8</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A123" s="10" t="s">
+        <v>194</v>
+      </c>
+      <c r="B123" s="8">
+        <v>7.8</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A124" s="10" t="s">
+        <v>195</v>
+      </c>
+      <c r="B124" s="8">
+        <v>7.8</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A125" s="10" t="s">
+        <v>196</v>
+      </c>
+      <c r="B125" s="8">
+        <v>11.4</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A126" s="10" t="s">
+        <v>197</v>
+      </c>
+      <c r="B126" s="8">
+        <v>11.2</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A127" s="10" t="s">
+        <v>198</v>
+      </c>
+      <c r="B127" s="8">
+        <v>11.4</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A128" s="10" t="s">
+        <v>199</v>
+      </c>
+      <c r="B128" s="8">
+        <v>11.4</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A129" s="10" t="s">
+        <v>200</v>
+      </c>
+      <c r="B129" s="8">
+        <v>12.9</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A130" s="10" t="s">
+        <v>201</v>
+      </c>
+      <c r="B130" s="8">
+        <v>12.9</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A131" s="10" t="s">
+        <v>202</v>
+      </c>
+      <c r="B131" s="8">
+        <v>12.8</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A132" s="10" t="s">
+        <v>203</v>
+      </c>
+      <c r="B132" s="8">
+        <v>17.5</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A133" s="10" t="s">
+        <v>204</v>
+      </c>
+      <c r="B133" s="8">
+        <v>28.2</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A134" s="10" t="s">
+        <v>205</v>
+      </c>
+      <c r="B134" s="8">
+        <v>28.2</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A135" s="10" t="s">
+        <v>206</v>
+      </c>
+      <c r="B135" s="8">
+        <v>28.2</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A136" s="10" t="s">
+        <v>207</v>
+      </c>
+      <c r="B136" s="8">
+        <v>7.9</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A137" s="10" t="s">
+        <v>208</v>
+      </c>
+      <c r="B137" s="8">
+        <v>11.6</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A138" s="10" t="s">
+        <v>209</v>
+      </c>
+      <c r="B138" s="8">
+        <v>10.1</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A139" s="10" t="s">
+        <v>210</v>
+      </c>
+      <c r="B139" s="8">
+        <v>10.1</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A140" s="10" t="s">
+        <v>211</v>
+      </c>
+      <c r="B140" s="8">
+        <v>10.1</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A141" s="10" t="s">
+        <v>212</v>
+      </c>
+      <c r="B141" s="8">
+        <v>10.199999999999999</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A142" s="10" t="s">
+        <v>213</v>
+      </c>
+      <c r="B142" s="8">
+        <v>10.1</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A143" s="10" t="s">
+        <v>214</v>
+      </c>
+      <c r="B143" s="8">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A144" s="10" t="s">
+        <v>215</v>
+      </c>
+      <c r="B144" s="8">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A145" s="10" t="s">
+        <v>216</v>
+      </c>
+      <c r="B145" s="8">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A146" s="10" t="s">
+        <v>217</v>
+      </c>
+      <c r="B146" s="8">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A147" s="10" t="s">
+        <v>218</v>
+      </c>
+      <c r="B147" s="8">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A148" s="10" t="s">
+        <v>219</v>
+      </c>
+      <c r="B148" s="8">
+        <v>10.1</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A149" s="10" t="s">
+        <v>220</v>
+      </c>
+      <c r="B149" s="8">
+        <v>10.3</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A150" s="10" t="s">
+        <v>221</v>
+      </c>
+      <c r="B150" s="8">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A151" s="10" t="s">
+        <v>222</v>
+      </c>
+      <c r="B151" s="8">
+        <v>10.1</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A152" s="10" t="s">
+        <v>223</v>
+      </c>
+      <c r="B152" s="8">
+        <v>10.1</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A153" s="10" t="s">
+        <v>224</v>
+      </c>
+      <c r="B153" s="8">
+        <v>10.1</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A154" s="10" t="s">
+        <v>225</v>
+      </c>
+      <c r="B154" s="8">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A155" s="10" t="s">
+        <v>226</v>
+      </c>
+      <c r="B155" s="8">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A156" s="10" t="s">
+        <v>227</v>
+      </c>
+      <c r="B156" s="8">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A157" s="10" t="s">
+        <v>228</v>
+      </c>
+      <c r="B157" s="8">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A158" s="10" t="s">
+        <v>229</v>
+      </c>
+      <c r="B158" s="8">
+        <v>9.6</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A159" s="10" t="s">
+        <v>230</v>
+      </c>
+      <c r="B159" s="8">
+        <v>9.6</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A160" s="10" t="s">
+        <v>231</v>
+      </c>
+      <c r="B160" s="8">
+        <v>9.6</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A161" s="10" t="s">
+        <v>232</v>
+      </c>
+      <c r="B161" s="8">
+        <v>9.6</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A162" s="10" t="s">
+        <v>233</v>
+      </c>
+      <c r="B162" s="8">
+        <v>9.9</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A163" s="10" t="s">
+        <v>234</v>
+      </c>
+      <c r="B163" s="8">
+        <v>9.9</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A164" s="10" t="s">
+        <v>235</v>
+      </c>
+      <c r="B164" s="8">
+        <v>9.6</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A165" s="10" t="s">
+        <v>236</v>
+      </c>
+      <c r="B165" s="8">
+        <v>9.6</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A166" s="10" t="s">
+        <v>237</v>
+      </c>
+      <c r="B166" s="8">
+        <v>9.5</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A167" s="10" t="s">
+        <v>238</v>
+      </c>
+      <c r="B167" s="8">
+        <v>9.4</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A168" s="10" t="s">
+        <v>239</v>
+      </c>
+      <c r="B168" s="8">
+        <v>9.4</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A169" s="10" t="s">
+        <v>240</v>
+      </c>
+      <c r="B169" s="8">
+        <v>9.4</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A170" s="10" t="s">
+        <v>241</v>
+      </c>
+      <c r="B170" s="8">
+        <v>9.3000000000000007</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A171" s="10" t="s">
+        <v>242</v>
+      </c>
+      <c r="B171" s="8">
+        <v>9.3000000000000007</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A172" s="10" t="s">
+        <v>243</v>
+      </c>
+      <c r="B172" s="8">
+        <v>9.3000000000000007</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A173" s="10" t="s">
+        <v>244</v>
+      </c>
+      <c r="B173" s="8">
+        <v>9.4</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A174" s="10" t="s">
+        <v>245</v>
+      </c>
+      <c r="B174" s="8">
+        <v>9.4</v>
       </c>
     </row>
   </sheetData>
@@ -2586,8 +3362,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12AA9BAA-E3F5-40EE-BC7B-22893B26F7D0}">
   <dimension ref="A1:D176"/>
   <sheetViews>
-    <sheetView topLeftCell="A68" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B83"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection sqref="A1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Irrigation Dates Depths.xlsx
+++ b/Irrigation Dates Depths.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\seosu\Desktop\Guayule Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35DA6EEC-556F-4776-ABDF-1302BBD50D6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C0EFB59-55C9-4B79-983A-5590BD876539}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="916" uniqueCount="246">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="886" uniqueCount="246">
   <si>
     <t>Date</t>
   </si>
@@ -1918,10 +1918,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2DEE10A-1309-4C83-B5F7-E001627C82E1}">
-  <dimension ref="A1:C174"/>
+  <dimension ref="A1:C144"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A160" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" topLeftCell="A124" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1942,130 +1942,130 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="10" t="s">
-        <v>176</v>
+        <v>164</v>
       </c>
       <c r="B2" s="8">
-        <v>14.5</v>
+        <v>13.9</v>
       </c>
       <c r="C2" s="16"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="10" t="s">
-        <v>68</v>
+        <v>165</v>
       </c>
       <c r="B3" s="8">
-        <v>7.2</v>
+        <v>14</v>
       </c>
       <c r="C3" s="16"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="10" t="s">
-        <v>69</v>
+        <v>166</v>
       </c>
       <c r="B4" s="8">
-        <v>10.3</v>
+        <v>14</v>
       </c>
       <c r="C4" s="16"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="10" t="s">
-        <v>70</v>
+        <v>167</v>
       </c>
       <c r="B5" s="8">
-        <v>10.3</v>
+        <v>13.8</v>
       </c>
       <c r="C5" s="16"/>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="10" t="s">
-        <v>71</v>
+        <v>168</v>
       </c>
       <c r="B6" s="8">
-        <v>10.1</v>
+        <v>13.7</v>
       </c>
       <c r="C6" s="16"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="10" t="s">
-        <v>72</v>
+        <v>169</v>
       </c>
       <c r="B7" s="8">
-        <v>10</v>
+        <v>13.7</v>
       </c>
       <c r="C7" s="16"/>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="10" t="s">
-        <v>73</v>
+        <v>170</v>
       </c>
       <c r="B8" s="8">
-        <v>10.1</v>
+        <v>13.7</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="10" t="s">
-        <v>74</v>
+        <v>171</v>
       </c>
       <c r="B9" s="8">
-        <v>9.9</v>
+        <v>13.7</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="10" t="s">
-        <v>75</v>
+        <v>91</v>
       </c>
       <c r="B10" s="8">
-        <v>9.4</v>
+        <v>9.5</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="10" t="s">
-        <v>76</v>
+        <v>92</v>
       </c>
       <c r="B11" s="8">
-        <v>10.1</v>
+        <v>9.5</v>
       </c>
       <c r="C11" s="16"/>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="10" t="s">
-        <v>77</v>
+        <v>93</v>
       </c>
       <c r="B12" s="8">
-        <v>10.1</v>
+        <v>9.5</v>
       </c>
       <c r="C12" s="16"/>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="10" t="s">
-        <v>163</v>
+        <v>94</v>
       </c>
       <c r="B13" s="8">
-        <v>9.4</v>
+        <v>9.5</v>
       </c>
       <c r="C13" s="16"/>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="10" t="s">
-        <v>158</v>
+        <v>95</v>
       </c>
       <c r="B14" s="8">
-        <v>9.4</v>
+        <v>9.5</v>
       </c>
       <c r="C14" s="16"/>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="10" t="s">
-        <v>159</v>
+        <v>96</v>
       </c>
       <c r="B15" s="8">
-        <v>9.4</v>
+        <v>9.5</v>
       </c>
       <c r="C15" s="16"/>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="10" t="s">
-        <v>160</v>
+        <v>97</v>
       </c>
       <c r="B16" s="8">
         <v>9.4</v>
@@ -2074,16 +2074,16 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="10" t="s">
-        <v>161</v>
+        <v>98</v>
       </c>
       <c r="B17" s="8">
-        <v>12.5</v>
+        <v>9.4</v>
       </c>
       <c r="C17" s="16"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="10" t="s">
-        <v>162</v>
+        <v>99</v>
       </c>
       <c r="B18" s="8">
         <v>9.4</v>
@@ -2092,421 +2092,421 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="10" t="s">
-        <v>78</v>
+        <v>100</v>
       </c>
       <c r="B19" s="8">
-        <v>9.4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="10" t="s">
-        <v>79</v>
+        <v>101</v>
       </c>
       <c r="B20" s="8">
-        <v>9.4</v>
+        <v>13.9</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="10" t="s">
-        <v>80</v>
+        <v>102</v>
       </c>
       <c r="B21" s="8">
-        <v>9.8000000000000007</v>
+        <v>13.9</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="10" t="s">
-        <v>81</v>
+        <v>103</v>
       </c>
       <c r="B22" s="8">
-        <v>9.5</v>
+        <v>13.9</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="10" t="s">
-        <v>82</v>
+        <v>104</v>
       </c>
       <c r="B23" s="8">
-        <v>9.5</v>
+        <v>13.9</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="10" t="s">
-        <v>83</v>
+        <v>105</v>
       </c>
       <c r="B24" s="8">
-        <v>9.5</v>
+        <v>13.9</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="10" t="s">
-        <v>84</v>
+        <v>106</v>
       </c>
       <c r="B25" s="8">
-        <v>9.9</v>
+        <v>11.4</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="10" t="s">
-        <v>85</v>
+        <v>111</v>
       </c>
       <c r="B26" s="8">
-        <v>14.4</v>
+        <v>11.4</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" s="10" t="s">
-        <v>86</v>
+        <v>112</v>
       </c>
       <c r="B27" s="8">
-        <v>14.4</v>
+        <v>11.4</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" s="10" t="s">
-        <v>87</v>
+        <v>107</v>
       </c>
       <c r="B28" s="8">
-        <v>14.3</v>
+        <v>11.4</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" s="10" t="s">
-        <v>88</v>
+        <v>108</v>
       </c>
       <c r="B29" s="8">
-        <v>13.9</v>
+        <v>11.4</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" s="10" t="s">
-        <v>89</v>
+        <v>109</v>
       </c>
       <c r="B30" s="8">
-        <v>14</v>
+        <v>11.4</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" s="10" t="s">
-        <v>90</v>
+        <v>110</v>
       </c>
       <c r="B31" s="8">
-        <v>13.7</v>
+        <v>11.4</v>
       </c>
       <c r="C31" s="16"/>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" s="10" t="s">
-        <v>164</v>
+        <v>113</v>
       </c>
       <c r="B32" s="8">
-        <v>13.9</v>
+        <v>16.2</v>
       </c>
       <c r="C32" s="16"/>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" s="10" t="s">
-        <v>165</v>
+        <v>114</v>
       </c>
       <c r="B33" s="8">
-        <v>14</v>
+        <v>16.2</v>
       </c>
       <c r="C33" s="16"/>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" s="10" t="s">
-        <v>166</v>
+        <v>115</v>
       </c>
       <c r="B34" s="8">
-        <v>14</v>
+        <v>16.2</v>
       </c>
       <c r="C34" s="16"/>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" s="10" t="s">
-        <v>167</v>
+        <v>116</v>
       </c>
       <c r="B35" s="8">
-        <v>13.8</v>
+        <v>16.2</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" s="10" t="s">
-        <v>168</v>
+        <v>117</v>
       </c>
       <c r="B36" s="8">
-        <v>13.7</v>
+        <v>16.2</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" s="10" t="s">
-        <v>169</v>
+        <v>118</v>
       </c>
       <c r="B37" s="8">
-        <v>13.7</v>
+        <v>16.2</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" s="10" t="s">
-        <v>170</v>
+        <v>119</v>
       </c>
       <c r="B38" s="8">
-        <v>13.7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" s="10" t="s">
-        <v>171</v>
+        <v>120</v>
       </c>
       <c r="B39" s="8">
-        <v>13.7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" s="10" t="s">
-        <v>91</v>
+        <v>121</v>
       </c>
       <c r="B40" s="8">
-        <v>9.5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" s="10" t="s">
-        <v>92</v>
+        <v>122</v>
       </c>
       <c r="B41" s="8">
-        <v>9.5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" s="10" t="s">
-        <v>93</v>
+        <v>123</v>
       </c>
       <c r="B42" s="8">
-        <v>9.5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" s="10" t="s">
-        <v>94</v>
+        <v>124</v>
       </c>
       <c r="B43" s="8">
-        <v>9.5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44" s="10" t="s">
-        <v>95</v>
+        <v>125</v>
       </c>
       <c r="B44" s="8">
-        <v>9.5</v>
+        <v>9.1999999999999993</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45" s="10" t="s">
-        <v>96</v>
+        <v>126</v>
       </c>
       <c r="B45" s="8">
-        <v>9.5</v>
+        <v>9.1999999999999993</v>
       </c>
       <c r="C45" s="16"/>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46" s="10" t="s">
-        <v>97</v>
+        <v>127</v>
       </c>
       <c r="B46" s="8">
-        <v>9.4</v>
+        <v>9.1999999999999993</v>
       </c>
       <c r="C46" s="16"/>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47" s="10" t="s">
-        <v>98</v>
+        <v>128</v>
       </c>
       <c r="B47" s="8">
-        <v>9.4</v>
+        <v>9.1999999999999993</v>
       </c>
       <c r="C47" s="16"/>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48" s="10" t="s">
-        <v>99</v>
+        <v>129</v>
       </c>
       <c r="B48" s="8">
-        <v>9.4</v>
+        <v>9.1999999999999993</v>
       </c>
       <c r="C48" s="16"/>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49" s="10" t="s">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="B49" s="8">
-        <v>10</v>
+        <v>9.1999999999999993</v>
       </c>
       <c r="C49" s="16"/>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50" s="10" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B50" s="8">
-        <v>13.9</v>
+        <v>9.1999999999999993</v>
       </c>
       <c r="C50" s="16"/>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51" s="10" t="s">
-        <v>102</v>
+        <v>131</v>
       </c>
       <c r="B51" s="8">
-        <v>13.9</v>
+        <v>22.2</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52" s="10" t="s">
-        <v>103</v>
+        <v>132</v>
       </c>
       <c r="B52" s="8">
-        <v>13.9</v>
+        <v>17.100000000000001</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53" s="10" t="s">
-        <v>104</v>
+        <v>133</v>
       </c>
       <c r="B53" s="8">
-        <v>13.9</v>
+        <v>17</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A54" s="10" t="s">
-        <v>105</v>
+        <v>134</v>
       </c>
       <c r="B54" s="8">
-        <v>13.9</v>
+        <v>25.4</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A55" s="10" t="s">
-        <v>106</v>
+        <v>135</v>
       </c>
       <c r="B55" s="8">
-        <v>11.4</v>
+        <v>25.4</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A56" s="10" t="s">
-        <v>111</v>
+        <v>136</v>
       </c>
       <c r="B56" s="8">
-        <v>11.4</v>
+        <v>24.3</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A57" s="10" t="s">
-        <v>112</v>
+        <v>137</v>
       </c>
       <c r="B57" s="8">
-        <v>11.4</v>
+        <v>5.8</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A58" s="10" t="s">
-        <v>107</v>
+        <v>138</v>
       </c>
       <c r="B58" s="8">
-        <v>11.4</v>
+        <v>5.8</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A59" s="10" t="s">
-        <v>108</v>
+        <v>139</v>
       </c>
       <c r="B59" s="8">
-        <v>11.4</v>
+        <v>5.8</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A60" s="10" t="s">
-        <v>109</v>
+        <v>140</v>
       </c>
       <c r="B60" s="8">
-        <v>11.4</v>
+        <v>24</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A61" s="10" t="s">
-        <v>110</v>
+        <v>141</v>
       </c>
       <c r="B61" s="8">
-        <v>11.4</v>
+        <v>27.1</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A62" s="10" t="s">
-        <v>113</v>
+        <v>142</v>
       </c>
       <c r="B62" s="8">
-        <v>16.2</v>
+        <v>11.2</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A63" s="10" t="s">
-        <v>114</v>
+        <v>143</v>
       </c>
       <c r="B63" s="8">
-        <v>16.2</v>
+        <v>11.2</v>
       </c>
       <c r="C63" s="16"/>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A64" s="10" t="s">
-        <v>115</v>
+        <v>144</v>
       </c>
       <c r="B64" s="8">
-        <v>16.2</v>
+        <v>11.2</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A65" s="10" t="s">
-        <v>116</v>
+        <v>145</v>
       </c>
       <c r="B65" s="8">
-        <v>16.2</v>
+        <v>10.8</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A66" s="10" t="s">
-        <v>117</v>
+        <v>146</v>
       </c>
       <c r="B66" s="8">
-        <v>16.2</v>
+        <v>10.8</v>
       </c>
       <c r="C66" s="16"/>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A67" s="10" t="s">
-        <v>118</v>
+        <v>147</v>
       </c>
       <c r="B67" s="8">
-        <v>16.2</v>
+        <v>10.8</v>
       </c>
       <c r="C67" s="16"/>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A68" s="10" t="s">
-        <v>119</v>
+        <v>148</v>
       </c>
       <c r="B68" s="8">
-        <v>11</v>
+        <v>11.1</v>
       </c>
       <c r="C68" s="16"/>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A69" s="10" t="s">
-        <v>120</v>
+        <v>149</v>
       </c>
       <c r="B69" s="8">
         <v>11</v>
@@ -2515,7 +2515,7 @@
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A70" s="10" t="s">
-        <v>121</v>
+        <v>150</v>
       </c>
       <c r="B70" s="8">
         <v>11</v>
@@ -2523,833 +2523,593 @@
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A71" s="10" t="s">
-        <v>122</v>
+        <v>151</v>
       </c>
       <c r="B71" s="8">
-        <v>11</v>
+        <v>13.1</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A72" s="10" t="s">
-        <v>123</v>
+        <v>152</v>
       </c>
       <c r="B72" s="8">
-        <v>11</v>
+        <v>13.1</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A73" s="10" t="s">
-        <v>124</v>
+        <v>153</v>
       </c>
       <c r="B73" s="8">
-        <v>11</v>
+        <v>13.1</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A74" s="10" t="s">
-        <v>125</v>
+        <v>154</v>
       </c>
       <c r="B74" s="8">
-        <v>9.1999999999999993</v>
+        <v>10</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A75" s="10" t="s">
-        <v>126</v>
+        <v>155</v>
       </c>
       <c r="B75" s="8">
-        <v>9.1999999999999993</v>
+        <v>10</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A76" s="10" t="s">
-        <v>127</v>
+        <v>177</v>
       </c>
       <c r="B76" s="8">
-        <v>9.1999999999999993</v>
+        <v>12.9</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A77" s="10" t="s">
-        <v>128</v>
+        <v>178</v>
       </c>
       <c r="B77" s="8">
-        <v>9.1999999999999993</v>
+        <v>12.9</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A78" s="10" t="s">
-        <v>129</v>
+        <v>179</v>
       </c>
       <c r="B78" s="8">
-        <v>9.1999999999999993</v>
+        <v>12.9</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A79" s="10" t="s">
-        <v>130</v>
+        <v>180</v>
       </c>
       <c r="B79" s="8">
-        <v>9.1999999999999993</v>
+        <v>12.9</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A80" s="10" t="s">
-        <v>104</v>
+        <v>181</v>
       </c>
       <c r="B80" s="8">
-        <v>9.1999999999999993</v>
+        <v>12.9</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A81" s="10" t="s">
-        <v>131</v>
+        <v>182</v>
       </c>
       <c r="B81" s="8">
-        <v>22.2</v>
+        <v>12.2</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A82" s="10" t="s">
-        <v>132</v>
+        <v>183</v>
       </c>
       <c r="B82" s="8">
-        <v>17.100000000000001</v>
+        <v>12.2</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A83" s="10" t="s">
-        <v>133</v>
+        <v>184</v>
       </c>
       <c r="B83" s="8">
-        <v>17</v>
+        <v>12.2</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A84" s="10" t="s">
-        <v>134</v>
+        <v>185</v>
       </c>
       <c r="B84" s="8">
-        <v>25.4</v>
+        <v>12.1</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A85" s="10" t="s">
-        <v>135</v>
+        <v>186</v>
       </c>
       <c r="B85" s="8">
-        <v>25.4</v>
+        <v>15.2</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A86" s="10" t="s">
-        <v>136</v>
+        <v>187</v>
       </c>
       <c r="B86" s="8">
-        <v>24.3</v>
+        <v>17.3</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A87" s="10" t="s">
-        <v>137</v>
+        <v>188</v>
       </c>
       <c r="B87" s="8">
-        <v>5.8</v>
+        <v>17.3</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A88" s="10" t="s">
-        <v>138</v>
+        <v>189</v>
       </c>
       <c r="B88" s="8">
-        <v>5.8</v>
+        <v>17.3</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A89" s="10" t="s">
-        <v>139</v>
+        <v>190</v>
       </c>
       <c r="B89" s="8">
-        <v>5.8</v>
+        <v>16.100000000000001</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A90" s="10" t="s">
-        <v>140</v>
+        <v>191</v>
       </c>
       <c r="B90" s="8">
-        <v>24</v>
+        <v>17.100000000000001</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A91" s="10" t="s">
-        <v>141</v>
+        <v>192</v>
       </c>
       <c r="B91" s="8">
-        <v>27.1</v>
+        <v>7.8</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A92" s="10" t="s">
-        <v>142</v>
+        <v>193</v>
       </c>
       <c r="B92" s="8">
-        <v>11.2</v>
+        <v>7.8</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A93" s="10" t="s">
-        <v>143</v>
+        <v>194</v>
       </c>
       <c r="B93" s="8">
-        <v>11.2</v>
+        <v>7.8</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A94" s="10" t="s">
-        <v>144</v>
+        <v>195</v>
       </c>
       <c r="B94" s="8">
-        <v>11.2</v>
+        <v>7.8</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A95" s="10" t="s">
-        <v>145</v>
+        <v>196</v>
       </c>
       <c r="B95" s="8">
-        <v>10.8</v>
+        <v>11.4</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A96" s="10" t="s">
-        <v>146</v>
+        <v>197</v>
       </c>
       <c r="B96" s="8">
-        <v>10.8</v>
+        <v>11.2</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A97" s="10" t="s">
-        <v>147</v>
+        <v>198</v>
       </c>
       <c r="B97" s="8">
-        <v>10.8</v>
+        <v>11.4</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A98" s="10" t="s">
-        <v>148</v>
+        <v>199</v>
       </c>
       <c r="B98" s="8">
-        <v>11.1</v>
+        <v>11.4</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A99" s="10" t="s">
-        <v>149</v>
+        <v>200</v>
       </c>
       <c r="B99" s="8">
-        <v>11</v>
+        <v>12.9</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A100" s="10" t="s">
-        <v>150</v>
+        <v>201</v>
       </c>
       <c r="B100" s="8">
-        <v>11</v>
+        <v>12.9</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A101" s="10" t="s">
-        <v>151</v>
+        <v>202</v>
       </c>
       <c r="B101" s="8">
-        <v>13.1</v>
+        <v>12.8</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A102" s="10" t="s">
-        <v>152</v>
+        <v>203</v>
       </c>
       <c r="B102" s="8">
-        <v>13.1</v>
+        <v>17.5</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A103" s="10" t="s">
-        <v>153</v>
+        <v>204</v>
       </c>
       <c r="B103" s="8">
-        <v>13.1</v>
+        <v>28.2</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A104" s="10" t="s">
-        <v>154</v>
+        <v>205</v>
       </c>
       <c r="B104" s="8">
-        <v>10</v>
+        <v>28.2</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A105" s="10" t="s">
-        <v>155</v>
+        <v>206</v>
       </c>
       <c r="B105" s="8">
-        <v>10</v>
+        <v>28.2</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A106" s="10" t="s">
-        <v>177</v>
+        <v>207</v>
       </c>
       <c r="B106" s="8">
-        <v>12.9</v>
+        <v>7.9</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A107" s="10" t="s">
-        <v>178</v>
+        <v>208</v>
       </c>
       <c r="B107" s="8">
-        <v>12.9</v>
+        <v>11.6</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A108" s="10" t="s">
-        <v>179</v>
+        <v>209</v>
       </c>
       <c r="B108" s="8">
-        <v>12.9</v>
+        <v>10.1</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A109" s="10" t="s">
-        <v>180</v>
+        <v>210</v>
       </c>
       <c r="B109" s="8">
-        <v>12.9</v>
+        <v>10.1</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A110" s="10" t="s">
-        <v>181</v>
+        <v>211</v>
       </c>
       <c r="B110" s="8">
-        <v>12.9</v>
+        <v>10.1</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A111" s="10" t="s">
-        <v>182</v>
+        <v>212</v>
       </c>
       <c r="B111" s="8">
-        <v>12.2</v>
+        <v>10.199999999999999</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A112" s="10" t="s">
-        <v>183</v>
+        <v>213</v>
       </c>
       <c r="B112" s="8">
-        <v>12.2</v>
+        <v>10.1</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A113" s="10" t="s">
-        <v>184</v>
+        <v>214</v>
       </c>
       <c r="B113" s="8">
-        <v>12.2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A114" s="10" t="s">
-        <v>185</v>
+        <v>215</v>
       </c>
       <c r="B114" s="8">
-        <v>12.1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A115" s="10" t="s">
-        <v>186</v>
+        <v>216</v>
       </c>
       <c r="B115" s="8">
-        <v>15.2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A116" s="10" t="s">
-        <v>187</v>
+        <v>217</v>
       </c>
       <c r="B116" s="8">
-        <v>17.3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A117" s="10" t="s">
-        <v>188</v>
+        <v>218</v>
       </c>
       <c r="B117" s="8">
-        <v>17.3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A118" s="10" t="s">
-        <v>189</v>
+        <v>219</v>
       </c>
       <c r="B118" s="8">
-        <v>17.3</v>
+        <v>10.1</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A119" s="10" t="s">
-        <v>190</v>
+        <v>220</v>
       </c>
       <c r="B119" s="8">
-        <v>16.100000000000001</v>
+        <v>10.3</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A120" s="10" t="s">
-        <v>191</v>
+        <v>221</v>
       </c>
       <c r="B120" s="8">
-        <v>17.100000000000001</v>
+        <v>10</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A121" s="10" t="s">
-        <v>192</v>
+        <v>222</v>
       </c>
       <c r="B121" s="8">
-        <v>7.8</v>
+        <v>10.1</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A122" s="10" t="s">
-        <v>193</v>
+        <v>223</v>
       </c>
       <c r="B122" s="8">
-        <v>7.8</v>
+        <v>10.1</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A123" s="10" t="s">
-        <v>194</v>
+        <v>224</v>
       </c>
       <c r="B123" s="8">
-        <v>7.8</v>
+        <v>10.1</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A124" s="10" t="s">
-        <v>195</v>
+        <v>225</v>
       </c>
       <c r="B124" s="8">
-        <v>7.8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A125" s="10" t="s">
-        <v>196</v>
+        <v>226</v>
       </c>
       <c r="B125" s="8">
-        <v>11.4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A126" s="10" t="s">
-        <v>197</v>
+        <v>227</v>
       </c>
       <c r="B126" s="8">
-        <v>11.2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A127" s="10" t="s">
-        <v>198</v>
+        <v>228</v>
       </c>
       <c r="B127" s="8">
-        <v>11.4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A128" s="10" t="s">
-        <v>199</v>
+        <v>229</v>
       </c>
       <c r="B128" s="8">
-        <v>11.4</v>
+        <v>9.6</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A129" s="10" t="s">
-        <v>200</v>
+        <v>230</v>
       </c>
       <c r="B129" s="8">
-        <v>12.9</v>
+        <v>9.6</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A130" s="10" t="s">
-        <v>201</v>
+        <v>231</v>
       </c>
       <c r="B130" s="8">
-        <v>12.9</v>
+        <v>9.6</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A131" s="10" t="s">
-        <v>202</v>
+        <v>232</v>
       </c>
       <c r="B131" s="8">
-        <v>12.8</v>
+        <v>9.6</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A132" s="10" t="s">
-        <v>203</v>
+        <v>233</v>
       </c>
       <c r="B132" s="8">
-        <v>17.5</v>
+        <v>9.9</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A133" s="10" t="s">
-        <v>204</v>
+        <v>234</v>
       </c>
       <c r="B133" s="8">
-        <v>28.2</v>
+        <v>9.9</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A134" s="10" t="s">
-        <v>205</v>
+        <v>235</v>
       </c>
       <c r="B134" s="8">
-        <v>28.2</v>
+        <v>9.6</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A135" s="10" t="s">
-        <v>206</v>
+        <v>236</v>
       </c>
       <c r="B135" s="8">
-        <v>28.2</v>
+        <v>9.6</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A136" s="10" t="s">
-        <v>207</v>
+        <v>237</v>
       </c>
       <c r="B136" s="8">
-        <v>7.9</v>
+        <v>9.5</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A137" s="10" t="s">
-        <v>208</v>
+        <v>238</v>
       </c>
       <c r="B137" s="8">
-        <v>11.6</v>
+        <v>9.4</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A138" s="10" t="s">
-        <v>209</v>
+        <v>239</v>
       </c>
       <c r="B138" s="8">
-        <v>10.1</v>
+        <v>9.4</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A139" s="10" t="s">
-        <v>210</v>
+        <v>240</v>
       </c>
       <c r="B139" s="8">
-        <v>10.1</v>
+        <v>9.4</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A140" s="10" t="s">
-        <v>211</v>
+        <v>241</v>
       </c>
       <c r="B140" s="8">
-        <v>10.1</v>
+        <v>9.3000000000000007</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A141" s="10" t="s">
-        <v>212</v>
+        <v>242</v>
       </c>
       <c r="B141" s="8">
-        <v>10.199999999999999</v>
+        <v>9.3000000000000007</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A142" s="10" t="s">
-        <v>213</v>
+        <v>243</v>
       </c>
       <c r="B142" s="8">
-        <v>10.1</v>
+        <v>9.3000000000000007</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A143" s="10" t="s">
-        <v>214</v>
+        <v>244</v>
       </c>
       <c r="B143" s="8">
-        <v>10</v>
+        <v>9.4</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A144" s="10" t="s">
-        <v>215</v>
+        <v>245</v>
       </c>
       <c r="B144" s="8">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A145" s="10" t="s">
-        <v>216</v>
-      </c>
-      <c r="B145" s="8">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A146" s="10" t="s">
-        <v>217</v>
-      </c>
-      <c r="B146" s="8">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A147" s="10" t="s">
-        <v>218</v>
-      </c>
-      <c r="B147" s="8">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A148" s="10" t="s">
-        <v>219</v>
-      </c>
-      <c r="B148" s="8">
-        <v>10.1</v>
-      </c>
-    </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A149" s="10" t="s">
-        <v>220</v>
-      </c>
-      <c r="B149" s="8">
-        <v>10.3</v>
-      </c>
-    </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A150" s="10" t="s">
-        <v>221</v>
-      </c>
-      <c r="B150" s="8">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A151" s="10" t="s">
-        <v>222</v>
-      </c>
-      <c r="B151" s="8">
-        <v>10.1</v>
-      </c>
-    </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A152" s="10" t="s">
-        <v>223</v>
-      </c>
-      <c r="B152" s="8">
-        <v>10.1</v>
-      </c>
-    </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A153" s="10" t="s">
-        <v>224</v>
-      </c>
-      <c r="B153" s="8">
-        <v>10.1</v>
-      </c>
-    </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A154" s="10" t="s">
-        <v>225</v>
-      </c>
-      <c r="B154" s="8">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A155" s="10" t="s">
-        <v>226</v>
-      </c>
-      <c r="B155" s="8">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A156" s="10" t="s">
-        <v>227</v>
-      </c>
-      <c r="B156" s="8">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A157" s="10" t="s">
-        <v>228</v>
-      </c>
-      <c r="B157" s="8">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A158" s="10" t="s">
-        <v>229</v>
-      </c>
-      <c r="B158" s="8">
-        <v>9.6</v>
-      </c>
-    </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A159" s="10" t="s">
-        <v>230</v>
-      </c>
-      <c r="B159" s="8">
-        <v>9.6</v>
-      </c>
-    </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A160" s="10" t="s">
-        <v>231</v>
-      </c>
-      <c r="B160" s="8">
-        <v>9.6</v>
-      </c>
-    </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A161" s="10" t="s">
-        <v>232</v>
-      </c>
-      <c r="B161" s="8">
-        <v>9.6</v>
-      </c>
-    </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A162" s="10" t="s">
-        <v>233</v>
-      </c>
-      <c r="B162" s="8">
-        <v>9.9</v>
-      </c>
-    </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A163" s="10" t="s">
-        <v>234</v>
-      </c>
-      <c r="B163" s="8">
-        <v>9.9</v>
-      </c>
-    </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A164" s="10" t="s">
-        <v>235</v>
-      </c>
-      <c r="B164" s="8">
-        <v>9.6</v>
-      </c>
-    </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A165" s="10" t="s">
-        <v>236</v>
-      </c>
-      <c r="B165" s="8">
-        <v>9.6</v>
-      </c>
-    </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A166" s="10" t="s">
-        <v>237</v>
-      </c>
-      <c r="B166" s="8">
-        <v>9.5</v>
-      </c>
-    </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A167" s="10" t="s">
-        <v>238</v>
-      </c>
-      <c r="B167" s="8">
-        <v>9.4</v>
-      </c>
-    </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A168" s="10" t="s">
-        <v>239</v>
-      </c>
-      <c r="B168" s="8">
-        <v>9.4</v>
-      </c>
-    </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A169" s="10" t="s">
-        <v>240</v>
-      </c>
-      <c r="B169" s="8">
-        <v>9.4</v>
-      </c>
-    </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A170" s="10" t="s">
-        <v>241</v>
-      </c>
-      <c r="B170" s="8">
-        <v>9.3000000000000007</v>
-      </c>
-    </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A171" s="10" t="s">
-        <v>242</v>
-      </c>
-      <c r="B171" s="8">
-        <v>9.3000000000000007</v>
-      </c>
-    </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A172" s="10" t="s">
-        <v>243</v>
-      </c>
-      <c r="B172" s="8">
-        <v>9.3000000000000007</v>
-      </c>
-    </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A173" s="10" t="s">
-        <v>244</v>
-      </c>
-      <c r="B173" s="8">
-        <v>9.4</v>
-      </c>
-    </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A174" s="10" t="s">
-        <v>245</v>
-      </c>
-      <c r="B174" s="8">
         <v>9.4</v>
       </c>
     </row>

--- a/Irrigation Dates Depths.xlsx
+++ b/Irrigation Dates Depths.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\seosu\Desktop\Guayule Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C0EFB59-55C9-4B79-983A-5590BD876539}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FB4FC28-3044-48E3-BA16-A399D85CB46E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2018Depth" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="886" uniqueCount="246">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="886" uniqueCount="247">
   <si>
     <t>Date</t>
   </si>
@@ -779,6 +779,9 @@
   </si>
   <si>
     <t>15/11/2019</t>
+  </si>
+  <si>
+    <t>30/6/2019</t>
   </si>
 </sst>
 </file>
@@ -1920,8 +1923,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2DEE10A-1309-4C83-B5F7-E001627C82E1}">
   <dimension ref="A1:C144"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A124" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3122,8 +3125,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12AA9BAA-E3F5-40EE-BC7B-22893B26F7D0}">
   <dimension ref="A1:D176"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection sqref="A1:B1048576"/>
+    <sheetView topLeftCell="A160" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="A177" sqref="A177"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3768,7 +3771,7 @@
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A80" s="10" t="s">
-        <v>104</v>
+        <v>246</v>
       </c>
       <c r="B80" s="17">
         <v>9.1999999999999993</v>
@@ -5197,8 +5200,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C5F8EFB-CA14-4021-AA8B-5C6B702C125E}">
   <dimension ref="A1:D176"/>
   <sheetViews>
-    <sheetView topLeftCell="A155" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B155" sqref="B1:B1048576"/>
+    <sheetView topLeftCell="A70" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A80" sqref="A80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5842,7 +5845,7 @@
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A80" s="10" t="s">
-        <v>104</v>
+        <v>246</v>
       </c>
       <c r="B80" s="8">
         <v>4.5999999999999996</v>
@@ -7202,8 +7205,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81ACF73D-EE59-44A3-A7D9-13D9B876FD8D}">
   <dimension ref="A1:D176"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" topLeftCell="A67" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="A80" sqref="A80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7847,7 +7850,7 @@
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A80" s="10" t="s">
-        <v>104</v>
+        <v>246</v>
       </c>
       <c r="B80" s="8">
         <v>13.8</v>

--- a/Irrigation Dates Depths.xlsx
+++ b/Irrigation Dates Depths.xlsx
@@ -8,19 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\seosu\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13C26938-57CD-45AD-9C9C-6642BCCC535F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{037D2F28-591C-4A03-81A0-5E7D277C2E53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2018Depth" sheetId="1" r:id="rId1"/>
     <sheet name="2019test" sheetId="7" r:id="rId2"/>
     <sheet name="2020Depth" sheetId="8" r:id="rId3"/>
-    <sheet name="2019Depth" sheetId="4" r:id="rId4"/>
-    <sheet name="2018D50" sheetId="2" r:id="rId5"/>
-    <sheet name="2019D50" sheetId="5" r:id="rId6"/>
-    <sheet name="2018D150" sheetId="3" r:id="rId7"/>
-    <sheet name="2019D150" sheetId="6" r:id="rId8"/>
+    <sheet name="2021Depth" sheetId="10" r:id="rId4"/>
+    <sheet name="2019Depth" sheetId="4" r:id="rId5"/>
+    <sheet name="2018D50" sheetId="2" r:id="rId6"/>
+    <sheet name="2019D50" sheetId="5" r:id="rId7"/>
+    <sheet name="2018D150" sheetId="3" r:id="rId8"/>
+    <sheet name="2019D150" sheetId="6" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -42,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="993" uniqueCount="352">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1100" uniqueCount="457">
   <si>
     <t>Date</t>
   </si>
@@ -788,15 +789,6 @@
     <t>13/2/2020</t>
   </si>
   <si>
-    <t>16/2/2020</t>
-  </si>
-  <si>
-    <t>17/2/2020</t>
-  </si>
-  <si>
-    <t>21/2/2020</t>
-  </si>
-  <si>
     <t>19/3/2020</t>
   </si>
   <si>
@@ -1098,6 +1090,330 @@
   </si>
   <si>
     <t>15/11/2020</t>
+  </si>
+  <si>
+    <t>14/2/2020</t>
+  </si>
+  <si>
+    <t>15/2/2020</t>
+  </si>
+  <si>
+    <t>18/2/2020</t>
+  </si>
+  <si>
+    <t>13/2/2021</t>
+  </si>
+  <si>
+    <t>14/2/2021</t>
+  </si>
+  <si>
+    <t>15/2/2021</t>
+  </si>
+  <si>
+    <t>18/2/2021</t>
+  </si>
+  <si>
+    <t>19/3/2021</t>
+  </si>
+  <si>
+    <t>20/3/2021</t>
+  </si>
+  <si>
+    <t>21/3/2021</t>
+  </si>
+  <si>
+    <t>22/3/2021</t>
+  </si>
+  <si>
+    <t>23/3/2021</t>
+  </si>
+  <si>
+    <t>27/3/2021</t>
+  </si>
+  <si>
+    <t>28/3/2021</t>
+  </si>
+  <si>
+    <t>13/4/2021</t>
+  </si>
+  <si>
+    <t>14/4/2021</t>
+  </si>
+  <si>
+    <t>15/4/2021</t>
+  </si>
+  <si>
+    <t>18/4/2021</t>
+  </si>
+  <si>
+    <t>19/4/2021</t>
+  </si>
+  <si>
+    <t>20/4/2021</t>
+  </si>
+  <si>
+    <t>22/4/2021</t>
+  </si>
+  <si>
+    <t>23/4/2021</t>
+  </si>
+  <si>
+    <t>24/4/2021</t>
+  </si>
+  <si>
+    <t>25/4/2021</t>
+  </si>
+  <si>
+    <t>28/4/2021</t>
+  </si>
+  <si>
+    <t>29/4/2021</t>
+  </si>
+  <si>
+    <t>30/4/2021</t>
+  </si>
+  <si>
+    <t>14/5/2021</t>
+  </si>
+  <si>
+    <t>15/5/2021</t>
+  </si>
+  <si>
+    <t>16/5/2021</t>
+  </si>
+  <si>
+    <t>17/5/2021</t>
+  </si>
+  <si>
+    <t>18/5/2021</t>
+  </si>
+  <si>
+    <t>19/5/2021</t>
+  </si>
+  <si>
+    <t>21/5/2021</t>
+  </si>
+  <si>
+    <t>22/5/2021</t>
+  </si>
+  <si>
+    <t>23/5/2021</t>
+  </si>
+  <si>
+    <t>24/5/2021</t>
+  </si>
+  <si>
+    <t>27/5/2021</t>
+  </si>
+  <si>
+    <t>28/5/2021</t>
+  </si>
+  <si>
+    <t>29/5/2021</t>
+  </si>
+  <si>
+    <t>30/5/2021</t>
+  </si>
+  <si>
+    <t>31/5/2021</t>
+  </si>
+  <si>
+    <t>13/6/2021</t>
+  </si>
+  <si>
+    <t>14/6/2021</t>
+  </si>
+  <si>
+    <t>15/6/2021</t>
+  </si>
+  <si>
+    <t>17/6/2021</t>
+  </si>
+  <si>
+    <t>18/6/2021</t>
+  </si>
+  <si>
+    <t>19/6/2021</t>
+  </si>
+  <si>
+    <t>20/6/2021</t>
+  </si>
+  <si>
+    <t>21/6/2021</t>
+  </si>
+  <si>
+    <t>22/6/2021</t>
+  </si>
+  <si>
+    <t>24/6/2021</t>
+  </si>
+  <si>
+    <t>25/6/2021</t>
+  </si>
+  <si>
+    <t>26/6/2021</t>
+  </si>
+  <si>
+    <t>27/6/2021</t>
+  </si>
+  <si>
+    <t>28/6/2021</t>
+  </si>
+  <si>
+    <t>29/6/2021</t>
+  </si>
+  <si>
+    <t>30/6/2021</t>
+  </si>
+  <si>
+    <t>16/7/2021</t>
+  </si>
+  <si>
+    <t>17/7/2021</t>
+  </si>
+  <si>
+    <t>18/7/2021</t>
+  </si>
+  <si>
+    <t>19/7/2021</t>
+  </si>
+  <si>
+    <t>20/7/2021</t>
+  </si>
+  <si>
+    <t>21/7/2021</t>
+  </si>
+  <si>
+    <t>22/7/2021</t>
+  </si>
+  <si>
+    <t>24/7/2021</t>
+  </si>
+  <si>
+    <t>25/7/2021</t>
+  </si>
+  <si>
+    <t>26/7/2021</t>
+  </si>
+  <si>
+    <t>27/7/2021</t>
+  </si>
+  <si>
+    <t>28/7/2021</t>
+  </si>
+  <si>
+    <t>30/7/2021</t>
+  </si>
+  <si>
+    <t>31/7/2021</t>
+  </si>
+  <si>
+    <t>16/8/2021</t>
+  </si>
+  <si>
+    <t>17/8/2021</t>
+  </si>
+  <si>
+    <t>18/8/2021</t>
+  </si>
+  <si>
+    <t>19/8/2021</t>
+  </si>
+  <si>
+    <t>21/8/2021</t>
+  </si>
+  <si>
+    <t>22/8/2021</t>
+  </si>
+  <si>
+    <t>23/8/2021</t>
+  </si>
+  <si>
+    <t>24/8/2021</t>
+  </si>
+  <si>
+    <t>25/8/2021</t>
+  </si>
+  <si>
+    <t>26/8/2021</t>
+  </si>
+  <si>
+    <t>28/8/2021</t>
+  </si>
+  <si>
+    <t>29/8/2021</t>
+  </si>
+  <si>
+    <t>30/8/2021</t>
+  </si>
+  <si>
+    <t>31/8/2021</t>
+  </si>
+  <si>
+    <t>16/9/2021</t>
+  </si>
+  <si>
+    <t>20/9/2021</t>
+  </si>
+  <si>
+    <t>21/9/2021</t>
+  </si>
+  <si>
+    <t>22/9/2021</t>
+  </si>
+  <si>
+    <t>23/9/2021</t>
+  </si>
+  <si>
+    <t>25/9/2021</t>
+  </si>
+  <si>
+    <t>28/9/2021</t>
+  </si>
+  <si>
+    <t>29/9/2021</t>
+  </si>
+  <si>
+    <t>30/9/2021</t>
+  </si>
+  <si>
+    <t>13/10/2021</t>
+  </si>
+  <si>
+    <t>17/10/2021</t>
+  </si>
+  <si>
+    <t>18/10/2021</t>
+  </si>
+  <si>
+    <t>19/10/2021</t>
+  </si>
+  <si>
+    <t>20/10/2021</t>
+  </si>
+  <si>
+    <t>23/10/2021</t>
+  </si>
+  <si>
+    <t>24/10/2021</t>
+  </si>
+  <si>
+    <t>25/10/2021</t>
+  </si>
+  <si>
+    <t>26/10/2021</t>
+  </si>
+  <si>
+    <t>31/10/2021</t>
+  </si>
+  <si>
+    <t>13/11/2021</t>
+  </si>
+  <si>
+    <t>14/11/2021</t>
+  </si>
+  <si>
+    <t>15/11/2021</t>
   </si>
 </sst>
 </file>
@@ -1469,7 +1785,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E123"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView topLeftCell="A51" zoomScale="82" zoomScaleNormal="160" workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
@@ -3426,8 +3742,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{185978EC-D424-4359-BE27-B0C26DE9069B}">
   <dimension ref="A1:B174"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A156" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3449,36 +3765,36 @@
         <v>247</v>
       </c>
       <c r="B2" s="5">
-        <v>14.5</v>
+        <v>9.5</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
-        <v>248</v>
+        <v>349</v>
       </c>
       <c r="B3" s="5">
-        <v>7.2</v>
+        <v>9.5</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>249</v>
+        <v>350</v>
       </c>
       <c r="B4" s="5">
-        <v>10.3</v>
+        <v>9.5</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
-        <v>250</v>
+        <v>351</v>
       </c>
       <c r="B5" s="5">
-        <v>10.3</v>
+        <v>9.6</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="B6" s="5">
         <v>10.1</v>
@@ -3486,7 +3802,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="B7" s="5">
         <v>10</v>
@@ -3494,7 +3810,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="B8" s="5">
         <v>10.1</v>
@@ -3502,7 +3818,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="B9" s="5">
         <v>9.9</v>
@@ -3510,7 +3826,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="B10" s="5">
         <v>9.4</v>
@@ -3518,7 +3834,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="B11" s="5">
         <v>10.1</v>
@@ -3526,7 +3842,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="B12" s="5">
         <v>10.1</v>
@@ -3582,7 +3898,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="B19" s="5">
         <v>9.4</v>
@@ -3590,7 +3906,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="B20" s="5">
         <v>9.4</v>
@@ -3598,7 +3914,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="B21" s="5">
         <v>9.8000000000000007</v>
@@ -3606,7 +3922,7 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="B22" s="5">
         <v>9.5</v>
@@ -3614,7 +3930,7 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="B23" s="5">
         <v>9.5</v>
@@ -3622,7 +3938,7 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" s="3" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="B24" s="5">
         <v>9.5</v>
@@ -3630,7 +3946,7 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" s="3" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="B25" s="5">
         <v>9.9</v>
@@ -3638,7 +3954,7 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" s="3" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="B26" s="5">
         <v>14.4</v>
@@ -3646,7 +3962,7 @@
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" s="3" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="B27" s="5">
         <v>14.4</v>
@@ -3654,7 +3970,7 @@
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" s="3" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="B28" s="5">
         <v>14.3</v>
@@ -3662,7 +3978,7 @@
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" s="3" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="B29" s="5">
         <v>13.9</v>
@@ -3670,7 +3986,7 @@
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" s="3" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="B30" s="5">
         <v>14</v>
@@ -3678,7 +3994,7 @@
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" s="3" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="B31" s="5">
         <v>13.7</v>
@@ -3750,7 +4066,7 @@
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40" s="3" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="B40" s="5">
         <v>9.5</v>
@@ -3758,7 +4074,7 @@
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41" s="3" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="B41" s="5">
         <v>9.5</v>
@@ -3766,7 +4082,7 @@
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42" s="3" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="B42" s="5">
         <v>9.5</v>
@@ -3774,7 +4090,7 @@
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43" s="3" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="B43" s="5">
         <v>9.5</v>
@@ -3782,7 +4098,7 @@
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44" s="3" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="B44" s="5">
         <v>9.5</v>
@@ -3790,7 +4106,7 @@
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45" s="3" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="B45" s="5">
         <v>9.5</v>
@@ -3798,7 +4114,7 @@
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46" s="3" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="B46" s="5">
         <v>9.4</v>
@@ -3806,7 +4122,7 @@
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47" s="3" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="B47" s="5">
         <v>9.4</v>
@@ -3814,7 +4130,7 @@
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48" s="3" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="B48" s="5">
         <v>9.4</v>
@@ -3822,7 +4138,7 @@
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49" s="3" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="B49" s="5">
         <v>10</v>
@@ -3830,7 +4146,7 @@
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50" s="3" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="B50" s="5">
         <v>13.9</v>
@@ -3838,7 +4154,7 @@
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51" s="3" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="B51" s="5">
         <v>13.9</v>
@@ -3846,7 +4162,7 @@
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52" s="3" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="B52" s="5">
         <v>13.9</v>
@@ -3854,7 +4170,7 @@
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A53" s="3" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="B53" s="5">
         <v>13.9</v>
@@ -3862,7 +4178,7 @@
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A54" s="3" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="B54" s="5">
         <v>13.9</v>
@@ -3950,7 +4266,7 @@
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A65" s="3" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="B65" s="5">
         <v>16.2</v>
@@ -3958,7 +4274,7 @@
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A66" s="3" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="B66" s="5">
         <v>16.2</v>
@@ -3966,7 +4282,7 @@
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A67" s="3" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="B67" s="5">
         <v>16.2</v>
@@ -3974,7 +4290,7 @@
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A68" s="3" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="B68" s="5">
         <v>11</v>
@@ -3982,7 +4298,7 @@
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A69" s="3" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="B69" s="5">
         <v>11</v>
@@ -3990,7 +4306,7 @@
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A70" s="3" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="B70" s="5">
         <v>11</v>
@@ -3998,7 +4314,7 @@
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A71" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="B71" s="5">
         <v>11</v>
@@ -4006,7 +4322,7 @@
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A72" s="3" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="B72" s="5">
         <v>11</v>
@@ -4014,7 +4330,7 @@
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A73" s="3" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="B73" s="5">
         <v>11</v>
@@ -4022,7 +4338,7 @@
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A74" s="3" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="B74" s="5">
         <v>9.1999999999999993</v>
@@ -4030,7 +4346,7 @@
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A75" s="3" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="B75" s="5">
         <v>9.1999999999999993</v>
@@ -4038,7 +4354,7 @@
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A76" s="3" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="B76" s="5">
         <v>9.1999999999999993</v>
@@ -4046,7 +4362,7 @@
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A77" s="3" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="B77" s="5">
         <v>9.1999999999999993</v>
@@ -4054,7 +4370,7 @@
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A78" s="3" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="B78" s="5">
         <v>9.1999999999999993</v>
@@ -4062,7 +4378,7 @@
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A79" s="3" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="B79" s="5">
         <v>9.1999999999999993</v>
@@ -4070,7 +4386,7 @@
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A80" s="3" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="B80" s="5">
         <v>9.1999999999999993</v>
@@ -4166,7 +4482,7 @@
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A92" s="3" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="B92" s="5">
         <v>11.2</v>
@@ -4174,7 +4490,7 @@
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A93" s="3" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="B93" s="5">
         <v>11.2</v>
@@ -4182,7 +4498,7 @@
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A94" s="3" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="B94" s="5">
         <v>11.2</v>
@@ -4190,7 +4506,7 @@
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A95" s="3" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="B95" s="5">
         <v>10.8</v>
@@ -4198,7 +4514,7 @@
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A96" s="3" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="B96" s="5">
         <v>10.8</v>
@@ -4206,7 +4522,7 @@
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A97" s="3" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="B97" s="5">
         <v>10.8</v>
@@ -4214,7 +4530,7 @@
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A98" s="3" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="B98" s="5">
         <v>11.1</v>
@@ -4222,7 +4538,7 @@
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A99" s="3" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="B99" s="5">
         <v>11</v>
@@ -4230,7 +4546,7 @@
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A100" s="3" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="B100" s="5">
         <v>11</v>
@@ -4238,7 +4554,7 @@
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A101" s="3" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="B101" s="5">
         <v>13.1</v>
@@ -4246,7 +4562,7 @@
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A102" s="3" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="B102" s="5">
         <v>13.1</v>
@@ -4254,7 +4570,7 @@
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A103" s="3" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="B103" s="5">
         <v>13.1</v>
@@ -4262,7 +4578,7 @@
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A104" s="3" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="B104" s="5">
         <v>10</v>
@@ -4270,7 +4586,7 @@
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A105" s="3" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="B105" s="5">
         <v>10</v>
@@ -4350,7 +4666,7 @@
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A115" s="3" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="B115" s="5">
         <v>15.2</v>
@@ -4358,7 +4674,7 @@
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A116" s="3" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="B116" s="5">
         <v>17.3</v>
@@ -4366,7 +4682,7 @@
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A117" s="3" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="B117" s="5">
         <v>17.3</v>
@@ -4374,7 +4690,7 @@
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A118" s="3" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="B118" s="5">
         <v>17.3</v>
@@ -4382,7 +4698,7 @@
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A119" s="3" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="B119" s="5">
         <v>16.100000000000001</v>
@@ -4390,7 +4706,7 @@
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A120" s="3" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="B120" s="5">
         <v>17.100000000000001</v>
@@ -4398,7 +4714,7 @@
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A121" s="3" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="B121" s="5">
         <v>7.8</v>
@@ -4406,7 +4722,7 @@
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A122" s="3" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="B122" s="5">
         <v>7.8</v>
@@ -4414,7 +4730,7 @@
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A123" s="3" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="B123" s="5">
         <v>7.8</v>
@@ -4422,7 +4738,7 @@
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A124" s="3" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="B124" s="5">
         <v>7.8</v>
@@ -4430,7 +4746,7 @@
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A125" s="3" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="B125" s="5">
         <v>11.4</v>
@@ -4438,7 +4754,7 @@
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A126" s="3" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="B126" s="5">
         <v>11.2</v>
@@ -4446,7 +4762,7 @@
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A127" s="3" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="B127" s="5">
         <v>11.4</v>
@@ -4454,7 +4770,7 @@
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A128" s="3" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="B128" s="5">
         <v>11.4</v>
@@ -4518,7 +4834,7 @@
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A136" s="3" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="B136" s="5">
         <v>7.9</v>
@@ -4526,7 +4842,7 @@
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A137" s="3" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="B137" s="5">
         <v>11.6</v>
@@ -4534,7 +4850,7 @@
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A138" s="3" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="B138" s="5">
         <v>10.1</v>
@@ -4542,7 +4858,7 @@
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A139" s="3" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="B139" s="5">
         <v>10.1</v>
@@ -4550,7 +4866,7 @@
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A140" s="3" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="B140" s="5">
         <v>10.1</v>
@@ -4558,7 +4874,7 @@
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A141" s="3" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="B141" s="5">
         <v>10.199999999999999</v>
@@ -4566,7 +4882,7 @@
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A142" s="3" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="B142" s="5">
         <v>10.1</v>
@@ -4574,7 +4890,7 @@
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A143" s="3" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="B143" s="5">
         <v>10</v>
@@ -4582,7 +4898,7 @@
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A144" s="3" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="B144" s="5">
         <v>10</v>
@@ -4654,7 +4970,7 @@
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A153" s="3" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="B153" s="5">
         <v>10.1</v>
@@ -4662,7 +4978,7 @@
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A154" s="3" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="B154" s="5">
         <v>10</v>
@@ -4670,7 +4986,7 @@
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A155" s="3" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="B155" s="5">
         <v>10</v>
@@ -4678,7 +4994,7 @@
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A156" s="3" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="B156" s="5">
         <v>10</v>
@@ -4686,7 +5002,7 @@
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A157" s="3" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="B157" s="5">
         <v>10</v>
@@ -4694,7 +5010,7 @@
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A158" s="3" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="B158" s="5">
         <v>9.6</v>
@@ -4702,7 +5018,7 @@
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A159" s="3" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="B159" s="5">
         <v>9.6</v>
@@ -4710,7 +5026,7 @@
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A160" s="3" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="B160" s="5">
         <v>9.6</v>
@@ -4718,7 +5034,7 @@
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A161" s="3" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="B161" s="5">
         <v>9.6</v>
@@ -4726,7 +5042,7 @@
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A162" s="3" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="B162" s="5">
         <v>9.9</v>
@@ -4806,7 +5122,7 @@
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A172" s="3" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="B172" s="5">
         <v>9.3000000000000007</v>
@@ -4814,7 +5130,7 @@
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A173" s="3" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="B173" s="5">
         <v>9.4</v>
@@ -4822,7 +5138,7 @@
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A174" s="3" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="B174" s="5">
         <v>9.4</v>
@@ -4834,11 +5150,1422 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFDF7F28-9E3B-4BEA-977E-3D8248CD5371}">
+  <dimension ref="A1:B174"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A155" workbookViewId="0">
+      <selection activeCell="H165" sqref="H165"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="16" style="3" customWidth="1"/>
+    <col min="2" max="2" width="16" style="5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="3" t="s">
+        <v>352</v>
+      </c>
+      <c r="B2" s="5">
+        <v>9.5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="s">
+        <v>353</v>
+      </c>
+      <c r="B3" s="5">
+        <v>9.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="s">
+        <v>354</v>
+      </c>
+      <c r="B4" s="5">
+        <v>9.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="B5" s="5">
+        <v>9.6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="3" t="s">
+        <v>356</v>
+      </c>
+      <c r="B6" s="5">
+        <v>10.1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" s="3" t="s">
+        <v>357</v>
+      </c>
+      <c r="B7" s="5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>358</v>
+      </c>
+      <c r="B8" s="5">
+        <v>10.1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>359</v>
+      </c>
+      <c r="B9" s="5">
+        <v>9.9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>360</v>
+      </c>
+      <c r="B10" s="5">
+        <v>9.4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>361</v>
+      </c>
+      <c r="B11" s="5">
+        <v>10.1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>362</v>
+      </c>
+      <c r="B12" s="5">
+        <v>10.1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" s="1">
+        <v>44231</v>
+      </c>
+      <c r="B13" s="5">
+        <v>9.4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" s="1">
+        <v>44259</v>
+      </c>
+      <c r="B14" s="5">
+        <v>9.4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" s="1">
+        <v>44290</v>
+      </c>
+      <c r="B15" s="5">
+        <v>9.4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" s="1">
+        <v>44381</v>
+      </c>
+      <c r="B16" s="5">
+        <v>9.4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" s="1">
+        <v>44473</v>
+      </c>
+      <c r="B17" s="5">
+        <v>12.5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" s="1">
+        <v>44534</v>
+      </c>
+      <c r="B18" s="5">
+        <v>9.4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" s="3" t="s">
+        <v>363</v>
+      </c>
+      <c r="B19" s="5">
+        <v>9.4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" s="3" t="s">
+        <v>364</v>
+      </c>
+      <c r="B20" s="5">
+        <v>9.4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" s="3" t="s">
+        <v>365</v>
+      </c>
+      <c r="B21" s="5">
+        <v>9.8000000000000007</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22" s="3" t="s">
+        <v>366</v>
+      </c>
+      <c r="B22" s="5">
+        <v>9.5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23" s="3" t="s">
+        <v>367</v>
+      </c>
+      <c r="B23" s="5">
+        <v>9.5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A24" s="3" t="s">
+        <v>368</v>
+      </c>
+      <c r="B24" s="5">
+        <v>9.5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A25" s="3" t="s">
+        <v>369</v>
+      </c>
+      <c r="B25" s="5">
+        <v>9.9</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A26" s="3" t="s">
+        <v>370</v>
+      </c>
+      <c r="B26" s="5">
+        <v>14.4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A27" s="3" t="s">
+        <v>371</v>
+      </c>
+      <c r="B27" s="5">
+        <v>14.4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A28" s="3" t="s">
+        <v>372</v>
+      </c>
+      <c r="B28" s="5">
+        <v>14.3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A29" s="3" t="s">
+        <v>373</v>
+      </c>
+      <c r="B29" s="5">
+        <v>13.9</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A30" s="3" t="s">
+        <v>374</v>
+      </c>
+      <c r="B30" s="5">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A31" s="3" t="s">
+        <v>375</v>
+      </c>
+      <c r="B31" s="5">
+        <v>13.7</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A32" s="1">
+        <v>44201</v>
+      </c>
+      <c r="B32" s="5">
+        <v>13.9</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A33" s="1">
+        <v>44232</v>
+      </c>
+      <c r="B33" s="5">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A34" s="1">
+        <v>44260</v>
+      </c>
+      <c r="B34" s="5">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A35" s="1">
+        <v>44413</v>
+      </c>
+      <c r="B35" s="5">
+        <v>13.8</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A36" s="1">
+        <v>44444</v>
+      </c>
+      <c r="B36" s="5">
+        <v>13.7</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A37" s="1">
+        <v>44474</v>
+      </c>
+      <c r="B37" s="5">
+        <v>13.7</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A38" s="1">
+        <v>44505</v>
+      </c>
+      <c r="B38" s="5">
+        <v>13.7</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A39" s="1">
+        <v>44535</v>
+      </c>
+      <c r="B39" s="5">
+        <v>13.7</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A40" s="3" t="s">
+        <v>376</v>
+      </c>
+      <c r="B40" s="5">
+        <v>9.5</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A41" s="3" t="s">
+        <v>377</v>
+      </c>
+      <c r="B41" s="5">
+        <v>9.5</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A42" s="3" t="s">
+        <v>378</v>
+      </c>
+      <c r="B42" s="5">
+        <v>9.5</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A43" s="3" t="s">
+        <v>379</v>
+      </c>
+      <c r="B43" s="5">
+        <v>9.5</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A44" s="3" t="s">
+        <v>380</v>
+      </c>
+      <c r="B44" s="5">
+        <v>9.5</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A45" s="3" t="s">
+        <v>381</v>
+      </c>
+      <c r="B45" s="5">
+        <v>9.5</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A46" s="3" t="s">
+        <v>382</v>
+      </c>
+      <c r="B46" s="5">
+        <v>9.4</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A47" s="3" t="s">
+        <v>383</v>
+      </c>
+      <c r="B47" s="5">
+        <v>9.4</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A48" s="3" t="s">
+        <v>384</v>
+      </c>
+      <c r="B48" s="5">
+        <v>9.4</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A49" s="3" t="s">
+        <v>385</v>
+      </c>
+      <c r="B49" s="5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A50" s="3" t="s">
+        <v>386</v>
+      </c>
+      <c r="B50" s="5">
+        <v>13.9</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A51" s="3" t="s">
+        <v>387</v>
+      </c>
+      <c r="B51" s="5">
+        <v>13.9</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A52" s="3" t="s">
+        <v>388</v>
+      </c>
+      <c r="B52" s="5">
+        <v>13.9</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A53" s="3" t="s">
+        <v>389</v>
+      </c>
+      <c r="B53" s="5">
+        <v>13.9</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A54" s="3" t="s">
+        <v>390</v>
+      </c>
+      <c r="B54" s="5">
+        <v>13.9</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A55" s="1">
+        <v>44261</v>
+      </c>
+      <c r="B55" s="5">
+        <v>11.4</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A56" s="1">
+        <v>44292</v>
+      </c>
+      <c r="B56" s="5">
+        <v>11.4</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A57" s="1">
+        <v>44322</v>
+      </c>
+      <c r="B57" s="5">
+        <v>11.4</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A58" s="1">
+        <v>44353</v>
+      </c>
+      <c r="B58" s="5">
+        <v>11.4</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A59" s="1">
+        <v>44383</v>
+      </c>
+      <c r="B59" s="5">
+        <v>11.4</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A60" s="1">
+        <v>44414</v>
+      </c>
+      <c r="B60" s="5">
+        <v>11.4</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A61" s="1">
+        <v>44445</v>
+      </c>
+      <c r="B61" s="5">
+        <v>11.4</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A62" s="1">
+        <v>44475</v>
+      </c>
+      <c r="B62" s="5">
+        <v>16.2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A63" s="1">
+        <v>44506</v>
+      </c>
+      <c r="B63" s="5">
+        <v>16.2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A64" s="1">
+        <v>44536</v>
+      </c>
+      <c r="B64" s="5">
+        <v>16.2</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A65" s="3" t="s">
+        <v>391</v>
+      </c>
+      <c r="B65" s="5">
+        <v>16.2</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A66" s="3" t="s">
+        <v>392</v>
+      </c>
+      <c r="B66" s="5">
+        <v>16.2</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A67" s="3" t="s">
+        <v>393</v>
+      </c>
+      <c r="B67" s="5">
+        <v>16.2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A68" s="3" t="s">
+        <v>394</v>
+      </c>
+      <c r="B68" s="5">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A69" s="3" t="s">
+        <v>395</v>
+      </c>
+      <c r="B69" s="5">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A70" s="3" t="s">
+        <v>396</v>
+      </c>
+      <c r="B70" s="5">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A71" s="3" t="s">
+        <v>397</v>
+      </c>
+      <c r="B71" s="5">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A72" s="3" t="s">
+        <v>398</v>
+      </c>
+      <c r="B72" s="5">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A73" s="3" t="s">
+        <v>399</v>
+      </c>
+      <c r="B73" s="5">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A74" s="3" t="s">
+        <v>400</v>
+      </c>
+      <c r="B74" s="5">
+        <v>9.1999999999999993</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A75" s="3" t="s">
+        <v>401</v>
+      </c>
+      <c r="B75" s="5">
+        <v>9.1999999999999993</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A76" s="3" t="s">
+        <v>402</v>
+      </c>
+      <c r="B76" s="5">
+        <v>9.1999999999999993</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A77" s="3" t="s">
+        <v>403</v>
+      </c>
+      <c r="B77" s="5">
+        <v>9.1999999999999993</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A78" s="3" t="s">
+        <v>404</v>
+      </c>
+      <c r="B78" s="5">
+        <v>9.1999999999999993</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A79" s="3" t="s">
+        <v>405</v>
+      </c>
+      <c r="B79" s="5">
+        <v>9.1999999999999993</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A80" s="3" t="s">
+        <v>406</v>
+      </c>
+      <c r="B80" s="5">
+        <v>9.1999999999999993</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A81" s="1">
+        <v>44203</v>
+      </c>
+      <c r="B81" s="5">
+        <v>22.2</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A82" s="1">
+        <v>44234</v>
+      </c>
+      <c r="B82" s="5">
+        <v>17.100000000000001</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A83" s="1">
+        <v>44262</v>
+      </c>
+      <c r="B83" s="5">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A84" s="1">
+        <v>44293</v>
+      </c>
+      <c r="B84" s="5">
+        <v>25.4</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A85" s="1">
+        <v>44323</v>
+      </c>
+      <c r="B85" s="5">
+        <v>25.4</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A86" s="1">
+        <v>44384</v>
+      </c>
+      <c r="B86" s="5">
+        <v>24.3</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A87" s="1">
+        <v>44415</v>
+      </c>
+      <c r="B87" s="5">
+        <v>5.8</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A88" s="1">
+        <v>44446</v>
+      </c>
+      <c r="B88" s="5">
+        <v>5.8</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A89" s="1">
+        <v>44476</v>
+      </c>
+      <c r="B89" s="5">
+        <v>5.8</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A90" s="1">
+        <v>44507</v>
+      </c>
+      <c r="B90" s="5">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A91" s="1">
+        <v>44537</v>
+      </c>
+      <c r="B91" s="5">
+        <v>27.1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A92" s="3" t="s">
+        <v>407</v>
+      </c>
+      <c r="B92" s="5">
+        <v>11.2</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A93" s="3" t="s">
+        <v>408</v>
+      </c>
+      <c r="B93" s="5">
+        <v>11.2</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A94" s="3" t="s">
+        <v>409</v>
+      </c>
+      <c r="B94" s="5">
+        <v>11.2</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A95" s="3" t="s">
+        <v>410</v>
+      </c>
+      <c r="B95" s="5">
+        <v>10.8</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A96" s="3" t="s">
+        <v>411</v>
+      </c>
+      <c r="B96" s="5">
+        <v>10.8</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A97" s="3" t="s">
+        <v>412</v>
+      </c>
+      <c r="B97" s="5">
+        <v>10.8</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A98" s="3" t="s">
+        <v>413</v>
+      </c>
+      <c r="B98" s="5">
+        <v>11.1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A99" s="3" t="s">
+        <v>414</v>
+      </c>
+      <c r="B99" s="5">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A100" s="3" t="s">
+        <v>415</v>
+      </c>
+      <c r="B100" s="5">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A101" s="3" t="s">
+        <v>416</v>
+      </c>
+      <c r="B101" s="5">
+        <v>13.1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A102" s="3" t="s">
+        <v>417</v>
+      </c>
+      <c r="B102" s="5">
+        <v>13.1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A103" s="3" t="s">
+        <v>418</v>
+      </c>
+      <c r="B103" s="5">
+        <v>13.1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A104" s="3" t="s">
+        <v>419</v>
+      </c>
+      <c r="B104" s="5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A105" s="3" t="s">
+        <v>420</v>
+      </c>
+      <c r="B105" s="5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A106" s="1">
+        <v>44204</v>
+      </c>
+      <c r="B106" s="5">
+        <v>12.9</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A107" s="1">
+        <v>44235</v>
+      </c>
+      <c r="B107" s="5">
+        <v>12.9</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A108" s="1">
+        <v>44263</v>
+      </c>
+      <c r="B108" s="5">
+        <v>12.9</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A109" s="1">
+        <v>44294</v>
+      </c>
+      <c r="B109" s="5">
+        <v>12.9</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A110" s="1">
+        <v>44324</v>
+      </c>
+      <c r="B110" s="5">
+        <v>12.9</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A111" s="1">
+        <v>44447</v>
+      </c>
+      <c r="B111" s="5">
+        <v>12.2</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A112" s="1">
+        <v>44477</v>
+      </c>
+      <c r="B112" s="5">
+        <v>12.2</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A113" s="1">
+        <v>44508</v>
+      </c>
+      <c r="B113" s="5">
+        <v>12.2</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A114" s="1">
+        <v>44538</v>
+      </c>
+      <c r="B114" s="5">
+        <v>12.1</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A115" s="3" t="s">
+        <v>421</v>
+      </c>
+      <c r="B115" s="5">
+        <v>15.2</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A116" s="3" t="s">
+        <v>422</v>
+      </c>
+      <c r="B116" s="5">
+        <v>17.3</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A117" s="3" t="s">
+        <v>423</v>
+      </c>
+      <c r="B117" s="5">
+        <v>17.3</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A118" s="3" t="s">
+        <v>424</v>
+      </c>
+      <c r="B118" s="5">
+        <v>17.3</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A119" s="3" t="s">
+        <v>425</v>
+      </c>
+      <c r="B119" s="5">
+        <v>16.100000000000001</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A120" s="3" t="s">
+        <v>426</v>
+      </c>
+      <c r="B120" s="5">
+        <v>17.100000000000001</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A121" s="3" t="s">
+        <v>427</v>
+      </c>
+      <c r="B121" s="5">
+        <v>7.8</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A122" s="3" t="s">
+        <v>428</v>
+      </c>
+      <c r="B122" s="5">
+        <v>7.8</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A123" s="3" t="s">
+        <v>429</v>
+      </c>
+      <c r="B123" s="5">
+        <v>7.8</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A124" s="3" t="s">
+        <v>430</v>
+      </c>
+      <c r="B124" s="5">
+        <v>7.8</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A125" s="3" t="s">
+        <v>431</v>
+      </c>
+      <c r="B125" s="5">
+        <v>11.4</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A126" s="3" t="s">
+        <v>432</v>
+      </c>
+      <c r="B126" s="5">
+        <v>11.2</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A127" s="3" t="s">
+        <v>433</v>
+      </c>
+      <c r="B127" s="5">
+        <v>11.4</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A128" s="3" t="s">
+        <v>434</v>
+      </c>
+      <c r="B128" s="5">
+        <v>11.4</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A129" s="1">
+        <v>44325</v>
+      </c>
+      <c r="B129" s="5">
+        <v>12.9</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A130" s="1">
+        <v>44356</v>
+      </c>
+      <c r="B130" s="5">
+        <v>12.9</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A131" s="1">
+        <v>44386</v>
+      </c>
+      <c r="B131" s="5">
+        <v>12.8</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A132" s="1">
+        <v>44448</v>
+      </c>
+      <c r="B132" s="5">
+        <v>17.5</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A133" s="1">
+        <v>44478</v>
+      </c>
+      <c r="B133" s="5">
+        <v>28.2</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A134" s="1">
+        <v>44509</v>
+      </c>
+      <c r="B134" s="5">
+        <v>28.2</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A135" s="1">
+        <v>44539</v>
+      </c>
+      <c r="B135" s="5">
+        <v>28.2</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A136" s="3" t="s">
+        <v>435</v>
+      </c>
+      <c r="B136" s="5">
+        <v>7.9</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A137" s="3" t="s">
+        <v>436</v>
+      </c>
+      <c r="B137" s="5">
+        <v>11.6</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A138" s="3" t="s">
+        <v>437</v>
+      </c>
+      <c r="B138" s="5">
+        <v>10.1</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A139" s="3" t="s">
+        <v>438</v>
+      </c>
+      <c r="B139" s="5">
+        <v>10.1</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A140" s="3" t="s">
+        <v>439</v>
+      </c>
+      <c r="B140" s="5">
+        <v>10.1</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A141" s="3" t="s">
+        <v>440</v>
+      </c>
+      <c r="B141" s="5">
+        <v>10.199999999999999</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A142" s="3" t="s">
+        <v>441</v>
+      </c>
+      <c r="B142" s="5">
+        <v>10.1</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A143" s="3" t="s">
+        <v>442</v>
+      </c>
+      <c r="B143" s="5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A144" s="3" t="s">
+        <v>443</v>
+      </c>
+      <c r="B144" s="5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A145" s="1">
+        <v>44237</v>
+      </c>
+      <c r="B145" s="5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A146" s="1">
+        <v>44265</v>
+      </c>
+      <c r="B146" s="5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A147" s="1">
+        <v>44296</v>
+      </c>
+      <c r="B147" s="5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A148" s="1">
+        <v>44326</v>
+      </c>
+      <c r="B148" s="5">
+        <v>10.1</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A149" s="1">
+        <v>44449</v>
+      </c>
+      <c r="B149" s="5">
+        <v>10.3</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A150" s="1">
+        <v>44479</v>
+      </c>
+      <c r="B150" s="5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A151" s="1">
+        <v>44510</v>
+      </c>
+      <c r="B151" s="5">
+        <v>10.1</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A152" s="1">
+        <v>44540</v>
+      </c>
+      <c r="B152" s="5">
+        <v>10.1</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A153" s="3" t="s">
+        <v>444</v>
+      </c>
+      <c r="B153" s="5">
+        <v>10.1</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A154" s="3" t="s">
+        <v>445</v>
+      </c>
+      <c r="B154" s="5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A155" s="3" t="s">
+        <v>446</v>
+      </c>
+      <c r="B155" s="5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A156" s="3" t="s">
+        <v>447</v>
+      </c>
+      <c r="B156" s="5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A157" s="3" t="s">
+        <v>448</v>
+      </c>
+      <c r="B157" s="5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A158" s="3" t="s">
+        <v>449</v>
+      </c>
+      <c r="B158" s="5">
+        <v>9.6</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A159" s="3" t="s">
+        <v>450</v>
+      </c>
+      <c r="B159" s="5">
+        <v>9.6</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A160" s="3" t="s">
+        <v>451</v>
+      </c>
+      <c r="B160" s="5">
+        <v>9.6</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A161" s="3" t="s">
+        <v>452</v>
+      </c>
+      <c r="B161" s="5">
+        <v>9.6</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A162" s="3" t="s">
+        <v>453</v>
+      </c>
+      <c r="B162" s="5">
+        <v>9.9</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A163" s="1">
+        <v>44207</v>
+      </c>
+      <c r="B163" s="5">
+        <v>9.9</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A164" s="1">
+        <v>44238</v>
+      </c>
+      <c r="B164" s="5">
+        <v>9.6</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A165" s="1">
+        <v>44266</v>
+      </c>
+      <c r="B165" s="5">
+        <v>9.6</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A166" s="1">
+        <v>44327</v>
+      </c>
+      <c r="B166" s="5">
+        <v>9.5</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A167" s="1">
+        <v>44358</v>
+      </c>
+      <c r="B167" s="5">
+        <v>9.4</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A168" s="1">
+        <v>44388</v>
+      </c>
+      <c r="B168" s="5">
+        <v>9.4</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A169" s="1">
+        <v>44419</v>
+      </c>
+      <c r="B169" s="5">
+        <v>9.4</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A170" s="1">
+        <v>44450</v>
+      </c>
+      <c r="B170" s="5">
+        <v>9.3000000000000007</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A171" s="1">
+        <v>44480</v>
+      </c>
+      <c r="B171" s="5">
+        <v>9.3000000000000007</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A172" s="3" t="s">
+        <v>454</v>
+      </c>
+      <c r="B172" s="5">
+        <v>9.3000000000000007</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A173" s="3" t="s">
+        <v>455</v>
+      </c>
+      <c r="B173" s="5">
+        <v>9.4</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A174" s="3" t="s">
+        <v>456</v>
+      </c>
+      <c r="B174" s="5">
+        <v>9.4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12AA9BAA-E3F5-40EE-BC7B-22893B26F7D0}">
   <dimension ref="A1:D176"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="B174" sqref="A1:B174"/>
+    <sheetView zoomScale="88" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6320,7 +8047,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB957D0E-C1D3-4DE8-9D35-A9D8A8951233}">
   <dimension ref="A1:B71"/>
   <sheetViews>
@@ -6907,7 +8634,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C5F8EFB-CA14-4021-AA8B-5C6B702C125E}">
   <dimension ref="A1:D176"/>
   <sheetViews>
@@ -8325,7 +10052,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADF72B8C-4724-4CAA-A8AF-3DC314968759}">
   <dimension ref="A1:B71"/>
   <sheetViews>
@@ -8912,7 +10639,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81ACF73D-EE59-44A3-A7D9-13D9B876FD8D}">
   <dimension ref="A1:D176"/>
   <sheetViews>
